--- a/MagicalDiscoveries.xlsx
+++ b/MagicalDiscoveries.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Prg\Stellaris\MagicalDiscoveries E\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E932874-41E2-4FE8-B253-3333C52EC497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD41DDC5-8685-424F-A1C3-DAC4C65A05AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{33EBD46C-414F-4B8E-A737-7C9375C5AD2F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="3" xr2:uid="{33EBD46C-414F-4B8E-A737-7C9375C5AD2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="131">
   <si>
     <t>中型ミスリル装甲</t>
   </si>
@@ -187,9 +188,6 @@
   <si>
     <t>小型事象崩壊砲</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>クサナギノツヨシ</t>
   </si>
   <si>
     <t>クサナギノツヨシ</t>
@@ -571,7 +569,49 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>missile speed</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>missile evasion</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>missile retarget range</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>missile health</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>missile armor</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>missile shield</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マローダーミサイル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>試作ロンギヌスの槍</t>
+    <rPh sb="0" eb="2">
+      <t>シサク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヤリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>ロンギヌスの槍</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ロンギヌスの槍α</t>
     <rPh sb="6" eb="7">
       <t>ヤリ</t>
     </rPh>
@@ -582,10 +622,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="186" formatCode="0_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,6 +665,12 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -832,7 +879,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -944,13 +991,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1103,25 +1144,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1176,6 +1202,69 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3948,7 +4037,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$18</c:f>
+              <c:f>Sheet2!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3961,8 +4050,8 @@
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:prstDash val="sysDot"/>
@@ -3990,7 +4079,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$C$17:$L$17</c:f>
+              <c:f>Sheet2!$C$14:$L$14</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4029,7 +4118,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$18:$L$18</c:f>
+              <c:f>Sheet2!$C$15:$L$15</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4078,7 +4167,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$19</c:f>
+              <c:f>Sheet2!$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4091,8 +4180,8 @@
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:prstDash val="sysDash"/>
@@ -4117,7 +4206,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$19:$L$19</c:f>
+              <c:f>Sheet2!$C$16:$L$16</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4166,7 +4255,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$20</c:f>
+              <c:f>Sheet2!$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4179,7 +4268,8 @@
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1">
-                  <a:lumMod val="50000"/>
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:prstDash val="dash"/>
@@ -4204,7 +4294,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$20:$L$20</c:f>
+              <c:f>Sheet2!$C$17:$L$17</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4253,7 +4343,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$21</c:f>
+              <c:f>Sheet2!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4265,8 +4355,12 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4288,7 +4382,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$21:$L$21</c:f>
+              <c:f>Sheet2!$C$18:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4337,7 +4431,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$22</c:f>
+              <c:f>Sheet2!$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4349,8 +4443,12 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4360,11 +4458,17 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent5"/>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -4372,7 +4476,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$22:$L$22</c:f>
+              <c:f>Sheet2!$C$19:$L$19</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4421,365 +4525,11 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$23</c:f>
+              <c:f>Sheet2!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>大型事象崩壊砲</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$C$23:$L$23</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.35000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.25000000000000011</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.15000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.0000000000000044E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000012-AB6D-4977-999B-CC1E23829B9F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$A$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>クサナギノツヨシ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$C$27:$L$27</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.98</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.88</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.78</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.67999999999999994</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.57999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.48</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.17999999999999994</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.999999999999996E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000013-AB6D-4977-999B-CC1E23829B9F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$A$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>小型神の吐息</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$C$24:$L$24</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.86</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.7599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.65999999999999992</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000014-AB6D-4977-999B-CC1E23829B9F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>中型神の吐息</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$C$25:$L$25</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.86</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.76</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.65999999999999992</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.55999999999999994</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000015-AB6D-4977-999B-CC1E23829B9F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$A$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>大型神の吐息</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4788,9 +4538,10 @@
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4801,13 +4552,13 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
               </a:ln>
@@ -4816,39 +4567,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$26:$L$26</c:f>
+              <c:f>Sheet2!$C$20:$L$20</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.96</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.96</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.86</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.76</c:v>
+                  <c:v>0.35000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.66</c:v>
+                  <c:v>0.25000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.55999999999999994</c:v>
+                  <c:v>0.15000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.45999999999999996</c:v>
+                  <c:v>5.0000000000000044E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4856,7 +4607,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000016-AB6D-4977-999B-CC1E23829B9F}"/>
+              <c16:uniqueId val="{00000012-AB6D-4977-999B-CC1E23829B9F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8630,16 +8381,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>43143</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>191059</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>767043</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>181534</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>377078</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>234761</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1100978</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>225236</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8966,48 +8717,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78745F3-E409-4161-8013-11F6ADA667F6}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="5" width="11.875" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="104" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="113" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="97" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="106" customWidth="1"/>
     <col min="8" max="17" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="53" t="s">
-        <v>118</v>
-      </c>
-      <c r="J1" s="54" t="s">
-        <v>120</v>
+      <c r="I1" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="52" t="s">
+        <v>119</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
@@ -9022,40 +8773,40 @@
         <v>8</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A2" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="85">
+      <c r="A2" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="83">
         <v>10</v>
       </c>
-      <c r="C2" s="58">
+      <c r="C2" s="56">
         <v>0</v>
       </c>
-      <c r="D2" s="58">
+      <c r="D2" s="56">
         <v>0</v>
       </c>
-      <c r="E2" s="58">
+      <c r="E2" s="56">
         <v>0</v>
       </c>
-      <c r="F2" s="98">
+      <c r="F2" s="91">
         <v>50</v>
       </c>
-      <c r="G2" s="107">
+      <c r="G2" s="100">
         <v>0</v>
       </c>
-      <c r="H2" s="59">
+      <c r="H2" s="57">
         <f>Q2</f>
         <v>0.8</v>
       </c>
-      <c r="I2" s="59">
+      <c r="I2" s="57">
         <f>(F2+30*G2)/(B2*4+C2*30+D2*85+E2*200)</f>
         <v>1.25</v>
       </c>
-      <c r="J2" s="60">
+      <c r="J2" s="58">
         <f>P2</f>
         <v>0.8</v>
       </c>
@@ -9084,7 +8835,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="54" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
@@ -9099,10 +8850,10 @@
       <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="F3" s="99">
+      <c r="F3" s="92">
         <v>125</v>
       </c>
-      <c r="G3" s="108">
+      <c r="G3" s="101">
         <v>0</v>
       </c>
       <c r="H3" s="3">
@@ -9127,7 +8878,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="54" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="6">
@@ -9142,10 +8893,10 @@
       <c r="E4" s="7">
         <v>0</v>
       </c>
-      <c r="F4" s="100">
+      <c r="F4" s="93">
         <v>300</v>
       </c>
-      <c r="G4" s="109">
+      <c r="G4" s="102">
         <v>0</v>
       </c>
       <c r="H4" s="10">
@@ -9170,8 +8921,8 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A5" s="85" t="s">
-        <v>104</v>
+      <c r="A5" s="83" t="s">
+        <v>103</v>
       </c>
       <c r="B5" s="4">
         <v>29</v>
@@ -9185,10 +8936,10 @@
       <c r="E5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" s="99">
+      <c r="F5" s="92">
         <v>50</v>
       </c>
-      <c r="G5" s="108">
+      <c r="G5" s="101">
         <v>0</v>
       </c>
       <c r="H5" s="3">
@@ -9204,10 +8955,10 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="L5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P5" s="9">
         <f t="shared" si="4"/>
@@ -9220,7 +8971,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="4">
         <v>57</v>
@@ -9234,10 +8985,10 @@
       <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="99">
+      <c r="F6" s="92">
         <v>125</v>
       </c>
-      <c r="G6" s="108">
+      <c r="G6" s="101">
         <v>0</v>
       </c>
       <c r="H6" s="3">
@@ -9253,7 +9004,7 @@
         <v>1.8240000000000001</v>
       </c>
       <c r="K6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L6">
         <v>0.8</v>
@@ -9272,7 +9023,7 @@
     </row>
     <row r="7" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="4">
         <v>114</v>
@@ -9286,10 +9037,10 @@
       <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="F7" s="99">
+      <c r="F7" s="92">
         <v>300</v>
       </c>
-      <c r="G7" s="108">
+      <c r="G7" s="101">
         <v>0</v>
       </c>
       <c r="H7" s="3">
@@ -9305,7 +9056,7 @@
         <v>1.52</v>
       </c>
       <c r="K7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L7">
         <v>0.6</v>
@@ -9324,35 +9075,35 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="85">
+        <v>67</v>
+      </c>
+      <c r="B8" s="83">
         <v>11</v>
       </c>
-      <c r="C8" s="58">
+      <c r="C8" s="56">
         <v>22</v>
       </c>
-      <c r="D8" s="58">
+      <c r="D8" s="56">
         <v>0</v>
       </c>
-      <c r="E8" s="58">
+      <c r="E8" s="56">
         <v>0</v>
       </c>
-      <c r="F8" s="101">
+      <c r="F8" s="94">
         <v>160</v>
       </c>
-      <c r="G8" s="110">
+      <c r="G8" s="103">
         <v>1</v>
       </c>
-      <c r="H8" s="59">
+      <c r="H8" s="57">
         <f t="shared" si="1"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="I8" s="59">
+      <c r="I8" s="57">
         <f t="shared" si="2"/>
         <v>0.26988636363636365</v>
       </c>
-      <c r="J8" s="60">
+      <c r="J8" s="58">
         <f t="shared" si="3"/>
         <v>3.7052631578947368</v>
       </c>
@@ -9381,10 +9132,10 @@
       <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="102">
+      <c r="F9" s="95">
         <v>400</v>
       </c>
-      <c r="G9" s="111">
+      <c r="G9" s="104">
         <v>1</v>
       </c>
       <c r="H9" s="3">
@@ -9424,10 +9175,10 @@
       <c r="E10" s="7">
         <v>0</v>
       </c>
-      <c r="F10" s="103">
+      <c r="F10" s="96">
         <v>920</v>
       </c>
-      <c r="G10" s="112">
+      <c r="G10" s="105">
         <v>1</v>
       </c>
       <c r="H10" s="10">
@@ -9452,8 +9203,8 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A11" s="85" t="s">
-        <v>69</v>
+      <c r="A11" s="83" t="s">
+        <v>68</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" ref="B11:E13" si="5">B8*$L$6</f>
@@ -9471,11 +9222,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F11" s="99">
+      <c r="F11" s="92">
         <f t="shared" ref="F11:G13" si="6">F8*$L$7</f>
         <v>96</v>
       </c>
-      <c r="G11" s="108">
+      <c r="G11" s="101">
         <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
@@ -9502,7 +9253,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="5"/>
@@ -9520,11 +9271,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F12" s="99">
+      <c r="F12" s="92">
         <f t="shared" si="6"/>
         <v>240</v>
       </c>
-      <c r="G12" s="108">
+      <c r="G12" s="101">
         <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
@@ -9551,7 +9302,7 @@
     </row>
     <row r="13" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="5"/>
@@ -9569,11 +9320,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F13" s="99">
+      <c r="F13" s="92">
         <f t="shared" si="6"/>
         <v>552</v>
       </c>
-      <c r="G13" s="108">
+      <c r="G13" s="101">
         <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
@@ -9599,42 +9350,42 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A14" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="85">
+      <c r="A14" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="83">
         <f t="shared" ref="B14:E16" si="8">B8*$M$6</f>
         <v>13.2</v>
       </c>
-      <c r="C14" s="58">
+      <c r="C14" s="56">
         <f t="shared" si="8"/>
         <v>26.4</v>
       </c>
-      <c r="D14" s="58">
+      <c r="D14" s="56">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E14" s="58">
+      <c r="E14" s="56">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F14" s="98">
+      <c r="F14" s="91">
         <f t="shared" ref="F14:G16" si="9">F8*$M$7</f>
         <v>240</v>
       </c>
-      <c r="G14" s="107">
+      <c r="G14" s="100">
         <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
-      <c r="H14" s="59">
+      <c r="H14" s="57">
         <f t="shared" ref="H14:H25" si="10">Q14</f>
         <v>3.52</v>
       </c>
-      <c r="I14" s="59">
+      <c r="I14" s="57">
         <f t="shared" si="2"/>
         <v>0.33735795454545459</v>
       </c>
-      <c r="J14" s="60">
+      <c r="J14" s="58">
         <f t="shared" ref="J14:J25" si="11">P14</f>
         <v>2.9642105263157892</v>
       </c>
@@ -9649,7 +9400,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="8"/>
@@ -9667,11 +9418,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F15" s="99">
+      <c r="F15" s="92">
         <f t="shared" si="9"/>
         <v>600</v>
       </c>
-      <c r="G15" s="108">
+      <c r="G15" s="101">
         <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
@@ -9698,7 +9449,7 @@
     </row>
     <row r="16" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" s="6">
         <f t="shared" si="8"/>
@@ -9716,11 +9467,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F16" s="100">
+      <c r="F16" s="93">
         <f t="shared" si="9"/>
         <v>1380</v>
       </c>
-      <c r="G16" s="109">
+      <c r="G16" s="102">
         <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
@@ -9747,7 +9498,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="4">
         <v>22</v>
@@ -9761,10 +9512,10 @@
       <c r="E17" s="2">
         <v>0</v>
       </c>
-      <c r="F17" s="102">
+      <c r="F17" s="95">
         <v>280</v>
       </c>
-      <c r="G17" s="111">
+      <c r="G17" s="104">
         <v>1.5</v>
       </c>
       <c r="H17" s="3">
@@ -9790,7 +9541,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B18" s="4">
         <v>44</v>
@@ -9804,10 +9555,10 @@
       <c r="E18" s="2">
         <v>0</v>
       </c>
-      <c r="F18" s="102">
+      <c r="F18" s="95">
         <v>700</v>
       </c>
-      <c r="G18" s="111">
+      <c r="G18" s="104">
         <v>1.5</v>
       </c>
       <c r="H18" s="3">
@@ -9847,10 +9598,10 @@
       <c r="E19" s="2">
         <v>0</v>
       </c>
-      <c r="F19" s="102">
+      <c r="F19" s="95">
         <v>1700</v>
       </c>
-      <c r="G19" s="111">
+      <c r="G19" s="104">
         <v>1.5</v>
       </c>
       <c r="H19" s="3">
@@ -9875,42 +9626,42 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A20" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="85">
+      <c r="A20" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="83">
         <f t="shared" ref="B20:E22" si="12">B17*$L$6</f>
         <v>17.600000000000001</v>
       </c>
-      <c r="C20" s="58">
+      <c r="C20" s="56">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="D20" s="58">
+      <c r="D20" s="56">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
-      <c r="E20" s="58">
+      <c r="E20" s="56">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F20" s="98">
+      <c r="F20" s="91">
         <f t="shared" ref="F20:G22" si="13">F17*$L$7</f>
         <v>168</v>
       </c>
-      <c r="G20" s="107">
+      <c r="G20" s="100">
         <f t="shared" si="13"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="H20" s="59">
+      <c r="H20" s="57">
         <f t="shared" si="10"/>
         <v>6.4904761904761914</v>
       </c>
-      <c r="I20" s="59">
+      <c r="I20" s="57">
         <f t="shared" si="2"/>
         <v>0.17883345561261921</v>
       </c>
-      <c r="J20" s="60">
+      <c r="J20" s="58">
         <f t="shared" si="11"/>
         <v>5.591794871794872</v>
       </c>
@@ -9925,7 +9676,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="12"/>
@@ -9943,11 +9694,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F21" s="99">
+      <c r="F21" s="92">
         <f t="shared" si="13"/>
         <v>420</v>
       </c>
-      <c r="G21" s="108">
+      <c r="G21" s="101">
         <f t="shared" si="13"/>
         <v>0.89999999999999991</v>
       </c>
@@ -9974,7 +9725,7 @@
     </row>
     <row r="22" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B22" s="6">
         <f t="shared" si="12"/>
@@ -9992,11 +9743,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F22" s="100">
+      <c r="F22" s="93">
         <f t="shared" si="13"/>
         <v>1020</v>
       </c>
-      <c r="G22" s="109">
+      <c r="G22" s="102">
         <f t="shared" si="13"/>
         <v>0.89999999999999991</v>
       </c>
@@ -10023,7 +9774,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" ref="B23:E25" si="14">B17*$M$6</f>
@@ -10041,11 +9792,11 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F23" s="99">
+      <c r="F23" s="92">
         <f t="shared" ref="F23:G25" si="15">F17*$M$7</f>
         <v>420</v>
       </c>
-      <c r="G23" s="108">
+      <c r="G23" s="101">
         <f t="shared" si="15"/>
         <v>2.25</v>
       </c>
@@ -10072,7 +9823,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="14"/>
@@ -10090,11 +9841,11 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F24" s="99">
+      <c r="F24" s="92">
         <f t="shared" si="15"/>
         <v>1050</v>
       </c>
-      <c r="G24" s="108">
+      <c r="G24" s="101">
         <f t="shared" si="15"/>
         <v>2.25</v>
       </c>
@@ -10121,7 +9872,7 @@
     </row>
     <row r="25" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="14"/>
@@ -10139,11 +9890,11 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F25" s="99">
+      <c r="F25" s="92">
         <f t="shared" si="15"/>
         <v>2550</v>
       </c>
-      <c r="G25" s="108">
+      <c r="G25" s="101">
         <f t="shared" si="15"/>
         <v>2.25</v>
       </c>
@@ -10170,35 +9921,35 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="85">
+        <v>81</v>
+      </c>
+      <c r="B26" s="83">
         <v>22</v>
       </c>
-      <c r="C26" s="58">
+      <c r="C26" s="56">
         <v>0</v>
       </c>
-      <c r="D26" s="58">
+      <c r="D26" s="56">
         <v>0</v>
       </c>
-      <c r="E26" s="58">
+      <c r="E26" s="56">
         <v>11</v>
       </c>
-      <c r="F26" s="101">
+      <c r="F26" s="94">
         <v>400</v>
       </c>
-      <c r="G26" s="110">
+      <c r="G26" s="103">
         <v>2.5</v>
       </c>
-      <c r="H26" s="59">
+      <c r="H26" s="57">
         <f>Q26</f>
         <v>5.72</v>
       </c>
-      <c r="I26" s="59">
+      <c r="I26" s="57">
         <f t="shared" si="2"/>
         <v>0.2076048951048951</v>
       </c>
-      <c r="J26" s="60">
+      <c r="J26" s="58">
         <f>P26</f>
         <v>4.8168421052631576</v>
       </c>
@@ -10213,7 +9964,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B27" s="4">
         <v>44</v>
@@ -10227,10 +9978,10 @@
       <c r="E27" s="2">
         <v>22</v>
       </c>
-      <c r="F27" s="102">
+      <c r="F27" s="95">
         <v>1000</v>
       </c>
-      <c r="G27" s="111">
+      <c r="G27" s="104">
         <v>2.5</v>
       </c>
       <c r="H27" s="3">
@@ -10270,10 +10021,10 @@
       <c r="E28" s="7">
         <v>44</v>
       </c>
-      <c r="F28" s="103">
+      <c r="F28" s="96">
         <v>2200</v>
       </c>
-      <c r="G28" s="112">
+      <c r="G28" s="105">
         <v>2.5</v>
       </c>
       <c r="H28" s="10">
@@ -10298,42 +10049,42 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A29" s="85" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="85">
+      <c r="A29" s="83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="83">
         <f t="shared" ref="B29:E31" si="16">B26*$L$6</f>
         <v>17.600000000000001</v>
       </c>
-      <c r="C29" s="58">
+      <c r="C29" s="56">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="D29" s="58">
+      <c r="D29" s="56">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="E29" s="58">
+      <c r="E29" s="56">
         <f t="shared" si="16"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="F29" s="98">
+      <c r="F29" s="91">
         <f t="shared" ref="F29:G31" si="17">F26*$L$7</f>
         <v>240</v>
       </c>
-      <c r="G29" s="107">
+      <c r="G29" s="100">
         <f t="shared" si="17"/>
         <v>1.5</v>
       </c>
-      <c r="H29" s="59">
+      <c r="H29" s="57">
         <f t="shared" ref="H29:H34" si="18">Q29</f>
         <v>7.6266666666666678</v>
       </c>
-      <c r="I29" s="59">
+      <c r="I29" s="57">
         <f t="shared" si="2"/>
         <v>0.1557036713286713</v>
       </c>
-      <c r="J29" s="60">
+      <c r="J29" s="58">
         <f t="shared" ref="J29:J34" si="19">P29</f>
         <v>6.422456140350878</v>
       </c>
@@ -10348,7 +10099,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B30" s="4">
         <f t="shared" si="16"/>
@@ -10366,11 +10117,11 @@
         <f t="shared" si="16"/>
         <v>17.600000000000001</v>
       </c>
-      <c r="F30" s="99">
+      <c r="F30" s="92">
         <f t="shared" si="17"/>
         <v>600</v>
       </c>
-      <c r="G30" s="108">
+      <c r="G30" s="101">
         <f t="shared" si="17"/>
         <v>1.5</v>
       </c>
@@ -10397,7 +10148,7 @@
     </row>
     <row r="31" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B31" s="6">
         <f t="shared" si="16"/>
@@ -10415,11 +10166,11 @@
         <f t="shared" si="16"/>
         <v>35.200000000000003</v>
       </c>
-      <c r="F31" s="100">
+      <c r="F31" s="93">
         <f t="shared" si="17"/>
         <v>1320</v>
       </c>
-      <c r="G31" s="109">
+      <c r="G31" s="102">
         <f t="shared" si="17"/>
         <v>1.5</v>
       </c>
@@ -10445,42 +10196,42 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A32" s="85" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" s="85">
+      <c r="A32" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="83">
         <f t="shared" ref="B32:E34" si="20">B26*$M$6</f>
         <v>26.4</v>
       </c>
-      <c r="C32" s="58">
+      <c r="C32" s="56">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="D32" s="58">
+      <c r="D32" s="56">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="E32" s="58">
+      <c r="E32" s="56">
         <f t="shared" si="20"/>
         <v>13.2</v>
       </c>
-      <c r="F32" s="98">
+      <c r="F32" s="91">
         <f t="shared" ref="F32:G34" si="21">F26*$M$7</f>
         <v>600</v>
       </c>
-      <c r="G32" s="107">
+      <c r="G32" s="100">
         <f t="shared" si="21"/>
         <v>3.75</v>
       </c>
-      <c r="H32" s="59">
+      <c r="H32" s="57">
         <f t="shared" si="18"/>
         <v>4.5759999999999996</v>
       </c>
-      <c r="I32" s="59">
+      <c r="I32" s="57">
         <f t="shared" si="2"/>
         <v>0.25950611888111891</v>
       </c>
-      <c r="J32" s="60">
+      <c r="J32" s="58">
         <f t="shared" si="19"/>
         <v>3.8534736842105262</v>
       </c>
@@ -10495,7 +10246,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B33" s="4">
         <f t="shared" si="20"/>
@@ -10513,11 +10264,11 @@
         <f t="shared" si="20"/>
         <v>26.4</v>
       </c>
-      <c r="F33" s="99">
+      <c r="F33" s="92">
         <f t="shared" si="21"/>
         <v>1500</v>
       </c>
-      <c r="G33" s="108">
+      <c r="G33" s="101">
         <f t="shared" si="21"/>
         <v>3.75</v>
       </c>
@@ -10544,7 +10295,7 @@
     </row>
     <row r="34" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B34" s="6">
         <f t="shared" si="20"/>
@@ -10562,11 +10313,11 @@
         <f t="shared" si="20"/>
         <v>52.8</v>
       </c>
-      <c r="F34" s="100">
+      <c r="F34" s="93">
         <f t="shared" si="21"/>
         <v>3300</v>
       </c>
-      <c r="G34" s="109">
+      <c r="G34" s="102">
         <f t="shared" si="21"/>
         <v>3.75</v>
       </c>
@@ -10593,45 +10344,45 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D36" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" t="s">
         <v>94</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" s="97" t="s">
+        <v>89</v>
+      </c>
+      <c r="G36" s="106" t="s">
+        <v>92</v>
+      </c>
+      <c r="H36" t="s">
         <v>95</v>
       </c>
-      <c r="F36" s="104" t="s">
-        <v>90</v>
-      </c>
-      <c r="G36" s="113" t="s">
-        <v>93</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
+        <v>91</v>
+      </c>
+      <c r="J36" t="s">
         <v>96</v>
       </c>
-      <c r="I36" t="s">
-        <v>92</v>
-      </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>97</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>98</v>
-      </c>
-      <c r="L36" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B37" s="9">
         <f>J2</f>
@@ -10649,11 +10400,11 @@
         <f>J11</f>
         <v>4.9403508771929827</v>
       </c>
-      <c r="F37" s="105">
+      <c r="F37" s="98">
         <f>J14</f>
         <v>2.9642105263157892</v>
       </c>
-      <c r="G37" s="114">
+      <c r="G37" s="107">
         <f>J17</f>
         <v>4.1938461538461542</v>
       </c>
@@ -10680,7 +10431,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B38" s="9">
         <f t="shared" ref="B38:B39" si="22">J3</f>
@@ -10698,11 +10449,11 @@
         <f>J12</f>
         <v>4.365891472868217</v>
       </c>
-      <c r="F38" s="105">
+      <c r="F38" s="98">
         <f>J15</f>
         <v>2.61953488372093</v>
       </c>
-      <c r="G38" s="114">
+      <c r="G38" s="107">
         <f>J18</f>
         <v>3.6590604026845637</v>
       </c>
@@ -10729,7 +10480,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B39" s="9">
         <f t="shared" si="22"/>
@@ -10747,11 +10498,11 @@
         <f>J13</f>
         <v>3.9522807017543862</v>
       </c>
-      <c r="F39" s="105">
+      <c r="F39" s="98">
         <f>J16</f>
         <v>2.3713684210526313</v>
       </c>
-      <c r="G39" s="114">
+      <c r="G39" s="107">
         <f>J19</f>
         <v>3.124355300859599</v>
       </c>
@@ -10778,45 +10529,45 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" t="s">
         <v>94</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" s="97" t="s">
+        <v>89</v>
+      </c>
+      <c r="G41" s="106" t="s">
+        <v>92</v>
+      </c>
+      <c r="H41" t="s">
         <v>95</v>
       </c>
-      <c r="F41" s="104" t="s">
-        <v>90</v>
-      </c>
-      <c r="G41" s="113" t="s">
-        <v>93</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
+        <v>91</v>
+      </c>
+      <c r="J41" t="s">
         <v>96</v>
       </c>
-      <c r="I41" t="s">
-        <v>92</v>
-      </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>97</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>98</v>
-      </c>
-      <c r="L41" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B42" s="9">
         <f>$I2</f>
@@ -10834,11 +10585,11 @@
         <f>$I11</f>
         <v>0.20241477272727271</v>
       </c>
-      <c r="F42" s="105">
+      <c r="F42" s="98">
         <f>$I14</f>
         <v>0.33735795454545459</v>
       </c>
-      <c r="G42" s="114">
+      <c r="G42" s="107">
         <f>$I17</f>
         <v>0.2384446074834923</v>
       </c>
@@ -10865,7 +10616,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B43" s="9">
         <f t="shared" ref="B43:B44" si="25">$I3</f>
@@ -10883,11 +10634,11 @@
         <f t="shared" ref="E43:E44" si="28">$I12</f>
         <v>0.22904829545454544</v>
       </c>
-      <c r="F43" s="105">
+      <c r="F43" s="98">
         <f t="shared" ref="F43:F44" si="29">$I15</f>
         <v>0.38174715909090912</v>
       </c>
-      <c r="G43" s="114">
+      <c r="G43" s="107">
         <f t="shared" ref="G43:G44" si="30">$I18</f>
         <v>0.27329420396184884</v>
       </c>
@@ -10914,7 +10665,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B44" s="9">
         <f t="shared" si="25"/>
@@ -10932,11 +10683,11 @@
         <f t="shared" si="28"/>
         <v>0.25301846590909088</v>
       </c>
-      <c r="F44" s="105">
+      <c r="F44" s="98">
         <f t="shared" si="29"/>
         <v>0.42169744318181823</v>
       </c>
-      <c r="G44" s="114">
+      <c r="G44" s="107">
         <f t="shared" si="30"/>
         <v>0.32006603081438006</v>
       </c>
@@ -10985,929 +10736,929 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="63" t="s">
+      <c r="B1" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="63" t="s">
+      <c r="J1" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="J1" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="L1" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="M1" s="65" t="s">
+      <c r="K1" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="M1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="65" t="s">
+      <c r="N1" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="P1" s="65" t="s">
-        <v>54</v>
+      <c r="O1" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" s="63" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A2" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="67">
+      <c r="A2" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="65">
         <v>15</v>
       </c>
-      <c r="C2" s="67">
+      <c r="C2" s="65">
         <v>5</v>
       </c>
-      <c r="D2" s="67">
+      <c r="D2" s="65">
         <v>0</v>
       </c>
-      <c r="E2" s="68">
+      <c r="E2" s="66">
         <v>0</v>
       </c>
-      <c r="F2" s="67">
+      <c r="F2" s="65">
         <v>0</v>
       </c>
-      <c r="G2" s="67">
+      <c r="G2" s="65">
         <v>50</v>
       </c>
-      <c r="H2" s="67">
+      <c r="H2" s="65">
         <v>0.5</v>
       </c>
-      <c r="I2" s="67">
+      <c r="I2" s="65">
         <f t="shared" ref="I2:I13" si="0">(G2+H2*30)/B2</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="J2" s="67">
+      <c r="J2" s="65">
         <f t="shared" ref="J2:J13" si="1">(C2*$M$2+D2*$N$2+E2*$O$2+F2*$P$2)/G2</f>
         <v>0.4</v>
       </c>
-      <c r="K2" s="67">
-        <f>(G2+H2*100)/(C2*$M$2+D2*$N$2+E2*$O$2+F2*$P$2)</f>
+      <c r="K2" s="65">
+        <f t="shared" ref="K2:K13" si="2">(G2+H2*100)/(C2*$M$2+D2*$N$2+E2*$O$2+F2*$P$2)</f>
         <v>5</v>
       </c>
-      <c r="L2" s="69">
-        <f t="shared" ref="L2:L13" si="2">(C2*$M$2+D2*$N$2+E2*$O$2+F2*$P$2)/(G2+H2*30)</f>
+      <c r="L2" s="67">
+        <f t="shared" ref="L2:L13" si="3">(C2*$M$2+D2*$N$2+E2*$O$2+F2*$P$2)/(G2+H2*30)</f>
         <v>0.30769230769230771</v>
       </c>
-      <c r="M2" s="70">
+      <c r="M2" s="68">
         <v>4</v>
       </c>
-      <c r="N2" s="70">
+      <c r="N2" s="68">
         <v>200</v>
       </c>
-      <c r="O2" s="70">
+      <c r="O2" s="68">
         <v>20</v>
       </c>
-      <c r="P2" s="70">
+      <c r="P2" s="68">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A3" s="66" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="67">
+      <c r="A3" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="65">
         <v>30</v>
       </c>
-      <c r="C3" s="67">
+      <c r="C3" s="65">
         <v>10</v>
       </c>
-      <c r="D3" s="67">
+      <c r="D3" s="65">
         <v>0</v>
       </c>
-      <c r="E3" s="68">
+      <c r="E3" s="66">
         <v>0</v>
       </c>
-      <c r="F3" s="67">
+      <c r="F3" s="65">
         <v>0</v>
       </c>
-      <c r="G3" s="67">
+      <c r="G3" s="65">
         <v>125</v>
       </c>
-      <c r="H3" s="67">
+      <c r="H3" s="65">
         <v>1.25</v>
       </c>
-      <c r="I3" s="67">
+      <c r="I3" s="65">
         <f t="shared" si="0"/>
         <v>5.416666666666667</v>
       </c>
-      <c r="J3" s="67">
+      <c r="J3" s="65">
         <f t="shared" si="1"/>
         <v>0.32</v>
       </c>
-      <c r="K3" s="67">
-        <f>(G3+H3*100)/(C3*$M$2+D3*$N$2+E3*$O$2+F3*$P$2)</f>
+      <c r="K3" s="65">
+        <f t="shared" si="2"/>
         <v>6.25</v>
       </c>
-      <c r="L3" s="69">
-        <f t="shared" si="2"/>
+      <c r="L3" s="67">
+        <f t="shared" si="3"/>
         <v>0.24615384615384617</v>
       </c>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70" t="s">
-        <v>58</v>
-      </c>
-      <c r="O3" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="P3" s="70" t="s">
-        <v>109</v>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="P3" s="68" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="66" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="67">
+      <c r="A4" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="67">
+      <c r="B4" s="65">
+        <v>60</v>
+      </c>
+      <c r="C4" s="65">
         <v>20</v>
       </c>
-      <c r="D4" s="67">
+      <c r="D4" s="65">
         <v>0</v>
       </c>
-      <c r="E4" s="68">
+      <c r="E4" s="66">
         <v>0</v>
       </c>
-      <c r="F4" s="67">
+      <c r="F4" s="65">
         <v>0</v>
       </c>
-      <c r="G4" s="67">
+      <c r="G4" s="65">
         <v>300</v>
       </c>
-      <c r="H4" s="67">
+      <c r="H4" s="65">
         <v>3</v>
       </c>
-      <c r="I4" s="67">
+      <c r="I4" s="65">
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="J4" s="67">
+      <c r="J4" s="65">
         <f t="shared" si="1"/>
         <v>0.26666666666666666</v>
       </c>
-      <c r="K4" s="67">
-        <f>(G4+H4*100)/(C4*$M$2+D4*$N$2+E4*$O$2+F4*$P$2)</f>
+      <c r="K4" s="65">
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
-      <c r="L4" s="69">
-        <f t="shared" si="2"/>
+      <c r="L4" s="67">
+        <f t="shared" si="3"/>
         <v>0.20512820512820512</v>
       </c>
-      <c r="M4" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="N4" s="70">
+      <c r="M4" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="N4" s="68">
         <v>2</v>
       </c>
-      <c r="O4" s="70">
+      <c r="O4" s="68">
         <v>2</v>
       </c>
-      <c r="P4" s="70">
+      <c r="P4" s="68">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A5" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="72">
+      <c r="A5" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="70">
         <v>75</v>
       </c>
-      <c r="C5" s="73">
+      <c r="C5" s="71">
         <v>21</v>
       </c>
-      <c r="D5" s="74">
+      <c r="D5" s="72">
         <v>0</v>
       </c>
-      <c r="E5" s="73">
+      <c r="E5" s="71">
         <v>0.111</v>
       </c>
-      <c r="F5" s="74">
+      <c r="F5" s="72">
         <v>0</v>
       </c>
-      <c r="G5" s="73">
+      <c r="G5" s="71">
         <v>240</v>
       </c>
-      <c r="H5" s="73">
+      <c r="H5" s="71">
         <v>2</v>
       </c>
-      <c r="I5" s="74">
+      <c r="I5" s="72">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J5" s="74">
+      <c r="J5" s="72">
         <f t="shared" si="1"/>
         <v>0.35925000000000001</v>
       </c>
-      <c r="K5" s="74">
-        <f>(G5+H5*100)/(C5*$M$2+D5*$N$2+E5*$O$2+F5*$P$2)</f>
+      <c r="K5" s="72">
+        <f t="shared" si="2"/>
         <v>5.1032243099048946</v>
       </c>
-      <c r="L5" s="75">
-        <f t="shared" si="2"/>
+      <c r="L5" s="73">
+        <f t="shared" si="3"/>
         <v>0.28739999999999999</v>
       </c>
-      <c r="P5" s="70"/>
+      <c r="P5" s="68"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A6" s="76" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="77">
+      <c r="A6" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="75">
         <v>150</v>
       </c>
-      <c r="C6" s="68">
+      <c r="C6" s="66">
         <v>38</v>
       </c>
-      <c r="D6" s="67">
+      <c r="D6" s="65">
         <v>0</v>
       </c>
-      <c r="E6" s="68">
+      <c r="E6" s="66">
         <v>0.222</v>
       </c>
-      <c r="F6" s="67">
+      <c r="F6" s="65">
         <v>0</v>
       </c>
-      <c r="G6" s="68">
+      <c r="G6" s="66">
         <v>600</v>
       </c>
-      <c r="H6" s="68">
+      <c r="H6" s="66">
         <v>5</v>
       </c>
-      <c r="I6" s="67">
+      <c r="I6" s="65">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J6" s="67">
+      <c r="J6" s="65">
         <f t="shared" si="1"/>
         <v>0.26073333333333332</v>
       </c>
-      <c r="K6" s="67">
-        <f>(G6+H6*100)/(C6*$M$2+D6*$N$2+E6*$O$2+F6*$P$2)</f>
+      <c r="K6" s="65">
+        <f t="shared" si="2"/>
         <v>7.0314497570953725</v>
       </c>
-      <c r="L6" s="69">
-        <f t="shared" si="2"/>
+      <c r="L6" s="67">
+        <f t="shared" si="3"/>
         <v>0.20858666666666667</v>
       </c>
-      <c r="P6" s="70"/>
+      <c r="P6" s="68"/>
     </row>
     <row r="7" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="78" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="77">
+      <c r="A7" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="75">
         <v>300</v>
       </c>
-      <c r="C7" s="68">
+      <c r="C7" s="66">
         <v>74</v>
       </c>
-      <c r="D7" s="67">
+      <c r="D7" s="65">
         <v>0</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E7" s="66">
         <v>0.33300000000000002</v>
       </c>
-      <c r="F7" s="67">
+      <c r="F7" s="65">
         <v>0</v>
       </c>
-      <c r="G7" s="68">
+      <c r="G7" s="66">
         <v>1440</v>
       </c>
-      <c r="H7" s="68">
+      <c r="H7" s="66">
         <v>12</v>
       </c>
-      <c r="I7" s="67">
+      <c r="I7" s="65">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J7" s="67">
+      <c r="J7" s="65">
         <f t="shared" si="1"/>
         <v>0.21018055555555556</v>
       </c>
-      <c r="K7" s="67">
-        <f>(G7+H7*100)/(C7*$M$2+D7*$N$2+E7*$O$2+F7*$P$2)</f>
+      <c r="K7" s="65">
+        <f t="shared" si="2"/>
         <v>8.7226590894072551</v>
       </c>
-      <c r="L7" s="69">
-        <f t="shared" si="2"/>
+      <c r="L7" s="67">
+        <f t="shared" si="3"/>
         <v>0.16814444444444446</v>
       </c>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A8" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="72">
+      <c r="A8" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="70">
         <v>40</v>
       </c>
-      <c r="C8" s="74">
+      <c r="C8" s="72">
         <v>0</v>
       </c>
-      <c r="D8" s="73">
+      <c r="D8" s="71">
         <v>4</v>
       </c>
-      <c r="E8" s="73">
+      <c r="E8" s="71">
         <v>0</v>
       </c>
-      <c r="F8" s="73">
+      <c r="F8" s="71">
         <v>0.1</v>
       </c>
-      <c r="G8" s="73">
+      <c r="G8" s="71">
         <v>400</v>
       </c>
-      <c r="H8" s="73">
+      <c r="H8" s="71">
         <v>10</v>
       </c>
-      <c r="I8" s="74">
+      <c r="I8" s="72">
         <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
-      <c r="J8" s="74">
+      <c r="J8" s="72">
         <f t="shared" si="1"/>
         <v>2.0249999999999999</v>
       </c>
-      <c r="K8" s="74">
-        <f>(G8+H8*100)/(C8*$M$2+D8*$N$2+E8*$O$2+F8*$P$2)</f>
+      <c r="K8" s="72">
+        <f t="shared" si="2"/>
         <v>1.728395061728395</v>
       </c>
-      <c r="L8" s="75">
-        <f t="shared" si="2"/>
+      <c r="L8" s="73">
+        <f t="shared" si="3"/>
         <v>1.1571428571428573</v>
       </c>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="70"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A9" s="66" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="77">
+      <c r="A9" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="75">
         <v>80</v>
       </c>
-      <c r="C9" s="68">
-        <f t="shared" ref="C9:E9" si="3">C8*2</f>
+      <c r="C9" s="66">
+        <f t="shared" ref="C9:E9" si="4">C8*2</f>
         <v>0</v>
       </c>
-      <c r="D9" s="68">
-        <f t="shared" si="3"/>
+      <c r="D9" s="66">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="E9" s="68">
-        <f t="shared" si="3"/>
+      <c r="E9" s="66">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F9" s="68">
+      <c r="F9" s="66">
         <f>F8*2</f>
         <v>0.2</v>
       </c>
-      <c r="G9" s="68">
+      <c r="G9" s="66">
         <f>G8*2.5</f>
         <v>1000</v>
       </c>
-      <c r="H9" s="68">
+      <c r="H9" s="66">
         <f>H8*2.5</f>
         <v>25</v>
       </c>
-      <c r="I9" s="67">
+      <c r="I9" s="65">
         <f t="shared" si="0"/>
         <v>21.875</v>
       </c>
-      <c r="J9" s="67">
+      <c r="J9" s="65">
         <f t="shared" si="1"/>
         <v>1.62</v>
       </c>
-      <c r="K9" s="67">
-        <f>(G9+H9*100)/(C9*$M$2+D9*$N$2+E9*$O$2+F9*$P$2)</f>
+      <c r="K9" s="65">
+        <f t="shared" si="2"/>
         <v>2.1604938271604937</v>
       </c>
-      <c r="L9" s="69">
-        <f t="shared" si="2"/>
+      <c r="L9" s="67">
+        <f t="shared" si="3"/>
         <v>0.92571428571428571</v>
       </c>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
     </row>
     <row r="10" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="83" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="79">
+      <c r="A10" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="77">
         <v>160</v>
       </c>
-      <c r="C10" s="80">
-        <f t="shared" ref="C10:E10" si="4">C8*3</f>
+      <c r="C10" s="78">
+        <f t="shared" ref="C10:E10" si="5">C8*3</f>
         <v>0</v>
       </c>
-      <c r="D10" s="80">
-        <f t="shared" si="4"/>
+      <c r="D10" s="78">
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="E10" s="80">
-        <f t="shared" si="4"/>
+      <c r="E10" s="78">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F10" s="80">
+      <c r="F10" s="78">
         <f>F8*3</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="G10" s="80">
+      <c r="G10" s="78">
         <f>G8*6</f>
         <v>2400</v>
       </c>
-      <c r="H10" s="80">
+      <c r="H10" s="78">
         <f>H8*6</f>
         <v>60</v>
       </c>
-      <c r="I10" s="81">
+      <c r="I10" s="79">
         <f t="shared" si="0"/>
         <v>26.25</v>
       </c>
-      <c r="J10" s="81">
+      <c r="J10" s="79">
         <f t="shared" si="1"/>
         <v>1.0125</v>
       </c>
-      <c r="K10" s="81">
-        <f>(G10+H10*100)/(C10*$M$2+D10*$N$2+E10*$O$2+F10*$P$2)</f>
+      <c r="K10" s="79">
+        <f t="shared" si="2"/>
         <v>3.4567901234567899</v>
       </c>
-      <c r="L10" s="82">
-        <f t="shared" si="2"/>
+      <c r="L10" s="80">
+        <f t="shared" si="3"/>
         <v>0.57857142857142863</v>
       </c>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="70"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A11" s="86" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="77">
+      <c r="A11" s="84" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="75">
         <f>B8*$N$4</f>
         <v>80</v>
       </c>
-      <c r="C11" s="67">
-        <f t="shared" ref="C11:F13" si="5">C8*$O$4</f>
+      <c r="C11" s="65">
+        <f t="shared" ref="C11:F13" si="6">C8*$O$4</f>
         <v>0</v>
       </c>
-      <c r="D11" s="67">
+      <c r="D11" s="65">
         <f>D8*$O$4</f>
         <v>8</v>
       </c>
-      <c r="E11" s="67">
-        <f t="shared" si="5"/>
+      <c r="E11" s="65">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F11" s="67">
-        <f t="shared" si="5"/>
+      <c r="F11" s="65">
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
-      <c r="G11" s="68">
+      <c r="G11" s="66">
         <f>G8*$P$4</f>
         <v>800</v>
       </c>
-      <c r="H11" s="68">
+      <c r="H11" s="66">
         <f>H8*$P$4</f>
         <v>20</v>
       </c>
-      <c r="I11" s="67">
+      <c r="I11" s="65">
         <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
-      <c r="J11" s="67">
+      <c r="J11" s="65">
         <f t="shared" si="1"/>
         <v>2.0249999999999999</v>
       </c>
-      <c r="K11" s="67">
-        <f>(G11+H11*100)/(C11*$M$2+D11*$N$2+E11*$O$2+F11*$P$2)</f>
+      <c r="K11" s="65">
+        <f t="shared" si="2"/>
         <v>1.728395061728395</v>
       </c>
-      <c r="L11" s="69">
-        <f t="shared" si="2"/>
+      <c r="L11" s="67">
+        <f t="shared" si="3"/>
         <v>1.1571428571428573</v>
       </c>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="70"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A12" s="86" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" s="77">
+      <c r="A12" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="75">
         <f>B9*$N$4</f>
         <v>160</v>
       </c>
-      <c r="C12" s="67">
-        <f t="shared" si="5"/>
+      <c r="C12" s="65">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D12" s="67">
-        <f t="shared" si="5"/>
+      <c r="D12" s="65">
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="E12" s="67">
-        <f t="shared" si="5"/>
+      <c r="E12" s="65">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F12" s="67">
-        <f t="shared" si="5"/>
+      <c r="F12" s="65">
+        <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
-      <c r="G12" s="68">
+      <c r="G12" s="66">
         <f>G9*$P$4</f>
         <v>2000</v>
       </c>
-      <c r="H12" s="68">
-        <f t="shared" ref="H12:H13" si="6">H9*$P$4</f>
+      <c r="H12" s="66">
+        <f t="shared" ref="H12:H13" si="7">H9*$P$4</f>
         <v>50</v>
       </c>
-      <c r="I12" s="67">
+      <c r="I12" s="65">
         <f t="shared" si="0"/>
         <v>21.875</v>
       </c>
-      <c r="J12" s="67">
+      <c r="J12" s="65">
         <f t="shared" si="1"/>
         <v>1.62</v>
       </c>
-      <c r="K12" s="67">
-        <f>(G12+H12*100)/(C12*$M$2+D12*$N$2+E12*$O$2+F12*$P$2)</f>
+      <c r="K12" s="65">
+        <f t="shared" si="2"/>
         <v>2.1604938271604937</v>
       </c>
-      <c r="L12" s="69">
-        <f t="shared" si="2"/>
+      <c r="L12" s="67">
+        <f t="shared" si="3"/>
         <v>0.92571428571428571</v>
       </c>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="70"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
     </row>
     <row r="13" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="79">
+      <c r="A13" s="85" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="77">
         <f>B10*$N$4</f>
         <v>320</v>
       </c>
-      <c r="C13" s="81">
-        <f t="shared" si="5"/>
+      <c r="C13" s="79">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D13" s="81">
-        <f t="shared" si="5"/>
+      <c r="D13" s="79">
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="E13" s="81">
-        <f t="shared" si="5"/>
+      <c r="E13" s="79">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F13" s="81">
-        <f t="shared" si="5"/>
+      <c r="F13" s="79">
+        <f t="shared" si="6"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="G13" s="80">
+      <c r="G13" s="78">
         <f>G10*$P$4</f>
         <v>4800</v>
       </c>
-      <c r="H13" s="80">
-        <f t="shared" si="6"/>
+      <c r="H13" s="78">
+        <f t="shared" si="7"/>
         <v>120</v>
       </c>
-      <c r="I13" s="81">
+      <c r="I13" s="79">
         <f t="shared" si="0"/>
         <v>26.25</v>
       </c>
-      <c r="J13" s="81">
+      <c r="J13" s="79">
         <f t="shared" si="1"/>
         <v>1.0125</v>
       </c>
-      <c r="K13" s="81">
-        <f>(G13+H13*100)/(C13*$M$2+D13*$N$2+E13*$O$2+F13*$P$2)</f>
+      <c r="K13" s="79">
+        <f t="shared" si="2"/>
         <v>3.4567901234567899</v>
       </c>
-      <c r="L13" s="82">
-        <f t="shared" si="2"/>
+      <c r="L13" s="80">
+        <f t="shared" si="3"/>
         <v>0.57857142857142863</v>
       </c>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
     </row>
     <row r="15" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
     </row>
     <row r="16" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="85" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="57" t="s">
+      <c r="B16" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="84" t="s">
-        <v>116</v>
-      </c>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B17" s="85" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="89">
+      <c r="B17" s="83" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="87">
         <f>$L2</f>
         <v>0.30769230769230771</v>
       </c>
-      <c r="D17" s="89">
+      <c r="D17" s="87">
         <f>$L5</f>
         <v>0.28739999999999999</v>
       </c>
-      <c r="E17" s="89">
+      <c r="E17" s="87">
         <f>$L8</f>
         <v>1.1571428571428573</v>
       </c>
-      <c r="F17" s="75">
+      <c r="F17" s="73">
         <f>$L11</f>
         <v>1.1571428571428573</v>
       </c>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B18" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="66">
+        <v>100</v>
+      </c>
+      <c r="C18" s="64">
         <f>$L3</f>
         <v>0.24615384615384617</v>
       </c>
-      <c r="D18" s="66">
-        <f t="shared" ref="D18:D19" si="7">$L6</f>
+      <c r="D18" s="64">
+        <f t="shared" ref="D18:D19" si="8">$L6</f>
         <v>0.20858666666666667</v>
       </c>
-      <c r="E18" s="66">
-        <f t="shared" ref="E18:E19" si="8">$L9</f>
+      <c r="E18" s="64">
+        <f t="shared" ref="E18:E19" si="9">$L9</f>
         <v>0.92571428571428571</v>
       </c>
-      <c r="F18" s="69">
-        <f t="shared" ref="F18:F19" si="9">$L12</f>
+      <c r="F18" s="67">
+        <f t="shared" ref="F18:F19" si="10">$L12</f>
         <v>0.92571428571428571</v>
       </c>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
     </row>
     <row r="19" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="83">
+        <v>101</v>
+      </c>
+      <c r="C19" s="81">
         <f>$L4</f>
         <v>0.20512820512820512</v>
       </c>
-      <c r="D19" s="83">
-        <f t="shared" si="7"/>
+      <c r="D19" s="81">
+        <f t="shared" si="8"/>
         <v>0.16814444444444446</v>
       </c>
-      <c r="E19" s="83">
-        <f t="shared" si="8"/>
-        <v>0.57857142857142863</v>
-      </c>
-      <c r="F19" s="82">
+      <c r="E19" s="81">
         <f t="shared" si="9"/>
         <v>0.57857142857142863</v>
       </c>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
+      <c r="F19" s="80">
+        <f t="shared" si="10"/>
+        <v>0.57857142857142863</v>
+      </c>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
     </row>
     <row r="21" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
     </row>
     <row r="22" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="57" t="s">
+      <c r="B22" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="D22" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="84" t="s">
-        <v>116</v>
-      </c>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B23" s="85" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="89">
+      <c r="B23" s="83" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="87">
         <f>$G2</f>
         <v>50</v>
       </c>
-      <c r="D23" s="89">
+      <c r="D23" s="87">
         <f>$G5</f>
         <v>240</v>
       </c>
-      <c r="E23" s="89">
+      <c r="E23" s="87">
         <f>$G8</f>
         <v>400</v>
       </c>
-      <c r="F23" s="75">
+      <c r="F23" s="73">
         <f>$G11</f>
         <v>800</v>
       </c>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B24" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="66">
+        <v>100</v>
+      </c>
+      <c r="C24" s="64">
         <f>$G3</f>
         <v>125</v>
       </c>
-      <c r="D24" s="66">
+      <c r="D24" s="64">
         <f>$G6</f>
         <v>600</v>
       </c>
-      <c r="E24" s="66">
+      <c r="E24" s="64">
         <f>$G9</f>
         <v>1000</v>
       </c>
-      <c r="F24" s="69">
+      <c r="F24" s="67">
         <f>$G12</f>
         <v>2000</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="83">
+        <v>101</v>
+      </c>
+      <c r="C25" s="81">
         <f>$G4</f>
         <v>300</v>
       </c>
-      <c r="D25" s="83">
+      <c r="D25" s="81">
         <f>$G7</f>
         <v>1440</v>
       </c>
-      <c r="E25" s="83">
+      <c r="E25" s="81">
         <f>$G10</f>
         <v>2400</v>
       </c>
-      <c r="F25" s="82">
+      <c r="F25" s="80">
         <f>$G13</f>
         <v>4800</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="28" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="85" t="s">
-        <v>118</v>
-      </c>
-      <c r="C28" s="57" t="s">
+      <c r="B28" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="82" t="s">
         <v>115</v>
-      </c>
-      <c r="D28" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="84" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B29" s="85" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" s="88">
+      <c r="B29" s="83" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="86">
         <f>$K2</f>
         <v>5</v>
       </c>
-      <c r="D29" s="74">
+      <c r="D29" s="72">
         <f>$K5</f>
         <v>5.1032243099048946</v>
       </c>
-      <c r="E29" s="74">
+      <c r="E29" s="72">
         <f>$K8</f>
         <v>1.728395061728395</v>
       </c>
-      <c r="F29" s="75">
+      <c r="F29" s="73">
         <f>$K11</f>
         <v>1.728395061728395</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B30" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="86">
-        <f t="shared" ref="C30:C31" si="10">$K3</f>
+        <v>100</v>
+      </c>
+      <c r="C30" s="84">
+        <f t="shared" ref="C30:C31" si="11">$K3</f>
         <v>6.25</v>
       </c>
-      <c r="D30" s="67">
-        <f t="shared" ref="D30:D31" si="11">$K6</f>
+      <c r="D30" s="65">
+        <f t="shared" ref="D30:D31" si="12">$K6</f>
         <v>7.0314497570953725</v>
       </c>
-      <c r="E30" s="67">
-        <f t="shared" ref="E30:E31" si="12">$K9</f>
+      <c r="E30" s="65">
+        <f t="shared" ref="E30:E31" si="13">$K9</f>
         <v>2.1604938271604937</v>
       </c>
-      <c r="F30" s="69">
-        <f t="shared" ref="F30:F31" si="13">$K12</f>
+      <c r="F30" s="67">
+        <f t="shared" ref="F30:F31" si="14">$K12</f>
         <v>2.1604938271604937</v>
       </c>
     </row>
     <row r="31" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B31" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C31" s="87">
-        <f t="shared" si="10"/>
+        <v>101</v>
+      </c>
+      <c r="C31" s="85">
+        <f t="shared" si="11"/>
         <v>7.5</v>
       </c>
-      <c r="D31" s="81">
-        <f t="shared" si="11"/>
+      <c r="D31" s="79">
+        <f t="shared" si="12"/>
         <v>8.7226590894072551</v>
       </c>
-      <c r="E31" s="81">
-        <f t="shared" si="12"/>
+      <c r="E31" s="79">
+        <f t="shared" si="13"/>
         <v>3.4567901234567899</v>
       </c>
-      <c r="F31" s="82">
-        <f t="shared" si="13"/>
+      <c r="F31" s="80">
+        <f t="shared" si="14"/>
         <v>3.4567901234567899</v>
       </c>
     </row>
@@ -11921,10 +11672,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8429DA73-507B-49D7-99FE-EAB173B9F842}">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12264,7 +12015,7 @@
     </row>
     <row r="8" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="15">
         <v>-100</v>
@@ -12310,8 +12061,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A9" s="38" t="s">
-        <v>43</v>
+      <c r="A9" s="37" t="s">
+        <v>42</v>
       </c>
       <c r="B9" s="34">
         <v>-25</v>
@@ -12358,7 +12109,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="12">
         <v>-50</v>
@@ -12405,7 +12156,7 @@
     </row>
     <row r="11" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="15">
         <v>-100</v>
@@ -12450,565 +12201,1005 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A12" s="22" t="s">
-        <v>122</v>
-      </c>
+    <row r="12" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="13" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="111" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="113" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="110"/>
     </row>
-    <row r="15" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="93" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="95" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="90" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="92"/>
+    <row r="14" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="112"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="38">
+        <v>0</v>
+      </c>
+      <c r="D14" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="40">
+        <v>0.2</v>
+      </c>
+      <c r="F14" s="39">
+        <v>0.3</v>
+      </c>
+      <c r="G14" s="40">
+        <v>0.4</v>
+      </c>
+      <c r="H14" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="39">
+        <v>0.6</v>
+      </c>
+      <c r="J14" s="39">
+        <v>0.7</v>
+      </c>
+      <c r="K14" s="39">
+        <v>0.8</v>
+      </c>
+      <c r="L14" s="41">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="25">
+        <f>(D2+C2)/2*N2/L2*10</f>
+        <v>28.799999999999997</v>
+      </c>
+      <c r="C15" s="42">
+        <f>$N2-IF($C$14-$O2&gt;=0,$C$14-$O2,0)</f>
+        <v>0.96</v>
+      </c>
+      <c r="D15" s="43">
+        <f>$N2-IF($D$14-$O2&gt;=0,$D$14-$O2,0)</f>
+        <v>0.96</v>
+      </c>
+      <c r="E15" s="43">
+        <f>$N2-IF($E$14-$O2&gt;=0,$E$14-$O2,0)</f>
+        <v>0.96</v>
+      </c>
+      <c r="F15" s="43">
+        <f>$N2-IF($F$14-$O2&gt;=0,$F$14-$O2,0)</f>
+        <v>0.96</v>
+      </c>
+      <c r="G15" s="43">
+        <f>$N2-IF($G$14-$O2&gt;=0,$G$14-$O2,0)</f>
+        <v>0.96</v>
+      </c>
+      <c r="H15" s="43">
+        <f>$N2-IF($H$14-$O2&gt;=0,$H$14-$O2,0)</f>
+        <v>0.96</v>
+      </c>
+      <c r="I15" s="43">
+        <f>$N2-IF($I$14-$O2&gt;=0,$I$14-$O2,0)</f>
+        <v>0.96</v>
+      </c>
+      <c r="J15" s="43">
+        <f>$N2-IF($J$14-$O2&gt;=0,$J$14-$O2,0)</f>
+        <v>0.86</v>
+      </c>
+      <c r="K15" s="43">
+        <f>$N2-IF($K$14-$O2&gt;=0,$K$14-$O2,0)</f>
+        <v>0.7599999999999999</v>
+      </c>
+      <c r="L15" s="44">
+        <f>$N2-IF($L$14-$O2&gt;=0,$L$14-$O2,0)</f>
+        <v>0.65999999999999992</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="26">
+        <f>(D3+C3)/2*N3/L3*10</f>
+        <v>72</v>
+      </c>
+      <c r="C16" s="42">
+        <f>$N3-IF($C$14-$O3&gt;=0,$C$14-$O3,0)</f>
+        <v>0.96</v>
+      </c>
+      <c r="D16" s="43">
+        <f>$N3-IF($D$14-$O3&gt;=0,$D$14-$O3,0)</f>
+        <v>0.96</v>
+      </c>
+      <c r="E16" s="43">
+        <f>$N3-IF($E$14-$O3&gt;=0,$E$14-$O3,0)</f>
+        <v>0.96</v>
+      </c>
+      <c r="F16" s="43">
+        <f>$N3-IF($F$14-$O3&gt;=0,$F$14-$O3,0)</f>
+        <v>0.96</v>
+      </c>
+      <c r="G16" s="43">
+        <f>$N3-IF($G$14-$O3&gt;=0,$G$14-$O3,0)</f>
+        <v>0.96</v>
+      </c>
+      <c r="H16" s="43">
+        <f>$N3-IF($H$14-$O3&gt;=0,$H$14-$O3,0)</f>
+        <v>0.86</v>
+      </c>
+      <c r="I16" s="43">
+        <f>$N3-IF($I$14-$O3&gt;=0,$I$14-$O3,0)</f>
+        <v>0.76</v>
+      </c>
+      <c r="J16" s="43">
+        <f>$N3-IF($J$14-$O3&gt;=0,$J$14-$O3,0)</f>
+        <v>0.66</v>
+      </c>
+      <c r="K16" s="43">
+        <f>$N3-IF($K$14-$O3&gt;=0,$K$14-$O3,0)</f>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="L16" s="44">
+        <f>$N3-IF($L$14-$O3&gt;=0,$L$14-$O3,0)</f>
+        <v>0.45999999999999996</v>
+      </c>
     </row>
     <row r="17" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="94"/>
-      <c r="B17" s="96"/>
-      <c r="C17" s="40">
-        <v>0</v>
-      </c>
-      <c r="D17" s="41">
-        <v>0.1</v>
-      </c>
-      <c r="E17" s="42">
-        <v>0.2</v>
-      </c>
-      <c r="F17" s="41">
-        <v>0.3</v>
-      </c>
-      <c r="G17" s="42">
-        <v>0.4</v>
-      </c>
-      <c r="H17" s="41">
-        <v>0.5</v>
-      </c>
-      <c r="I17" s="41">
-        <v>0.6</v>
-      </c>
-      <c r="J17" s="41">
-        <v>0.7</v>
-      </c>
-      <c r="K17" s="41">
-        <v>0.8</v>
-      </c>
-      <c r="L17" s="43">
-        <v>0.9</v>
+      <c r="A17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="27">
+        <f>(D4+C4)/2*N4/L4*10</f>
+        <v>152</v>
+      </c>
+      <c r="C17" s="42">
+        <f>$N4-IF($C$14-$O4&gt;=0,$C$14-$O4,0)</f>
+        <v>0.96</v>
+      </c>
+      <c r="D17" s="43">
+        <f>$N4-IF($D$14-$O4&gt;=0,$D$14-$O4,0)</f>
+        <v>0.96</v>
+      </c>
+      <c r="E17" s="43">
+        <f>$N4-IF($E$14-$O4&gt;=0,$E$14-$O4,0)</f>
+        <v>0.96</v>
+      </c>
+      <c r="F17" s="43">
+        <f>$N4-IF($F$14-$O4&gt;=0,$F$14-$O4,0)</f>
+        <v>0.86</v>
+      </c>
+      <c r="G17" s="43">
+        <f>$N4-IF($G$14-$O4&gt;=0,$G$14-$O4,0)</f>
+        <v>0.76</v>
+      </c>
+      <c r="H17" s="43">
+        <f>$N4-IF($H$14-$O4&gt;=0,$H$14-$O4,0)</f>
+        <v>0.65999999999999992</v>
+      </c>
+      <c r="I17" s="43">
+        <f>$N4-IF($I$14-$O4&gt;=0,$I$14-$O4,0)</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J17" s="43">
+        <f>$N4-IF($J$14-$O4&gt;=0,$J$14-$O4,0)</f>
+        <v>0.46</v>
+      </c>
+      <c r="K17" s="43">
+        <f>$N4-IF($K$14-$O4&gt;=0,$K$14-$O4,0)</f>
+        <v>0.35999999999999988</v>
+      </c>
+      <c r="L17" s="44">
+        <f>$N4-IF($L$14-$O4&gt;=0,$L$14-$O4,0)</f>
+        <v>0.26</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="25">
-        <f>(D2+C2)/2*N2/L2*10</f>
-        <v>28.799999999999997</v>
-      </c>
-      <c r="C18" s="44">
-        <f>$N2-IF($C$17-$O2&gt;=0,$C$17-$O2,0)</f>
-        <v>0.96</v>
-      </c>
-      <c r="D18" s="45">
-        <f>$N2-IF($D$17-$O2&gt;=0,$D$17-$O2,0)</f>
-        <v>0.96</v>
-      </c>
-      <c r="E18" s="45">
-        <f>$N2-IF($E$17-$O2&gt;=0,$E$17-$O2,0)</f>
-        <v>0.96</v>
-      </c>
-      <c r="F18" s="45">
-        <f>$N2-IF($F$17-$O2&gt;=0,$F$17-$O2,0)</f>
-        <v>0.96</v>
-      </c>
-      <c r="G18" s="45">
-        <f>$N2-IF($G$17-$O2&gt;=0,$G$17-$O2,0)</f>
-        <v>0.96</v>
-      </c>
-      <c r="H18" s="45">
-        <f>$N2-IF($H$17-$O2&gt;=0,$H$17-$O2,0)</f>
-        <v>0.96</v>
-      </c>
-      <c r="I18" s="45">
-        <f>$N2-IF($I$17-$O2&gt;=0,$I$17-$O2,0)</f>
-        <v>0.96</v>
-      </c>
-      <c r="J18" s="45">
-        <f>$N2-IF($J$17-$O2&gt;=0,$J$17-$O2,0)</f>
-        <v>0.86</v>
-      </c>
-      <c r="K18" s="45">
-        <f>$N2-IF($K$17-$O2&gt;=0,$K$17-$O2,0)</f>
-        <v>0.7599999999999999</v>
-      </c>
-      <c r="L18" s="46">
-        <f>$N2-IF($L$17-$O2&gt;=0,$L$17-$O2,0)</f>
-        <v>0.65999999999999992</v>
+      <c r="A18" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="26">
+        <f>(D5+C5)/2*N5/L5*10</f>
+        <v>8.8714285714285719</v>
+      </c>
+      <c r="C18" s="48">
+        <f>$N5-IF($C$14-$O5&gt;=0,$C$14-$O5,0)</f>
+        <v>0.9</v>
+      </c>
+      <c r="D18" s="49">
+        <f>$N5-IF($D$14-$O5&gt;=0,$D$14-$O5,0)</f>
+        <v>0.9</v>
+      </c>
+      <c r="E18" s="49">
+        <f>$N5-IF($E$14-$O5&gt;=0,$E$14-$O5,0)</f>
+        <v>0.9</v>
+      </c>
+      <c r="F18" s="49">
+        <f>$N5-IF($F$14-$O5&gt;=0,$F$14-$O5,0)</f>
+        <v>0.9</v>
+      </c>
+      <c r="G18" s="49">
+        <f>$N5-IF($G$14-$O5&gt;=0,$G$14-$O5,0)</f>
+        <v>0.9</v>
+      </c>
+      <c r="H18" s="49">
+        <f>$N5-IF($H$14-$O5&gt;=0,$H$14-$O5,0)</f>
+        <v>0.9</v>
+      </c>
+      <c r="I18" s="49">
+        <f>$N5-IF($I$14-$O5&gt;=0,$I$14-$O5,0)</f>
+        <v>0.9</v>
+      </c>
+      <c r="J18" s="49">
+        <f>$N5-IF($J$14-$O5&gt;=0,$J$14-$O5,0)</f>
+        <v>0.8</v>
+      </c>
+      <c r="K18" s="49">
+        <f>$N5-IF($K$14-$O5&gt;=0,$K$14-$O5,0)</f>
+        <v>0.7</v>
+      </c>
+      <c r="L18" s="50">
+        <f>$N5-IF($L$14-$O5&gt;=0,$L$14-$O5,0)</f>
+        <v>0.6</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A19" s="13" t="s">
-        <v>21</v>
+      <c r="A19" s="26" t="s">
+        <v>38</v>
       </c>
       <c r="B19" s="26">
-        <f>(D3+C3)/2*N3/L3*10</f>
-        <v>72</v>
-      </c>
-      <c r="C19" s="44">
-        <f>$N3-IF($C$17-$O3&gt;=0,$C$17-$O3,0)</f>
-        <v>0.96</v>
-      </c>
-      <c r="D19" s="45">
-        <f>$N3-IF($D$17-$O3&gt;=0,$D$17-$O3,0)</f>
-        <v>0.96</v>
-      </c>
-      <c r="E19" s="45">
-        <f>$N3-IF($E$17-$O3&gt;=0,$E$17-$O3,0)</f>
-        <v>0.96</v>
-      </c>
-      <c r="F19" s="45">
-        <f>$N3-IF($F$17-$O3&gt;=0,$F$17-$O3,0)</f>
-        <v>0.96</v>
-      </c>
-      <c r="G19" s="45">
-        <f>$N3-IF($G$17-$O3&gt;=0,$G$17-$O3,0)</f>
-        <v>0.96</v>
-      </c>
-      <c r="H19" s="45">
-        <f>$N3-IF($H$17-$O3&gt;=0,$H$17-$O3,0)</f>
-        <v>0.86</v>
-      </c>
-      <c r="I19" s="45">
-        <f>$N3-IF($I$17-$O3&gt;=0,$I$17-$O3,0)</f>
-        <v>0.76</v>
-      </c>
-      <c r="J19" s="45">
-        <f>$N3-IF($J$17-$O3&gt;=0,$J$17-$O3,0)</f>
-        <v>0.66</v>
-      </c>
-      <c r="K19" s="45">
-        <f>$N3-IF($K$17-$O3&gt;=0,$K$17-$O3,0)</f>
-        <v>0.55999999999999994</v>
-      </c>
-      <c r="L19" s="46">
-        <f>$N3-IF($L$17-$O3&gt;=0,$L$17-$O3,0)</f>
-        <v>0.45999999999999996</v>
+        <f>(D6+C6)/2*N6/L6*10</f>
+        <v>22.242857142857147</v>
+      </c>
+      <c r="C19" s="42">
+        <f>$N6-IF($C$14-$O6&gt;=0,$C$14-$O6,0)</f>
+        <v>0.9</v>
+      </c>
+      <c r="D19" s="43">
+        <f>$N6-IF($D$14-$O6&gt;=0,$D$14-$O6,0)</f>
+        <v>0.9</v>
+      </c>
+      <c r="E19" s="43">
+        <f>$N6-IF($E$14-$O6&gt;=0,$E$14-$O6,0)</f>
+        <v>0.9</v>
+      </c>
+      <c r="F19" s="43">
+        <f>$N6-IF($F$14-$O6&gt;=0,$F$14-$O6,0)</f>
+        <v>0.9</v>
+      </c>
+      <c r="G19" s="43">
+        <f>$N6-IF($G$14-$O6&gt;=0,$G$14-$O6,0)</f>
+        <v>0.8</v>
+      </c>
+      <c r="H19" s="43">
+        <f>$N6-IF($H$14-$O6&gt;=0,$H$14-$O6,0)</f>
+        <v>0.7</v>
+      </c>
+      <c r="I19" s="43">
+        <f>$N6-IF($I$14-$O6&gt;=0,$I$14-$O6,0)</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="J19" s="43">
+        <f>$N6-IF($J$14-$O6&gt;=0,$J$14-$O6,0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="K19" s="43">
+        <f>$N6-IF($K$14-$O6&gt;=0,$K$14-$O6,0)</f>
+        <v>0.4</v>
+      </c>
+      <c r="L19" s="44">
+        <f>$N6-IF($L$14-$O6&gt;=0,$L$14-$O6,0)</f>
+        <v>0.29999999999999993</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="13" t="s">
-        <v>22</v>
+      <c r="A20" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="B20" s="27">
-        <f>(D4+C4)/2*N4/L4*10</f>
-        <v>152</v>
-      </c>
-      <c r="C20" s="44">
-        <f>$N4-IF($C$17-$O4&gt;=0,$C$17-$O4,0)</f>
-        <v>0.96</v>
-      </c>
-      <c r="D20" s="45">
-        <f>$N4-IF($D$17-$O4&gt;=0,$D$17-$O4,0)</f>
-        <v>0.96</v>
-      </c>
-      <c r="E20" s="45">
-        <f>$N4-IF($E$17-$O4&gt;=0,$E$17-$O4,0)</f>
-        <v>0.96</v>
-      </c>
-      <c r="F20" s="45">
-        <f>$N4-IF($F$17-$O4&gt;=0,$F$17-$O4,0)</f>
-        <v>0.86</v>
-      </c>
-      <c r="G20" s="45">
-        <f>$N4-IF($G$17-$O4&gt;=0,$G$17-$O4,0)</f>
-        <v>0.76</v>
-      </c>
-      <c r="H20" s="45">
-        <f>$N4-IF($H$17-$O4&gt;=0,$H$17-$O4,0)</f>
-        <v>0.65999999999999992</v>
-      </c>
-      <c r="I20" s="45">
-        <f>$N4-IF($I$17-$O4&gt;=0,$I$17-$O4,0)</f>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="J20" s="45">
-        <f>$N4-IF($J$17-$O4&gt;=0,$J$17-$O4,0)</f>
-        <v>0.46</v>
-      </c>
-      <c r="K20" s="45">
-        <f>$N4-IF($K$17-$O4&gt;=0,$K$17-$O4,0)</f>
-        <v>0.35999999999999988</v>
-      </c>
-      <c r="L20" s="46">
-        <f>$N4-IF($L$17-$O4&gt;=0,$L$17-$O4,0)</f>
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A21" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="26">
-        <f>(D5+C5)/2*N5/L5*10</f>
-        <v>8.8714285714285719</v>
-      </c>
-      <c r="C21" s="50">
-        <f>$N5-IF($C$17-$O5&gt;=0,$C$17-$O5,0)</f>
-        <v>0.9</v>
-      </c>
-      <c r="D21" s="51">
-        <f>$N5-IF($D$17-$O5&gt;=0,$D$17-$O5,0)</f>
-        <v>0.9</v>
-      </c>
-      <c r="E21" s="51">
-        <f>$N5-IF($E$17-$O5&gt;=0,$E$17-$O5,0)</f>
-        <v>0.9</v>
-      </c>
-      <c r="F21" s="51">
-        <f>$N5-IF($F$17-$O5&gt;=0,$F$17-$O5,0)</f>
-        <v>0.9</v>
-      </c>
-      <c r="G21" s="51">
-        <f>$N5-IF($G$17-$O5&gt;=0,$G$17-$O5,0)</f>
-        <v>0.9</v>
-      </c>
-      <c r="H21" s="51">
-        <f>$N5-IF($H$17-$O5&gt;=0,$H$17-$O5,0)</f>
-        <v>0.9</v>
-      </c>
-      <c r="I21" s="51">
-        <f>$N5-IF($I$17-$O5&gt;=0,$I$17-$O5,0)</f>
-        <v>0.9</v>
-      </c>
-      <c r="J21" s="51">
-        <f>$N5-IF($J$17-$O5&gt;=0,$J$17-$O5,0)</f>
-        <v>0.8</v>
-      </c>
-      <c r="K21" s="51">
-        <f>$N5-IF($K$17-$O5&gt;=0,$K$17-$O5,0)</f>
-        <v>0.7</v>
-      </c>
-      <c r="L21" s="52">
-        <f>$N5-IF($L$17-$O5&gt;=0,$L$17-$O5,0)</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A22" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="26">
-        <f>(D6+C6)/2*N6/L6*10</f>
-        <v>22.242857142857147</v>
-      </c>
-      <c r="C22" s="44">
-        <f>$N6-IF($C$17-$O6&gt;=0,$C$17-$O6,0)</f>
-        <v>0.9</v>
-      </c>
-      <c r="D22" s="45">
-        <f>$N6-IF($D$17-$O6&gt;=0,$D$17-$O6,0)</f>
-        <v>0.9</v>
-      </c>
-      <c r="E22" s="45">
-        <f>$N6-IF($E$17-$O6&gt;=0,$E$17-$O6,0)</f>
-        <v>0.9</v>
-      </c>
-      <c r="F22" s="45">
-        <f>$N6-IF($F$17-$O6&gt;=0,$F$17-$O6,0)</f>
-        <v>0.9</v>
-      </c>
-      <c r="G22" s="45">
-        <f>$N6-IF($G$17-$O6&gt;=0,$G$17-$O6,0)</f>
-        <v>0.8</v>
-      </c>
-      <c r="H22" s="45">
-        <f>$N6-IF($H$17-$O6&gt;=0,$H$17-$O6,0)</f>
-        <v>0.7</v>
-      </c>
-      <c r="I22" s="45">
-        <f>$N6-IF($I$17-$O6&gt;=0,$I$17-$O6,0)</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="J22" s="45">
-        <f>$N6-IF($J$17-$O6&gt;=0,$J$17-$O6,0)</f>
-        <v>0.5</v>
-      </c>
-      <c r="K22" s="45">
-        <f>$N6-IF($K$17-$O6&gt;=0,$K$17-$O6,0)</f>
-        <v>0.4</v>
-      </c>
-      <c r="L22" s="46">
-        <f>$N6-IF($L$17-$O6&gt;=0,$L$17-$O6,0)</f>
-        <v>0.29999999999999993</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="27">
         <f>(D7+C7)/2*N7/L7*10</f>
         <v>53.228571428571428</v>
       </c>
-      <c r="C23" s="47">
-        <f>$N7-IF($C$17-$O7&gt;=0,$C$17-$O7,0)</f>
+      <c r="C20" s="45">
+        <f>$N7-IF($C$14-$O7&gt;=0,$C$14-$O7,0)</f>
         <v>0.9</v>
       </c>
-      <c r="D23" s="48">
-        <f>$N7-IF($D$17-$O7&gt;=0,$D$17-$O7,0)</f>
+      <c r="D20" s="46">
+        <f>$N7-IF($D$14-$O7&gt;=0,$D$14-$O7,0)</f>
         <v>0.85</v>
       </c>
-      <c r="E23" s="48">
-        <f>$N7-IF($E$17-$O7&gt;=0,$E$17-$O7,0)</f>
+      <c r="E20" s="46">
+        <f>$N7-IF($E$14-$O7&gt;=0,$E$14-$O7,0)</f>
         <v>0.75</v>
       </c>
-      <c r="F23" s="48">
-        <f>$N7-IF($F$17-$O7&gt;=0,$F$17-$O7,0)</f>
+      <c r="F20" s="46">
+        <f>$N7-IF($F$14-$O7&gt;=0,$F$14-$O7,0)</f>
         <v>0.65</v>
       </c>
-      <c r="G23" s="48">
-        <f>$N7-IF($G$17-$O7&gt;=0,$G$17-$O7,0)</f>
+      <c r="G20" s="46">
+        <f>$N7-IF($G$14-$O7&gt;=0,$G$14-$O7,0)</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="H23" s="48">
-        <f>$N7-IF($H$17-$O7&gt;=0,$H$17-$O7,0)</f>
+      <c r="H20" s="46">
+        <f>$N7-IF($H$14-$O7&gt;=0,$H$14-$O7,0)</f>
         <v>0.45</v>
       </c>
-      <c r="I23" s="48">
-        <f>$N7-IF($I$17-$O7&gt;=0,$I$17-$O7,0)</f>
+      <c r="I20" s="46">
+        <f>$N7-IF($I$14-$O7&gt;=0,$I$14-$O7,0)</f>
         <v>0.35000000000000009</v>
       </c>
-      <c r="J23" s="48">
-        <f>$N7-IF($J$17-$O7&gt;=0,$J$17-$O7,0)</f>
+      <c r="J20" s="46">
+        <f>$N7-IF($J$14-$O7&gt;=0,$J$14-$O7,0)</f>
         <v>0.25000000000000011</v>
       </c>
-      <c r="K23" s="48">
-        <f>$N7-IF($K$17-$O7&gt;=0,$K$17-$O7,0)</f>
+      <c r="K20" s="46">
+        <f>$N7-IF($K$14-$O7&gt;=0,$K$14-$O7,0)</f>
         <v>0.15000000000000002</v>
       </c>
-      <c r="L23" s="49">
-        <f>$N7-IF($L$17-$O7&gt;=0,$L$17-$O7,0)</f>
+      <c r="L20" s="47">
+        <f>$N7-IF($L$14-$O7&gt;=0,$L$14-$O7,0)</f>
         <v>5.0000000000000044E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A24" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="25">
-        <f>(D9+C9)/2*N9/L9*10</f>
-        <v>67.2</v>
-      </c>
-      <c r="C24" s="50">
-        <f>$N9-IF($C$17-$O9&gt;=0,$C$17-$O9,0)</f>
-        <v>0.96</v>
-      </c>
-      <c r="D24" s="51">
-        <f>$N9-IF($D$17-$O9&gt;=0,$D$17-$O9,0)</f>
-        <v>0.96</v>
-      </c>
-      <c r="E24" s="51">
-        <f>$N9-IF($E$17-$O9&gt;=0,$E$17-$O9,0)</f>
-        <v>0.96</v>
-      </c>
-      <c r="F24" s="51">
-        <f>$N9-IF($F$17-$O9&gt;=0,$F$17-$O9,0)</f>
-        <v>0.96</v>
-      </c>
-      <c r="G24" s="51">
-        <f>$N9-IF($G$17-$O9&gt;=0,$G$17-$O9,0)</f>
-        <v>0.96</v>
-      </c>
-      <c r="H24" s="51">
-        <f>$N9-IF($H$17-$O9&gt;=0,$H$17-$O9,0)</f>
-        <v>0.96</v>
-      </c>
-      <c r="I24" s="51">
-        <f>$N9-IF($I$17-$O9&gt;=0,$I$17-$O9,0)</f>
-        <v>0.96</v>
-      </c>
-      <c r="J24" s="51">
-        <f>$N9-IF($J$17-$O9&gt;=0,$J$17-$O9,0)</f>
-        <v>0.86</v>
-      </c>
-      <c r="K24" s="51">
-        <f>$N9-IF($K$17-$O9&gt;=0,$K$17-$O9,0)</f>
-        <v>0.7599999999999999</v>
-      </c>
-      <c r="L24" s="52">
-        <f>$N9-IF($L$17-$O9&gt;=0,$L$17-$O9,0)</f>
-        <v>0.65999999999999992</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A25" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="26">
-        <f>(D10+C10)/2*N10/L10*10</f>
-        <v>124.79999999999998</v>
-      </c>
-      <c r="C25" s="44">
-        <f>$N10-IF($C$17-$O10&gt;=0,$C$17-$O10,0)</f>
-        <v>0.96</v>
-      </c>
-      <c r="D25" s="45">
-        <f>$N10-IF($D$17-$O10&gt;=0,$D$17-$O10,0)</f>
-        <v>0.96</v>
-      </c>
-      <c r="E25" s="45">
-        <f>$N10-IF($E$17-$O10&gt;=0,$E$17-$O10,0)</f>
-        <v>0.96</v>
-      </c>
-      <c r="F25" s="45">
-        <f>$N10-IF($F$17-$O10&gt;=0,$F$17-$O10,0)</f>
-        <v>0.96</v>
-      </c>
-      <c r="G25" s="45">
-        <f>$N10-IF($G$17-$O10&gt;=0,$G$17-$O10,0)</f>
-        <v>0.96</v>
-      </c>
-      <c r="H25" s="45">
-        <f>$N10-IF($H$17-$O10&gt;=0,$H$17-$O10,0)</f>
-        <v>0.96</v>
-      </c>
-      <c r="I25" s="45">
-        <f>$N10-IF($I$17-$O10&gt;=0,$I$17-$O10,0)</f>
-        <v>0.86</v>
-      </c>
-      <c r="J25" s="45">
-        <f>$N10-IF($J$17-$O10&gt;=0,$J$17-$O10,0)</f>
-        <v>0.76</v>
-      </c>
-      <c r="K25" s="45">
-        <f>$N10-IF($K$17-$O10&gt;=0,$K$17-$O10,0)</f>
-        <v>0.65999999999999992</v>
-      </c>
-      <c r="L25" s="46">
-        <f>$N10-IF($L$17-$O10&gt;=0,$L$17-$O10,0)</f>
-        <v>0.55999999999999994</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="27">
-        <f>(D11+C11)/2*N11/L11*10</f>
-        <v>203.2</v>
-      </c>
-      <c r="C26" s="47">
-        <f>$N11-IF($C$17-$O11&gt;=0,$C$17-$O11,0)</f>
-        <v>0.96</v>
-      </c>
-      <c r="D26" s="48">
-        <f>$N11-IF($D$17-$O11&gt;=0,$D$17-$O11,0)</f>
-        <v>0.96</v>
-      </c>
-      <c r="E26" s="48">
-        <f>$N11-IF($E$17-$O11&gt;=0,$E$17-$O11,0)</f>
-        <v>0.96</v>
-      </c>
-      <c r="F26" s="48">
-        <f>$N11-IF($F$17-$O11&gt;=0,$F$17-$O11,0)</f>
-        <v>0.96</v>
-      </c>
-      <c r="G26" s="48">
-        <f>$N11-IF($G$17-$O11&gt;=0,$G$17-$O11,0)</f>
-        <v>0.96</v>
-      </c>
-      <c r="H26" s="48">
-        <f>$N11-IF($H$17-$O11&gt;=0,$H$17-$O11,0)</f>
-        <v>0.86</v>
-      </c>
-      <c r="I26" s="48">
-        <f>$N11-IF($I$17-$O11&gt;=0,$I$17-$O11,0)</f>
-        <v>0.76</v>
-      </c>
-      <c r="J26" s="48">
-        <f>$N11-IF($J$17-$O11&gt;=0,$J$17-$O11,0)</f>
-        <v>0.66</v>
-      </c>
-      <c r="K26" s="48">
-        <f>$N11-IF($K$17-$O11&gt;=0,$K$17-$O11,0)</f>
-        <v>0.55999999999999994</v>
-      </c>
-      <c r="L26" s="49">
-        <f>$N11-IF($L$17-$O11&gt;=0,$L$17-$O11,0)</f>
-        <v>0.45999999999999996</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="27">
-        <f>(D8+C8)/2*N8/L8*10</f>
-        <v>571.66666666666663</v>
-      </c>
-      <c r="C27" s="47">
-        <f>$N8-IF($C$17-$O8&gt;=0,$C$17-$O8,0)</f>
-        <v>0.98</v>
-      </c>
-      <c r="D27" s="48">
-        <f>$N8-IF($D$17-$O8&gt;=0,$D$17-$O8,0)</f>
-        <v>0.88</v>
-      </c>
-      <c r="E27" s="48">
-        <f>$N8-IF($E$17-$O8&gt;=0,$E$17-$O8,0)</f>
-        <v>0.78</v>
-      </c>
-      <c r="F27" s="48">
-        <f>$N8-IF($F$17-$O8&gt;=0,$F$17-$O8,0)</f>
-        <v>0.67999999999999994</v>
-      </c>
-      <c r="G27" s="48">
-        <f>$N8-IF($G$17-$O8&gt;=0,$G$17-$O8,0)</f>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="H27" s="48">
-        <f>$N8-IF($H$17-$O8&gt;=0,$H$17-$O8,0)</f>
-        <v>0.48</v>
-      </c>
-      <c r="I27" s="48">
-        <f>$N8-IF($I$17-$O8&gt;=0,$I$17-$O8,0)</f>
-        <v>0.38</v>
-      </c>
-      <c r="J27" s="48">
-        <f>$N8-IF($J$17-$O8&gt;=0,$J$17-$O8,0)</f>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="K27" s="48">
-        <f>$N8-IF($K$17-$O8&gt;=0,$K$17-$O8,0)</f>
-        <v>0.17999999999999994</v>
-      </c>
-      <c r="L27" s="49">
-        <f>$N8-IF($L$17-$O8&gt;=0,$L$17-$O8,0)</f>
-        <v>7.999999999999996E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43120986-DD99-4476-9BFD-57A60D957B16}">
+  <dimension ref="A1:V13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="21" width="16.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="19" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="115" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="117" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="88" t="s">
+        <v>122</v>
+      </c>
+      <c r="R1" s="88" t="s">
+        <v>126</v>
+      </c>
+      <c r="S1" s="88" t="s">
+        <v>125</v>
+      </c>
+      <c r="T1" s="88" t="s">
+        <v>124</v>
+      </c>
+      <c r="U1" s="89" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="118">
+        <v>-26</v>
+      </c>
+      <c r="C2" s="119">
+        <v>86</v>
+      </c>
+      <c r="D2" s="119">
+        <v>114</v>
+      </c>
+      <c r="E2" s="119">
+        <v>1.25</v>
+      </c>
+      <c r="F2" s="119">
+        <v>1</v>
+      </c>
+      <c r="G2" s="119">
+        <v>1</v>
+      </c>
+      <c r="H2" s="119">
+        <v>1</v>
+      </c>
+      <c r="I2" s="119">
+        <v>0</v>
+      </c>
+      <c r="J2" s="119">
+        <v>1</v>
+      </c>
+      <c r="K2" s="119">
+        <v>15</v>
+      </c>
+      <c r="L2" s="119">
+        <v>60</v>
+      </c>
+      <c r="M2" s="119">
+        <v>100</v>
+      </c>
+      <c r="N2" s="119">
+        <v>1</v>
+      </c>
+      <c r="O2" s="119">
+        <v>0.25</v>
+      </c>
+      <c r="P2" s="120">
+        <v>400</v>
+      </c>
+      <c r="Q2" s="120">
+        <v>0.4</v>
+      </c>
+      <c r="R2" s="121">
+        <v>0</v>
+      </c>
+      <c r="S2" s="121">
+        <v>0</v>
+      </c>
+      <c r="T2" s="120">
+        <v>10</v>
+      </c>
+      <c r="U2" s="122">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="13">
+        <f>B2*1.2</f>
+        <v>-31.2</v>
+      </c>
+      <c r="C3" s="12">
+        <f>C2*2.5</f>
+        <v>215</v>
+      </c>
+      <c r="D3" s="12">
+        <f>D2*2</f>
+        <v>228</v>
+      </c>
+      <c r="E3" s="12">
+        <f>E2*1.2</f>
+        <v>1.5</v>
+      </c>
+      <c r="F3" s="12">
+        <v>1</v>
+      </c>
+      <c r="G3" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="H3" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="I3" s="12">
+        <f t="shared" ref="C3:U3" si="0">I2*1.5</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="12">
+        <v>1</v>
+      </c>
+      <c r="K3" s="12">
+        <v>15</v>
+      </c>
+      <c r="L3" s="12">
+        <v>100</v>
+      </c>
+      <c r="M3" s="12">
+        <v>100</v>
+      </c>
+      <c r="N3" s="12">
+        <v>1</v>
+      </c>
+      <c r="O3" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="P3" s="12">
+        <v>800</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="R3" s="12">
+        <v>5</v>
+      </c>
+      <c r="S3" s="12">
+        <v>5</v>
+      </c>
+      <c r="T3" s="12">
+        <v>20</v>
+      </c>
+      <c r="U3" s="14">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="V3" s="21"/>
+    </row>
+    <row r="4" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="13">
+        <f>B3*1.2</f>
+        <v>-37.44</v>
+      </c>
+      <c r="C4" s="12">
+        <f>C3*2</f>
+        <v>430</v>
+      </c>
+      <c r="D4" s="12">
+        <f t="shared" ref="D4:D5" si="1">D3*2</f>
+        <v>456</v>
+      </c>
+      <c r="E4" s="12">
+        <f t="shared" ref="E4:E5" si="2">E3*1.2</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="F4" s="12">
+        <v>1</v>
+      </c>
+      <c r="G4" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="H4" s="12">
+        <f t="shared" ref="H4:H5" si="3">H3*1.2</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="I4" s="12">
+        <f t="shared" ref="I4:I5" si="4">I3*1.5</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="12">
+        <v>1</v>
+      </c>
+      <c r="K4" s="12">
+        <v>15</v>
+      </c>
+      <c r="L4" s="12">
+        <v>80</v>
+      </c>
+      <c r="M4" s="12">
+        <f>M3*1.2</f>
+        <v>120</v>
+      </c>
+      <c r="N4" s="12">
+        <v>1</v>
+      </c>
+      <c r="O4" s="12">
+        <f>O3*1.5</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="P4" s="12">
+        <f t="shared" ref="P4:P5" si="5">P3*1.5</f>
+        <v>1200</v>
+      </c>
+      <c r="Q4" s="12">
+        <f t="shared" ref="Q4:Q5" si="6">Q3*1.5</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="R4" s="12">
+        <f t="shared" ref="R4:R5" si="7">R3*1.5</f>
+        <v>7.5</v>
+      </c>
+      <c r="S4" s="12">
+        <f t="shared" ref="S4:S5" si="8">S3*1.5</f>
+        <v>7.5</v>
+      </c>
+      <c r="T4" s="12">
+        <f t="shared" ref="T4:T5" si="9">T3*1.5</f>
+        <v>30</v>
+      </c>
+      <c r="U4" s="14">
+        <f t="shared" ref="U4:U5" si="10">U3*1.5</f>
+        <v>225</v>
+      </c>
+      <c r="V4" s="21"/>
+    </row>
+    <row r="5" spans="1:22" s="22" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="116" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="116">
+        <f>B4*1.2</f>
+        <v>-44.927999999999997</v>
+      </c>
+      <c r="C5" s="15">
+        <f>C4*2</f>
+        <v>860</v>
+      </c>
+      <c r="D5" s="15">
+        <f t="shared" si="1"/>
+        <v>912</v>
+      </c>
+      <c r="E5" s="15">
+        <v>2</v>
+      </c>
+      <c r="F5" s="15">
+        <v>1</v>
+      </c>
+      <c r="G5" s="15">
+        <f t="shared" ref="G4:G5" si="11">G4*1.5</f>
+        <v>1.875</v>
+      </c>
+      <c r="H5" s="15">
+        <v>2</v>
+      </c>
+      <c r="I5" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="15">
+        <v>1</v>
+      </c>
+      <c r="K5" s="15">
+        <v>15</v>
+      </c>
+      <c r="L5" s="15">
+        <v>60</v>
+      </c>
+      <c r="M5" s="15">
+        <f>M4*1.2</f>
+        <v>144</v>
+      </c>
+      <c r="N5" s="15">
+        <v>1</v>
+      </c>
+      <c r="O5" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="P5" s="15">
+        <f t="shared" si="5"/>
+        <v>1800</v>
+      </c>
+      <c r="Q5" s="15">
+        <f t="shared" si="6"/>
+        <v>0.67499999999999993</v>
+      </c>
+      <c r="R5" s="15">
+        <f t="shared" si="7"/>
+        <v>11.25</v>
+      </c>
+      <c r="S5" s="15">
+        <f t="shared" si="8"/>
+        <v>11.25</v>
+      </c>
+      <c r="T5" s="15">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="U5" s="16">
+        <f t="shared" si="10"/>
+        <v>337.5</v>
+      </c>
+      <c r="V5" s="21"/>
+    </row>
+    <row r="7" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="111" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="113" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="110"/>
+    </row>
+    <row r="9" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="123"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="125">
+        <v>0</v>
+      </c>
+      <c r="D9" s="125">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="126">
+        <v>0.2</v>
+      </c>
+      <c r="F9" s="125">
+        <v>0.3</v>
+      </c>
+      <c r="G9" s="126">
+        <v>0.4</v>
+      </c>
+      <c r="H9" s="125">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="125">
+        <v>0.6</v>
+      </c>
+      <c r="J9" s="125">
+        <v>0.7</v>
+      </c>
+      <c r="K9" s="125">
+        <v>0.8</v>
+      </c>
+      <c r="L9" s="127">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A10" s="33" t="str">
+        <f>A2</f>
+        <v>マローダーミサイル</v>
+      </c>
+      <c r="B10" s="128">
+        <f>(D2+C2)/2*N2/L2*10</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="C10" s="49">
+        <f>$N2-IF($C$9-$O2&gt;=0,$C$9-$O2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="49">
+        <f>$N2-IF($D$9-$O2&gt;=0,$D$9-$O2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="49">
+        <f>$N2-IF($E$9-$O2&gt;=0,$E$9-$O2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="49">
+        <f>$N2-IF($F$9-$O2&gt;=0,$F$9-$O2,0)</f>
+        <v>0.95</v>
+      </c>
+      <c r="G10" s="49">
+        <f>$N2-IF($G$9-$O2&gt;=0,$G$9-$O2,0)</f>
+        <v>0.85</v>
+      </c>
+      <c r="H10" s="49">
+        <f>$N2-IF($H$9-$O2&gt;=0,$H$9-$O2,0)</f>
+        <v>0.75</v>
+      </c>
+      <c r="I10" s="49">
+        <f>$N2-IF($I$9-$O2&gt;=0,$I$9-$O2,0)</f>
+        <v>0.65</v>
+      </c>
+      <c r="J10" s="49">
+        <f>$N2-IF($J$9-$O2&gt;=0,$J$9-$O2,0)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K10" s="49">
+        <f>$N2-IF($K$9-$O2&gt;=0,$K$9-$O2,0)</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="L10" s="50">
+        <f>$N2-IF($L$9-$O2&gt;=0,$L$9-$O2,0)</f>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A11" s="31" t="str">
+        <f t="shared" ref="A11:A13" si="12">A3</f>
+        <v>試作ロンギヌスの槍</v>
+      </c>
+      <c r="B11" s="20">
+        <f>(D3+C3)/2*N3/L3*10</f>
+        <v>22.15</v>
+      </c>
+      <c r="C11" s="43">
+        <f t="shared" ref="C11:C13" si="13">$N3-IF($C$9-$O3&gt;=0,$C$9-$O3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="43">
+        <f t="shared" ref="D11:D13" si="14">$N3-IF($D$9-$O3&gt;=0,$D$9-$O3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="43">
+        <f t="shared" ref="E11:E13" si="15">$N3-IF($E$9-$O3&gt;=0,$E$9-$O3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="43">
+        <f t="shared" ref="F11:F13" si="16">$N3-IF($F$9-$O3&gt;=0,$F$9-$O3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="43">
+        <f t="shared" ref="G11:G13" si="17">$N3-IF($G$9-$O3&gt;=0,$G$9-$O3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H11" s="43">
+        <f t="shared" ref="H11:H13" si="18">$N3-IF($H$9-$O3&gt;=0,$H$9-$O3,0)</f>
+        <v>0.9</v>
+      </c>
+      <c r="I11" s="43">
+        <f t="shared" ref="I11:I13" si="19">$N3-IF($I$9-$O3&gt;=0,$I$9-$O3,0)</f>
+        <v>0.8</v>
+      </c>
+      <c r="J11" s="43">
+        <f t="shared" ref="J11:J13" si="20">$N3-IF($J$9-$O3&gt;=0,$J$9-$O3,0)</f>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="K11" s="43">
+        <f t="shared" ref="K11:K13" si="21">$N3-IF($K$9-$O3&gt;=0,$K$9-$O3,0)</f>
+        <v>0.6</v>
+      </c>
+      <c r="L11" s="44">
+        <f>$N3-IF($L$9-$O3&gt;=0,$L$9-$O3,0)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A12" s="31" t="str">
+        <f t="shared" si="12"/>
+        <v>ロンギヌスの槍</v>
+      </c>
+      <c r="B12" s="20">
+        <f t="shared" ref="B11:B13" si="22">(D4+C4)/2*N4/L4*10</f>
+        <v>55.375</v>
+      </c>
+      <c r="C12" s="43">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D12" s="43">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="43">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F12" s="43">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="43">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="H12" s="43">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="43">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="J12" s="43">
+        <f t="shared" si="20"/>
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="K12" s="43">
+        <f t="shared" si="21"/>
+        <v>0.8</v>
+      </c>
+      <c r="L12" s="44">
+        <f>$N4-IF($L$9-$O4&gt;=0,$L$9-$O4,0)</f>
+        <v>0.70000000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="32" t="str">
+        <f t="shared" si="12"/>
+        <v>ロンギヌスの槍α</v>
+      </c>
+      <c r="B13" s="23">
+        <f t="shared" si="22"/>
+        <v>147.66666666666669</v>
+      </c>
+      <c r="C13" s="46">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D13" s="46">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E13" s="46">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="46">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="G13" s="46">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="46">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="46">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="J13" s="46">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="K13" s="46">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="L13" s="47">
+        <f>$N5-IF($L$9-$O5&gt;=0,$L$9-$O5,0)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:L8"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/MagicalDiscoveries.xlsx
+++ b/MagicalDiscoveries.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Prg\Stellaris\MagicalDiscoveries E\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Prg\Stellaris\MagicalDiscoveries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD41DDC5-8685-424F-A1C3-DAC4C65A05AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBF2AB8-9FBB-48F4-B80F-F3034E8F37EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="3" xr2:uid="{33EBD46C-414F-4B8E-A737-7C9375C5AD2F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" activeTab="3" xr2:uid="{33EBD46C-414F-4B8E-A737-7C9375C5AD2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -624,7 +624,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="186" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1204,6 +1204,42 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1225,47 +1261,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8721,7 +8721,7 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="5" width="11.875" customWidth="1"/>
     <col min="6" max="6" width="11.875" style="97" customWidth="1"/>
@@ -8729,7 +8729,7 @@
     <col min="8" max="17" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
@@ -8776,7 +8776,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A2" s="54" t="s">
         <v>46</v>
       </c>
@@ -8834,7 +8834,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A3" s="54" t="s">
         <v>10</v>
       </c>
@@ -8877,7 +8877,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A4" s="54" t="s">
         <v>11</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A5" s="83" t="s">
         <v>103</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A6" s="4" t="s">
         <v>48</v>
       </c>
@@ -9021,7 +9021,7 @@
         <v>1.8240000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A7" s="6" t="s">
         <v>50</v>
       </c>
@@ -9073,7 +9073,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A8" s="4" t="s">
         <v>67</v>
       </c>
@@ -9116,7 +9116,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
@@ -9159,7 +9159,7 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A10" s="6" t="s">
         <v>1</v>
       </c>
@@ -9202,7 +9202,7 @@
         <v>3.0608695652173914</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A11" s="83" t="s">
         <v>68</v>
       </c>
@@ -9251,7 +9251,7 @@
         <v>5.8666666666666671</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A12" s="4" t="s">
         <v>69</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>4.6933333333333334</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A13" s="6" t="s">
         <v>70</v>
       </c>
@@ -9349,7 +9349,7 @@
         <v>4.0811594202898558</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A14" s="83" t="s">
         <v>75</v>
       </c>
@@ -9398,7 +9398,7 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A15" s="4" t="s">
         <v>76</v>
       </c>
@@ -9447,7 +9447,7 @@
         <v>2.8159999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A16" s="6" t="s">
         <v>77</v>
       </c>
@@ -9496,7 +9496,7 @@
         <v>2.4486956521739129</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A17" s="4" t="s">
         <v>71</v>
       </c>
@@ -9539,7 +9539,7 @@
         <v>4.8678571428571429</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A18" s="4" t="s">
         <v>90</v>
       </c>
@@ -9582,7 +9582,7 @@
         <v>3.8942857142857141</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A19" s="6" t="s">
         <v>2</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>3.2070588235294117</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A20" s="83" t="s">
         <v>78</v>
       </c>
@@ -9674,7 +9674,7 @@
         <v>6.4904761904761914</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A21" s="4" t="s">
         <v>80</v>
       </c>
@@ -9723,7 +9723,7 @@
         <v>5.1923809523809528</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A22" s="6" t="s">
         <v>79</v>
       </c>
@@ -9772,7 +9772,7 @@
         <v>4.2760784313725493</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A23" s="4" t="s">
         <v>72</v>
       </c>
@@ -9821,7 +9821,7 @@
         <v>3.8942857142857141</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A24" s="4" t="s">
         <v>73</v>
       </c>
@@ -9870,7 +9870,7 @@
         <v>3.1154285714285712</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A25" s="6" t="s">
         <v>74</v>
       </c>
@@ -9919,7 +9919,7 @@
         <v>2.5656470588235294</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A26" s="4" t="s">
         <v>81</v>
       </c>
@@ -9962,7 +9962,7 @@
         <v>5.72</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A27" s="4" t="s">
         <v>82</v>
       </c>
@@ -10005,7 +10005,7 @@
         <v>4.5759999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A28" s="6" t="s">
         <v>3</v>
       </c>
@@ -10048,7 +10048,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A29" s="83" t="s">
         <v>83</v>
       </c>
@@ -10097,7 +10097,7 @@
         <v>7.6266666666666678</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A30" s="4" t="s">
         <v>84</v>
       </c>
@@ -10146,7 +10146,7 @@
         <v>6.1013333333333346</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A31" s="4" t="s">
         <v>85</v>
       </c>
@@ -10195,7 +10195,7 @@
         <v>5.5466666666666677</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A32" s="83" t="s">
         <v>86</v>
       </c>
@@ -10244,7 +10244,7 @@
         <v>4.5759999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A33" s="4" t="s">
         <v>87</v>
       </c>
@@ -10293,7 +10293,7 @@
         <v>3.6608000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A34" s="6" t="s">
         <v>88</v>
       </c>
@@ -10342,7 +10342,7 @@
         <v>3.3279999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A36" t="s">
         <v>118</v>
       </c>
@@ -10380,7 +10380,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -10429,7 +10429,7 @@
         <v>3.8534736842105262</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A38" t="s">
         <v>100</v>
       </c>
@@ -10478,7 +10478,7 @@
         <v>3.4053953488372093</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A39" t="s">
         <v>101</v>
       </c>
@@ -10527,7 +10527,7 @@
         <v>3.218285714285714</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A41" t="s">
         <v>117</v>
       </c>
@@ -10565,7 +10565,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A42" t="s">
         <v>99</v>
       </c>
@@ -10614,7 +10614,7 @@
         <v>0.25950611888111891</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A43" t="s">
         <v>100</v>
       </c>
@@ -10663,7 +10663,7 @@
         <v>0.29365166083916083</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A44" t="s">
         <v>101</v>
       </c>
@@ -10724,18 +10724,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79215ADD-1307-4D97-A1B4-289252DBDF30}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="23.25" customWidth="1"/>
     <col min="2" max="12" width="14.75" customWidth="1"/>
     <col min="13" max="16" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A1" s="60" t="s">
         <v>4</v>
       </c>
@@ -10785,7 +10785,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A2" s="64" t="s">
         <v>58</v>
       </c>
@@ -10839,7 +10839,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A3" s="64" t="s">
         <v>59</v>
       </c>
@@ -10891,7 +10891,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A4" s="64" t="s">
         <v>60</v>
       </c>
@@ -10945,7 +10945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A5" s="69" t="s">
         <v>62</v>
       </c>
@@ -10988,7 +10988,7 @@
       </c>
       <c r="P5" s="68"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A6" s="74" t="s">
         <v>63</v>
       </c>
@@ -11031,7 +11031,7 @@
       </c>
       <c r="P6" s="68"/>
     </row>
-    <row r="7" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A7" s="76" t="s">
         <v>64</v>
       </c>
@@ -11077,12 +11077,12 @@
       <c r="O7" s="68"/>
       <c r="P7" s="68"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A8" s="64" t="s">
         <v>47</v>
       </c>
       <c r="B8" s="70">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C8" s="72">
         <v>0</v>
@@ -11104,7 +11104,7 @@
       </c>
       <c r="I8" s="72">
         <f t="shared" si="0"/>
-        <v>17.5</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="J8" s="72">
         <f t="shared" si="1"/>
@@ -11123,12 +11123,12 @@
       <c r="O8" s="68"/>
       <c r="P8" s="68"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A9" s="64" t="s">
         <v>49</v>
       </c>
       <c r="B9" s="75">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C9" s="66">
         <f t="shared" ref="C9:E9" si="4">C8*2</f>
@@ -11156,7 +11156,7 @@
       </c>
       <c r="I9" s="65">
         <f t="shared" si="0"/>
-        <v>21.875</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="J9" s="65">
         <f t="shared" si="1"/>
@@ -11175,12 +11175,12 @@
       <c r="O9" s="68"/>
       <c r="P9" s="68"/>
     </row>
-    <row r="10" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A10" s="81" t="s">
         <v>51</v>
       </c>
       <c r="B10" s="77">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="C10" s="78">
         <f t="shared" ref="C10:E10" si="5">C8*3</f>
@@ -11208,7 +11208,7 @@
       </c>
       <c r="I10" s="79">
         <f t="shared" si="0"/>
-        <v>26.25</v>
+        <v>70</v>
       </c>
       <c r="J10" s="79">
         <f t="shared" si="1"/>
@@ -11227,13 +11227,13 @@
       <c r="O10" s="68"/>
       <c r="P10" s="68"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A11" s="84" t="s">
         <v>109</v>
       </c>
       <c r="B11" s="75">
         <f>B8*$N$4</f>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C11" s="65">
         <f t="shared" ref="C11:F13" si="6">C8*$O$4</f>
@@ -11261,7 +11261,7 @@
       </c>
       <c r="I11" s="65">
         <f t="shared" si="0"/>
-        <v>17.5</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="J11" s="65">
         <f t="shared" si="1"/>
@@ -11280,13 +11280,13 @@
       <c r="O11" s="68"/>
       <c r="P11" s="68"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A12" s="84" t="s">
         <v>110</v>
       </c>
       <c r="B12" s="75">
         <f>B9*$N$4</f>
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="C12" s="65">
         <f t="shared" si="6"/>
@@ -11314,7 +11314,7 @@
       </c>
       <c r="I12" s="65">
         <f t="shared" si="0"/>
-        <v>21.875</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="J12" s="65">
         <f t="shared" si="1"/>
@@ -11333,13 +11333,13 @@
       <c r="O12" s="68"/>
       <c r="P12" s="68"/>
     </row>
-    <row r="13" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A13" s="85" t="s">
         <v>111</v>
       </c>
       <c r="B13" s="77">
         <f>B10*$N$4</f>
-        <v>320</v>
+        <v>120</v>
       </c>
       <c r="C13" s="79">
         <f t="shared" si="6"/>
@@ -11367,7 +11367,7 @@
       </c>
       <c r="I13" s="79">
         <f t="shared" si="0"/>
-        <v>26.25</v>
+        <v>70</v>
       </c>
       <c r="J13" s="79">
         <f t="shared" si="1"/>
@@ -11386,17 +11386,17 @@
       <c r="O13" s="68"/>
       <c r="P13" s="68"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.7">
       <c r="J14" s="65"/>
       <c r="K14" s="65"/>
       <c r="L14" s="65"/>
     </row>
-    <row r="15" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="J15" s="65"/>
       <c r="K15" s="65"/>
       <c r="L15" s="65"/>
     </row>
-    <row r="16" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B16" s="83" t="s">
         <v>116</v>
       </c>
@@ -11416,7 +11416,7 @@
       <c r="K16" s="65"/>
       <c r="L16" s="65"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.7">
       <c r="B17" s="83" t="s">
         <v>99</v>
       </c>
@@ -11440,7 +11440,7 @@
       <c r="K17" s="65"/>
       <c r="L17" s="65"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.7">
       <c r="B18" s="4" t="s">
         <v>100</v>
       </c>
@@ -11464,7 +11464,7 @@
       <c r="K18" s="65"/>
       <c r="L18" s="65"/>
     </row>
-    <row r="19" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B19" s="6" t="s">
         <v>101</v>
       </c>
@@ -11488,16 +11488,16 @@
       <c r="K19" s="65"/>
       <c r="L19" s="65"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.7">
       <c r="J20" s="65"/>
       <c r="K20" s="65"/>
       <c r="L20" s="65"/>
     </row>
-    <row r="21" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="J21" s="65"/>
       <c r="K21" s="65"/>
     </row>
-    <row r="22" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B22" s="59" t="s">
         <v>54</v>
       </c>
@@ -11516,7 +11516,7 @@
       <c r="J22" s="65"/>
       <c r="K22" s="65"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.7">
       <c r="B23" s="83" t="s">
         <v>99</v>
       </c>
@@ -11539,7 +11539,7 @@
       <c r="J23" s="65"/>
       <c r="K23" s="65"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.7">
       <c r="B24" s="4" t="s">
         <v>100</v>
       </c>
@@ -11560,7 +11560,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B25" s="6" t="s">
         <v>101</v>
       </c>
@@ -11581,8 +11581,8 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="28" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="28" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B28" s="83" t="s">
         <v>117</v>
       </c>
@@ -11599,7 +11599,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.7">
       <c r="B29" s="83" t="s">
         <v>99</v>
       </c>
@@ -11620,7 +11620,7 @@
         <v>1.728395061728395</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.7">
       <c r="B30" s="4" t="s">
         <v>100</v>
       </c>
@@ -11641,7 +11641,7 @@
         <v>2.1604938271604937</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B31" s="6" t="s">
         <v>101</v>
       </c>
@@ -11665,7 +11665,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -11674,17 +11674,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8429DA73-507B-49D7-99FE-EAB173B9F842}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="15" width="16" style="22" customWidth="1"/>
     <col min="16" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="19" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" s="19" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
@@ -11731,7 +11731,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A2" s="33" t="s">
         <v>39</v>
       </c>
@@ -11778,7 +11778,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A3" s="31" t="s">
         <v>37</v>
       </c>
@@ -11825,7 +11825,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A4" s="32" t="s">
         <v>35</v>
       </c>
@@ -11872,7 +11872,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A5" s="33" t="s">
         <v>40</v>
       </c>
@@ -11919,7 +11919,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A6" s="31" t="s">
         <v>38</v>
       </c>
@@ -11966,7 +11966,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A7" s="32" t="s">
         <v>36</v>
       </c>
@@ -12013,7 +12013,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A8" s="36" t="s">
         <v>41</v>
       </c>
@@ -12060,7 +12060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A9" s="37" t="s">
         <v>42</v>
       </c>
@@ -12107,7 +12107,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A10" s="20" t="s">
         <v>43</v>
       </c>
@@ -12154,7 +12154,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A11" s="23" t="s">
         <v>44</v>
       </c>
@@ -12201,30 +12201,30 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="111" t="s">
+    <row r="12" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="13" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A13" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="108" t="s">
+      <c r="C13" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="109"/>
-      <c r="L13" s="110"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="122"/>
     </row>
-    <row r="14" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="112"/>
-      <c r="B14" s="114"/>
+    <row r="14" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A14" s="124"/>
+      <c r="B14" s="126"/>
       <c r="C14" s="38">
         <v>0</v>
       </c>
@@ -12256,297 +12256,297 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A15" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="25">
-        <f>(D2+C2)/2*N2/L2*10</f>
+        <f t="shared" ref="B15:B20" si="0">(D2+C2)/2*N2/L2*10</f>
         <v>28.799999999999997</v>
       </c>
       <c r="C15" s="42">
-        <f>$N2-IF($C$14-$O2&gt;=0,$C$14-$O2,0)</f>
+        <f t="shared" ref="C15:C20" si="1">$N2-IF($C$14-$O2&gt;=0,$C$14-$O2,0)</f>
         <v>0.96</v>
       </c>
       <c r="D15" s="43">
-        <f>$N2-IF($D$14-$O2&gt;=0,$D$14-$O2,0)</f>
+        <f t="shared" ref="D15:D20" si="2">$N2-IF($D$14-$O2&gt;=0,$D$14-$O2,0)</f>
         <v>0.96</v>
       </c>
       <c r="E15" s="43">
-        <f>$N2-IF($E$14-$O2&gt;=0,$E$14-$O2,0)</f>
+        <f t="shared" ref="E15:E20" si="3">$N2-IF($E$14-$O2&gt;=0,$E$14-$O2,0)</f>
         <v>0.96</v>
       </c>
       <c r="F15" s="43">
-        <f>$N2-IF($F$14-$O2&gt;=0,$F$14-$O2,0)</f>
+        <f t="shared" ref="F15:F20" si="4">$N2-IF($F$14-$O2&gt;=0,$F$14-$O2,0)</f>
         <v>0.96</v>
       </c>
       <c r="G15" s="43">
-        <f>$N2-IF($G$14-$O2&gt;=0,$G$14-$O2,0)</f>
+        <f t="shared" ref="G15:G20" si="5">$N2-IF($G$14-$O2&gt;=0,$G$14-$O2,0)</f>
         <v>0.96</v>
       </c>
       <c r="H15" s="43">
-        <f>$N2-IF($H$14-$O2&gt;=0,$H$14-$O2,0)</f>
+        <f t="shared" ref="H15:H20" si="6">$N2-IF($H$14-$O2&gt;=0,$H$14-$O2,0)</f>
         <v>0.96</v>
       </c>
       <c r="I15" s="43">
-        <f>$N2-IF($I$14-$O2&gt;=0,$I$14-$O2,0)</f>
+        <f t="shared" ref="I15:I20" si="7">$N2-IF($I$14-$O2&gt;=0,$I$14-$O2,0)</f>
         <v>0.96</v>
       </c>
       <c r="J15" s="43">
-        <f>$N2-IF($J$14-$O2&gt;=0,$J$14-$O2,0)</f>
+        <f t="shared" ref="J15:J20" si="8">$N2-IF($J$14-$O2&gt;=0,$J$14-$O2,0)</f>
         <v>0.86</v>
       </c>
       <c r="K15" s="43">
-        <f>$N2-IF($K$14-$O2&gt;=0,$K$14-$O2,0)</f>
+        <f t="shared" ref="K15:K20" si="9">$N2-IF($K$14-$O2&gt;=0,$K$14-$O2,0)</f>
         <v>0.7599999999999999</v>
       </c>
       <c r="L15" s="44">
-        <f>$N2-IF($L$14-$O2&gt;=0,$L$14-$O2,0)</f>
+        <f t="shared" ref="L15:L20" si="10">$N2-IF($L$14-$O2&gt;=0,$L$14-$O2,0)</f>
         <v>0.65999999999999992</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A16" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="26">
-        <f>(D3+C3)/2*N3/L3*10</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="C16" s="42">
-        <f>$N3-IF($C$14-$O3&gt;=0,$C$14-$O3,0)</f>
+        <f t="shared" si="1"/>
         <v>0.96</v>
       </c>
       <c r="D16" s="43">
-        <f>$N3-IF($D$14-$O3&gt;=0,$D$14-$O3,0)</f>
+        <f t="shared" si="2"/>
         <v>0.96</v>
       </c>
       <c r="E16" s="43">
-        <f>$N3-IF($E$14-$O3&gt;=0,$E$14-$O3,0)</f>
+        <f t="shared" si="3"/>
         <v>0.96</v>
       </c>
       <c r="F16" s="43">
-        <f>$N3-IF($F$14-$O3&gt;=0,$F$14-$O3,0)</f>
+        <f t="shared" si="4"/>
         <v>0.96</v>
       </c>
       <c r="G16" s="43">
-        <f>$N3-IF($G$14-$O3&gt;=0,$G$14-$O3,0)</f>
+        <f t="shared" si="5"/>
         <v>0.96</v>
       </c>
       <c r="H16" s="43">
-        <f>$N3-IF($H$14-$O3&gt;=0,$H$14-$O3,0)</f>
+        <f t="shared" si="6"/>
         <v>0.86</v>
       </c>
       <c r="I16" s="43">
-        <f>$N3-IF($I$14-$O3&gt;=0,$I$14-$O3,0)</f>
+        <f t="shared" si="7"/>
         <v>0.76</v>
       </c>
       <c r="J16" s="43">
-        <f>$N3-IF($J$14-$O3&gt;=0,$J$14-$O3,0)</f>
+        <f t="shared" si="8"/>
         <v>0.66</v>
       </c>
       <c r="K16" s="43">
-        <f>$N3-IF($K$14-$O3&gt;=0,$K$14-$O3,0)</f>
+        <f t="shared" si="9"/>
         <v>0.55999999999999994</v>
       </c>
       <c r="L16" s="44">
-        <f>$N3-IF($L$14-$O3&gt;=0,$L$14-$O3,0)</f>
+        <f t="shared" si="10"/>
         <v>0.45999999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A17" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="27">
-        <f>(D4+C4)/2*N4/L4*10</f>
+        <f t="shared" si="0"/>
         <v>152</v>
       </c>
       <c r="C17" s="42">
-        <f>$N4-IF($C$14-$O4&gt;=0,$C$14-$O4,0)</f>
+        <f t="shared" si="1"/>
         <v>0.96</v>
       </c>
       <c r="D17" s="43">
-        <f>$N4-IF($D$14-$O4&gt;=0,$D$14-$O4,0)</f>
+        <f t="shared" si="2"/>
         <v>0.96</v>
       </c>
       <c r="E17" s="43">
-        <f>$N4-IF($E$14-$O4&gt;=0,$E$14-$O4,0)</f>
+        <f t="shared" si="3"/>
         <v>0.96</v>
       </c>
       <c r="F17" s="43">
-        <f>$N4-IF($F$14-$O4&gt;=0,$F$14-$O4,0)</f>
+        <f t="shared" si="4"/>
         <v>0.86</v>
       </c>
       <c r="G17" s="43">
-        <f>$N4-IF($G$14-$O4&gt;=0,$G$14-$O4,0)</f>
+        <f t="shared" si="5"/>
         <v>0.76</v>
       </c>
       <c r="H17" s="43">
-        <f>$N4-IF($H$14-$O4&gt;=0,$H$14-$O4,0)</f>
+        <f t="shared" si="6"/>
         <v>0.65999999999999992</v>
       </c>
       <c r="I17" s="43">
-        <f>$N4-IF($I$14-$O4&gt;=0,$I$14-$O4,0)</f>
+        <f t="shared" si="7"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="J17" s="43">
-        <f>$N4-IF($J$14-$O4&gt;=0,$J$14-$O4,0)</f>
+        <f t="shared" si="8"/>
         <v>0.46</v>
       </c>
       <c r="K17" s="43">
-        <f>$N4-IF($K$14-$O4&gt;=0,$K$14-$O4,0)</f>
+        <f t="shared" si="9"/>
         <v>0.35999999999999988</v>
       </c>
       <c r="L17" s="44">
-        <f>$N4-IF($L$14-$O4&gt;=0,$L$14-$O4,0)</f>
+        <f t="shared" si="10"/>
         <v>0.26</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A18" s="25" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="26">
-        <f>(D5+C5)/2*N5/L5*10</f>
+        <f t="shared" si="0"/>
         <v>8.8714285714285719</v>
       </c>
       <c r="C18" s="48">
-        <f>$N5-IF($C$14-$O5&gt;=0,$C$14-$O5,0)</f>
+        <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
       <c r="D18" s="49">
-        <f>$N5-IF($D$14-$O5&gt;=0,$D$14-$O5,0)</f>
+        <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
       <c r="E18" s="49">
-        <f>$N5-IF($E$14-$O5&gt;=0,$E$14-$O5,0)</f>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="F18" s="49">
-        <f>$N5-IF($F$14-$O5&gt;=0,$F$14-$O5,0)</f>
+        <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
       <c r="G18" s="49">
-        <f>$N5-IF($G$14-$O5&gt;=0,$G$14-$O5,0)</f>
+        <f t="shared" si="5"/>
         <v>0.9</v>
       </c>
       <c r="H18" s="49">
-        <f>$N5-IF($H$14-$O5&gt;=0,$H$14-$O5,0)</f>
+        <f t="shared" si="6"/>
         <v>0.9</v>
       </c>
       <c r="I18" s="49">
-        <f>$N5-IF($I$14-$O5&gt;=0,$I$14-$O5,0)</f>
+        <f t="shared" si="7"/>
         <v>0.9</v>
       </c>
       <c r="J18" s="49">
-        <f>$N5-IF($J$14-$O5&gt;=0,$J$14-$O5,0)</f>
+        <f t="shared" si="8"/>
         <v>0.8</v>
       </c>
       <c r="K18" s="49">
-        <f>$N5-IF($K$14-$O5&gt;=0,$K$14-$O5,0)</f>
+        <f t="shared" si="9"/>
         <v>0.7</v>
       </c>
       <c r="L18" s="50">
-        <f>$N5-IF($L$14-$O5&gt;=0,$L$14-$O5,0)</f>
+        <f t="shared" si="10"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A19" s="26" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="26">
-        <f>(D6+C6)/2*N6/L6*10</f>
+        <f t="shared" si="0"/>
         <v>22.242857142857147</v>
       </c>
       <c r="C19" s="42">
-        <f>$N6-IF($C$14-$O6&gt;=0,$C$14-$O6,0)</f>
+        <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
       <c r="D19" s="43">
-        <f>$N6-IF($D$14-$O6&gt;=0,$D$14-$O6,0)</f>
+        <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
       <c r="E19" s="43">
-        <f>$N6-IF($E$14-$O6&gt;=0,$E$14-$O6,0)</f>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="F19" s="43">
-        <f>$N6-IF($F$14-$O6&gt;=0,$F$14-$O6,0)</f>
+        <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
       <c r="G19" s="43">
-        <f>$N6-IF($G$14-$O6&gt;=0,$G$14-$O6,0)</f>
+        <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
       <c r="H19" s="43">
-        <f>$N6-IF($H$14-$O6&gt;=0,$H$14-$O6,0)</f>
+        <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
       <c r="I19" s="43">
-        <f>$N6-IF($I$14-$O6&gt;=0,$I$14-$O6,0)</f>
+        <f t="shared" si="7"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="J19" s="43">
-        <f>$N6-IF($J$14-$O6&gt;=0,$J$14-$O6,0)</f>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="K19" s="43">
-        <f>$N6-IF($K$14-$O6&gt;=0,$K$14-$O6,0)</f>
+        <f t="shared" si="9"/>
         <v>0.4</v>
       </c>
       <c r="L19" s="44">
-        <f>$N6-IF($L$14-$O6&gt;=0,$L$14-$O6,0)</f>
+        <f t="shared" si="10"/>
         <v>0.29999999999999993</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A20" s="27" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="27">
-        <f>(D7+C7)/2*N7/L7*10</f>
+        <f t="shared" si="0"/>
         <v>53.228571428571428</v>
       </c>
       <c r="C20" s="45">
-        <f>$N7-IF($C$14-$O7&gt;=0,$C$14-$O7,0)</f>
+        <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
       <c r="D20" s="46">
-        <f>$N7-IF($D$14-$O7&gt;=0,$D$14-$O7,0)</f>
+        <f t="shared" si="2"/>
         <v>0.85</v>
       </c>
       <c r="E20" s="46">
-        <f>$N7-IF($E$14-$O7&gt;=0,$E$14-$O7,0)</f>
+        <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
       <c r="F20" s="46">
-        <f>$N7-IF($F$14-$O7&gt;=0,$F$14-$O7,0)</f>
+        <f t="shared" si="4"/>
         <v>0.65</v>
       </c>
       <c r="G20" s="46">
-        <f>$N7-IF($G$14-$O7&gt;=0,$G$14-$O7,0)</f>
+        <f t="shared" si="5"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="H20" s="46">
-        <f>$N7-IF($H$14-$O7&gt;=0,$H$14-$O7,0)</f>
+        <f t="shared" si="6"/>
         <v>0.45</v>
       </c>
       <c r="I20" s="46">
-        <f>$N7-IF($I$14-$O7&gt;=0,$I$14-$O7,0)</f>
+        <f t="shared" si="7"/>
         <v>0.35000000000000009</v>
       </c>
       <c r="J20" s="46">
-        <f>$N7-IF($J$14-$O7&gt;=0,$J$14-$O7,0)</f>
+        <f t="shared" si="8"/>
         <v>0.25000000000000011</v>
       </c>
       <c r="K20" s="46">
-        <f>$N7-IF($K$14-$O7&gt;=0,$K$14-$O7,0)</f>
+        <f t="shared" si="9"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="L20" s="47">
-        <f>$N7-IF($L$14-$O7&gt;=0,$L$14-$O7,0)</f>
+        <f t="shared" si="10"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -12567,21 +12567,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43120986-DD99-4476-9BFD-57A60D957B16}">
   <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="20.625" customWidth="1"/>
     <col min="2" max="21" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="19" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" s="19" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="108" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="29" t="s">
@@ -12623,7 +12623,7 @@
       <c r="O1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="117" t="s">
+      <c r="P1" s="110" t="s">
         <v>121</v>
       </c>
       <c r="Q1" s="88" t="s">
@@ -12642,72 +12642,72 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.7">
       <c r="A2" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="118">
+      <c r="B2" s="111">
         <v>-26</v>
       </c>
-      <c r="C2" s="119">
+      <c r="C2" s="112">
         <v>86</v>
       </c>
-      <c r="D2" s="119">
+      <c r="D2" s="112">
         <v>114</v>
       </c>
-      <c r="E2" s="119">
+      <c r="E2" s="112">
         <v>1.25</v>
       </c>
-      <c r="F2" s="119">
+      <c r="F2" s="112">
         <v>1</v>
       </c>
-      <c r="G2" s="119">
+      <c r="G2" s="112">
         <v>1</v>
       </c>
-      <c r="H2" s="119">
+      <c r="H2" s="112">
         <v>1</v>
       </c>
-      <c r="I2" s="119">
+      <c r="I2" s="112">
         <v>0</v>
       </c>
-      <c r="J2" s="119">
+      <c r="J2" s="112">
         <v>1</v>
       </c>
-      <c r="K2" s="119">
+      <c r="K2" s="112">
         <v>15</v>
       </c>
-      <c r="L2" s="119">
+      <c r="L2" s="112">
         <v>60</v>
       </c>
-      <c r="M2" s="119">
+      <c r="M2" s="112">
         <v>100</v>
       </c>
-      <c r="N2" s="119">
+      <c r="N2" s="112">
         <v>1</v>
       </c>
-      <c r="O2" s="119">
+      <c r="O2" s="112">
         <v>0.25</v>
       </c>
-      <c r="P2" s="120">
+      <c r="P2" s="113">
         <v>400</v>
       </c>
-      <c r="Q2" s="120">
+      <c r="Q2" s="113">
         <v>0.4</v>
       </c>
-      <c r="R2" s="121">
+      <c r="R2" s="114">
         <v>0</v>
       </c>
-      <c r="S2" s="121">
+      <c r="S2" s="114">
         <v>0</v>
       </c>
-      <c r="T2" s="120">
+      <c r="T2" s="113">
         <v>10</v>
       </c>
-      <c r="U2" s="122">
+      <c r="U2" s="115">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.7">
       <c r="A3" s="13" t="s">
         <v>128</v>
       </c>
@@ -12737,7 +12737,7 @@
         <v>1.5</v>
       </c>
       <c r="I3" s="12">
-        <f t="shared" ref="C3:U3" si="0">I2*1.5</f>
+        <f t="shared" ref="I3:U3" si="0">I2*1.5</f>
         <v>0</v>
       </c>
       <c r="J3" s="12">
@@ -12779,7 +12779,7 @@
       </c>
       <c r="V3" s="21"/>
     </row>
-    <row r="4" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.7">
       <c r="A4" s="13" t="s">
         <v>129</v>
       </c>
@@ -12796,7 +12796,7 @@
         <v>456</v>
       </c>
       <c r="E4" s="12">
-        <f t="shared" ref="E4:E5" si="2">E3*1.2</f>
+        <f t="shared" ref="E4" si="2">E3*1.2</f>
         <v>1.7999999999999998</v>
       </c>
       <c r="F4" s="12">
@@ -12806,7 +12806,7 @@
         <v>1.25</v>
       </c>
       <c r="H4" s="12">
-        <f t="shared" ref="H4:H5" si="3">H3*1.2</f>
+        <f t="shared" ref="H4" si="3">H3*1.2</f>
         <v>1.7999999999999998</v>
       </c>
       <c r="I4" s="12">
@@ -12859,11 +12859,11 @@
       </c>
       <c r="V4" s="21"/>
     </row>
-    <row r="5" spans="1:22" s="22" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="116" t="s">
+    <row r="5" spans="1:22" s="22" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A5" s="109" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="116">
+      <c r="B5" s="109">
         <f>B4*1.2</f>
         <v>-44.927999999999997</v>
       </c>
@@ -12882,7 +12882,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="15">
-        <f t="shared" ref="G4:G5" si="11">G4*1.5</f>
+        <f t="shared" ref="G5" si="11">G4*1.5</f>
         <v>1.875</v>
       </c>
       <c r="H5" s="15">
@@ -12912,8 +12912,7 @@
         <v>0.8</v>
       </c>
       <c r="P5" s="15">
-        <f t="shared" si="5"/>
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="Q5" s="15">
         <f t="shared" si="6"/>
@@ -12937,67 +12936,67 @@
       </c>
       <c r="V5" s="21"/>
     </row>
-    <row r="7" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="111" t="s">
+    <row r="7" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="8" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A8" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="113" t="s">
+      <c r="B8" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="109" t="s">
+      <c r="C8" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="110"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="122"/>
     </row>
-    <row r="9" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="123"/>
-      <c r="B9" s="124"/>
-      <c r="C9" s="125">
+    <row r="9" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A9" s="127"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="116">
         <v>0</v>
       </c>
-      <c r="D9" s="125">
+      <c r="D9" s="116">
         <v>0.1</v>
       </c>
-      <c r="E9" s="126">
+      <c r="E9" s="117">
         <v>0.2</v>
       </c>
-      <c r="F9" s="125">
+      <c r="F9" s="116">
         <v>0.3</v>
       </c>
-      <c r="G9" s="126">
+      <c r="G9" s="117">
         <v>0.4</v>
       </c>
-      <c r="H9" s="125">
+      <c r="H9" s="116">
         <v>0.5</v>
       </c>
-      <c r="I9" s="125">
+      <c r="I9" s="116">
         <v>0.6</v>
       </c>
-      <c r="J9" s="125">
+      <c r="J9" s="116">
         <v>0.7</v>
       </c>
-      <c r="K9" s="125">
+      <c r="K9" s="116">
         <v>0.8</v>
       </c>
-      <c r="L9" s="127">
+      <c r="L9" s="118">
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.7">
       <c r="A10" s="33" t="str">
         <f>A2</f>
         <v>マローダーミサイル</v>
       </c>
-      <c r="B10" s="128">
+      <c r="B10" s="119">
         <f>(D2+C2)/2*N2/L2*10</f>
         <v>16.666666666666668</v>
       </c>
@@ -13042,7 +13041,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.7">
       <c r="A11" s="31" t="str">
         <f t="shared" ref="A11:A13" si="12">A3</f>
         <v>試作ロンギヌスの槍</v>
@@ -13092,13 +13091,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.7">
       <c r="A12" s="31" t="str">
         <f t="shared" si="12"/>
         <v>ロンギヌスの槍</v>
       </c>
       <c r="B12" s="20">
-        <f t="shared" ref="B11:B13" si="22">(D4+C4)/2*N4/L4*10</f>
+        <f t="shared" ref="B12:B13" si="22">(D4+C4)/2*N4/L4*10</f>
         <v>55.375</v>
       </c>
       <c r="C12" s="43">
@@ -13142,7 +13141,7 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A13" s="32" t="str">
         <f t="shared" si="12"/>
         <v>ロンギヌスの槍α</v>

--- a/MagicalDiscoveries.xlsx
+++ b/MagicalDiscoveries.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Prg\Stellaris\MagicalDiscoveries E\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Prg\Stellaris\MagicalDiscoveries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD41DDC5-8685-424F-A1C3-DAC4C65A05AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC7C26E-024F-447B-9B04-25F6B644E6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="3" xr2:uid="{33EBD46C-414F-4B8E-A737-7C9375C5AD2F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" activeTab="1" xr2:uid="{33EBD46C-414F-4B8E-A737-7C9375C5AD2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -624,7 +624,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="186" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1204,6 +1204,42 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1225,47 +1261,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8721,7 +8721,7 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="5" width="11.875" customWidth="1"/>
     <col min="6" max="6" width="11.875" style="97" customWidth="1"/>
@@ -8729,7 +8729,7 @@
     <col min="8" max="17" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
@@ -8776,7 +8776,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A2" s="54" t="s">
         <v>46</v>
       </c>
@@ -8834,7 +8834,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A3" s="54" t="s">
         <v>10</v>
       </c>
@@ -8877,7 +8877,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A4" s="54" t="s">
         <v>11</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A5" s="83" t="s">
         <v>103</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A6" s="4" t="s">
         <v>48</v>
       </c>
@@ -9021,7 +9021,7 @@
         <v>1.8240000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A7" s="6" t="s">
         <v>50</v>
       </c>
@@ -9073,7 +9073,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A8" s="4" t="s">
         <v>67</v>
       </c>
@@ -9116,7 +9116,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
@@ -9159,7 +9159,7 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A10" s="6" t="s">
         <v>1</v>
       </c>
@@ -9202,7 +9202,7 @@
         <v>3.0608695652173914</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A11" s="83" t="s">
         <v>68</v>
       </c>
@@ -9251,7 +9251,7 @@
         <v>5.8666666666666671</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A12" s="4" t="s">
         <v>69</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>4.6933333333333334</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A13" s="6" t="s">
         <v>70</v>
       </c>
@@ -9349,7 +9349,7 @@
         <v>4.0811594202898558</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A14" s="83" t="s">
         <v>75</v>
       </c>
@@ -9398,7 +9398,7 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A15" s="4" t="s">
         <v>76</v>
       </c>
@@ -9447,7 +9447,7 @@
         <v>2.8159999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A16" s="6" t="s">
         <v>77</v>
       </c>
@@ -9496,7 +9496,7 @@
         <v>2.4486956521739129</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A17" s="4" t="s">
         <v>71</v>
       </c>
@@ -9539,7 +9539,7 @@
         <v>4.8678571428571429</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A18" s="4" t="s">
         <v>90</v>
       </c>
@@ -9582,7 +9582,7 @@
         <v>3.8942857142857141</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A19" s="6" t="s">
         <v>2</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>3.2070588235294117</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A20" s="83" t="s">
         <v>78</v>
       </c>
@@ -9674,7 +9674,7 @@
         <v>6.4904761904761914</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A21" s="4" t="s">
         <v>80</v>
       </c>
@@ -9723,7 +9723,7 @@
         <v>5.1923809523809528</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A22" s="6" t="s">
         <v>79</v>
       </c>
@@ -9772,7 +9772,7 @@
         <v>4.2760784313725493</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A23" s="4" t="s">
         <v>72</v>
       </c>
@@ -9821,7 +9821,7 @@
         <v>3.8942857142857141</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A24" s="4" t="s">
         <v>73</v>
       </c>
@@ -9870,7 +9870,7 @@
         <v>3.1154285714285712</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A25" s="6" t="s">
         <v>74</v>
       </c>
@@ -9919,7 +9919,7 @@
         <v>2.5656470588235294</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A26" s="4" t="s">
         <v>81</v>
       </c>
@@ -9962,7 +9962,7 @@
         <v>5.72</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A27" s="4" t="s">
         <v>82</v>
       </c>
@@ -10005,7 +10005,7 @@
         <v>4.5759999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A28" s="6" t="s">
         <v>3</v>
       </c>
@@ -10048,7 +10048,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A29" s="83" t="s">
         <v>83</v>
       </c>
@@ -10097,7 +10097,7 @@
         <v>7.6266666666666678</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A30" s="4" t="s">
         <v>84</v>
       </c>
@@ -10146,7 +10146,7 @@
         <v>6.1013333333333346</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A31" s="4" t="s">
         <v>85</v>
       </c>
@@ -10195,7 +10195,7 @@
         <v>5.5466666666666677</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A32" s="83" t="s">
         <v>86</v>
       </c>
@@ -10244,7 +10244,7 @@
         <v>4.5759999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A33" s="4" t="s">
         <v>87</v>
       </c>
@@ -10293,7 +10293,7 @@
         <v>3.6608000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A34" s="6" t="s">
         <v>88</v>
       </c>
@@ -10342,7 +10342,7 @@
         <v>3.3279999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A36" t="s">
         <v>118</v>
       </c>
@@ -10380,7 +10380,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -10429,7 +10429,7 @@
         <v>3.8534736842105262</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A38" t="s">
         <v>100</v>
       </c>
@@ -10478,7 +10478,7 @@
         <v>3.4053953488372093</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A39" t="s">
         <v>101</v>
       </c>
@@ -10527,7 +10527,7 @@
         <v>3.218285714285714</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A41" t="s">
         <v>117</v>
       </c>
@@ -10565,7 +10565,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A42" t="s">
         <v>99</v>
       </c>
@@ -10614,7 +10614,7 @@
         <v>0.25950611888111891</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A43" t="s">
         <v>100</v>
       </c>
@@ -10663,7 +10663,7 @@
         <v>0.29365166083916083</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A44" t="s">
         <v>101</v>
       </c>
@@ -10724,18 +10724,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79215ADD-1307-4D97-A1B4-289252DBDF30}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="23.25" customWidth="1"/>
     <col min="2" max="12" width="14.75" customWidth="1"/>
     <col min="13" max="16" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A1" s="60" t="s">
         <v>4</v>
       </c>
@@ -10785,7 +10785,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A2" s="64" t="s">
         <v>58</v>
       </c>
@@ -10839,7 +10839,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A3" s="64" t="s">
         <v>59</v>
       </c>
@@ -10891,7 +10891,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A4" s="64" t="s">
         <v>60</v>
       </c>
@@ -10945,7 +10945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A5" s="69" t="s">
         <v>62</v>
       </c>
@@ -10988,7 +10988,7 @@
       </c>
       <c r="P5" s="68"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A6" s="74" t="s">
         <v>63</v>
       </c>
@@ -11031,7 +11031,7 @@
       </c>
       <c r="P6" s="68"/>
     </row>
-    <row r="7" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A7" s="76" t="s">
         <v>64</v>
       </c>
@@ -11077,12 +11077,12 @@
       <c r="O7" s="68"/>
       <c r="P7" s="68"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A8" s="64" t="s">
         <v>47</v>
       </c>
       <c r="B8" s="70">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C8" s="72">
         <v>0</v>
@@ -11104,7 +11104,7 @@
       </c>
       <c r="I8" s="72">
         <f t="shared" si="0"/>
-        <v>17.5</v>
+        <v>70</v>
       </c>
       <c r="J8" s="72">
         <f t="shared" si="1"/>
@@ -11123,12 +11123,12 @@
       <c r="O8" s="68"/>
       <c r="P8" s="68"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A9" s="64" t="s">
         <v>49</v>
       </c>
       <c r="B9" s="75">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C9" s="66">
         <f t="shared" ref="C9:E9" si="4">C8*2</f>
@@ -11156,7 +11156,7 @@
       </c>
       <c r="I9" s="65">
         <f t="shared" si="0"/>
-        <v>21.875</v>
+        <v>87.5</v>
       </c>
       <c r="J9" s="65">
         <f t="shared" si="1"/>
@@ -11175,12 +11175,12 @@
       <c r="O9" s="68"/>
       <c r="P9" s="68"/>
     </row>
-    <row r="10" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A10" s="81" t="s">
         <v>51</v>
       </c>
       <c r="B10" s="77">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="C10" s="78">
         <f t="shared" ref="C10:E10" si="5">C8*3</f>
@@ -11208,7 +11208,7 @@
       </c>
       <c r="I10" s="79">
         <f t="shared" si="0"/>
-        <v>26.25</v>
+        <v>105</v>
       </c>
       <c r="J10" s="79">
         <f t="shared" si="1"/>
@@ -11227,13 +11227,13 @@
       <c r="O10" s="68"/>
       <c r="P10" s="68"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A11" s="84" t="s">
         <v>109</v>
       </c>
       <c r="B11" s="75">
         <f>B8*$N$4</f>
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C11" s="65">
         <f t="shared" ref="C11:F13" si="6">C8*$O$4</f>
@@ -11261,7 +11261,7 @@
       </c>
       <c r="I11" s="65">
         <f t="shared" si="0"/>
-        <v>17.5</v>
+        <v>70</v>
       </c>
       <c r="J11" s="65">
         <f t="shared" si="1"/>
@@ -11280,13 +11280,13 @@
       <c r="O11" s="68"/>
       <c r="P11" s="68"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A12" s="84" t="s">
         <v>110</v>
       </c>
       <c r="B12" s="75">
         <f>B9*$N$4</f>
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="C12" s="65">
         <f t="shared" si="6"/>
@@ -11314,7 +11314,7 @@
       </c>
       <c r="I12" s="65">
         <f t="shared" si="0"/>
-        <v>21.875</v>
+        <v>87.5</v>
       </c>
       <c r="J12" s="65">
         <f t="shared" si="1"/>
@@ -11333,13 +11333,13 @@
       <c r="O12" s="68"/>
       <c r="P12" s="68"/>
     </row>
-    <row r="13" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A13" s="85" t="s">
         <v>111</v>
       </c>
       <c r="B13" s="77">
         <f>B10*$N$4</f>
-        <v>320</v>
+        <v>80</v>
       </c>
       <c r="C13" s="79">
         <f t="shared" si="6"/>
@@ -11367,7 +11367,7 @@
       </c>
       <c r="I13" s="79">
         <f t="shared" si="0"/>
-        <v>26.25</v>
+        <v>105</v>
       </c>
       <c r="J13" s="79">
         <f t="shared" si="1"/>
@@ -11386,17 +11386,17 @@
       <c r="O13" s="68"/>
       <c r="P13" s="68"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.7">
       <c r="J14" s="65"/>
       <c r="K14" s="65"/>
       <c r="L14" s="65"/>
     </row>
-    <row r="15" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="J15" s="65"/>
       <c r="K15" s="65"/>
       <c r="L15" s="65"/>
     </row>
-    <row r="16" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B16" s="83" t="s">
         <v>116</v>
       </c>
@@ -11416,7 +11416,7 @@
       <c r="K16" s="65"/>
       <c r="L16" s="65"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.7">
       <c r="B17" s="83" t="s">
         <v>99</v>
       </c>
@@ -11440,7 +11440,7 @@
       <c r="K17" s="65"/>
       <c r="L17" s="65"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.7">
       <c r="B18" s="4" t="s">
         <v>100</v>
       </c>
@@ -11464,7 +11464,7 @@
       <c r="K18" s="65"/>
       <c r="L18" s="65"/>
     </row>
-    <row r="19" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B19" s="6" t="s">
         <v>101</v>
       </c>
@@ -11488,16 +11488,16 @@
       <c r="K19" s="65"/>
       <c r="L19" s="65"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.7">
       <c r="J20" s="65"/>
       <c r="K20" s="65"/>
       <c r="L20" s="65"/>
     </row>
-    <row r="21" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="J21" s="65"/>
       <c r="K21" s="65"/>
     </row>
-    <row r="22" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B22" s="59" t="s">
         <v>54</v>
       </c>
@@ -11516,7 +11516,7 @@
       <c r="J22" s="65"/>
       <c r="K22" s="65"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.7">
       <c r="B23" s="83" t="s">
         <v>99</v>
       </c>
@@ -11539,7 +11539,7 @@
       <c r="J23" s="65"/>
       <c r="K23" s="65"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.7">
       <c r="B24" s="4" t="s">
         <v>100</v>
       </c>
@@ -11560,7 +11560,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B25" s="6" t="s">
         <v>101</v>
       </c>
@@ -11581,8 +11581,8 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="28" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="28" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B28" s="83" t="s">
         <v>117</v>
       </c>
@@ -11599,7 +11599,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.7">
       <c r="B29" s="83" t="s">
         <v>99</v>
       </c>
@@ -11620,7 +11620,7 @@
         <v>1.728395061728395</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.7">
       <c r="B30" s="4" t="s">
         <v>100</v>
       </c>
@@ -11641,7 +11641,7 @@
         <v>2.1604938271604937</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B31" s="6" t="s">
         <v>101</v>
       </c>
@@ -11665,7 +11665,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -11678,13 +11678,13 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="15" width="16" style="22" customWidth="1"/>
     <col min="16" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="19" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" s="19" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
@@ -11731,7 +11731,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A2" s="33" t="s">
         <v>39</v>
       </c>
@@ -11778,7 +11778,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A3" s="31" t="s">
         <v>37</v>
       </c>
@@ -11825,7 +11825,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A4" s="32" t="s">
         <v>35</v>
       </c>
@@ -11872,7 +11872,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A5" s="33" t="s">
         <v>40</v>
       </c>
@@ -11919,7 +11919,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A6" s="31" t="s">
         <v>38</v>
       </c>
@@ -11966,7 +11966,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A7" s="32" t="s">
         <v>36</v>
       </c>
@@ -12013,7 +12013,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A8" s="36" t="s">
         <v>41</v>
       </c>
@@ -12060,7 +12060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A9" s="37" t="s">
         <v>42</v>
       </c>
@@ -12107,7 +12107,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A10" s="20" t="s">
         <v>43</v>
       </c>
@@ -12154,7 +12154,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A11" s="23" t="s">
         <v>44</v>
       </c>
@@ -12201,30 +12201,30 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="111" t="s">
+    <row r="12" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="13" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A13" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="108" t="s">
+      <c r="C13" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="109"/>
-      <c r="L13" s="110"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="122"/>
     </row>
-    <row r="14" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="112"/>
-      <c r="B14" s="114"/>
+    <row r="14" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A14" s="124"/>
+      <c r="B14" s="126"/>
       <c r="C14" s="38">
         <v>0</v>
       </c>
@@ -12256,297 +12256,297 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A15" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="25">
-        <f>(D2+C2)/2*N2/L2*10</f>
+        <f t="shared" ref="B15:B20" si="0">(D2+C2)/2*N2/L2*10</f>
         <v>28.799999999999997</v>
       </c>
       <c r="C15" s="42">
-        <f>$N2-IF($C$14-$O2&gt;=0,$C$14-$O2,0)</f>
+        <f t="shared" ref="C15:C20" si="1">$N2-IF($C$14-$O2&gt;=0,$C$14-$O2,0)</f>
         <v>0.96</v>
       </c>
       <c r="D15" s="43">
-        <f>$N2-IF($D$14-$O2&gt;=0,$D$14-$O2,0)</f>
+        <f t="shared" ref="D15:D20" si="2">$N2-IF($D$14-$O2&gt;=0,$D$14-$O2,0)</f>
         <v>0.96</v>
       </c>
       <c r="E15" s="43">
-        <f>$N2-IF($E$14-$O2&gt;=0,$E$14-$O2,0)</f>
+        <f t="shared" ref="E15:E20" si="3">$N2-IF($E$14-$O2&gt;=0,$E$14-$O2,0)</f>
         <v>0.96</v>
       </c>
       <c r="F15" s="43">
-        <f>$N2-IF($F$14-$O2&gt;=0,$F$14-$O2,0)</f>
+        <f t="shared" ref="F15:F20" si="4">$N2-IF($F$14-$O2&gt;=0,$F$14-$O2,0)</f>
         <v>0.96</v>
       </c>
       <c r="G15" s="43">
-        <f>$N2-IF($G$14-$O2&gt;=0,$G$14-$O2,0)</f>
+        <f t="shared" ref="G15:G20" si="5">$N2-IF($G$14-$O2&gt;=0,$G$14-$O2,0)</f>
         <v>0.96</v>
       </c>
       <c r="H15" s="43">
-        <f>$N2-IF($H$14-$O2&gt;=0,$H$14-$O2,0)</f>
+        <f t="shared" ref="H15:H20" si="6">$N2-IF($H$14-$O2&gt;=0,$H$14-$O2,0)</f>
         <v>0.96</v>
       </c>
       <c r="I15" s="43">
-        <f>$N2-IF($I$14-$O2&gt;=0,$I$14-$O2,0)</f>
+        <f t="shared" ref="I15:I20" si="7">$N2-IF($I$14-$O2&gt;=0,$I$14-$O2,0)</f>
         <v>0.96</v>
       </c>
       <c r="J15" s="43">
-        <f>$N2-IF($J$14-$O2&gt;=0,$J$14-$O2,0)</f>
+        <f t="shared" ref="J15:J20" si="8">$N2-IF($J$14-$O2&gt;=0,$J$14-$O2,0)</f>
         <v>0.86</v>
       </c>
       <c r="K15" s="43">
-        <f>$N2-IF($K$14-$O2&gt;=0,$K$14-$O2,0)</f>
+        <f t="shared" ref="K15:K20" si="9">$N2-IF($K$14-$O2&gt;=0,$K$14-$O2,0)</f>
         <v>0.7599999999999999</v>
       </c>
       <c r="L15" s="44">
-        <f>$N2-IF($L$14-$O2&gt;=0,$L$14-$O2,0)</f>
+        <f t="shared" ref="L15:L20" si="10">$N2-IF($L$14-$O2&gt;=0,$L$14-$O2,0)</f>
         <v>0.65999999999999992</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A16" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="26">
-        <f>(D3+C3)/2*N3/L3*10</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="C16" s="42">
-        <f>$N3-IF($C$14-$O3&gt;=0,$C$14-$O3,0)</f>
+        <f t="shared" si="1"/>
         <v>0.96</v>
       </c>
       <c r="D16" s="43">
-        <f>$N3-IF($D$14-$O3&gt;=0,$D$14-$O3,0)</f>
+        <f t="shared" si="2"/>
         <v>0.96</v>
       </c>
       <c r="E16" s="43">
-        <f>$N3-IF($E$14-$O3&gt;=0,$E$14-$O3,0)</f>
+        <f t="shared" si="3"/>
         <v>0.96</v>
       </c>
       <c r="F16" s="43">
-        <f>$N3-IF($F$14-$O3&gt;=0,$F$14-$O3,0)</f>
+        <f t="shared" si="4"/>
         <v>0.96</v>
       </c>
       <c r="G16" s="43">
-        <f>$N3-IF($G$14-$O3&gt;=0,$G$14-$O3,0)</f>
+        <f t="shared" si="5"/>
         <v>0.96</v>
       </c>
       <c r="H16" s="43">
-        <f>$N3-IF($H$14-$O3&gt;=0,$H$14-$O3,0)</f>
+        <f t="shared" si="6"/>
         <v>0.86</v>
       </c>
       <c r="I16" s="43">
-        <f>$N3-IF($I$14-$O3&gt;=0,$I$14-$O3,0)</f>
+        <f t="shared" si="7"/>
         <v>0.76</v>
       </c>
       <c r="J16" s="43">
-        <f>$N3-IF($J$14-$O3&gt;=0,$J$14-$O3,0)</f>
+        <f t="shared" si="8"/>
         <v>0.66</v>
       </c>
       <c r="K16" s="43">
-        <f>$N3-IF($K$14-$O3&gt;=0,$K$14-$O3,0)</f>
+        <f t="shared" si="9"/>
         <v>0.55999999999999994</v>
       </c>
       <c r="L16" s="44">
-        <f>$N3-IF($L$14-$O3&gt;=0,$L$14-$O3,0)</f>
+        <f t="shared" si="10"/>
         <v>0.45999999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A17" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="27">
-        <f>(D4+C4)/2*N4/L4*10</f>
+        <f t="shared" si="0"/>
         <v>152</v>
       </c>
       <c r="C17" s="42">
-        <f>$N4-IF($C$14-$O4&gt;=0,$C$14-$O4,0)</f>
+        <f t="shared" si="1"/>
         <v>0.96</v>
       </c>
       <c r="D17" s="43">
-        <f>$N4-IF($D$14-$O4&gt;=0,$D$14-$O4,0)</f>
+        <f t="shared" si="2"/>
         <v>0.96</v>
       </c>
       <c r="E17" s="43">
-        <f>$N4-IF($E$14-$O4&gt;=0,$E$14-$O4,0)</f>
+        <f t="shared" si="3"/>
         <v>0.96</v>
       </c>
       <c r="F17" s="43">
-        <f>$N4-IF($F$14-$O4&gt;=0,$F$14-$O4,0)</f>
+        <f t="shared" si="4"/>
         <v>0.86</v>
       </c>
       <c r="G17" s="43">
-        <f>$N4-IF($G$14-$O4&gt;=0,$G$14-$O4,0)</f>
+        <f t="shared" si="5"/>
         <v>0.76</v>
       </c>
       <c r="H17" s="43">
-        <f>$N4-IF($H$14-$O4&gt;=0,$H$14-$O4,0)</f>
+        <f t="shared" si="6"/>
         <v>0.65999999999999992</v>
       </c>
       <c r="I17" s="43">
-        <f>$N4-IF($I$14-$O4&gt;=0,$I$14-$O4,0)</f>
+        <f t="shared" si="7"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="J17" s="43">
-        <f>$N4-IF($J$14-$O4&gt;=0,$J$14-$O4,0)</f>
+        <f t="shared" si="8"/>
         <v>0.46</v>
       </c>
       <c r="K17" s="43">
-        <f>$N4-IF($K$14-$O4&gt;=0,$K$14-$O4,0)</f>
+        <f t="shared" si="9"/>
         <v>0.35999999999999988</v>
       </c>
       <c r="L17" s="44">
-        <f>$N4-IF($L$14-$O4&gt;=0,$L$14-$O4,0)</f>
+        <f t="shared" si="10"/>
         <v>0.26</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A18" s="25" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="26">
-        <f>(D5+C5)/2*N5/L5*10</f>
+        <f t="shared" si="0"/>
         <v>8.8714285714285719</v>
       </c>
       <c r="C18" s="48">
-        <f>$N5-IF($C$14-$O5&gt;=0,$C$14-$O5,0)</f>
+        <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
       <c r="D18" s="49">
-        <f>$N5-IF($D$14-$O5&gt;=0,$D$14-$O5,0)</f>
+        <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
       <c r="E18" s="49">
-        <f>$N5-IF($E$14-$O5&gt;=0,$E$14-$O5,0)</f>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="F18" s="49">
-        <f>$N5-IF($F$14-$O5&gt;=0,$F$14-$O5,0)</f>
+        <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
       <c r="G18" s="49">
-        <f>$N5-IF($G$14-$O5&gt;=0,$G$14-$O5,0)</f>
+        <f t="shared" si="5"/>
         <v>0.9</v>
       </c>
       <c r="H18" s="49">
-        <f>$N5-IF($H$14-$O5&gt;=0,$H$14-$O5,0)</f>
+        <f t="shared" si="6"/>
         <v>0.9</v>
       </c>
       <c r="I18" s="49">
-        <f>$N5-IF($I$14-$O5&gt;=0,$I$14-$O5,0)</f>
+        <f t="shared" si="7"/>
         <v>0.9</v>
       </c>
       <c r="J18" s="49">
-        <f>$N5-IF($J$14-$O5&gt;=0,$J$14-$O5,0)</f>
+        <f t="shared" si="8"/>
         <v>0.8</v>
       </c>
       <c r="K18" s="49">
-        <f>$N5-IF($K$14-$O5&gt;=0,$K$14-$O5,0)</f>
+        <f t="shared" si="9"/>
         <v>0.7</v>
       </c>
       <c r="L18" s="50">
-        <f>$N5-IF($L$14-$O5&gt;=0,$L$14-$O5,0)</f>
+        <f t="shared" si="10"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A19" s="26" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="26">
-        <f>(D6+C6)/2*N6/L6*10</f>
+        <f t="shared" si="0"/>
         <v>22.242857142857147</v>
       </c>
       <c r="C19" s="42">
-        <f>$N6-IF($C$14-$O6&gt;=0,$C$14-$O6,0)</f>
+        <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
       <c r="D19" s="43">
-        <f>$N6-IF($D$14-$O6&gt;=0,$D$14-$O6,0)</f>
+        <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
       <c r="E19" s="43">
-        <f>$N6-IF($E$14-$O6&gt;=0,$E$14-$O6,0)</f>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="F19" s="43">
-        <f>$N6-IF($F$14-$O6&gt;=0,$F$14-$O6,0)</f>
+        <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
       <c r="G19" s="43">
-        <f>$N6-IF($G$14-$O6&gt;=0,$G$14-$O6,0)</f>
+        <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
       <c r="H19" s="43">
-        <f>$N6-IF($H$14-$O6&gt;=0,$H$14-$O6,0)</f>
+        <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
       <c r="I19" s="43">
-        <f>$N6-IF($I$14-$O6&gt;=0,$I$14-$O6,0)</f>
+        <f t="shared" si="7"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="J19" s="43">
-        <f>$N6-IF($J$14-$O6&gt;=0,$J$14-$O6,0)</f>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="K19" s="43">
-        <f>$N6-IF($K$14-$O6&gt;=0,$K$14-$O6,0)</f>
+        <f t="shared" si="9"/>
         <v>0.4</v>
       </c>
       <c r="L19" s="44">
-        <f>$N6-IF($L$14-$O6&gt;=0,$L$14-$O6,0)</f>
+        <f t="shared" si="10"/>
         <v>0.29999999999999993</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A20" s="27" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="27">
-        <f>(D7+C7)/2*N7/L7*10</f>
+        <f t="shared" si="0"/>
         <v>53.228571428571428</v>
       </c>
       <c r="C20" s="45">
-        <f>$N7-IF($C$14-$O7&gt;=0,$C$14-$O7,0)</f>
+        <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
       <c r="D20" s="46">
-        <f>$N7-IF($D$14-$O7&gt;=0,$D$14-$O7,0)</f>
+        <f t="shared" si="2"/>
         <v>0.85</v>
       </c>
       <c r="E20" s="46">
-        <f>$N7-IF($E$14-$O7&gt;=0,$E$14-$O7,0)</f>
+        <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
       <c r="F20" s="46">
-        <f>$N7-IF($F$14-$O7&gt;=0,$F$14-$O7,0)</f>
+        <f t="shared" si="4"/>
         <v>0.65</v>
       </c>
       <c r="G20" s="46">
-        <f>$N7-IF($G$14-$O7&gt;=0,$G$14-$O7,0)</f>
+        <f t="shared" si="5"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="H20" s="46">
-        <f>$N7-IF($H$14-$O7&gt;=0,$H$14-$O7,0)</f>
+        <f t="shared" si="6"/>
         <v>0.45</v>
       </c>
       <c r="I20" s="46">
-        <f>$N7-IF($I$14-$O7&gt;=0,$I$14-$O7,0)</f>
+        <f t="shared" si="7"/>
         <v>0.35000000000000009</v>
       </c>
       <c r="J20" s="46">
-        <f>$N7-IF($J$14-$O7&gt;=0,$J$14-$O7,0)</f>
+        <f t="shared" si="8"/>
         <v>0.25000000000000011</v>
       </c>
       <c r="K20" s="46">
-        <f>$N7-IF($K$14-$O7&gt;=0,$K$14-$O7,0)</f>
+        <f t="shared" si="9"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="L20" s="47">
-        <f>$N7-IF($L$14-$O7&gt;=0,$L$14-$O7,0)</f>
+        <f t="shared" si="10"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -12567,21 +12567,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43120986-DD99-4476-9BFD-57A60D957B16}">
   <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="20.625" customWidth="1"/>
     <col min="2" max="21" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="19" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" s="19" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="108" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="29" t="s">
@@ -12623,7 +12623,7 @@
       <c r="O1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="117" t="s">
+      <c r="P1" s="110" t="s">
         <v>121</v>
       </c>
       <c r="Q1" s="88" t="s">
@@ -12642,72 +12642,72 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.7">
       <c r="A2" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="118">
+      <c r="B2" s="111">
         <v>-26</v>
       </c>
-      <c r="C2" s="119">
+      <c r="C2" s="112">
         <v>86</v>
       </c>
-      <c r="D2" s="119">
+      <c r="D2" s="112">
         <v>114</v>
       </c>
-      <c r="E2" s="119">
+      <c r="E2" s="112">
         <v>1.25</v>
       </c>
-      <c r="F2" s="119">
+      <c r="F2" s="112">
         <v>1</v>
       </c>
-      <c r="G2" s="119">
+      <c r="G2" s="112">
         <v>1</v>
       </c>
-      <c r="H2" s="119">
+      <c r="H2" s="112">
         <v>1</v>
       </c>
-      <c r="I2" s="119">
+      <c r="I2" s="112">
         <v>0</v>
       </c>
-      <c r="J2" s="119">
+      <c r="J2" s="112">
         <v>1</v>
       </c>
-      <c r="K2" s="119">
+      <c r="K2" s="112">
         <v>15</v>
       </c>
-      <c r="L2" s="119">
+      <c r="L2" s="112">
         <v>60</v>
       </c>
-      <c r="M2" s="119">
+      <c r="M2" s="112">
         <v>100</v>
       </c>
-      <c r="N2" s="119">
+      <c r="N2" s="112">
         <v>1</v>
       </c>
-      <c r="O2" s="119">
+      <c r="O2" s="112">
         <v>0.25</v>
       </c>
-      <c r="P2" s="120">
+      <c r="P2" s="113">
         <v>400</v>
       </c>
-      <c r="Q2" s="120">
+      <c r="Q2" s="113">
         <v>0.4</v>
       </c>
-      <c r="R2" s="121">
+      <c r="R2" s="114">
         <v>0</v>
       </c>
-      <c r="S2" s="121">
+      <c r="S2" s="114">
         <v>0</v>
       </c>
-      <c r="T2" s="120">
+      <c r="T2" s="113">
         <v>10</v>
       </c>
-      <c r="U2" s="122">
+      <c r="U2" s="115">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.7">
       <c r="A3" s="13" t="s">
         <v>128</v>
       </c>
@@ -12737,7 +12737,7 @@
         <v>1.5</v>
       </c>
       <c r="I3" s="12">
-        <f t="shared" ref="C3:U3" si="0">I2*1.5</f>
+        <f t="shared" ref="I3:U3" si="0">I2*1.5</f>
         <v>0</v>
       </c>
       <c r="J3" s="12">
@@ -12779,7 +12779,7 @@
       </c>
       <c r="V3" s="21"/>
     </row>
-    <row r="4" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.7">
       <c r="A4" s="13" t="s">
         <v>129</v>
       </c>
@@ -12796,7 +12796,7 @@
         <v>456</v>
       </c>
       <c r="E4" s="12">
-        <f t="shared" ref="E4:E5" si="2">E3*1.2</f>
+        <f t="shared" ref="E4" si="2">E3*1.2</f>
         <v>1.7999999999999998</v>
       </c>
       <c r="F4" s="12">
@@ -12806,7 +12806,7 @@
         <v>1.25</v>
       </c>
       <c r="H4" s="12">
-        <f t="shared" ref="H4:H5" si="3">H3*1.2</f>
+        <f t="shared" ref="H4" si="3">H3*1.2</f>
         <v>1.7999999999999998</v>
       </c>
       <c r="I4" s="12">
@@ -12859,11 +12859,11 @@
       </c>
       <c r="V4" s="21"/>
     </row>
-    <row r="5" spans="1:22" s="22" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="116" t="s">
+    <row r="5" spans="1:22" s="22" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A5" s="109" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="116">
+      <c r="B5" s="109">
         <f>B4*1.2</f>
         <v>-44.927999999999997</v>
       </c>
@@ -12882,7 +12882,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="15">
-        <f t="shared" ref="G4:G5" si="11">G4*1.5</f>
+        <f t="shared" ref="G5" si="11">G4*1.5</f>
         <v>1.875</v>
       </c>
       <c r="H5" s="15">
@@ -12937,67 +12937,67 @@
       </c>
       <c r="V5" s="21"/>
     </row>
-    <row r="7" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="111" t="s">
+    <row r="7" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="8" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A8" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="113" t="s">
+      <c r="B8" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="109" t="s">
+      <c r="C8" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="110"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="122"/>
     </row>
-    <row r="9" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="123"/>
-      <c r="B9" s="124"/>
-      <c r="C9" s="125">
+    <row r="9" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A9" s="127"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="116">
         <v>0</v>
       </c>
-      <c r="D9" s="125">
+      <c r="D9" s="116">
         <v>0.1</v>
       </c>
-      <c r="E9" s="126">
+      <c r="E9" s="117">
         <v>0.2</v>
       </c>
-      <c r="F9" s="125">
+      <c r="F9" s="116">
         <v>0.3</v>
       </c>
-      <c r="G9" s="126">
+      <c r="G9" s="117">
         <v>0.4</v>
       </c>
-      <c r="H9" s="125">
+      <c r="H9" s="116">
         <v>0.5</v>
       </c>
-      <c r="I9" s="125">
+      <c r="I9" s="116">
         <v>0.6</v>
       </c>
-      <c r="J9" s="125">
+      <c r="J9" s="116">
         <v>0.7</v>
       </c>
-      <c r="K9" s="125">
+      <c r="K9" s="116">
         <v>0.8</v>
       </c>
-      <c r="L9" s="127">
+      <c r="L9" s="118">
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.7">
       <c r="A10" s="33" t="str">
         <f>A2</f>
         <v>マローダーミサイル</v>
       </c>
-      <c r="B10" s="128">
+      <c r="B10" s="119">
         <f>(D2+C2)/2*N2/L2*10</f>
         <v>16.666666666666668</v>
       </c>
@@ -13042,7 +13042,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.7">
       <c r="A11" s="31" t="str">
         <f t="shared" ref="A11:A13" si="12">A3</f>
         <v>試作ロンギヌスの槍</v>
@@ -13092,13 +13092,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.7">
       <c r="A12" s="31" t="str">
         <f t="shared" si="12"/>
         <v>ロンギヌスの槍</v>
       </c>
       <c r="B12" s="20">
-        <f t="shared" ref="B11:B13" si="22">(D4+C4)/2*N4/L4*10</f>
+        <f t="shared" ref="B12:B13" si="22">(D4+C4)/2*N4/L4*10</f>
         <v>55.375</v>
       </c>
       <c r="C12" s="43">
@@ -13142,7 +13142,7 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A13" s="32" t="str">
         <f t="shared" si="12"/>
         <v>ロンギヌスの槍α</v>

--- a/MagicalDiscoveries.xlsx
+++ b/MagicalDiscoveries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Prg\Stellaris\MagicalDiscoveries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC7C26E-024F-447B-9B04-25F6B644E6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE48D5B-8839-47AF-B5A7-981F3EFB9F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" activeTab="1" xr2:uid="{33EBD46C-414F-4B8E-A737-7C9375C5AD2F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" activeTab="3" xr2:uid="{33EBD46C-414F-4B8E-A737-7C9375C5AD2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="133">
   <si>
     <t>中型ミスリル装甲</t>
   </si>
@@ -110,15 +110,6 @@
     <t>tracking</t>
   </si>
   <si>
-    <t>小型神話崩壊砲</t>
-  </si>
-  <si>
-    <t>中型神話崩壊砲</t>
-  </si>
-  <si>
-    <t>大型神話崩壊砲</t>
-  </si>
-  <si>
     <t>max damage</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -170,39 +161,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>大型事象崩壊砲</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>中型神話崩壊砲</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>中型事象崩壊砲</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>小型神話崩壊砲</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>小型事象崩壊砲</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>クサナギノツヨシ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>小型神の吐息</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>中型神の吐息</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>大型神の吐息</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -617,6 +580,71 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>小型試作神話崩壊砲</t>
+    <rPh sb="2" eb="4">
+      <t>シサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中型試作神話崩壊砲</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大型試作神話崩壊砲</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小型零式神話崩壊砲</t>
+    <rPh sb="2" eb="4">
+      <t>レイシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中型零式神話崩壊砲</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大型零式神話崩壊砲</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>試作神話崩壊砲</t>
+  </si>
+  <si>
+    <t>神話崩壊砲</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>零式神話崩壊砲</t>
+    <rPh sb="0" eb="2">
+      <t>レイシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小型</t>
+    <rPh sb="0" eb="2">
+      <t>コガタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中型</t>
+    <rPh sb="0" eb="2">
+      <t>チュウガタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大型</t>
+    <rPh sb="0" eb="2">
+      <t>オオガタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -879,7 +907,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -955,15 +983,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -982,49 +1001,16 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
@@ -1252,13 +1238,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1266,6 +1246,24 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4041,7 +4039,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>小型神話崩壊砲</c:v>
+                  <c:v>小型試作神話崩壊砲</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4123,34 +4121,34 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.96</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.96</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.96</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.96</c:v>
+                  <c:v>0.70000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.86</c:v>
+                  <c:v>0.60000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.7599999999999999</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.65999999999999992</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4171,7 +4169,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>中型神話崩壊砲</c:v>
+                  <c:v>中型試作神話崩壊砲</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4204,6 +4202,45 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$C$14:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet2!$C$16:$L$16</c:f>
@@ -4211,34 +4248,34 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.96</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.96</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.86</c:v>
+                  <c:v>0.60000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.76</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.66</c:v>
+                  <c:v>0.40000000000000008</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.55999999999999994</c:v>
+                  <c:v>0.30000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.45999999999999996</c:v>
+                  <c:v>0.19999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4259,7 +4296,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>大型神話崩壊砲</c:v>
+                  <c:v>大型試作神話崩壊砲</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4292,6 +4329,45 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$C$14:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet2!$C$17:$L$17</c:f>
@@ -4299,34 +4375,34 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.96</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.86</c:v>
+                  <c:v>0.70000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.76</c:v>
+                  <c:v>0.60000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.65999999999999992</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0.40000000000000008</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.46</c:v>
+                  <c:v>0.3000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.35999999999999988</c:v>
+                  <c:v>0.19999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.26</c:v>
+                  <c:v>0.10000000000000009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4347,7 +4423,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>小型事象崩壊砲</c:v>
+                  <c:v>小型神話崩壊砲</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4380,6 +4456,45 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$C$14:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet2!$C$18:$L$18</c:f>
@@ -4435,7 +4550,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>中型事象崩壊砲</c:v>
+                  <c:v>中型神話崩壊砲</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4474,6 +4589,45 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$C$14:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet2!$C$19:$L$19</c:f>
@@ -4493,22 +4647,22 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.7</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.70000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.60000000000000009</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.29999999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4529,7 +4683,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>大型事象崩壊砲</c:v>
+                  <c:v>大型神話崩壊砲</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4565,6 +4719,45 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$C$14:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet2!$C$20:$L$20</c:f>
@@ -4575,31 +4768,31 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.65</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.45</c:v>
+                  <c:v>0.60000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.35000000000000009</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.25000000000000011</c:v>
+                  <c:v>0.40000000000000008</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.15000000000000002</c:v>
+                  <c:v>0.29999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.0000000000000044E-2</c:v>
+                  <c:v>0.20000000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4608,6 +4801,393 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000012-AB6D-4977-999B-CC1E23829B9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>小型零式神話崩壊砲</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$C$14:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$21:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85999999999999988</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7599999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3B4E-4074-95EB-75A59E717D53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>中型零式神話崩壊砲</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$C$14:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$22:$L$22</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65999999999999992</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55999999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3B4E-4074-95EB-75A59E717D53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>大型零式神話崩壊砲</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$C$14:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$23:$L$23</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85999999999999988</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65999999999999992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35999999999999988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3B4E-4074-95EB-75A59E717D53}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4929,6 +5509,841 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>平均火力</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>試作神話崩壊砲</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$25:$D$25</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>小型</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>中型</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>大型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$26:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8C8E-4E63-83EE-F781C8BC33A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>神話崩壊砲</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$25:$D$25</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>小型</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>中型</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>大型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$27:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>16.875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>151.875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8C8E-4E63-83EE-F781C8BC33A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>零式神話崩壊砲</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$25:$D$25</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>小型</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>中型</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>大型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$28:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>28.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>259.20000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8C8E-4E63-83EE-F781C8BC33A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="543323192"/>
+        <c:axId val="543322552"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="543323192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543322552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="543322552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543323192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>平均火力</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$11:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>試作ロンギヌスの槍</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ロンギヌスの槍</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ロンギヌスの槍α</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$11:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>22.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>147.66666666666669</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1E90-4DBC-9D70-A1191D12A280}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="544779536"/>
+        <c:axId val="544782096"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="544779536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544782096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="544782096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544779536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5169,6 +6584,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -7685,6 +9180,1012 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8381,16 +10882,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>767043</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>181534</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>800380</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>110097</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1100978</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>225236</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1134315</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>158561</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8398,6 +10899,83 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3051CB84-0935-44D3-8CF2-3C83D7FDB0C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>16668</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>73818</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93CB46E8-07CB-40C0-A7F8-5C71C46E7563}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>223838</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>121443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>995363</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>178593</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33E147FF-E121-4583-9AB9-22A580B26369}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8717,48 +11295,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78745F3-E409-4161-8013-11F6ADA667F6}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="5" width="11.875" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="97" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="106" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="83" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="92" customWidth="1"/>
     <col min="8" max="17" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="90" t="s">
+      <c r="F1" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="99" t="s">
+      <c r="G1" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="J1" s="52" t="s">
-        <v>119</v>
+      <c r="I1" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>109</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
@@ -8773,40 +11351,40 @@
         <v>8</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.7">
-      <c r="A2" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="83">
+      <c r="A2" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="69">
         <v>10</v>
       </c>
-      <c r="C2" s="56">
+      <c r="C2" s="42">
         <v>0</v>
       </c>
-      <c r="D2" s="56">
+      <c r="D2" s="42">
         <v>0</v>
       </c>
-      <c r="E2" s="56">
+      <c r="E2" s="42">
         <v>0</v>
       </c>
-      <c r="F2" s="91">
+      <c r="F2" s="77">
         <v>50</v>
       </c>
-      <c r="G2" s="100">
+      <c r="G2" s="86">
         <v>0</v>
       </c>
-      <c r="H2" s="57">
+      <c r="H2" s="43">
         <f>Q2</f>
         <v>0.8</v>
       </c>
-      <c r="I2" s="57">
+      <c r="I2" s="43">
         <f>(F2+30*G2)/(B2*4+C2*30+D2*85+E2*200)</f>
         <v>1.25</v>
       </c>
-      <c r="J2" s="58">
+      <c r="J2" s="44">
         <f>P2</f>
         <v>0.8</v>
       </c>
@@ -8835,7 +11413,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.7">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="40" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
@@ -8850,10 +11428,10 @@
       <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="F3" s="92">
+      <c r="F3" s="78">
         <v>125</v>
       </c>
-      <c r="G3" s="101">
+      <c r="G3" s="87">
         <v>0</v>
       </c>
       <c r="H3" s="3">
@@ -8878,7 +11456,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="40" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="6">
@@ -8893,10 +11471,10 @@
       <c r="E4" s="7">
         <v>0</v>
       </c>
-      <c r="F4" s="93">
+      <c r="F4" s="79">
         <v>300</v>
       </c>
-      <c r="G4" s="102">
+      <c r="G4" s="88">
         <v>0</v>
       </c>
       <c r="H4" s="10">
@@ -8921,8 +11499,8 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.7">
-      <c r="A5" s="83" t="s">
-        <v>103</v>
+      <c r="A5" s="69" t="s">
+        <v>93</v>
       </c>
       <c r="B5" s="4">
         <v>29</v>
@@ -8936,10 +11514,10 @@
       <c r="E5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" s="92">
+      <c r="F5" s="78">
         <v>50</v>
       </c>
-      <c r="G5" s="101">
+      <c r="G5" s="87">
         <v>0</v>
       </c>
       <c r="H5" s="3">
@@ -8955,10 +11533,10 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="L5" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="M5" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="P5" s="9">
         <f t="shared" si="4"/>
@@ -8971,7 +11549,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A6" s="4" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B6" s="4">
         <v>57</v>
@@ -8985,10 +11563,10 @@
       <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="92">
+      <c r="F6" s="78">
         <v>125</v>
       </c>
-      <c r="G6" s="101">
+      <c r="G6" s="87">
         <v>0</v>
       </c>
       <c r="H6" s="3">
@@ -9004,7 +11582,7 @@
         <v>1.8240000000000001</v>
       </c>
       <c r="K6" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="L6">
         <v>0.8</v>
@@ -9023,7 +11601,7 @@
     </row>
     <row r="7" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A7" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B7" s="4">
         <v>114</v>
@@ -9037,10 +11615,10 @@
       <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="F7" s="92">
+      <c r="F7" s="78">
         <v>300</v>
       </c>
-      <c r="G7" s="101">
+      <c r="G7" s="87">
         <v>0</v>
       </c>
       <c r="H7" s="3">
@@ -9056,7 +11634,7 @@
         <v>1.52</v>
       </c>
       <c r="K7" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="L7">
         <v>0.6</v>
@@ -9075,35 +11653,35 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="83">
+        <v>57</v>
+      </c>
+      <c r="B8" s="69">
         <v>11</v>
       </c>
-      <c r="C8" s="56">
+      <c r="C8" s="42">
         <v>22</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D8" s="42">
         <v>0</v>
       </c>
-      <c r="E8" s="56">
+      <c r="E8" s="42">
         <v>0</v>
       </c>
-      <c r="F8" s="94">
+      <c r="F8" s="80">
         <v>160</v>
       </c>
-      <c r="G8" s="103">
+      <c r="G8" s="89">
         <v>1</v>
       </c>
-      <c r="H8" s="57">
+      <c r="H8" s="43">
         <f t="shared" si="1"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="I8" s="57">
+      <c r="I8" s="43">
         <f t="shared" si="2"/>
         <v>0.26988636363636365</v>
       </c>
-      <c r="J8" s="58">
+      <c r="J8" s="44">
         <f t="shared" si="3"/>
         <v>3.7052631578947368</v>
       </c>
@@ -9132,10 +11710,10 @@
       <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="95">
+      <c r="F9" s="81">
         <v>400</v>
       </c>
-      <c r="G9" s="104">
+      <c r="G9" s="90">
         <v>1</v>
       </c>
       <c r="H9" s="3">
@@ -9175,10 +11753,10 @@
       <c r="E10" s="7">
         <v>0</v>
       </c>
-      <c r="F10" s="96">
+      <c r="F10" s="82">
         <v>920</v>
       </c>
-      <c r="G10" s="105">
+      <c r="G10" s="91">
         <v>1</v>
       </c>
       <c r="H10" s="10">
@@ -9203,8 +11781,8 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.7">
-      <c r="A11" s="83" t="s">
-        <v>68</v>
+      <c r="A11" s="69" t="s">
+        <v>58</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" ref="B11:E13" si="5">B8*$L$6</f>
@@ -9222,11 +11800,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F11" s="92">
+      <c r="F11" s="78">
         <f t="shared" ref="F11:G13" si="6">F8*$L$7</f>
         <v>96</v>
       </c>
-      <c r="G11" s="101">
+      <c r="G11" s="87">
         <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
@@ -9253,7 +11831,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A12" s="4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="5"/>
@@ -9271,11 +11849,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F12" s="92">
+      <c r="F12" s="78">
         <f t="shared" si="6"/>
         <v>240</v>
       </c>
-      <c r="G12" s="101">
+      <c r="G12" s="87">
         <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
@@ -9302,7 +11880,7 @@
     </row>
     <row r="13" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A13" s="6" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="5"/>
@@ -9320,11 +11898,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F13" s="92">
+      <c r="F13" s="78">
         <f t="shared" si="6"/>
         <v>552</v>
       </c>
-      <c r="G13" s="101">
+      <c r="G13" s="87">
         <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
@@ -9350,42 +11928,42 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.7">
-      <c r="A14" s="83" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="83">
+      <c r="A14" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="69">
         <f t="shared" ref="B14:E16" si="8">B8*$M$6</f>
         <v>13.2</v>
       </c>
-      <c r="C14" s="56">
+      <c r="C14" s="42">
         <f t="shared" si="8"/>
         <v>26.4</v>
       </c>
-      <c r="D14" s="56">
+      <c r="D14" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E14" s="56">
+      <c r="E14" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F14" s="91">
+      <c r="F14" s="77">
         <f t="shared" ref="F14:G16" si="9">F8*$M$7</f>
         <v>240</v>
       </c>
-      <c r="G14" s="100">
+      <c r="G14" s="86">
         <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
-      <c r="H14" s="57">
+      <c r="H14" s="43">
         <f t="shared" ref="H14:H25" si="10">Q14</f>
         <v>3.52</v>
       </c>
-      <c r="I14" s="57">
+      <c r="I14" s="43">
         <f t="shared" si="2"/>
         <v>0.33735795454545459</v>
       </c>
-      <c r="J14" s="58">
+      <c r="J14" s="44">
         <f t="shared" ref="J14:J25" si="11">P14</f>
         <v>2.9642105263157892</v>
       </c>
@@ -9400,7 +11978,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A15" s="4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="8"/>
@@ -9418,11 +11996,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F15" s="92">
+      <c r="F15" s="78">
         <f t="shared" si="9"/>
         <v>600</v>
       </c>
-      <c r="G15" s="101">
+      <c r="G15" s="87">
         <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
@@ -9449,7 +12027,7 @@
     </row>
     <row r="16" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A16" s="6" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B16" s="6">
         <f t="shared" si="8"/>
@@ -9467,11 +12045,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F16" s="93">
+      <c r="F16" s="79">
         <f t="shared" si="9"/>
         <v>1380</v>
       </c>
-      <c r="G16" s="102">
+      <c r="G16" s="88">
         <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
@@ -9498,7 +12076,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A17" s="4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B17" s="4">
         <v>22</v>
@@ -9512,10 +12090,10 @@
       <c r="E17" s="2">
         <v>0</v>
       </c>
-      <c r="F17" s="95">
+      <c r="F17" s="81">
         <v>280</v>
       </c>
-      <c r="G17" s="104">
+      <c r="G17" s="90">
         <v>1.5</v>
       </c>
       <c r="H17" s="3">
@@ -9541,7 +12119,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A18" s="4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B18" s="4">
         <v>44</v>
@@ -9555,10 +12133,10 @@
       <c r="E18" s="2">
         <v>0</v>
       </c>
-      <c r="F18" s="95">
+      <c r="F18" s="81">
         <v>700</v>
       </c>
-      <c r="G18" s="104">
+      <c r="G18" s="90">
         <v>1.5</v>
       </c>
       <c r="H18" s="3">
@@ -9598,10 +12176,10 @@
       <c r="E19" s="2">
         <v>0</v>
       </c>
-      <c r="F19" s="95">
+      <c r="F19" s="81">
         <v>1700</v>
       </c>
-      <c r="G19" s="104">
+      <c r="G19" s="90">
         <v>1.5</v>
       </c>
       <c r="H19" s="3">
@@ -9626,42 +12204,42 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.7">
-      <c r="A20" s="83" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="83">
+      <c r="A20" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="69">
         <f t="shared" ref="B20:E22" si="12">B17*$L$6</f>
         <v>17.600000000000001</v>
       </c>
-      <c r="C20" s="56">
+      <c r="C20" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="D20" s="56">
+      <c r="D20" s="42">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
-      <c r="E20" s="56">
+      <c r="E20" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F20" s="91">
+      <c r="F20" s="77">
         <f t="shared" ref="F20:G22" si="13">F17*$L$7</f>
         <v>168</v>
       </c>
-      <c r="G20" s="100">
+      <c r="G20" s="86">
         <f t="shared" si="13"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="H20" s="57">
+      <c r="H20" s="43">
         <f t="shared" si="10"/>
         <v>6.4904761904761914</v>
       </c>
-      <c r="I20" s="57">
+      <c r="I20" s="43">
         <f t="shared" si="2"/>
         <v>0.17883345561261921</v>
       </c>
-      <c r="J20" s="58">
+      <c r="J20" s="44">
         <f t="shared" si="11"/>
         <v>5.591794871794872</v>
       </c>
@@ -9676,7 +12254,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A21" s="4" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="12"/>
@@ -9694,11 +12272,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F21" s="92">
+      <c r="F21" s="78">
         <f t="shared" si="13"/>
         <v>420</v>
       </c>
-      <c r="G21" s="101">
+      <c r="G21" s="87">
         <f t="shared" si="13"/>
         <v>0.89999999999999991</v>
       </c>
@@ -9725,7 +12303,7 @@
     </row>
     <row r="22" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A22" s="6" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B22" s="6">
         <f t="shared" si="12"/>
@@ -9743,11 +12321,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F22" s="93">
+      <c r="F22" s="79">
         <f t="shared" si="13"/>
         <v>1020</v>
       </c>
-      <c r="G22" s="102">
+      <c r="G22" s="88">
         <f t="shared" si="13"/>
         <v>0.89999999999999991</v>
       </c>
@@ -9774,7 +12352,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A23" s="4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" ref="B23:E25" si="14">B17*$M$6</f>
@@ -9792,11 +12370,11 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F23" s="92">
+      <c r="F23" s="78">
         <f t="shared" ref="F23:G25" si="15">F17*$M$7</f>
         <v>420</v>
       </c>
-      <c r="G23" s="101">
+      <c r="G23" s="87">
         <f t="shared" si="15"/>
         <v>2.25</v>
       </c>
@@ -9823,7 +12401,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A24" s="4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="14"/>
@@ -9841,11 +12419,11 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F24" s="92">
+      <c r="F24" s="78">
         <f t="shared" si="15"/>
         <v>1050</v>
       </c>
-      <c r="G24" s="101">
+      <c r="G24" s="87">
         <f t="shared" si="15"/>
         <v>2.25</v>
       </c>
@@ -9872,7 +12450,7 @@
     </row>
     <row r="25" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A25" s="6" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="14"/>
@@ -9890,11 +12468,11 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F25" s="92">
+      <c r="F25" s="78">
         <f t="shared" si="15"/>
         <v>2550</v>
       </c>
-      <c r="G25" s="101">
+      <c r="G25" s="87">
         <f t="shared" si="15"/>
         <v>2.25</v>
       </c>
@@ -9921,35 +12499,35 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A26" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="83">
+        <v>71</v>
+      </c>
+      <c r="B26" s="69">
         <v>22</v>
       </c>
-      <c r="C26" s="56">
+      <c r="C26" s="42">
         <v>0</v>
       </c>
-      <c r="D26" s="56">
+      <c r="D26" s="42">
         <v>0</v>
       </c>
-      <c r="E26" s="56">
+      <c r="E26" s="42">
         <v>11</v>
       </c>
-      <c r="F26" s="94">
+      <c r="F26" s="80">
         <v>400</v>
       </c>
-      <c r="G26" s="103">
+      <c r="G26" s="89">
         <v>2.5</v>
       </c>
-      <c r="H26" s="57">
+      <c r="H26" s="43">
         <f>Q26</f>
         <v>5.72</v>
       </c>
-      <c r="I26" s="57">
+      <c r="I26" s="43">
         <f t="shared" si="2"/>
         <v>0.2076048951048951</v>
       </c>
-      <c r="J26" s="58">
+      <c r="J26" s="44">
         <f>P26</f>
         <v>4.8168421052631576</v>
       </c>
@@ -9964,7 +12542,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A27" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B27" s="4">
         <v>44</v>
@@ -9978,10 +12556,10 @@
       <c r="E27" s="2">
         <v>22</v>
       </c>
-      <c r="F27" s="95">
+      <c r="F27" s="81">
         <v>1000</v>
       </c>
-      <c r="G27" s="104">
+      <c r="G27" s="90">
         <v>2.5</v>
       </c>
       <c r="H27" s="3">
@@ -10021,10 +12599,10 @@
       <c r="E28" s="7">
         <v>44</v>
       </c>
-      <c r="F28" s="96">
+      <c r="F28" s="82">
         <v>2200</v>
       </c>
-      <c r="G28" s="105">
+      <c r="G28" s="91">
         <v>2.5</v>
       </c>
       <c r="H28" s="10">
@@ -10049,42 +12627,42 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.7">
-      <c r="A29" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="83">
+      <c r="A29" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="69">
         <f t="shared" ref="B29:E31" si="16">B26*$L$6</f>
         <v>17.600000000000001</v>
       </c>
-      <c r="C29" s="56">
+      <c r="C29" s="42">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="D29" s="56">
+      <c r="D29" s="42">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="E29" s="56">
+      <c r="E29" s="42">
         <f t="shared" si="16"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="F29" s="91">
+      <c r="F29" s="77">
         <f t="shared" ref="F29:G31" si="17">F26*$L$7</f>
         <v>240</v>
       </c>
-      <c r="G29" s="100">
+      <c r="G29" s="86">
         <f t="shared" si="17"/>
         <v>1.5</v>
       </c>
-      <c r="H29" s="57">
+      <c r="H29" s="43">
         <f t="shared" ref="H29:H34" si="18">Q29</f>
         <v>7.6266666666666678</v>
       </c>
-      <c r="I29" s="57">
+      <c r="I29" s="43">
         <f t="shared" si="2"/>
         <v>0.1557036713286713</v>
       </c>
-      <c r="J29" s="58">
+      <c r="J29" s="44">
         <f t="shared" ref="J29:J34" si="19">P29</f>
         <v>6.422456140350878</v>
       </c>
@@ -10099,7 +12677,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A30" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B30" s="4">
         <f t="shared" si="16"/>
@@ -10117,11 +12695,11 @@
         <f t="shared" si="16"/>
         <v>17.600000000000001</v>
       </c>
-      <c r="F30" s="92">
+      <c r="F30" s="78">
         <f t="shared" si="17"/>
         <v>600</v>
       </c>
-      <c r="G30" s="101">
+      <c r="G30" s="87">
         <f t="shared" si="17"/>
         <v>1.5</v>
       </c>
@@ -10148,7 +12726,7 @@
     </row>
     <row r="31" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A31" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B31" s="6">
         <f t="shared" si="16"/>
@@ -10166,11 +12744,11 @@
         <f t="shared" si="16"/>
         <v>35.200000000000003</v>
       </c>
-      <c r="F31" s="93">
+      <c r="F31" s="79">
         <f t="shared" si="17"/>
         <v>1320</v>
       </c>
-      <c r="G31" s="102">
+      <c r="G31" s="88">
         <f t="shared" si="17"/>
         <v>1.5</v>
       </c>
@@ -10196,42 +12774,42 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.7">
-      <c r="A32" s="83" t="s">
-        <v>86</v>
-      </c>
-      <c r="B32" s="83">
+      <c r="A32" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="69">
         <f t="shared" ref="B32:E34" si="20">B26*$M$6</f>
         <v>26.4</v>
       </c>
-      <c r="C32" s="56">
+      <c r="C32" s="42">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="D32" s="56">
+      <c r="D32" s="42">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="E32" s="56">
+      <c r="E32" s="42">
         <f t="shared" si="20"/>
         <v>13.2</v>
       </c>
-      <c r="F32" s="91">
+      <c r="F32" s="77">
         <f t="shared" ref="F32:G34" si="21">F26*$M$7</f>
         <v>600</v>
       </c>
-      <c r="G32" s="100">
+      <c r="G32" s="86">
         <f t="shared" si="21"/>
         <v>3.75</v>
       </c>
-      <c r="H32" s="57">
+      <c r="H32" s="43">
         <f t="shared" si="18"/>
         <v>4.5759999999999996</v>
       </c>
-      <c r="I32" s="57">
+      <c r="I32" s="43">
         <f t="shared" si="2"/>
         <v>0.25950611888111891</v>
       </c>
-      <c r="J32" s="58">
+      <c r="J32" s="44">
         <f t="shared" si="19"/>
         <v>3.8534736842105262</v>
       </c>
@@ -10246,7 +12824,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A33" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B33" s="4">
         <f t="shared" si="20"/>
@@ -10264,11 +12842,11 @@
         <f t="shared" si="20"/>
         <v>26.4</v>
       </c>
-      <c r="F33" s="92">
+      <c r="F33" s="78">
         <f t="shared" si="21"/>
         <v>1500</v>
       </c>
-      <c r="G33" s="101">
+      <c r="G33" s="87">
         <f t="shared" si="21"/>
         <v>3.75</v>
       </c>
@@ -10295,7 +12873,7 @@
     </row>
     <row r="34" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A34" s="6" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B34" s="6">
         <f t="shared" si="20"/>
@@ -10313,11 +12891,11 @@
         <f t="shared" si="20"/>
         <v>52.8</v>
       </c>
-      <c r="F34" s="93">
+      <c r="F34" s="79">
         <f t="shared" si="21"/>
         <v>3300</v>
       </c>
-      <c r="G34" s="102">
+      <c r="G34" s="88">
         <f t="shared" si="21"/>
         <v>3.75</v>
       </c>
@@ -10344,45 +12922,45 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A36" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D36" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E36" t="s">
-        <v>94</v>
-      </c>
-      <c r="F36" s="97" t="s">
-        <v>89</v>
-      </c>
-      <c r="G36" s="106" t="s">
-        <v>92</v>
+        <v>84</v>
+      </c>
+      <c r="F36" s="83" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" s="92" t="s">
+        <v>82</v>
       </c>
       <c r="H36" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="I36" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J36" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="K36" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="L36" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B37" s="9">
         <f>J2</f>
@@ -10400,11 +12978,11 @@
         <f>J11</f>
         <v>4.9403508771929827</v>
       </c>
-      <c r="F37" s="98">
+      <c r="F37" s="84">
         <f>J14</f>
         <v>2.9642105263157892</v>
       </c>
-      <c r="G37" s="107">
+      <c r="G37" s="93">
         <f>J17</f>
         <v>4.1938461538461542</v>
       </c>
@@ -10431,7 +13009,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B38" s="9">
         <f t="shared" ref="B38:B39" si="22">J3</f>
@@ -10449,11 +13027,11 @@
         <f>J12</f>
         <v>4.365891472868217</v>
       </c>
-      <c r="F38" s="98">
+      <c r="F38" s="84">
         <f>J15</f>
         <v>2.61953488372093</v>
       </c>
-      <c r="G38" s="107">
+      <c r="G38" s="93">
         <f>J18</f>
         <v>3.6590604026845637</v>
       </c>
@@ -10480,7 +13058,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A39" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B39" s="9">
         <f t="shared" si="22"/>
@@ -10498,11 +13076,11 @@
         <f>J13</f>
         <v>3.9522807017543862</v>
       </c>
-      <c r="F39" s="98">
+      <c r="F39" s="84">
         <f>J16</f>
         <v>2.3713684210526313</v>
       </c>
-      <c r="G39" s="107">
+      <c r="G39" s="93">
         <f>J19</f>
         <v>3.124355300859599</v>
       </c>
@@ -10529,45 +13107,45 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A41" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D41" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E41" t="s">
-        <v>94</v>
-      </c>
-      <c r="F41" s="97" t="s">
-        <v>89</v>
-      </c>
-      <c r="G41" s="106" t="s">
-        <v>92</v>
+        <v>84</v>
+      </c>
+      <c r="F41" s="83" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="92" t="s">
+        <v>82</v>
       </c>
       <c r="H41" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="I41" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J41" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="K41" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="L41" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A42" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B42" s="9">
         <f>$I2</f>
@@ -10585,11 +13163,11 @@
         <f>$I11</f>
         <v>0.20241477272727271</v>
       </c>
-      <c r="F42" s="98">
+      <c r="F42" s="84">
         <f>$I14</f>
         <v>0.33735795454545459</v>
       </c>
-      <c r="G42" s="107">
+      <c r="G42" s="93">
         <f>$I17</f>
         <v>0.2384446074834923</v>
       </c>
@@ -10616,7 +13194,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A43" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B43" s="9">
         <f t="shared" ref="B43:B44" si="25">$I3</f>
@@ -10634,11 +13212,11 @@
         <f t="shared" ref="E43:E44" si="28">$I12</f>
         <v>0.22904829545454544</v>
       </c>
-      <c r="F43" s="98">
+      <c r="F43" s="84">
         <f t="shared" ref="F43:F44" si="29">$I15</f>
         <v>0.38174715909090912</v>
       </c>
-      <c r="G43" s="107">
+      <c r="G43" s="93">
         <f t="shared" ref="G43:G44" si="30">$I18</f>
         <v>0.27329420396184884</v>
       </c>
@@ -10665,7 +13243,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A44" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B44" s="9">
         <f t="shared" si="25"/>
@@ -10683,11 +13261,11 @@
         <f t="shared" si="28"/>
         <v>0.25301846590909088</v>
       </c>
-      <c r="F44" s="98">
+      <c r="F44" s="84">
         <f t="shared" si="29"/>
         <v>0.42169744318181823</v>
       </c>
-      <c r="G44" s="107">
+      <c r="G44" s="93">
         <f t="shared" si="30"/>
         <v>0.32006603081438006</v>
       </c>
@@ -10724,7 +13302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79215ADD-1307-4D97-A1B4-289252DBDF30}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -10736,928 +13314,928 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="61" t="s">
+      <c r="B1" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="61" t="s">
+      <c r="E1" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" s="61" t="s">
+      <c r="F1" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="L1" s="62" t="s">
-        <v>120</v>
-      </c>
-      <c r="M1" s="63" t="s">
+      <c r="J1" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="63" t="s">
+      <c r="N1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="P1" s="63" t="s">
-        <v>53</v>
+      <c r="O1" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="49" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.7">
-      <c r="A2" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="65">
+      <c r="A2" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="51">
         <v>15</v>
       </c>
-      <c r="C2" s="65">
+      <c r="C2" s="51">
         <v>5</v>
       </c>
-      <c r="D2" s="65">
+      <c r="D2" s="51">
         <v>0</v>
       </c>
-      <c r="E2" s="66">
+      <c r="E2" s="52">
         <v>0</v>
       </c>
-      <c r="F2" s="65">
+      <c r="F2" s="51">
         <v>0</v>
       </c>
-      <c r="G2" s="65">
+      <c r="G2" s="51">
         <v>50</v>
       </c>
-      <c r="H2" s="65">
+      <c r="H2" s="51">
         <v>0.5</v>
       </c>
-      <c r="I2" s="65">
+      <c r="I2" s="51">
         <f t="shared" ref="I2:I13" si="0">(G2+H2*30)/B2</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="J2" s="65">
+      <c r="J2" s="51">
         <f t="shared" ref="J2:J13" si="1">(C2*$M$2+D2*$N$2+E2*$O$2+F2*$P$2)/G2</f>
         <v>0.4</v>
       </c>
-      <c r="K2" s="65">
+      <c r="K2" s="51">
         <f t="shared" ref="K2:K13" si="2">(G2+H2*100)/(C2*$M$2+D2*$N$2+E2*$O$2+F2*$P$2)</f>
         <v>5</v>
       </c>
-      <c r="L2" s="67">
+      <c r="L2" s="53">
         <f t="shared" ref="L2:L13" si="3">(C2*$M$2+D2*$N$2+E2*$O$2+F2*$P$2)/(G2+H2*30)</f>
         <v>0.30769230769230771</v>
       </c>
-      <c r="M2" s="68">
+      <c r="M2" s="54">
         <v>4</v>
       </c>
-      <c r="N2" s="68">
+      <c r="N2" s="54">
         <v>200</v>
       </c>
-      <c r="O2" s="68">
+      <c r="O2" s="54">
         <v>20</v>
       </c>
-      <c r="P2" s="68">
+      <c r="P2" s="54">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.7">
-      <c r="A3" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="65">
+      <c r="A3" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="51">
         <v>30</v>
       </c>
-      <c r="C3" s="65">
+      <c r="C3" s="51">
         <v>10</v>
       </c>
-      <c r="D3" s="65">
+      <c r="D3" s="51">
         <v>0</v>
       </c>
-      <c r="E3" s="66">
+      <c r="E3" s="52">
         <v>0</v>
       </c>
-      <c r="F3" s="65">
+      <c r="F3" s="51">
         <v>0</v>
       </c>
-      <c r="G3" s="65">
+      <c r="G3" s="51">
         <v>125</v>
       </c>
-      <c r="H3" s="65">
+      <c r="H3" s="51">
         <v>1.25</v>
       </c>
-      <c r="I3" s="65">
+      <c r="I3" s="51">
         <f t="shared" si="0"/>
         <v>5.416666666666667</v>
       </c>
-      <c r="J3" s="65">
+      <c r="J3" s="51">
         <f t="shared" si="1"/>
         <v>0.32</v>
       </c>
-      <c r="K3" s="65">
+      <c r="K3" s="51">
         <f t="shared" si="2"/>
         <v>6.25</v>
       </c>
-      <c r="L3" s="67">
+      <c r="L3" s="53">
         <f t="shared" si="3"/>
         <v>0.24615384615384617</v>
       </c>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="O3" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="P3" s="68" t="s">
-        <v>108</v>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="P3" s="54" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="51">
         <v>60</v>
       </c>
-      <c r="B4" s="65">
-        <v>60</v>
-      </c>
-      <c r="C4" s="65">
+      <c r="C4" s="51">
         <v>20</v>
       </c>
-      <c r="D4" s="65">
+      <c r="D4" s="51">
         <v>0</v>
       </c>
-      <c r="E4" s="66">
+      <c r="E4" s="52">
         <v>0</v>
       </c>
-      <c r="F4" s="65">
+      <c r="F4" s="51">
         <v>0</v>
       </c>
-      <c r="G4" s="65">
+      <c r="G4" s="51">
         <v>300</v>
       </c>
-      <c r="H4" s="65">
+      <c r="H4" s="51">
         <v>3</v>
       </c>
-      <c r="I4" s="65">
+      <c r="I4" s="51">
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="J4" s="65">
+      <c r="J4" s="51">
         <f t="shared" si="1"/>
         <v>0.26666666666666666</v>
       </c>
-      <c r="K4" s="65">
+      <c r="K4" s="51">
         <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
-      <c r="L4" s="67">
+      <c r="L4" s="53">
         <f t="shared" si="3"/>
         <v>0.20512820512820512</v>
       </c>
-      <c r="M4" s="68" t="s">
-        <v>112</v>
-      </c>
-      <c r="N4" s="68">
+      <c r="M4" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="N4" s="54">
         <v>2</v>
       </c>
-      <c r="O4" s="68">
+      <c r="O4" s="54">
         <v>2</v>
       </c>
-      <c r="P4" s="68">
+      <c r="P4" s="54">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.7">
-      <c r="A5" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="70">
+      <c r="A5" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="56">
         <v>75</v>
       </c>
-      <c r="C5" s="71">
+      <c r="C5" s="57">
         <v>21</v>
       </c>
-      <c r="D5" s="72">
+      <c r="D5" s="58">
         <v>0</v>
       </c>
-      <c r="E5" s="71">
+      <c r="E5" s="57">
         <v>0.111</v>
       </c>
-      <c r="F5" s="72">
+      <c r="F5" s="58">
         <v>0</v>
       </c>
-      <c r="G5" s="71">
+      <c r="G5" s="57">
         <v>240</v>
       </c>
-      <c r="H5" s="71">
+      <c r="H5" s="57">
         <v>2</v>
       </c>
-      <c r="I5" s="72">
+      <c r="I5" s="58">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J5" s="72">
+      <c r="J5" s="58">
         <f t="shared" si="1"/>
         <v>0.35925000000000001</v>
       </c>
-      <c r="K5" s="72">
+      <c r="K5" s="58">
         <f t="shared" si="2"/>
         <v>5.1032243099048946</v>
       </c>
-      <c r="L5" s="73">
+      <c r="L5" s="59">
         <f t="shared" si="3"/>
         <v>0.28739999999999999</v>
       </c>
-      <c r="P5" s="68"/>
+      <c r="P5" s="54"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.7">
-      <c r="A6" s="74" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="75">
+      <c r="A6" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="61">
         <v>150</v>
       </c>
-      <c r="C6" s="66">
+      <c r="C6" s="52">
         <v>38</v>
       </c>
-      <c r="D6" s="65">
+      <c r="D6" s="51">
         <v>0</v>
       </c>
-      <c r="E6" s="66">
+      <c r="E6" s="52">
         <v>0.222</v>
       </c>
-      <c r="F6" s="65">
+      <c r="F6" s="51">
         <v>0</v>
       </c>
-      <c r="G6" s="66">
+      <c r="G6" s="52">
         <v>600</v>
       </c>
-      <c r="H6" s="66">
+      <c r="H6" s="52">
         <v>5</v>
       </c>
-      <c r="I6" s="65">
+      <c r="I6" s="51">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J6" s="65">
+      <c r="J6" s="51">
         <f t="shared" si="1"/>
         <v>0.26073333333333332</v>
       </c>
-      <c r="K6" s="65">
+      <c r="K6" s="51">
         <f t="shared" si="2"/>
         <v>7.0314497570953725</v>
       </c>
-      <c r="L6" s="67">
+      <c r="L6" s="53">
         <f t="shared" si="3"/>
         <v>0.20858666666666667</v>
       </c>
-      <c r="P6" s="68"/>
+      <c r="P6" s="54"/>
     </row>
     <row r="7" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A7" s="76" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="75">
+      <c r="A7" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="61">
         <v>300</v>
       </c>
-      <c r="C7" s="66">
+      <c r="C7" s="52">
         <v>74</v>
       </c>
-      <c r="D7" s="65">
+      <c r="D7" s="51">
         <v>0</v>
       </c>
-      <c r="E7" s="66">
+      <c r="E7" s="52">
         <v>0.33300000000000002</v>
       </c>
-      <c r="F7" s="65">
+      <c r="F7" s="51">
         <v>0</v>
       </c>
-      <c r="G7" s="66">
+      <c r="G7" s="52">
         <v>1440</v>
       </c>
-      <c r="H7" s="66">
+      <c r="H7" s="52">
         <v>12</v>
       </c>
-      <c r="I7" s="65">
+      <c r="I7" s="51">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J7" s="65">
+      <c r="J7" s="51">
         <f t="shared" si="1"/>
         <v>0.21018055555555556</v>
       </c>
-      <c r="K7" s="65">
+      <c r="K7" s="51">
         <f t="shared" si="2"/>
         <v>8.7226590894072551</v>
       </c>
-      <c r="L7" s="67">
+      <c r="L7" s="53">
         <f t="shared" si="3"/>
         <v>0.16814444444444446</v>
       </c>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.7">
-      <c r="A8" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="70">
+      <c r="A8" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="56">
         <v>10</v>
       </c>
-      <c r="C8" s="72">
+      <c r="C8" s="58">
         <v>0</v>
       </c>
-      <c r="D8" s="71">
+      <c r="D8" s="57">
         <v>4</v>
       </c>
-      <c r="E8" s="71">
+      <c r="E8" s="57">
         <v>0</v>
       </c>
-      <c r="F8" s="71">
+      <c r="F8" s="57">
         <v>0.1</v>
       </c>
-      <c r="G8" s="71">
+      <c r="G8" s="57">
         <v>400</v>
       </c>
-      <c r="H8" s="71">
+      <c r="H8" s="57">
         <v>10</v>
       </c>
-      <c r="I8" s="72">
+      <c r="I8" s="58">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="J8" s="72">
+      <c r="J8" s="58">
         <f t="shared" si="1"/>
         <v>2.0249999999999999</v>
       </c>
-      <c r="K8" s="72">
+      <c r="K8" s="58">
         <f t="shared" si="2"/>
         <v>1.728395061728395</v>
       </c>
-      <c r="L8" s="73">
+      <c r="L8" s="59">
         <f t="shared" si="3"/>
         <v>1.1571428571428573</v>
       </c>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.7">
-      <c r="A9" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="75">
+      <c r="A9" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="61">
         <v>20</v>
       </c>
-      <c r="C9" s="66">
+      <c r="C9" s="52">
         <f t="shared" ref="C9:E9" si="4">C8*2</f>
         <v>0</v>
       </c>
-      <c r="D9" s="66">
+      <c r="D9" s="52">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="E9" s="66">
+      <c r="E9" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F9" s="66">
+      <c r="F9" s="52">
         <f>F8*2</f>
         <v>0.2</v>
       </c>
-      <c r="G9" s="66">
+      <c r="G9" s="52">
         <f>G8*2.5</f>
         <v>1000</v>
       </c>
-      <c r="H9" s="66">
+      <c r="H9" s="52">
         <f>H8*2.5</f>
         <v>25</v>
       </c>
-      <c r="I9" s="65">
+      <c r="I9" s="51">
         <f t="shared" si="0"/>
         <v>87.5</v>
       </c>
-      <c r="J9" s="65">
+      <c r="J9" s="51">
         <f t="shared" si="1"/>
         <v>1.62</v>
       </c>
-      <c r="K9" s="65">
+      <c r="K9" s="51">
         <f t="shared" si="2"/>
         <v>2.1604938271604937</v>
       </c>
-      <c r="L9" s="67">
+      <c r="L9" s="53">
         <f t="shared" si="3"/>
         <v>0.92571428571428571</v>
       </c>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
     </row>
     <row r="10" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A10" s="81" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="77">
+      <c r="A10" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="63">
         <v>40</v>
       </c>
-      <c r="C10" s="78">
+      <c r="C10" s="64">
         <f t="shared" ref="C10:E10" si="5">C8*3</f>
         <v>0</v>
       </c>
-      <c r="D10" s="78">
+      <c r="D10" s="64">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="E10" s="78">
+      <c r="E10" s="64">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F10" s="78">
+      <c r="F10" s="64">
         <f>F8*3</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="G10" s="78">
+      <c r="G10" s="64">
         <f>G8*6</f>
         <v>2400</v>
       </c>
-      <c r="H10" s="78">
+      <c r="H10" s="64">
         <f>H8*6</f>
         <v>60</v>
       </c>
-      <c r="I10" s="79">
+      <c r="I10" s="65">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="J10" s="79">
+      <c r="J10" s="65">
         <f t="shared" si="1"/>
         <v>1.0125</v>
       </c>
-      <c r="K10" s="79">
+      <c r="K10" s="65">
         <f t="shared" si="2"/>
         <v>3.4567901234567899</v>
       </c>
-      <c r="L10" s="80">
+      <c r="L10" s="66">
         <f t="shared" si="3"/>
         <v>0.57857142857142863</v>
       </c>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.7">
-      <c r="A11" s="84" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="75">
+      <c r="A11" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="61">
         <f>B8*$N$4</f>
         <v>20</v>
       </c>
-      <c r="C11" s="65">
+      <c r="C11" s="51">
         <f t="shared" ref="C11:F13" si="6">C8*$O$4</f>
         <v>0</v>
       </c>
-      <c r="D11" s="65">
+      <c r="D11" s="51">
         <f>D8*$O$4</f>
         <v>8</v>
       </c>
-      <c r="E11" s="65">
+      <c r="E11" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F11" s="65">
+      <c r="F11" s="51">
         <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
-      <c r="G11" s="66">
+      <c r="G11" s="52">
         <f>G8*$P$4</f>
         <v>800</v>
       </c>
-      <c r="H11" s="66">
+      <c r="H11" s="52">
         <f>H8*$P$4</f>
         <v>20</v>
       </c>
-      <c r="I11" s="65">
+      <c r="I11" s="51">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="J11" s="65">
+      <c r="J11" s="51">
         <f t="shared" si="1"/>
         <v>2.0249999999999999</v>
       </c>
-      <c r="K11" s="65">
+      <c r="K11" s="51">
         <f t="shared" si="2"/>
         <v>1.728395061728395</v>
       </c>
-      <c r="L11" s="67">
+      <c r="L11" s="53">
         <f t="shared" si="3"/>
         <v>1.1571428571428573</v>
       </c>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.7">
-      <c r="A12" s="84" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" s="75">
+      <c r="A12" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="61">
         <f>B9*$N$4</f>
         <v>40</v>
       </c>
-      <c r="C12" s="65">
+      <c r="C12" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D12" s="65">
+      <c r="D12" s="51">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="E12" s="65">
+      <c r="E12" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F12" s="65">
+      <c r="F12" s="51">
         <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
-      <c r="G12" s="66">
+      <c r="G12" s="52">
         <f>G9*$P$4</f>
         <v>2000</v>
       </c>
-      <c r="H12" s="66">
+      <c r="H12" s="52">
         <f t="shared" ref="H12:H13" si="7">H9*$P$4</f>
         <v>50</v>
       </c>
-      <c r="I12" s="65">
+      <c r="I12" s="51">
         <f t="shared" si="0"/>
         <v>87.5</v>
       </c>
-      <c r="J12" s="65">
+      <c r="J12" s="51">
         <f t="shared" si="1"/>
         <v>1.62</v>
       </c>
-      <c r="K12" s="65">
+      <c r="K12" s="51">
         <f t="shared" si="2"/>
         <v>2.1604938271604937</v>
       </c>
-      <c r="L12" s="67">
+      <c r="L12" s="53">
         <f t="shared" si="3"/>
         <v>0.92571428571428571</v>
       </c>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
     </row>
     <row r="13" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A13" s="85" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" s="77">
+      <c r="A13" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="63">
         <f>B10*$N$4</f>
         <v>80</v>
       </c>
-      <c r="C13" s="79">
+      <c r="C13" s="65">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D13" s="79">
+      <c r="D13" s="65">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="E13" s="79">
+      <c r="E13" s="65">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F13" s="79">
+      <c r="F13" s="65">
         <f t="shared" si="6"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="G13" s="78">
+      <c r="G13" s="64">
         <f>G10*$P$4</f>
         <v>4800</v>
       </c>
-      <c r="H13" s="78">
+      <c r="H13" s="64">
         <f t="shared" si="7"/>
         <v>120</v>
       </c>
-      <c r="I13" s="79">
+      <c r="I13" s="65">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="J13" s="79">
+      <c r="J13" s="65">
         <f t="shared" si="1"/>
         <v>1.0125</v>
       </c>
-      <c r="K13" s="79">
+      <c r="K13" s="65">
         <f t="shared" si="2"/>
         <v>3.4567901234567899</v>
       </c>
-      <c r="L13" s="80">
+      <c r="L13" s="66">
         <f t="shared" si="3"/>
         <v>0.57857142857142863</v>
       </c>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.7">
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
     </row>
     <row r="15" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
     </row>
     <row r="16" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B16" s="83" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
+      <c r="B16" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.7">
-      <c r="B17" s="83" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="87">
+      <c r="B17" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="73">
         <f>$L2</f>
         <v>0.30769230769230771</v>
       </c>
-      <c r="D17" s="87">
+      <c r="D17" s="73">
         <f>$L5</f>
         <v>0.28739999999999999</v>
       </c>
-      <c r="E17" s="87">
+      <c r="E17" s="73">
         <f>$L8</f>
         <v>1.1571428571428573</v>
       </c>
-      <c r="F17" s="73">
+      <c r="F17" s="59">
         <f>$L11</f>
         <v>1.1571428571428573</v>
       </c>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.7">
       <c r="B18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="64">
+        <v>90</v>
+      </c>
+      <c r="C18" s="50">
         <f>$L3</f>
         <v>0.24615384615384617</v>
       </c>
-      <c r="D18" s="64">
+      <c r="D18" s="50">
         <f t="shared" ref="D18:D19" si="8">$L6</f>
         <v>0.20858666666666667</v>
       </c>
-      <c r="E18" s="64">
+      <c r="E18" s="50">
         <f t="shared" ref="E18:E19" si="9">$L9</f>
         <v>0.92571428571428571</v>
       </c>
-      <c r="F18" s="67">
+      <c r="F18" s="53">
         <f t="shared" ref="F18:F19" si="10">$L12</f>
         <v>0.92571428571428571</v>
       </c>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
     </row>
     <row r="19" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B19" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="81">
+        <v>91</v>
+      </c>
+      <c r="C19" s="67">
         <f>$L4</f>
         <v>0.20512820512820512</v>
       </c>
-      <c r="D19" s="81">
+      <c r="D19" s="67">
         <f t="shared" si="8"/>
         <v>0.16814444444444446</v>
       </c>
-      <c r="E19" s="81">
+      <c r="E19" s="67">
         <f t="shared" si="9"/>
         <v>0.57857142857142863</v>
       </c>
-      <c r="F19" s="80">
+      <c r="F19" s="66">
         <f t="shared" si="10"/>
         <v>0.57857142857142863</v>
       </c>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.7">
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
     </row>
     <row r="21" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
     </row>
     <row r="22" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B22" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
+      <c r="B22" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.7">
-      <c r="B23" s="83" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="87">
+      <c r="B23" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="73">
         <f>$G2</f>
         <v>50</v>
       </c>
-      <c r="D23" s="87">
+      <c r="D23" s="73">
         <f>$G5</f>
         <v>240</v>
       </c>
-      <c r="E23" s="87">
+      <c r="E23" s="73">
         <f>$G8</f>
         <v>400</v>
       </c>
-      <c r="F23" s="73">
+      <c r="F23" s="59">
         <f>$G11</f>
         <v>800</v>
       </c>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.7">
       <c r="B24" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" s="64">
+        <v>90</v>
+      </c>
+      <c r="C24" s="50">
         <f>$G3</f>
         <v>125</v>
       </c>
-      <c r="D24" s="64">
+      <c r="D24" s="50">
         <f>$G6</f>
         <v>600</v>
       </c>
-      <c r="E24" s="64">
+      <c r="E24" s="50">
         <f>$G9</f>
         <v>1000</v>
       </c>
-      <c r="F24" s="67">
+      <c r="F24" s="53">
         <f>$G12</f>
         <v>2000</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B25" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="81">
+        <v>91</v>
+      </c>
+      <c r="C25" s="67">
         <f>$G4</f>
         <v>300</v>
       </c>
-      <c r="D25" s="81">
+      <c r="D25" s="67">
         <f>$G7</f>
         <v>1440</v>
       </c>
-      <c r="E25" s="81">
+      <c r="E25" s="67">
         <f>$G10</f>
         <v>2400</v>
       </c>
-      <c r="F25" s="80">
+      <c r="F25" s="66">
         <f>$G13</f>
         <v>4800</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
     <row r="28" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B28" s="83" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="82" t="s">
-        <v>115</v>
+      <c r="B28" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="68" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.7">
-      <c r="B29" s="83" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" s="86">
+      <c r="B29" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="72">
         <f>$K2</f>
         <v>5</v>
       </c>
-      <c r="D29" s="72">
+      <c r="D29" s="58">
         <f>$K5</f>
         <v>5.1032243099048946</v>
       </c>
-      <c r="E29" s="72">
+      <c r="E29" s="58">
         <f>$K8</f>
         <v>1.728395061728395</v>
       </c>
-      <c r="F29" s="73">
+      <c r="F29" s="59">
         <f>$K11</f>
         <v>1.728395061728395</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.7">
       <c r="B30" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C30" s="84">
+        <v>90</v>
+      </c>
+      <c r="C30" s="70">
         <f t="shared" ref="C30:C31" si="11">$K3</f>
         <v>6.25</v>
       </c>
-      <c r="D30" s="65">
+      <c r="D30" s="51">
         <f t="shared" ref="D30:D31" si="12">$K6</f>
         <v>7.0314497570953725</v>
       </c>
-      <c r="E30" s="65">
+      <c r="E30" s="51">
         <f t="shared" ref="E30:E31" si="13">$K9</f>
         <v>2.1604938271604937</v>
       </c>
-      <c r="F30" s="67">
+      <c r="F30" s="53">
         <f t="shared" ref="F30:F31" si="14">$K12</f>
         <v>2.1604938271604937</v>
       </c>
     </row>
     <row r="31" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B31" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="85">
+        <v>91</v>
+      </c>
+      <c r="C31" s="71">
         <f t="shared" si="11"/>
         <v>7.5</v>
       </c>
-      <c r="D31" s="79">
+      <c r="D31" s="65">
         <f t="shared" si="12"/>
         <v>8.7226590894072551</v>
       </c>
-      <c r="E31" s="79">
+      <c r="E31" s="65">
         <f t="shared" si="13"/>
         <v>3.4567901234567899</v>
       </c>
-      <c r="F31" s="80">
+      <c r="F31" s="66">
         <f t="shared" si="14"/>
         <v>3.4567901234567899</v>
       </c>
@@ -11672,10 +14250,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8429DA73-507B-49D7-99FE-EAB173B9F842}">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -11685,229 +14263,236 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="19" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="29" t="s">
+      <c r="H1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="I1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="J1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="K1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.7">
-      <c r="A2" s="33" t="s">
-        <v>39</v>
+      <c r="A2" s="30" t="s">
+        <v>121</v>
       </c>
       <c r="B2" s="12">
-        <v>-25</v>
-      </c>
-      <c r="C2" s="12">
+        <f>B5*1.5</f>
+        <v>-37.5</v>
+      </c>
+      <c r="C2" s="17">
+        <v>30</v>
+      </c>
+      <c r="D2" s="17">
         <v>60</v>
-      </c>
-      <c r="D2" s="12">
-        <v>120</v>
       </c>
       <c r="E2" s="12">
         <v>1</v>
       </c>
       <c r="F2" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="12">
         <v>0.5</v>
       </c>
       <c r="H2" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" s="12">
         <v>0.5</v>
       </c>
       <c r="J2" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K2" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="L2" s="12">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="M2" s="17">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N2" s="12">
-        <v>0.96</v>
+        <v>0.8</v>
       </c>
       <c r="O2" s="18">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.7">
-      <c r="A3" s="31" t="s">
-        <v>37</v>
+      <c r="A3" s="28" t="s">
+        <v>122</v>
       </c>
       <c r="B3" s="12">
-        <v>-50</v>
+        <f t="shared" ref="B3:B4" si="0">B6*1.5</f>
+        <v>-75</v>
       </c>
       <c r="C3" s="12">
-        <v>150</v>
+        <f>C2*3</f>
+        <v>90</v>
       </c>
       <c r="D3" s="12">
-        <v>300</v>
+        <f>D2*3</f>
+        <v>180</v>
       </c>
       <c r="E3" s="12">
         <v>1</v>
       </c>
       <c r="F3" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="12">
         <v>0.5</v>
       </c>
       <c r="H3" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" s="12">
         <v>0.5</v>
       </c>
       <c r="J3" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K3" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="L3" s="12">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="M3" s="12">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N3" s="12">
-        <v>0.96</v>
+        <v>0.8</v>
       </c>
       <c r="O3" s="14">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A4" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="15">
-        <v>-100</v>
+      <c r="A4" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="12">
+        <f t="shared" si="0"/>
+        <v>-150</v>
       </c>
       <c r="C4" s="15">
-        <v>200</v>
+        <f>C3*3</f>
+        <v>270</v>
       </c>
       <c r="D4" s="15">
-        <v>750</v>
-      </c>
-      <c r="E4" s="15">
+        <f>D3*3</f>
+        <v>540</v>
+      </c>
+      <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="15">
-        <v>2</v>
-      </c>
-      <c r="G4" s="15">
+      <c r="F4" s="12">
+        <v>1</v>
+      </c>
+      <c r="G4" s="12">
         <v>0.5</v>
       </c>
-      <c r="H4" s="15">
-        <v>2</v>
-      </c>
-      <c r="I4" s="15">
+      <c r="H4" s="12">
+        <v>1</v>
+      </c>
+      <c r="I4" s="12">
         <v>0.5</v>
       </c>
-      <c r="J4" s="15">
-        <v>2</v>
-      </c>
-      <c r="K4" s="15">
-        <v>18</v>
-      </c>
-      <c r="L4" s="15">
-        <v>30</v>
-      </c>
-      <c r="M4" s="15">
-        <v>120</v>
-      </c>
-      <c r="N4" s="15">
-        <v>0.96</v>
-      </c>
-      <c r="O4" s="16">
+      <c r="J4" s="12">
+        <v>4</v>
+      </c>
+      <c r="K4" s="12">
+        <v>27</v>
+      </c>
+      <c r="L4" s="12">
+        <v>60</v>
+      </c>
+      <c r="M4" s="12">
+        <v>80</v>
+      </c>
+      <c r="N4" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="O4" s="14">
         <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.7">
-      <c r="A5" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="34">
+      <c r="A5" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="11">
         <v>-25</v>
       </c>
       <c r="C5" s="17">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D5" s="17">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="E5" s="17">
-        <v>2</v>
-      </c>
-      <c r="F5" s="34">
+        <v>1</v>
+      </c>
+      <c r="F5" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="G5" s="17">
         <v>0.5</v>
-      </c>
-      <c r="G5" s="34">
-        <v>0</v>
       </c>
       <c r="H5" s="17">
         <v>1.5</v>
       </c>
       <c r="I5" s="17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J5" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K5" s="17">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L5" s="17">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M5" s="17">
         <v>60</v>
@@ -11920,158 +14505,166 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.7">
-      <c r="A6" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="12">
+      <c r="A6" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="13">
         <v>-50</v>
       </c>
       <c r="C6" s="12">
-        <v>50</v>
+        <f>C5*3</f>
+        <v>150</v>
       </c>
       <c r="D6" s="12">
-        <v>123</v>
+        <f>D5*3</f>
+        <v>300</v>
       </c>
       <c r="E6" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="G6" s="12">
         <v>0.5</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0</v>
       </c>
       <c r="H6" s="12">
         <v>1.5</v>
       </c>
       <c r="I6" s="12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J6" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K6" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L6" s="12">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M6" s="12">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N6" s="12">
         <v>0.9</v>
       </c>
       <c r="O6" s="14">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A7" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="15">
+      <c r="A7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="95">
         <v>-100</v>
       </c>
       <c r="C7" s="15">
-        <v>120</v>
+        <f>C6*3</f>
+        <v>450</v>
       </c>
       <c r="D7" s="15">
-        <v>294</v>
+        <f>D6*3</f>
+        <v>900</v>
       </c>
       <c r="E7" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="G7" s="15">
         <v>0.5</v>
-      </c>
-      <c r="G7" s="15">
-        <v>0</v>
       </c>
       <c r="H7" s="15">
         <v>1.5</v>
       </c>
       <c r="I7" s="15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J7" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K7" s="15">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L7" s="15">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M7" s="15">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N7" s="15">
         <v>0.9</v>
       </c>
       <c r="O7" s="16">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A8" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="15">
-        <v>-100</v>
-      </c>
-      <c r="C8" s="15">
-        <v>15000</v>
-      </c>
-      <c r="D8" s="35">
-        <v>20000</v>
-      </c>
-      <c r="E8" s="15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.7">
+      <c r="A8" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="11">
+        <f>B6*1.5</f>
+        <v>-75</v>
+      </c>
+      <c r="C8" s="17">
+        <v>60</v>
+      </c>
+      <c r="D8" s="17">
+        <v>120</v>
+      </c>
+      <c r="E8" s="17">
         <v>1</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="17">
         <v>2</v>
       </c>
-      <c r="G8" s="15">
-        <v>1</v>
-      </c>
-      <c r="H8" s="15">
+      <c r="G8" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="17">
         <v>2</v>
       </c>
-      <c r="I8" s="15">
-        <v>1</v>
-      </c>
-      <c r="J8" s="15">
-        <v>150</v>
-      </c>
-      <c r="K8" s="15">
-        <v>300</v>
-      </c>
-      <c r="L8" s="15">
-        <v>300</v>
-      </c>
-      <c r="M8" s="15">
-        <v>120</v>
-      </c>
-      <c r="N8" s="15">
-        <v>0.98</v>
-      </c>
-      <c r="O8" s="16">
-        <v>0</v>
+      <c r="I8" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="17">
+        <v>2</v>
+      </c>
+      <c r="K8" s="17">
+        <v>18</v>
+      </c>
+      <c r="L8" s="17">
+        <v>30</v>
+      </c>
+      <c r="M8" s="17">
+        <v>80</v>
+      </c>
+      <c r="N8" s="17">
+        <v>0.96</v>
+      </c>
+      <c r="O8" s="18">
+        <v>0.7</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.7">
-      <c r="A9" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="34">
-        <v>-25</v>
-      </c>
-      <c r="C9" s="17">
+      <c r="A9" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="13">
+        <f t="shared" ref="B9:B10" si="1">B7*1.5</f>
+        <v>-150</v>
+      </c>
+      <c r="C9" s="12">
+        <f>C8*3</f>
         <v>180</v>
       </c>
-      <c r="D9" s="17">
-        <v>240</v>
+      <c r="D9" s="12">
+        <f>D8*3</f>
+        <v>360</v>
       </c>
       <c r="E9" s="12">
         <v>1</v>
@@ -12097,457 +14690,662 @@
       <c r="L9" s="12">
         <v>30</v>
       </c>
-      <c r="M9" s="17">
-        <v>60</v>
+      <c r="M9" s="12">
+        <v>100</v>
       </c>
       <c r="N9" s="12">
         <v>0.96</v>
       </c>
-      <c r="O9" s="18">
-        <v>0.6</v>
+      <c r="O9" s="14">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.7">
-      <c r="A10" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="12">
-        <v>-50</v>
-      </c>
-      <c r="C10" s="21">
-        <v>360</v>
-      </c>
-      <c r="D10" s="21">
-        <v>420</v>
-      </c>
-      <c r="E10" s="12">
+    <row r="10" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A10" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="95">
+        <f t="shared" si="1"/>
+        <v>-112.5</v>
+      </c>
+      <c r="C10" s="15">
+        <f>C9*3</f>
+        <v>540</v>
+      </c>
+      <c r="D10" s="15">
+        <f>D9*3</f>
+        <v>1080</v>
+      </c>
+      <c r="E10" s="15">
         <v>1</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="15">
         <v>2</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="15">
         <v>0.5</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="15">
         <v>2</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="15">
         <v>0.5</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="15">
         <v>2</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="15">
         <v>18</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="15">
         <v>30</v>
       </c>
-      <c r="M10" s="12">
-        <v>90</v>
-      </c>
-      <c r="N10" s="12">
+      <c r="M10" s="15">
+        <v>120</v>
+      </c>
+      <c r="N10" s="15">
         <v>0.96</v>
       </c>
-      <c r="O10" s="14">
-        <v>0.5</v>
+      <c r="O10" s="16">
+        <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A11" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="15">
-        <v>-100</v>
-      </c>
-      <c r="C11" s="24">
-        <v>400</v>
-      </c>
-      <c r="D11" s="24">
-        <v>870</v>
-      </c>
-      <c r="E11" s="15">
-        <v>1</v>
-      </c>
-      <c r="F11" s="15">
-        <v>2</v>
-      </c>
-      <c r="G11" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="H11" s="15">
-        <v>2</v>
-      </c>
-      <c r="I11" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="J11" s="15">
-        <v>2</v>
-      </c>
-      <c r="K11" s="15">
-        <v>18</v>
-      </c>
-      <c r="L11" s="15">
-        <v>30</v>
-      </c>
-      <c r="M11" s="15">
-        <v>120</v>
-      </c>
-      <c r="N11" s="15">
-        <v>0.96</v>
-      </c>
-      <c r="O11" s="16">
-        <v>0.4</v>
-      </c>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.7">
+      <c r="A11" s="21"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
     </row>
     <row r="12" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
     <row r="13" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A13" s="123" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="125" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="120" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="121"/>
-      <c r="K13" s="121"/>
-      <c r="L13" s="122"/>
+      <c r="A13" s="109" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="110" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="106" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="108"/>
     </row>
     <row r="14" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A14" s="124"/>
-      <c r="B14" s="126"/>
-      <c r="C14" s="38">
+      <c r="A14" s="111"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="113">
         <v>0</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="102">
         <v>0.1</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="103">
         <v>0.2</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="102">
         <v>0.3</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="103">
         <v>0.4</v>
       </c>
-      <c r="H14" s="39">
+      <c r="H14" s="102">
         <v>0.5</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="102">
         <v>0.6</v>
       </c>
-      <c r="J14" s="39">
+      <c r="J14" s="102">
         <v>0.7</v>
       </c>
-      <c r="K14" s="39">
+      <c r="K14" s="102">
         <v>0.8</v>
       </c>
-      <c r="L14" s="41">
+      <c r="L14" s="104">
         <v>0.9</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.7">
-      <c r="A15" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="25">
-        <f t="shared" ref="B15:B20" si="0">(D2+C2)/2*N2/L2*10</f>
-        <v>28.799999999999997</v>
-      </c>
-      <c r="C15" s="42">
-        <f t="shared" ref="C15:C20" si="1">$N2-IF($C$14-$O2&gt;=0,$C$14-$O2,0)</f>
-        <v>0.96</v>
-      </c>
-      <c r="D15" s="43">
-        <f t="shared" ref="D15:D20" si="2">$N2-IF($D$14-$O2&gt;=0,$D$14-$O2,0)</f>
-        <v>0.96</v>
-      </c>
-      <c r="E15" s="43">
-        <f t="shared" ref="E15:E20" si="3">$N2-IF($E$14-$O2&gt;=0,$E$14-$O2,0)</f>
-        <v>0.96</v>
-      </c>
-      <c r="F15" s="43">
-        <f t="shared" ref="F15:F20" si="4">$N2-IF($F$14-$O2&gt;=0,$F$14-$O2,0)</f>
-        <v>0.96</v>
-      </c>
-      <c r="G15" s="43">
-        <f t="shared" ref="G15:G20" si="5">$N2-IF($G$14-$O2&gt;=0,$G$14-$O2,0)</f>
-        <v>0.96</v>
-      </c>
-      <c r="H15" s="43">
-        <f t="shared" ref="H15:H20" si="6">$N2-IF($H$14-$O2&gt;=0,$H$14-$O2,0)</f>
-        <v>0.96</v>
-      </c>
-      <c r="I15" s="43">
-        <f t="shared" ref="I15:I20" si="7">$N2-IF($I$14-$O2&gt;=0,$I$14-$O2,0)</f>
-        <v>0.96</v>
-      </c>
-      <c r="J15" s="43">
-        <f t="shared" ref="J15:J20" si="8">$N2-IF($J$14-$O2&gt;=0,$J$14-$O2,0)</f>
-        <v>0.86</v>
-      </c>
-      <c r="K15" s="43">
-        <f t="shared" ref="K15:K20" si="9">$N2-IF($K$14-$O2&gt;=0,$K$14-$O2,0)</f>
-        <v>0.7599999999999999</v>
-      </c>
-      <c r="L15" s="44">
-        <f t="shared" ref="L15:L20" si="10">$N2-IF($L$14-$O2&gt;=0,$L$14-$O2,0)</f>
-        <v>0.65999999999999992</v>
+      <c r="A15" s="11" t="str">
+        <f>A2</f>
+        <v>小型試作神話崩壊砲</v>
+      </c>
+      <c r="B15" s="105">
+        <f t="shared" ref="B15:B23" si="2">(D2+C2)/2*N2/L2*10</f>
+        <v>6</v>
+      </c>
+      <c r="C15" s="35">
+        <f t="shared" ref="C15:C24" si="3">$N2-IF($C$14-$O2&gt;=0,$C$14-$O2,0)</f>
+        <v>0.8</v>
+      </c>
+      <c r="D15" s="35">
+        <f t="shared" ref="D15:D24" si="4">$N2-IF($D$14-$O2&gt;=0,$D$14-$O2,0)</f>
+        <v>0.8</v>
+      </c>
+      <c r="E15" s="35">
+        <f t="shared" ref="E15:E24" si="5">$N2-IF($E$14-$O2&gt;=0,$E$14-$O2,0)</f>
+        <v>0.8</v>
+      </c>
+      <c r="F15" s="35">
+        <f t="shared" ref="F15:F24" si="6">$N2-IF($F$14-$O2&gt;=0,$F$14-$O2,0)</f>
+        <v>0.8</v>
+      </c>
+      <c r="G15" s="35">
+        <f t="shared" ref="G15:G24" si="7">$N2-IF($G$14-$O2&gt;=0,$G$14-$O2,0)</f>
+        <v>0.8</v>
+      </c>
+      <c r="H15" s="35">
+        <f t="shared" ref="H15:H24" si="8">$N2-IF($H$14-$O2&gt;=0,$H$14-$O2,0)</f>
+        <v>0.8</v>
+      </c>
+      <c r="I15" s="35">
+        <f t="shared" ref="I15:I24" si="9">$N2-IF($I$14-$O2&gt;=0,$I$14-$O2,0)</f>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="J15" s="35">
+        <f t="shared" ref="J15:J24" si="10">$N2-IF($J$14-$O2&gt;=0,$J$14-$O2,0)</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="K15" s="35">
+        <f t="shared" ref="K15:K24" si="11">$N2-IF($K$14-$O2&gt;=0,$K$14-$O2,0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L15" s="36">
+        <f t="shared" ref="L15:L24" si="12">$N2-IF($L$14-$O2&gt;=0,$L$14-$O2,0)</f>
+        <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.7">
-      <c r="A16" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="26">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="C16" s="42">
-        <f t="shared" si="1"/>
-        <v>0.96</v>
-      </c>
-      <c r="D16" s="43">
+      <c r="A16" s="13" t="str">
+        <f t="shared" ref="A16:A23" si="13">A3</f>
+        <v>中型試作神話崩壊砲</v>
+      </c>
+      <c r="B16" s="20">
         <f t="shared" si="2"/>
-        <v>0.96</v>
-      </c>
-      <c r="E16" s="43">
+        <v>18</v>
+      </c>
+      <c r="C16" s="31">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="D16" s="31">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="E16" s="31">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="F16" s="31">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="G16" s="31">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
+      <c r="H16" s="31">
+        <f t="shared" si="8"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="I16" s="31">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="J16" s="31">
+        <f t="shared" si="10"/>
+        <v>0.40000000000000008</v>
+      </c>
+      <c r="K16" s="31">
+        <f t="shared" si="11"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="L16" s="32">
+        <f t="shared" si="12"/>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A17" s="13" t="str">
+        <f t="shared" si="13"/>
+        <v>大型試作神話崩壊砲</v>
+      </c>
+      <c r="B17" s="20">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="C17" s="31">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="D17" s="31">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="E17" s="31">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="F17" s="31">
+        <f t="shared" si="6"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="G17" s="31">
+        <f t="shared" si="7"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="H17" s="31">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="31">
+        <f t="shared" si="9"/>
+        <v>0.40000000000000008</v>
+      </c>
+      <c r="J17" s="31">
+        <f t="shared" si="10"/>
+        <v>0.3000000000000001</v>
+      </c>
+      <c r="K17" s="31">
+        <f t="shared" si="11"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="L17" s="32">
+        <f t="shared" si="12"/>
+        <v>0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A18" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>小型神話崩壊砲</v>
+      </c>
+      <c r="B18" s="105">
+        <f t="shared" si="2"/>
+        <v>16.875</v>
+      </c>
+      <c r="C18" s="35">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
+      <c r="D18" s="35">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="E18" s="35">
+        <f t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="F18" s="35">
+        <f t="shared" si="6"/>
+        <v>0.9</v>
+      </c>
+      <c r="G18" s="35">
+        <f t="shared" si="7"/>
+        <v>0.9</v>
+      </c>
+      <c r="H18" s="35">
+        <f t="shared" si="8"/>
+        <v>0.9</v>
+      </c>
+      <c r="I18" s="35">
+        <f t="shared" si="9"/>
+        <v>0.9</v>
+      </c>
+      <c r="J18" s="35">
+        <f t="shared" si="10"/>
+        <v>0.8</v>
+      </c>
+      <c r="K18" s="35">
+        <f t="shared" si="11"/>
+        <v>0.7</v>
+      </c>
+      <c r="L18" s="36">
+        <f t="shared" si="12"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A19" s="13" t="str">
+        <f t="shared" si="13"/>
+        <v>中型神話崩壊砲</v>
+      </c>
+      <c r="B19" s="20">
+        <f>(D6+C6)/2*N6/L6*10</f>
+        <v>50.625</v>
+      </c>
+      <c r="C19" s="31">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
+      <c r="D19" s="31">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="E19" s="31">
+        <f t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="F19" s="31">
+        <f t="shared" si="6"/>
+        <v>0.9</v>
+      </c>
+      <c r="G19" s="31">
+        <f t="shared" si="7"/>
+        <v>0.9</v>
+      </c>
+      <c r="H19" s="31">
+        <f t="shared" si="8"/>
+        <v>0.8</v>
+      </c>
+      <c r="I19" s="31">
+        <f t="shared" si="9"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="J19" s="31">
+        <f t="shared" si="10"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="K19" s="31">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+      <c r="L19" s="32">
+        <f t="shared" si="12"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A20" s="95" t="str">
+        <f t="shared" si="13"/>
+        <v>大型神話崩壊砲</v>
+      </c>
+      <c r="B20" s="23">
+        <f t="shared" si="2"/>
+        <v>151.875</v>
+      </c>
+      <c r="C20" s="33">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
+      <c r="D20" s="33">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="E20" s="33">
+        <f t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="F20" s="33">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="G20" s="33">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
+      <c r="H20" s="33">
+        <f t="shared" si="8"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="I20" s="33">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="J20" s="33">
+        <f t="shared" si="10"/>
+        <v>0.40000000000000008</v>
+      </c>
+      <c r="K20" s="33">
+        <f t="shared" si="11"/>
+        <v>0.29999999999999993</v>
+      </c>
+      <c r="L20" s="34">
+        <f t="shared" si="12"/>
+        <v>0.20000000000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A21" s="13" t="str">
+        <f t="shared" si="13"/>
+        <v>小型零式神話崩壊砲</v>
+      </c>
+      <c r="B21" s="20">
+        <f t="shared" ref="B21:B24" si="14">(D8+C8)/2*N8/L8*10</f>
+        <v>28.799999999999997</v>
+      </c>
+      <c r="C21" s="31">
         <f t="shared" si="3"/>
         <v>0.96</v>
       </c>
-      <c r="F16" s="43">
+      <c r="D21" s="31">
         <f t="shared" si="4"/>
         <v>0.96</v>
       </c>
-      <c r="G16" s="43">
+      <c r="E21" s="31">
         <f t="shared" si="5"/>
         <v>0.96</v>
       </c>
-      <c r="H16" s="43">
+      <c r="F21" s="31">
         <f t="shared" si="6"/>
-        <v>0.86</v>
-      </c>
-      <c r="I16" s="43">
+        <v>0.96</v>
+      </c>
+      <c r="G21" s="31">
         <f t="shared" si="7"/>
-        <v>0.76</v>
-      </c>
-      <c r="J16" s="43">
+        <v>0.96</v>
+      </c>
+      <c r="H21" s="31">
         <f t="shared" si="8"/>
-        <v>0.66</v>
-      </c>
-      <c r="K16" s="43">
+        <v>0.96</v>
+      </c>
+      <c r="I21" s="31">
         <f t="shared" si="9"/>
-        <v>0.55999999999999994</v>
-      </c>
-      <c r="L16" s="44">
+        <v>0.96</v>
+      </c>
+      <c r="J21" s="31">
         <f t="shared" si="10"/>
-        <v>0.45999999999999996</v>
+        <v>0.96</v>
+      </c>
+      <c r="K21" s="31">
+        <f t="shared" si="11"/>
+        <v>0.85999999999999988</v>
+      </c>
+      <c r="L21" s="32">
+        <f t="shared" si="12"/>
+        <v>0.7599999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A17" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="27">
-        <f t="shared" si="0"/>
-        <v>152</v>
-      </c>
-      <c r="C17" s="42">
-        <f t="shared" si="1"/>
-        <v>0.96</v>
-      </c>
-      <c r="D17" s="43">
-        <f t="shared" si="2"/>
-        <v>0.96</v>
-      </c>
-      <c r="E17" s="43">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A22" s="13" t="str">
+        <f t="shared" si="13"/>
+        <v>中型零式神話崩壊砲</v>
+      </c>
+      <c r="B22" s="20">
+        <f t="shared" si="14"/>
+        <v>86.399999999999991</v>
+      </c>
+      <c r="C22" s="31">
         <f t="shared" si="3"/>
         <v>0.96</v>
       </c>
-      <c r="F17" s="43">
+      <c r="D22" s="31">
         <f t="shared" si="4"/>
+        <v>0.96</v>
+      </c>
+      <c r="E22" s="31">
+        <f t="shared" si="5"/>
+        <v>0.96</v>
+      </c>
+      <c r="F22" s="31">
+        <f t="shared" si="6"/>
+        <v>0.96</v>
+      </c>
+      <c r="G22" s="31">
+        <f t="shared" si="7"/>
+        <v>0.96</v>
+      </c>
+      <c r="H22" s="31">
+        <f t="shared" si="8"/>
+        <v>0.96</v>
+      </c>
+      <c r="I22" s="31">
+        <f t="shared" si="9"/>
         <v>0.86</v>
       </c>
-      <c r="G17" s="43">
+      <c r="J22" s="31">
+        <f t="shared" si="10"/>
+        <v>0.76</v>
+      </c>
+      <c r="K22" s="31">
+        <f t="shared" si="11"/>
+        <v>0.65999999999999992</v>
+      </c>
+      <c r="L22" s="32">
+        <f t="shared" si="12"/>
+        <v>0.55999999999999994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A23" s="95" t="str">
+        <f t="shared" si="13"/>
+        <v>大型零式神話崩壊砲</v>
+      </c>
+      <c r="B23" s="23">
+        <f t="shared" si="14"/>
+        <v>259.20000000000005</v>
+      </c>
+      <c r="C23" s="33">
+        <f t="shared" si="3"/>
+        <v>0.96</v>
+      </c>
+      <c r="D23" s="33">
+        <f t="shared" si="4"/>
+        <v>0.96</v>
+      </c>
+      <c r="E23" s="33">
         <f t="shared" si="5"/>
+        <v>0.96</v>
+      </c>
+      <c r="F23" s="33">
+        <f t="shared" si="6"/>
+        <v>0.96</v>
+      </c>
+      <c r="G23" s="33">
+        <f t="shared" si="7"/>
+        <v>0.85999999999999988</v>
+      </c>
+      <c r="H23" s="33">
+        <f t="shared" si="8"/>
         <v>0.76</v>
       </c>
-      <c r="H17" s="43">
-        <f t="shared" si="6"/>
+      <c r="I23" s="33">
+        <f t="shared" si="9"/>
         <v>0.65999999999999992</v>
       </c>
-      <c r="I17" s="43">
-        <f t="shared" si="7"/>
+      <c r="J23" s="33">
+        <f t="shared" si="10"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="J17" s="43">
-        <f t="shared" si="8"/>
-        <v>0.46</v>
-      </c>
-      <c r="K17" s="43">
-        <f t="shared" si="9"/>
+      <c r="K23" s="33">
+        <f t="shared" si="11"/>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="L23" s="34">
+        <f t="shared" si="12"/>
         <v>0.35999999999999988</v>
       </c>
-      <c r="L17" s="44">
-        <f t="shared" si="10"/>
-        <v>0.26</v>
-      </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A18" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="26">
-        <f t="shared" si="0"/>
-        <v>8.8714285714285719</v>
-      </c>
-      <c r="C18" s="48">
-        <f t="shared" si="1"/>
-        <v>0.9</v>
-      </c>
-      <c r="D18" s="49">
-        <f t="shared" si="2"/>
-        <v>0.9</v>
-      </c>
-      <c r="E18" s="49">
-        <f t="shared" si="3"/>
-        <v>0.9</v>
-      </c>
-      <c r="F18" s="49">
-        <f t="shared" si="4"/>
-        <v>0.9</v>
-      </c>
-      <c r="G18" s="49">
-        <f t="shared" si="5"/>
-        <v>0.9</v>
-      </c>
-      <c r="H18" s="49">
-        <f t="shared" si="6"/>
-        <v>0.9</v>
-      </c>
-      <c r="I18" s="49">
-        <f t="shared" si="7"/>
-        <v>0.9</v>
-      </c>
-      <c r="J18" s="49">
-        <f t="shared" si="8"/>
-        <v>0.8</v>
-      </c>
-      <c r="K18" s="49">
-        <f t="shared" si="9"/>
-        <v>0.7</v>
-      </c>
-      <c r="L18" s="50">
-        <f t="shared" si="10"/>
-        <v>0.6</v>
-      </c>
+    <row r="24" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B24" s="21"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A19" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="26">
-        <f t="shared" si="0"/>
-        <v>22.242857142857147</v>
-      </c>
-      <c r="C19" s="42">
-        <f t="shared" si="1"/>
-        <v>0.9</v>
-      </c>
-      <c r="D19" s="43">
-        <f t="shared" si="2"/>
-        <v>0.9</v>
-      </c>
-      <c r="E19" s="43">
-        <f t="shared" si="3"/>
-        <v>0.9</v>
-      </c>
-      <c r="F19" s="43">
-        <f t="shared" si="4"/>
-        <v>0.9</v>
-      </c>
-      <c r="G19" s="43">
-        <f t="shared" si="5"/>
-        <v>0.8</v>
-      </c>
-      <c r="H19" s="43">
-        <f t="shared" si="6"/>
-        <v>0.7</v>
-      </c>
-      <c r="I19" s="43">
-        <f t="shared" si="7"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="J19" s="43">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
-      <c r="K19" s="43">
-        <f t="shared" si="9"/>
-        <v>0.4</v>
-      </c>
-      <c r="L19" s="44">
-        <f t="shared" si="10"/>
-        <v>0.29999999999999993</v>
+    <row r="25" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A25" s="116"/>
+      <c r="B25" s="117" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="117" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="118" t="s">
+        <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A20" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="27">
-        <f t="shared" si="0"/>
-        <v>53.228571428571428</v>
-      </c>
-      <c r="C20" s="45">
-        <f t="shared" si="1"/>
-        <v>0.9</v>
-      </c>
-      <c r="D20" s="46">
-        <f t="shared" si="2"/>
-        <v>0.85</v>
-      </c>
-      <c r="E20" s="46">
-        <f t="shared" si="3"/>
-        <v>0.75</v>
-      </c>
-      <c r="F20" s="46">
-        <f t="shared" si="4"/>
-        <v>0.65</v>
-      </c>
-      <c r="G20" s="46">
-        <f t="shared" si="5"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H20" s="46">
-        <f t="shared" si="6"/>
-        <v>0.45</v>
-      </c>
-      <c r="I20" s="46">
-        <f t="shared" si="7"/>
-        <v>0.35000000000000009</v>
-      </c>
-      <c r="J20" s="46">
-        <f t="shared" si="8"/>
-        <v>0.25000000000000011</v>
-      </c>
-      <c r="K20" s="46">
-        <f t="shared" si="9"/>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="L20" s="47">
-        <f t="shared" si="10"/>
-        <v>5.0000000000000044E-2</v>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A26" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" s="21">
+        <f>$B15</f>
+        <v>6</v>
+      </c>
+      <c r="C26" s="21">
+        <f>$B16</f>
+        <v>18</v>
+      </c>
+      <c r="D26" s="114">
+        <f>$B17</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A27" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="21">
+        <f>B18</f>
+        <v>16.875</v>
+      </c>
+      <c r="C27" s="21">
+        <f>B19</f>
+        <v>50.625</v>
+      </c>
+      <c r="D27" s="114">
+        <f>B20</f>
+        <v>151.875</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A28" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" s="24">
+        <f>B21</f>
+        <v>28.799999999999997</v>
+      </c>
+      <c r="C28" s="24">
+        <f>B22</f>
+        <v>86.399999999999991</v>
+      </c>
+      <c r="D28" s="115">
+        <f>B23</f>
+        <v>259.20000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -12567,8 +15365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43120986-DD99-4476-9BFD-57A60D957B16}">
   <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -12578,138 +15376,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="19" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="29" t="s">
+      <c r="H1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="I1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="J1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="K1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="O1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="110" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q1" s="88" t="s">
-        <v>122</v>
-      </c>
-      <c r="R1" s="88" t="s">
-        <v>126</v>
-      </c>
-      <c r="S1" s="88" t="s">
-        <v>125</v>
-      </c>
-      <c r="T1" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="U1" s="89" t="s">
-        <v>123</v>
+      <c r="P1" s="96" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q1" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="R1" s="74" t="s">
+        <v>116</v>
+      </c>
+      <c r="S1" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="T1" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="U1" s="75" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.7">
       <c r="A2" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="111">
+        <v>117</v>
+      </c>
+      <c r="B2" s="97">
         <v>-26</v>
       </c>
-      <c r="C2" s="112">
+      <c r="C2" s="98">
         <v>86</v>
       </c>
-      <c r="D2" s="112">
+      <c r="D2" s="98">
         <v>114</v>
       </c>
-      <c r="E2" s="112">
+      <c r="E2" s="98">
         <v>1.25</v>
       </c>
-      <c r="F2" s="112">
+      <c r="F2" s="98">
         <v>1</v>
       </c>
-      <c r="G2" s="112">
+      <c r="G2" s="98">
         <v>1</v>
       </c>
-      <c r="H2" s="112">
+      <c r="H2" s="98">
         <v>1</v>
       </c>
-      <c r="I2" s="112">
+      <c r="I2" s="98">
         <v>0</v>
       </c>
-      <c r="J2" s="112">
+      <c r="J2" s="98">
         <v>1</v>
       </c>
-      <c r="K2" s="112">
+      <c r="K2" s="98">
         <v>15</v>
       </c>
-      <c r="L2" s="112">
+      <c r="L2" s="98">
         <v>60</v>
       </c>
-      <c r="M2" s="112">
+      <c r="M2" s="98">
         <v>100</v>
       </c>
-      <c r="N2" s="112">
+      <c r="N2" s="98">
         <v>1</v>
       </c>
-      <c r="O2" s="112">
+      <c r="O2" s="98">
         <v>0.25</v>
       </c>
-      <c r="P2" s="113">
+      <c r="P2" s="99">
         <v>400</v>
       </c>
-      <c r="Q2" s="113">
+      <c r="Q2" s="99">
         <v>0.4</v>
       </c>
-      <c r="R2" s="114">
+      <c r="R2" s="100">
         <v>0</v>
       </c>
-      <c r="S2" s="114">
+      <c r="S2" s="100">
         <v>0</v>
       </c>
-      <c r="T2" s="113">
+      <c r="T2" s="99">
         <v>10</v>
       </c>
-      <c r="U2" s="115">
+      <c r="U2" s="101">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.7">
       <c r="A3" s="13" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B3" s="13">
         <f>B2*1.2</f>
@@ -12781,7 +15579,7 @@
     </row>
     <row r="4" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.7">
       <c r="A4" s="13" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B4" s="13">
         <f>B3*1.2</f>
@@ -12860,10 +15658,10 @@
       <c r="V4" s="21"/>
     </row>
     <row r="5" spans="1:22" s="22" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="109" t="s">
-        <v>130</v>
-      </c>
-      <c r="B5" s="109">
+      <c r="A5" s="95" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="95">
         <f>B4*1.2</f>
         <v>-44.927999999999997</v>
       </c>
@@ -12939,111 +15737,111 @@
     </row>
     <row r="7" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
     <row r="8" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A8" s="123" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="125" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="121" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="122"/>
+      <c r="A8" s="109" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="110" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="108"/>
     </row>
     <row r="9" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A9" s="127"/>
-      <c r="B9" s="128"/>
-      <c r="C9" s="116">
+      <c r="A9" s="111"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="102">
         <v>0</v>
       </c>
-      <c r="D9" s="116">
+      <c r="D9" s="102">
         <v>0.1</v>
       </c>
-      <c r="E9" s="117">
+      <c r="E9" s="103">
         <v>0.2</v>
       </c>
-      <c r="F9" s="116">
+      <c r="F9" s="102">
         <v>0.3</v>
       </c>
-      <c r="G9" s="117">
+      <c r="G9" s="103">
         <v>0.4</v>
       </c>
-      <c r="H9" s="116">
+      <c r="H9" s="102">
         <v>0.5</v>
       </c>
-      <c r="I9" s="116">
+      <c r="I9" s="102">
         <v>0.6</v>
       </c>
-      <c r="J9" s="116">
+      <c r="J9" s="102">
         <v>0.7</v>
       </c>
-      <c r="K9" s="116">
+      <c r="K9" s="102">
         <v>0.8</v>
       </c>
-      <c r="L9" s="118">
+      <c r="L9" s="104">
         <v>0.9</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.7">
-      <c r="A10" s="33" t="str">
+      <c r="A10" s="30" t="str">
         <f>A2</f>
         <v>マローダーミサイル</v>
       </c>
-      <c r="B10" s="119">
+      <c r="B10" s="105">
         <f>(D2+C2)/2*N2/L2*10</f>
         <v>16.666666666666668</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="35">
         <f>$N2-IF($C$9-$O2&gt;=0,$C$9-$O2,0)</f>
         <v>1</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="35">
         <f>$N2-IF($D$9-$O2&gt;=0,$D$9-$O2,0)</f>
         <v>1</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="35">
         <f>$N2-IF($E$9-$O2&gt;=0,$E$9-$O2,0)</f>
         <v>1</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="35">
         <f>$N2-IF($F$9-$O2&gt;=0,$F$9-$O2,0)</f>
         <v>0.95</v>
       </c>
-      <c r="G10" s="49">
+      <c r="G10" s="35">
         <f>$N2-IF($G$9-$O2&gt;=0,$G$9-$O2,0)</f>
         <v>0.85</v>
       </c>
-      <c r="H10" s="49">
+      <c r="H10" s="35">
         <f>$N2-IF($H$9-$O2&gt;=0,$H$9-$O2,0)</f>
         <v>0.75</v>
       </c>
-      <c r="I10" s="49">
+      <c r="I10" s="35">
         <f>$N2-IF($I$9-$O2&gt;=0,$I$9-$O2,0)</f>
         <v>0.65</v>
       </c>
-      <c r="J10" s="49">
+      <c r="J10" s="35">
         <f>$N2-IF($J$9-$O2&gt;=0,$J$9-$O2,0)</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="K10" s="49">
+      <c r="K10" s="35">
         <f>$N2-IF($K$9-$O2&gt;=0,$K$9-$O2,0)</f>
         <v>0.44999999999999996</v>
       </c>
-      <c r="L10" s="50">
+      <c r="L10" s="36">
         <f>$N2-IF($L$9-$O2&gt;=0,$L$9-$O2,0)</f>
         <v>0.35</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.7">
-      <c r="A11" s="31" t="str">
+      <c r="A11" s="28" t="str">
         <f t="shared" ref="A11:A13" si="12">A3</f>
         <v>試作ロンギヌスの槍</v>
       </c>
@@ -13051,49 +15849,49 @@
         <f>(D3+C3)/2*N3/L3*10</f>
         <v>22.15</v>
       </c>
-      <c r="C11" s="43">
+      <c r="C11" s="31">
         <f t="shared" ref="C11:C13" si="13">$N3-IF($C$9-$O3&gt;=0,$C$9-$O3,0)</f>
         <v>1</v>
       </c>
-      <c r="D11" s="43">
+      <c r="D11" s="31">
         <f t="shared" ref="D11:D13" si="14">$N3-IF($D$9-$O3&gt;=0,$D$9-$O3,0)</f>
         <v>1</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="31">
         <f t="shared" ref="E11:E13" si="15">$N3-IF($E$9-$O3&gt;=0,$E$9-$O3,0)</f>
         <v>1</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="31">
         <f t="shared" ref="F11:F13" si="16">$N3-IF($F$9-$O3&gt;=0,$F$9-$O3,0)</f>
         <v>1</v>
       </c>
-      <c r="G11" s="43">
+      <c r="G11" s="31">
         <f t="shared" ref="G11:G13" si="17">$N3-IF($G$9-$O3&gt;=0,$G$9-$O3,0)</f>
         <v>1</v>
       </c>
-      <c r="H11" s="43">
+      <c r="H11" s="31">
         <f t="shared" ref="H11:H13" si="18">$N3-IF($H$9-$O3&gt;=0,$H$9-$O3,0)</f>
         <v>0.9</v>
       </c>
-      <c r="I11" s="43">
+      <c r="I11" s="31">
         <f t="shared" ref="I11:I13" si="19">$N3-IF($I$9-$O3&gt;=0,$I$9-$O3,0)</f>
         <v>0.8</v>
       </c>
-      <c r="J11" s="43">
+      <c r="J11" s="31">
         <f t="shared" ref="J11:J13" si="20">$N3-IF($J$9-$O3&gt;=0,$J$9-$O3,0)</f>
         <v>0.70000000000000007</v>
       </c>
-      <c r="K11" s="43">
+      <c r="K11" s="31">
         <f t="shared" ref="K11:K13" si="21">$N3-IF($K$9-$O3&gt;=0,$K$9-$O3,0)</f>
         <v>0.6</v>
       </c>
-      <c r="L11" s="44">
+      <c r="L11" s="32">
         <f>$N3-IF($L$9-$O3&gt;=0,$L$9-$O3,0)</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.7">
-      <c r="A12" s="31" t="str">
+      <c r="A12" s="28" t="str">
         <f t="shared" si="12"/>
         <v>ロンギヌスの槍</v>
       </c>
@@ -13101,49 +15899,49 @@
         <f t="shared" ref="B12:B13" si="22">(D4+C4)/2*N4/L4*10</f>
         <v>55.375</v>
       </c>
-      <c r="C12" s="43">
+      <c r="C12" s="31">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="D12" s="43">
+      <c r="D12" s="31">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="31">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="F12" s="43">
+      <c r="F12" s="31">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="G12" s="43">
+      <c r="G12" s="31">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="H12" s="43">
+      <c r="H12" s="31">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="I12" s="43">
+      <c r="I12" s="31">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="J12" s="43">
+      <c r="J12" s="31">
         <f t="shared" si="20"/>
         <v>0.90000000000000013</v>
       </c>
-      <c r="K12" s="43">
+      <c r="K12" s="31">
         <f t="shared" si="21"/>
         <v>0.8</v>
       </c>
-      <c r="L12" s="44">
+      <c r="L12" s="32">
         <f>$N4-IF($L$9-$O4&gt;=0,$L$9-$O4,0)</f>
         <v>0.70000000000000007</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A13" s="32" t="str">
+      <c r="A13" s="29" t="str">
         <f t="shared" si="12"/>
         <v>ロンギヌスの槍α</v>
       </c>
@@ -13151,43 +15949,43 @@
         <f t="shared" si="22"/>
         <v>147.66666666666669</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="33">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="33">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="33">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="33">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13" s="33">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="H13" s="46">
+      <c r="H13" s="33">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="I13" s="46">
+      <c r="I13" s="33">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="J13" s="46">
+      <c r="J13" s="33">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="K13" s="46">
+      <c r="K13" s="33">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="L13" s="47">
+      <c r="L13" s="34">
         <f>$N5-IF($L$9-$O5&gt;=0,$L$9-$O5,0)</f>
         <v>0.9</v>
       </c>
@@ -13201,5 +15999,6 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/MagicalDiscoveries.xlsx
+++ b/MagicalDiscoveries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Prg\Stellaris\MagicalDiscoveries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Prg\Stellaris\MagicalDiscoveries E\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBF2AB8-9FBB-48F4-B80F-F3034E8F37EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCBC88B-BA9C-450A-8746-9217440E1649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" activeTab="3" xr2:uid="{33EBD46C-414F-4B8E-A737-7C9375C5AD2F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{33EBD46C-414F-4B8E-A737-7C9375C5AD2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="135">
   <si>
     <t>中型ミスリル装甲</t>
   </si>
@@ -213,23 +213,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>小型擬似神の盾</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>中型龍鱗装甲(バニラ)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>中型擬似神の盾</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>大型龍鱗装甲(バニラ)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>大型擬似神の盾</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -498,21 +486,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>小型本格神の盾</t>
-    <rPh sb="2" eb="4">
-      <t>ホンカク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>中型本格神の盾</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>大型本格神の盾</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>倍率</t>
     <rPh sb="0" eb="2">
       <t>バイリツ</t>
@@ -615,6 +588,52 @@
     <rPh sb="6" eb="7">
       <t>ヤリ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>装甲値</t>
+    <rPh sb="0" eb="2">
+      <t>ソウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小型試作型神の盾</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中型試作型神の盾</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大型試作型神の盾</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小型神の盾</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中型神の盾</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大型神の盾</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大型零式神の盾</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中型零式神の盾</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小型零式神の盾</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1401,40 +1420,34 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$36:$L$36</c:f>
+              <c:f>Sheet1!$D$36:$L$36</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>ナノ複合</c:v>
+                  <c:v>ミ装甲</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>龍鱗装甲</c:v>
+                  <c:v>ミ廉価</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>ミ装甲</c:v>
+                  <c:v>ミ特化</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>ミ廉価</c:v>
+                  <c:v>オ装甲</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>ミ特化</c:v>
+                  <c:v>オ廉価</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>オ装甲</c:v>
+                  <c:v>オ特化</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>オ廉価</c:v>
+                  <c:v>ア装甲</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>オ特化</c:v>
+                  <c:v>ア廉価</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>ア装甲</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>ア廉価</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>ア特化</c:v>
                 </c:pt>
               </c:strCache>
@@ -1442,42 +1455,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$37:$L$37</c:f>
+              <c:f>Sheet1!$D$37:$L$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.8</c:v>
+                  <c:v>3.7052631578947368</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3199999999999998</c:v>
+                  <c:v>4.234586466165414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7052631578947368</c:v>
+                  <c:v>2.9642105263157892</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9403508771929827</c:v>
+                  <c:v>3.0629213483146067</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9642105263157892</c:v>
+                  <c:v>3.5004815409309793</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1938461538461542</c:v>
+                  <c:v>2.4503370786516854</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.591794871794872</c:v>
+                  <c:v>2.3255813953488373</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3550769230769228</c:v>
+                  <c:v>2.6578073089700998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8168421052631576</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.422456140350878</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.8534736842105262</c:v>
+                  <c:v>1.8604651162790695</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1514,40 +1521,34 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$36:$L$36</c:f>
+              <c:f>Sheet1!$D$36:$L$36</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>ナノ複合</c:v>
+                  <c:v>ミ装甲</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>龍鱗装甲</c:v>
+                  <c:v>ミ廉価</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>ミ装甲</c:v>
+                  <c:v>ミ特化</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>ミ廉価</c:v>
+                  <c:v>オ装甲</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>ミ特化</c:v>
+                  <c:v>オ廉価</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>オ装甲</c:v>
+                  <c:v>オ特化</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>オ廉価</c:v>
+                  <c:v>ア装甲</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>オ特化</c:v>
+                  <c:v>ア廉価</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>ア装甲</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>ア廉価</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>ア特化</c:v>
                 </c:pt>
               </c:strCache>
@@ -1555,42 +1556,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$38:$L$38</c:f>
+              <c:f>Sheet1!$D$38:$L$38</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.64</c:v>
+                  <c:v>3.2744186046511627</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8240000000000001</c:v>
+                  <c:v>3.7421926910299006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2744186046511627</c:v>
+                  <c:v>2.61953488372093</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.365891472868217</c:v>
+                  <c:v>2.6086124401913877</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.61953488372093</c:v>
+                  <c:v>2.9812713602187291</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6590604026845637</c:v>
+                  <c:v>2.0868899521531099</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.8787472035794188</c:v>
+                  <c:v>1.941747572815534</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9272483221476508</c:v>
+                  <c:v>2.2191400832177535</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2567441860465118</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.6756589147286833</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.4053953488372093</c:v>
+                  <c:v>1.5533980582524269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1627,40 +1622,34 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$36:$L$36</c:f>
+              <c:f>Sheet1!$D$36:$L$36</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>ナノ複合</c:v>
+                  <c:v>ミ装甲</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>龍鱗装甲</c:v>
+                  <c:v>ミ廉価</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>ミ装甲</c:v>
+                  <c:v>ミ特化</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>ミ廉価</c:v>
+                  <c:v>オ装甲</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>ミ特化</c:v>
+                  <c:v>オ廉価</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>オ装甲</c:v>
+                  <c:v>オ特化</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>オ廉価</c:v>
+                  <c:v>ア装甲</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>オ特化</c:v>
+                  <c:v>ア廉価</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>ア装甲</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>ア廉価</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>ア特化</c:v>
                 </c:pt>
               </c:strCache>
@@ -1668,42 +1657,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$39:$L$39</c:f>
+              <c:f>Sheet1!$D$39:$L$39</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.53333333333333333</c:v>
+                  <c:v>2.8444444444444446</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.52</c:v>
+                  <c:v>3.2507936507936512</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9642105263157896</c:v>
+                  <c:v>2.2755555555555556</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9522807017543862</c:v>
+                  <c:v>2.2298568507157466</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3713684210526313</c:v>
+                  <c:v>2.5484078293894248</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.124355300859599</c:v>
+                  <c:v>1.783885480572597</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.165807067812799</c:v>
+                  <c:v>1.6460905349794239</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.4994842406876789</c:v>
+                  <c:v>1.8812463256907703</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0228571428571431</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.3638095238095245</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.218285714285714</c:v>
+                  <c:v>1.3168724279835389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2020,40 +2003,34 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$41:$L$41</c:f>
+              <c:f>Sheet1!$D$41:$L$41</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>ナノ複合</c:v>
+                  <c:v>ミ装甲</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>龍鱗装甲</c:v>
+                  <c:v>ミ廉価</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>ミ装甲</c:v>
+                  <c:v>ミ特化</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>ミ廉価</c:v>
+                  <c:v>オ装甲</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>ミ特化</c:v>
+                  <c:v>オ廉価</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>オ装甲</c:v>
+                  <c:v>オ特化</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>オ廉価</c:v>
+                  <c:v>ア装甲</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>オ特化</c:v>
+                  <c:v>ア廉価</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>ア装甲</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>ア廉価</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>ア特化</c:v>
                 </c:pt>
               </c:strCache>
@@ -2061,42 +2038,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$42:$L$42</c:f>
+              <c:f>Sheet1!$D$42:$L$42</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.25</c:v>
+                  <c:v>0.26988636363636365</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.43103448275862066</c:v>
+                  <c:v>0.23615056818181815</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26988636363636365</c:v>
+                  <c:v>0.33735795454545459</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20241477272727271</c:v>
+                  <c:v>0.32648569332355099</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33735795454545459</c:v>
+                  <c:v>0.28567498165810712</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2384446074834923</c:v>
+                  <c:v>0.40810711665443877</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17883345561261921</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2980557593543654</c:v>
+                  <c:v>0.37624999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2076048951048951</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.1557036713286713</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.25950611888111891</c:v>
+                  <c:v>0.53750000000000009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2133,40 +2104,34 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$41:$L$41</c:f>
+              <c:f>Sheet1!$D$41:$L$41</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>ナノ複合</c:v>
+                  <c:v>ミ装甲</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>龍鱗装甲</c:v>
+                  <c:v>ミ廉価</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>ミ装甲</c:v>
+                  <c:v>ミ特化</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>ミ廉価</c:v>
+                  <c:v>オ装甲</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>ミ特化</c:v>
+                  <c:v>オ廉価</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>オ装甲</c:v>
+                  <c:v>オ特化</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>オ廉価</c:v>
+                  <c:v>ア装甲</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>オ特化</c:v>
+                  <c:v>ア廉価</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>ア装甲</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>ア廉価</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>ア特化</c:v>
                 </c:pt>
               </c:strCache>
@@ -2174,42 +2139,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$43:$L$43</c:f>
+              <c:f>Sheet1!$D$43:$L$43</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.5625</c:v>
+                  <c:v>0.30539772727272729</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.54824561403508776</c:v>
+                  <c:v>0.26722301136363635</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30539772727272729</c:v>
+                  <c:v>0.38174715909090912</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22904829545454544</c:v>
+                  <c:v>0.38334556126192221</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.38174715909090912</c:v>
+                  <c:v>0.33542736610418195</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.27329420396184884</c:v>
+                  <c:v>0.47918195157740279</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.20497065297138664</c:v>
+                  <c:v>0.51500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.34161775495231111</c:v>
+                  <c:v>0.45062499999999994</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.23492132867132867</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.17619099650349648</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.29365166083916083</c:v>
+                  <c:v>0.64375000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2246,40 +2205,34 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$41:$L$41</c:f>
+              <c:f>Sheet1!$D$41:$L$41</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>ナノ複合</c:v>
+                  <c:v>ミ装甲</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>龍鱗装甲</c:v>
+                  <c:v>ミ廉価</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>ミ装甲</c:v>
+                  <c:v>ミ特化</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>ミ廉価</c:v>
+                  <c:v>オ装甲</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>ミ特化</c:v>
+                  <c:v>オ廉価</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>オ装甲</c:v>
+                  <c:v>オ特化</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>オ廉価</c:v>
+                  <c:v>ア装甲</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>オ特化</c:v>
+                  <c:v>ア廉価</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>ア装甲</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>ア廉価</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>ア特化</c:v>
                 </c:pt>
               </c:strCache>
@@ -2287,42 +2240,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$44:$L$44</c:f>
+              <c:f>Sheet1!$D$44:$L$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.875</c:v>
+                  <c:v>0.3515625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.65789473684210531</c:v>
+                  <c:v>0.3076171875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33735795454545453</c:v>
+                  <c:v>0.439453125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25301846590909088</c:v>
+                  <c:v>0.44845928099779897</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.42169744318181823</c:v>
+                  <c:v>0.39240187087307404</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.32006603081438006</c:v>
+                  <c:v>0.56057410124724871</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.24004952311078501</c:v>
+                  <c:v>0.60750000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.40008253851797509</c:v>
+                  <c:v>0.53156249999999994</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.24857954545454544</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.18643465909090906</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.31072443181818182</c:v>
+                  <c:v>0.75937500000000013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2563,6 +2510,582 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>装甲値</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>小型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$46:$L$46</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>ミ装甲</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ミ廉価</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ミ特化</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>オ装甲</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>オ廉価</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>オ特化</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ア装甲</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ア廉価</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ア特化</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$47:$L$47</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-54CF-4FA7-B6B0-02AF826A3784}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>中型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$46:$L$46</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>ミ装甲</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ミ廉価</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ミ特化</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>オ装甲</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>オ廉価</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>オ特化</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ア装甲</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ア廉価</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ア特化</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$48:$L$48</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-54CF-4FA7-B6B0-02AF826A3784}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>大型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$46:$L$46</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>ミ装甲</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ミ廉価</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ミ特化</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>オ装甲</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>オ廉価</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>オ特化</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ア装甲</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ア廉価</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ア特化</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$49:$L$49</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-54CF-4FA7-B6B0-02AF826A3784}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1147869551"/>
+        <c:axId val="1134034591"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1147869551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1134034591"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1134034591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1147869551"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
@@ -2633,7 +3156,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$B$17</c:f>
+              <c:f>Sheet3!$B$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2654,7 +3177,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$C$16:$F$16</c:f>
+              <c:f>Sheet3!$C$19:$F$19</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2674,7 +3197,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$C$17:$F$17</c:f>
+              <c:f>Sheet3!$C$20:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2704,7 +3227,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$B$18</c:f>
+              <c:f>Sheet3!$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2725,7 +3248,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$C$16:$F$16</c:f>
+              <c:f>Sheet3!$C$19:$F$19</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2745,7 +3268,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$C$18:$F$18</c:f>
+              <c:f>Sheet3!$C$21:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2775,7 +3298,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$B$19</c:f>
+              <c:f>Sheet3!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2796,7 +3319,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$C$16:$F$16</c:f>
+              <c:f>Sheet3!$C$19:$F$19</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2816,7 +3339,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$C$19:$F$19</c:f>
+              <c:f>Sheet3!$C$22:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3037,7 +3560,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -3123,7 +3646,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$B$23</c:f>
+              <c:f>Sheet3!$B$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3144,7 +3667,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$C$22:$F$22</c:f>
+              <c:f>Sheet3!$C$25:$F$25</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3164,7 +3687,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$C$23:$F$23</c:f>
+              <c:f>Sheet3!$C$26:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3194,7 +3717,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$B$24</c:f>
+              <c:f>Sheet3!$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3215,7 +3738,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$C$22:$F$22</c:f>
+              <c:f>Sheet3!$C$25:$F$25</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3235,7 +3758,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$C$24:$F$24</c:f>
+              <c:f>Sheet3!$C$27:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3265,7 +3788,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$B$25</c:f>
+              <c:f>Sheet3!$B$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3286,7 +3809,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$C$22:$F$22</c:f>
+              <c:f>Sheet3!$C$25:$F$25</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3306,7 +3829,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$C$25:$F$25</c:f>
+              <c:f>Sheet3!$C$28:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3527,7 +4050,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -3608,7 +4131,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$B$29</c:f>
+              <c:f>Sheet3!$B$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3629,7 +4152,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$C$28:$F$28</c:f>
+              <c:f>Sheet3!$C$31:$F$31</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3649,7 +4172,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$C$29:$F$29</c:f>
+              <c:f>Sheet3!$C$32:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3679,7 +4202,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$B$30</c:f>
+              <c:f>Sheet3!$B$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3700,7 +4223,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$C$28:$F$28</c:f>
+              <c:f>Sheet3!$C$31:$F$31</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3720,7 +4243,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$C$30:$F$30</c:f>
+              <c:f>Sheet3!$C$33:$F$33</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3750,7 +4273,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$B$31</c:f>
+              <c:f>Sheet3!$B$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3771,7 +4294,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$C$28:$F$28</c:f>
+              <c:f>Sheet3!$C$31:$F$31</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3791,7 +4314,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$C$31:$F$31</c:f>
+              <c:f>Sheet3!$C$34:$F$34</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4012,7 +4535,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -5169,6 +5692,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -7685,7 +8248,7 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8187,20 +8750,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>23811</xdr:colOff>
+      <xdr:colOff>14286</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>52386</xdr:rowOff>
+      <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8228,15 +9294,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>80961</xdr:colOff>
+      <xdr:colOff>14286</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>166686</xdr:rowOff>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>228599</xdr:rowOff>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8261,6 +9327,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>14286</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>233361</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F2B87F0-42B9-E35D-1673-68718E4A7424}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8270,13 +9372,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>14286</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1123949</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8306,14 +9408,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1114425</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>238124</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8342,14 +9444,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>247649</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8715,13 +9817,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78745F3-E409-4161-8013-11F6ADA667F6}">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="5" width="11.875" customWidth="1"/>
     <col min="6" max="6" width="11.875" style="97" customWidth="1"/>
@@ -8729,7 +9831,7 @@
     <col min="8" max="17" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
@@ -8755,10 +9857,10 @@
         <v>13</v>
       </c>
       <c r="I1" s="51" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J1" s="52" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
@@ -8773,10 +9875,10 @@
         <v>8</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="54" t="s">
         <v>46</v>
       </c>
@@ -8834,7 +9936,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="54" t="s">
         <v>10</v>
       </c>
@@ -8877,7 +9979,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="54" t="s">
         <v>11</v>
       </c>
@@ -8920,9 +10022,9 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="83" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B5" s="4">
         <v>29</v>
@@ -8937,41 +10039,41 @@
         <v>0</v>
       </c>
       <c r="F5" s="92">
-        <v>50</v>
+        <v>185</v>
       </c>
       <c r="G5" s="101">
         <v>0</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="1"/>
-        <v>2.3199999999999998</v>
+        <v>0.62702702702702706</v>
       </c>
       <c r="I5" s="3">
         <f t="shared" si="2"/>
-        <v>0.43103448275862066</v>
+        <v>1.5948275862068966</v>
       </c>
       <c r="J5" s="5">
         <f t="shared" si="3"/>
-        <v>2.3199999999999998</v>
+        <v>0.62702702702702706</v>
       </c>
       <c r="L5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="P5" s="9">
         <f t="shared" si="4"/>
-        <v>2.3199999999999998</v>
+        <v>0.62702702702702706</v>
       </c>
       <c r="Q5" s="9">
         <f t="shared" si="0"/>
-        <v>2.3199999999999998</v>
+        <v>0.62702702702702706</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="4">
         <v>57</v>
@@ -8986,25 +10088,25 @@
         <v>0</v>
       </c>
       <c r="F6" s="92">
-        <v>125</v>
+        <v>465</v>
       </c>
       <c r="G6" s="101">
         <v>0</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="1"/>
-        <v>1.8240000000000001</v>
+        <v>0.49032258064516127</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" si="2"/>
-        <v>0.54824561403508776</v>
+        <v>2.0394736842105261</v>
       </c>
       <c r="J6" s="5">
         <f t="shared" si="3"/>
-        <v>1.8240000000000001</v>
+        <v>0.49032258064516127</v>
       </c>
       <c r="K6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L6">
         <v>0.8</v>
@@ -9014,16 +10116,16 @@
       </c>
       <c r="P6" s="9">
         <f t="shared" si="4"/>
-        <v>1.8240000000000001</v>
+        <v>0.49032258064516127</v>
       </c>
       <c r="Q6" s="9">
         <f t="shared" si="0"/>
-        <v>1.8240000000000001</v>
+        <v>0.49032258064516127</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B7" s="4">
         <v>114</v>
@@ -9038,44 +10140,44 @@
         <v>0</v>
       </c>
       <c r="F7" s="92">
-        <v>300</v>
+        <v>1110</v>
       </c>
       <c r="G7" s="101">
         <v>0</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="1"/>
-        <v>1.52</v>
+        <v>0.41081081081081083</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="2"/>
-        <v>0.65789473684210531</v>
+        <v>2.4342105263157894</v>
       </c>
       <c r="J7" s="5">
         <f t="shared" si="3"/>
-        <v>1.52</v>
+        <v>0.41081081081081083</v>
       </c>
       <c r="K7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L7">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="M7">
         <v>1.5</v>
       </c>
       <c r="P7" s="9">
         <f t="shared" si="4"/>
-        <v>1.52</v>
+        <v>0.41081081081081083</v>
       </c>
       <c r="Q7" s="9">
         <f t="shared" si="0"/>
-        <v>1.52</v>
+        <v>0.41081081081081083</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B8" s="83">
         <v>11</v>
@@ -9116,7 +10218,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
@@ -9133,6 +10235,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="95">
+        <f>F8*2.5</f>
         <v>400</v>
       </c>
       <c r="G9" s="104">
@@ -9159,7 +10262,7 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>1</v>
       </c>
@@ -9176,35 +10279,36 @@
         <v>0</v>
       </c>
       <c r="F10" s="96">
-        <v>920</v>
+        <f>F8*6</f>
+        <v>960</v>
       </c>
       <c r="G10" s="105">
         <v>1</v>
       </c>
       <c r="H10" s="10">
         <f t="shared" si="1"/>
-        <v>3.0608695652173914</v>
+        <v>2.9333333333333331</v>
       </c>
       <c r="I10" s="10">
         <f t="shared" si="2"/>
-        <v>0.33735795454545453</v>
+        <v>0.3515625</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" si="3"/>
-        <v>2.9642105263157896</v>
+        <v>2.8444444444444446</v>
       </c>
       <c r="P10" s="9">
         <f t="shared" si="4"/>
-        <v>2.9642105263157896</v>
+        <v>2.8444444444444446</v>
       </c>
       <c r="Q10" s="9">
         <f t="shared" si="0"/>
-        <v>3.0608695652173914</v>
+        <v>2.9333333333333331</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="83" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" ref="B11:E13" si="5">B8*$L$6</f>
@@ -9224,36 +10328,36 @@
       </c>
       <c r="F11" s="92">
         <f t="shared" ref="F11:G13" si="6">F8*$L$7</f>
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="G11" s="101">
         <f t="shared" si="6"/>
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="1"/>
-        <v>5.8666666666666671</v>
+        <v>5.0285714285714294</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="2"/>
-        <v>0.20241477272727271</v>
+        <v>0.23615056818181815</v>
       </c>
       <c r="J11" s="5">
         <f t="shared" si="3"/>
-        <v>4.9403508771929827</v>
+        <v>4.234586466165414</v>
       </c>
       <c r="P11" s="9">
         <f t="shared" si="4"/>
-        <v>4.9403508771929827</v>
+        <v>4.234586466165414</v>
       </c>
       <c r="Q11" s="9">
         <f t="shared" si="0"/>
-        <v>5.8666666666666671</v>
+        <v>5.0285714285714294</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="5"/>
@@ -9273,36 +10377,36 @@
       </c>
       <c r="F12" s="92">
         <f t="shared" si="6"/>
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="G12" s="101">
         <f t="shared" si="6"/>
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="1"/>
-        <v>4.6933333333333334</v>
+        <v>4.0228571428571431</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" si="2"/>
-        <v>0.22904829545454544</v>
+        <v>0.26722301136363635</v>
       </c>
       <c r="J12" s="5">
         <f t="shared" si="3"/>
-        <v>4.365891472868217</v>
+        <v>3.7421926910299006</v>
       </c>
       <c r="P12" s="9">
         <f t="shared" si="4"/>
-        <v>4.365891472868217</v>
+        <v>3.7421926910299006</v>
       </c>
       <c r="Q12" s="9">
         <f t="shared" ref="Q12:Q34" si="7">(B12*4+C12*30+D12*85+E12*200)/F12</f>
-        <v>4.6933333333333334</v>
+        <v>4.0228571428571431</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="5"/>
@@ -9322,36 +10426,36 @@
       </c>
       <c r="F13" s="92">
         <f t="shared" si="6"/>
-        <v>552</v>
+        <v>672</v>
       </c>
       <c r="G13" s="101">
         <f t="shared" si="6"/>
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="1"/>
-        <v>4.0811594202898558</v>
+        <v>3.3523809523809525</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="2"/>
-        <v>0.25301846590909088</v>
+        <v>0.3076171875</v>
       </c>
       <c r="J13" s="5">
         <f t="shared" si="3"/>
-        <v>3.9522807017543862</v>
+        <v>3.2507936507936512</v>
       </c>
       <c r="P13" s="9">
         <f t="shared" si="4"/>
-        <v>3.9522807017543862</v>
+        <v>3.2507936507936512</v>
       </c>
       <c r="Q13" s="9">
         <f t="shared" si="7"/>
-        <v>4.0811594202898558</v>
+        <v>3.3523809523809525</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="83" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B14" s="83">
         <f t="shared" ref="B14:E16" si="8">B8*$M$6</f>
@@ -9370,11 +10474,11 @@
         <v>0</v>
       </c>
       <c r="F14" s="91">
-        <f t="shared" ref="F14:G16" si="9">F8*$M$7</f>
+        <f>F8*$M$7</f>
         <v>240</v>
       </c>
       <c r="G14" s="100">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="F14:G16" si="9">G8*$M$7</f>
         <v>1.5</v>
       </c>
       <c r="H14" s="57">
@@ -9398,9 +10502,9 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="8"/>
@@ -9447,9 +10551,9 @@
         <v>2.8159999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B16" s="6">
         <f t="shared" si="8"/>
@@ -9469,7 +10573,7 @@
       </c>
       <c r="F16" s="93">
         <f t="shared" si="9"/>
-        <v>1380</v>
+        <v>1440</v>
       </c>
       <c r="G16" s="102">
         <f t="shared" si="9"/>
@@ -9477,28 +10581,28 @@
       </c>
       <c r="H16" s="10">
         <f t="shared" si="10"/>
-        <v>2.4486956521739129</v>
+        <v>2.3466666666666667</v>
       </c>
       <c r="I16" s="10">
         <f t="shared" si="2"/>
-        <v>0.42169744318181823</v>
+        <v>0.439453125</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" si="11"/>
-        <v>2.3713684210526313</v>
+        <v>2.2755555555555556</v>
       </c>
       <c r="P16" s="9">
         <f t="shared" si="4"/>
-        <v>2.3713684210526313</v>
+        <v>2.2755555555555556</v>
       </c>
       <c r="Q16" s="9">
         <f t="shared" si="7"/>
-        <v>2.4486956521739129</v>
+        <v>2.3466666666666667</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B17" s="4">
         <v>22</v>
@@ -9512,36 +10616,37 @@
       <c r="E17" s="2">
         <v>0</v>
       </c>
-      <c r="F17" s="95">
-        <v>280</v>
+      <c r="F17" s="94">
+        <f>F8*2.5</f>
+        <v>400</v>
       </c>
       <c r="G17" s="104">
         <v>1.5</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="10"/>
-        <v>4.8678571428571429</v>
+        <v>3.4075000000000002</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="2"/>
-        <v>0.2384446074834923</v>
+        <v>0.32648569332355099</v>
       </c>
       <c r="J17" s="5">
         <f t="shared" si="11"/>
-        <v>4.1938461538461542</v>
+        <v>3.0629213483146067</v>
       </c>
       <c r="P17" s="9">
         <f t="shared" si="4"/>
-        <v>4.1938461538461542</v>
+        <v>3.0629213483146067</v>
       </c>
       <c r="Q17" s="9">
         <f t="shared" si="7"/>
-        <v>4.8678571428571429</v>
+        <v>3.4075000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B18" s="4">
         <v>44</v>
@@ -9556,33 +10661,34 @@
         <v>0</v>
       </c>
       <c r="F18" s="95">
-        <v>700</v>
+        <f>F17*2.5</f>
+        <v>1000</v>
       </c>
       <c r="G18" s="104">
         <v>1.5</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="10"/>
-        <v>3.8942857142857141</v>
+        <v>2.726</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="2"/>
-        <v>0.27329420396184884</v>
+        <v>0.38334556126192221</v>
       </c>
       <c r="J18" s="5">
         <f t="shared" si="11"/>
-        <v>3.6590604026845637</v>
+        <v>2.6086124401913877</v>
       </c>
       <c r="P18" s="9">
         <f t="shared" si="4"/>
-        <v>3.6590604026845637</v>
+        <v>2.6086124401913877</v>
       </c>
       <c r="Q18" s="9">
         <f t="shared" si="7"/>
-        <v>3.8942857142857141</v>
+        <v>2.726</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
         <v>2</v>
       </c>
@@ -9598,36 +10704,37 @@
       <c r="E19" s="2">
         <v>0</v>
       </c>
-      <c r="F19" s="95">
-        <v>1700</v>
+      <c r="F19" s="96">
+        <f>F17*6</f>
+        <v>2400</v>
       </c>
       <c r="G19" s="104">
         <v>1.5</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="10"/>
-        <v>3.2070588235294117</v>
+        <v>2.2716666666666665</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="2"/>
-        <v>0.32006603081438006</v>
+        <v>0.44845928099779897</v>
       </c>
       <c r="J19" s="5">
         <f t="shared" si="11"/>
-        <v>3.124355300859599</v>
+        <v>2.2298568507157466</v>
       </c>
       <c r="P19" s="9">
         <f t="shared" si="4"/>
-        <v>3.124355300859599</v>
+        <v>2.2298568507157466</v>
       </c>
       <c r="Q19" s="9">
         <f t="shared" si="7"/>
-        <v>3.2070588235294117</v>
+        <v>2.2716666666666665</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" s="83" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B20" s="83">
         <f t="shared" ref="B20:E22" si="12">B17*$L$6</f>
@@ -9647,36 +10754,36 @@
       </c>
       <c r="F20" s="91">
         <f t="shared" ref="F20:G22" si="13">F17*$L$7</f>
-        <v>168</v>
+        <v>280</v>
       </c>
       <c r="G20" s="100">
         <f t="shared" si="13"/>
-        <v>0.89999999999999991</v>
+        <v>1.0499999999999998</v>
       </c>
       <c r="H20" s="57">
         <f t="shared" si="10"/>
-        <v>6.4904761904761914</v>
+        <v>3.8942857142857146</v>
       </c>
       <c r="I20" s="57">
         <f t="shared" si="2"/>
-        <v>0.17883345561261921</v>
+        <v>0.28567498165810712</v>
       </c>
       <c r="J20" s="58">
         <f t="shared" si="11"/>
-        <v>5.591794871794872</v>
+        <v>3.5004815409309793</v>
       </c>
       <c r="P20" s="9">
         <f t="shared" si="4"/>
-        <v>5.591794871794872</v>
+        <v>3.5004815409309793</v>
       </c>
       <c r="Q20" s="9">
         <f t="shared" si="7"/>
-        <v>6.4904761904761914</v>
+        <v>3.8942857142857146</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="12"/>
@@ -9696,36 +10803,36 @@
       </c>
       <c r="F21" s="92">
         <f t="shared" si="13"/>
-        <v>420</v>
+        <v>700</v>
       </c>
       <c r="G21" s="101">
         <f t="shared" si="13"/>
-        <v>0.89999999999999991</v>
+        <v>1.0499999999999998</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="10"/>
-        <v>5.1923809523809528</v>
+        <v>3.1154285714285717</v>
       </c>
       <c r="I21" s="3">
         <f t="shared" si="2"/>
-        <v>0.20497065297138664</v>
+        <v>0.33542736610418195</v>
       </c>
       <c r="J21" s="5">
         <f t="shared" si="11"/>
-        <v>4.8787472035794188</v>
+        <v>2.9812713602187291</v>
       </c>
       <c r="P21" s="9">
         <f t="shared" si="4"/>
-        <v>4.8787472035794188</v>
+        <v>2.9812713602187291</v>
       </c>
       <c r="Q21" s="9">
         <f t="shared" si="7"/>
-        <v>5.1923809523809528</v>
+        <v>3.1154285714285717</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B22" s="6">
         <f t="shared" si="12"/>
@@ -9745,36 +10852,36 @@
       </c>
       <c r="F22" s="93">
         <f t="shared" si="13"/>
-        <v>1020</v>
+        <v>1680</v>
       </c>
       <c r="G22" s="102">
         <f t="shared" si="13"/>
-        <v>0.89999999999999991</v>
+        <v>1.0499999999999998</v>
       </c>
       <c r="H22" s="10">
         <f t="shared" si="10"/>
-        <v>4.2760784313725493</v>
+        <v>2.5961904761904764</v>
       </c>
       <c r="I22" s="10">
         <f t="shared" si="2"/>
-        <v>0.24004952311078501</v>
+        <v>0.39240187087307404</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" si="11"/>
-        <v>4.165807067812799</v>
+        <v>2.5484078293894248</v>
       </c>
       <c r="P22" s="9">
         <f t="shared" si="4"/>
-        <v>4.165807067812799</v>
+        <v>2.5484078293894248</v>
       </c>
       <c r="Q22" s="9">
         <f t="shared" si="7"/>
-        <v>4.2760784313725493</v>
+        <v>2.5961904761904764</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" ref="B23:E25" si="14">B17*$M$6</f>
@@ -9793,37 +10900,37 @@
         <v>0</v>
       </c>
       <c r="F23" s="92">
-        <f t="shared" ref="F23:G25" si="15">F17*$M$7</f>
-        <v>420</v>
+        <f>F17*$M$7</f>
+        <v>600</v>
       </c>
       <c r="G23" s="101">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="F23:G25" si="15">G17*$M$7</f>
         <v>2.25</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" si="10"/>
-        <v>3.8942857142857141</v>
+        <v>2.726</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" si="2"/>
-        <v>0.2980557593543654</v>
+        <v>0.40810711665443877</v>
       </c>
       <c r="J23" s="5">
         <f t="shared" si="11"/>
-        <v>3.3550769230769228</v>
+        <v>2.4503370786516854</v>
       </c>
       <c r="P23" s="9">
         <f t="shared" si="4"/>
-        <v>3.3550769230769228</v>
+        <v>2.4503370786516854</v>
       </c>
       <c r="Q23" s="9">
         <f t="shared" si="7"/>
-        <v>3.8942857142857141</v>
+        <v>2.726</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="14"/>
@@ -9843,7 +10950,7 @@
       </c>
       <c r="F24" s="92">
         <f t="shared" si="15"/>
-        <v>1050</v>
+        <v>1500</v>
       </c>
       <c r="G24" s="101">
         <f t="shared" si="15"/>
@@ -9851,28 +10958,28 @@
       </c>
       <c r="H24" s="3">
         <f t="shared" si="10"/>
-        <v>3.1154285714285712</v>
+        <v>2.1808000000000001</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="2"/>
-        <v>0.34161775495231111</v>
+        <v>0.47918195157740279</v>
       </c>
       <c r="J24" s="5">
         <f t="shared" si="11"/>
-        <v>2.9272483221476508</v>
+        <v>2.0868899521531099</v>
       </c>
       <c r="P24" s="9">
         <f t="shared" si="4"/>
-        <v>2.9272483221476508</v>
+        <v>2.0868899521531099</v>
       </c>
       <c r="Q24" s="9">
         <f t="shared" si="7"/>
-        <v>3.1154285714285712</v>
+        <v>2.1808000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="14"/>
@@ -9892,7 +10999,7 @@
       </c>
       <c r="F25" s="92">
         <f t="shared" si="15"/>
-        <v>2550</v>
+        <v>3600</v>
       </c>
       <c r="G25" s="101">
         <f t="shared" si="15"/>
@@ -9900,31 +11007,31 @@
       </c>
       <c r="H25" s="3">
         <f t="shared" si="10"/>
-        <v>2.5656470588235294</v>
+        <v>1.8173333333333332</v>
       </c>
       <c r="I25" s="3">
         <f t="shared" si="2"/>
-        <v>0.40008253851797509</v>
+        <v>0.56057410124724871</v>
       </c>
       <c r="J25" s="5">
         <f t="shared" si="11"/>
-        <v>2.4994842406876789</v>
+        <v>1.783885480572597</v>
       </c>
       <c r="P25" s="9">
         <f t="shared" si="4"/>
-        <v>2.4994842406876789</v>
+        <v>1.783885480572597</v>
       </c>
       <c r="Q25" s="9">
         <f t="shared" si="7"/>
-        <v>2.5656470588235294</v>
+        <v>1.8173333333333332</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B26" s="83">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C26" s="56">
         <v>0</v>
@@ -9933,41 +11040,42 @@
         <v>0</v>
       </c>
       <c r="E26" s="56">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" s="94">
-        <v>400</v>
+        <f>F17*2.5</f>
+        <v>1000</v>
       </c>
       <c r="G26" s="103">
         <v>2.5</v>
       </c>
       <c r="H26" s="57">
         <f>Q26</f>
-        <v>5.72</v>
+        <v>2.5</v>
       </c>
       <c r="I26" s="57">
         <f t="shared" si="2"/>
-        <v>0.2076048951048951</v>
+        <v>0.43</v>
       </c>
       <c r="J26" s="58">
         <f>P26</f>
-        <v>4.8168421052631576</v>
+        <v>2.3255813953488373</v>
       </c>
       <c r="P26" s="9">
         <f t="shared" si="4"/>
-        <v>4.8168421052631576</v>
+        <v>2.3255813953488373</v>
       </c>
       <c r="Q26" s="9">
         <f t="shared" si="7"/>
-        <v>5.72</v>
+        <v>2.5</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B27" s="4">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
@@ -9976,41 +11084,42 @@
         <v>0</v>
       </c>
       <c r="E27" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F27" s="95">
-        <v>1000</v>
+        <f>F26*2.5</f>
+        <v>2500</v>
       </c>
       <c r="G27" s="104">
         <v>2.5</v>
       </c>
       <c r="H27" s="3">
         <f>Q27</f>
-        <v>4.5759999999999996</v>
+        <v>2</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" si="2"/>
-        <v>0.23492132867132867</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="J27" s="5">
         <f>P27</f>
-        <v>4.2567441860465118</v>
+        <v>1.941747572815534</v>
       </c>
       <c r="P27" s="9">
         <f t="shared" si="4"/>
-        <v>4.2567441860465118</v>
+        <v>1.941747572815534</v>
       </c>
       <c r="Q27" s="9">
         <f t="shared" si="7"/>
-        <v>4.5759999999999996</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="6">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C28" s="7">
         <v>0</v>
@@ -10019,42 +11128,43 @@
         <v>0</v>
       </c>
       <c r="E28" s="7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F28" s="96">
-        <v>2200</v>
+        <f>F26*6</f>
+        <v>6000</v>
       </c>
       <c r="G28" s="105">
         <v>2.5</v>
       </c>
       <c r="H28" s="10">
         <f>Q28</f>
-        <v>4.16</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I28" s="10">
         <f t="shared" si="2"/>
-        <v>0.24857954545454544</v>
+        <v>0.60750000000000004</v>
       </c>
       <c r="J28" s="8">
         <f>P28</f>
-        <v>4.0228571428571431</v>
+        <v>1.6460905349794239</v>
       </c>
       <c r="P28" s="9">
         <f t="shared" si="4"/>
-        <v>4.0228571428571431</v>
+        <v>1.6460905349794239</v>
       </c>
       <c r="Q28" s="9">
         <f t="shared" si="7"/>
-        <v>4.16</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" s="83" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B29" s="83">
         <f t="shared" ref="B29:E31" si="16">B26*$L$6</f>
-        <v>17.600000000000001</v>
+        <v>20</v>
       </c>
       <c r="C29" s="56">
         <f t="shared" si="16"/>
@@ -10066,44 +11176,44 @@
       </c>
       <c r="E29" s="56">
         <f t="shared" si="16"/>
-        <v>8.8000000000000007</v>
+        <v>9.6000000000000014</v>
       </c>
       <c r="F29" s="91">
         <f t="shared" ref="F29:G31" si="17">F26*$L$7</f>
-        <v>240</v>
+        <v>700</v>
       </c>
       <c r="G29" s="100">
         <f t="shared" si="17"/>
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="H29" s="57">
         <f t="shared" ref="H29:H34" si="18">Q29</f>
-        <v>7.6266666666666678</v>
+        <v>2.8571428571428577</v>
       </c>
       <c r="I29" s="57">
         <f t="shared" si="2"/>
-        <v>0.1557036713286713</v>
+        <v>0.37624999999999997</v>
       </c>
       <c r="J29" s="58">
         <f t="shared" ref="J29:J34" si="19">P29</f>
-        <v>6.422456140350878</v>
+        <v>2.6578073089700998</v>
       </c>
       <c r="P29" s="9">
         <f t="shared" si="4"/>
-        <v>6.422456140350878</v>
+        <v>2.6578073089700998</v>
       </c>
       <c r="Q29" s="9">
         <f t="shared" si="7"/>
-        <v>7.6266666666666678</v>
+        <v>2.8571428571428577</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B30" s="4">
         <f t="shared" si="16"/>
-        <v>35.200000000000003</v>
+        <v>40</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="16"/>
@@ -10115,44 +11225,44 @@
       </c>
       <c r="E30" s="2">
         <f t="shared" si="16"/>
-        <v>17.600000000000001</v>
+        <v>19.200000000000003</v>
       </c>
       <c r="F30" s="92">
         <f t="shared" si="17"/>
-        <v>600</v>
+        <v>1750</v>
       </c>
       <c r="G30" s="101">
         <f t="shared" si="17"/>
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="H30" s="3">
         <f t="shared" si="18"/>
-        <v>6.1013333333333346</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="I30" s="3">
         <f t="shared" si="2"/>
-        <v>0.17619099650349648</v>
+        <v>0.45062499999999994</v>
       </c>
       <c r="J30" s="5">
         <f t="shared" si="19"/>
-        <v>5.6756589147286833</v>
+        <v>2.2191400832177535</v>
       </c>
       <c r="P30" s="9">
         <f t="shared" si="4"/>
-        <v>5.6756589147286833</v>
+        <v>2.2191400832177535</v>
       </c>
       <c r="Q30" s="9">
         <f t="shared" si="7"/>
-        <v>6.1013333333333346</v>
+        <v>2.285714285714286</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B31" s="6">
         <f t="shared" si="16"/>
-        <v>70.400000000000006</v>
+        <v>80</v>
       </c>
       <c r="C31" s="7">
         <f t="shared" si="16"/>
@@ -10164,44 +11274,44 @@
       </c>
       <c r="E31" s="7">
         <f t="shared" si="16"/>
-        <v>35.200000000000003</v>
+        <v>38.400000000000006</v>
       </c>
       <c r="F31" s="93">
         <f t="shared" si="17"/>
-        <v>1320</v>
+        <v>4200</v>
       </c>
       <c r="G31" s="102">
         <f t="shared" si="17"/>
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="H31" s="10">
         <f t="shared" si="18"/>
-        <v>5.5466666666666677</v>
+        <v>1.9047619047619049</v>
       </c>
       <c r="I31" s="10">
         <f t="shared" si="2"/>
-        <v>0.18643465909090906</v>
+        <v>0.53156249999999994</v>
       </c>
       <c r="J31" s="8">
         <f t="shared" si="19"/>
-        <v>5.3638095238095245</v>
+        <v>1.8812463256907703</v>
       </c>
       <c r="P31" s="9">
         <f t="shared" si="4"/>
-        <v>5.3638095238095245</v>
+        <v>1.8812463256907703</v>
       </c>
       <c r="Q31" s="9">
         <f t="shared" si="7"/>
-        <v>5.5466666666666677</v>
+        <v>1.9047619047619049</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32" s="83" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B32" s="83">
         <f t="shared" ref="B32:E34" si="20">B26*$M$6</f>
-        <v>26.4</v>
+        <v>30</v>
       </c>
       <c r="C32" s="56">
         <f t="shared" si="20"/>
@@ -10213,44 +11323,44 @@
       </c>
       <c r="E32" s="56">
         <f t="shared" si="20"/>
-        <v>13.2</v>
+        <v>14.399999999999999</v>
       </c>
       <c r="F32" s="91">
-        <f t="shared" ref="F32:G34" si="21">F26*$M$7</f>
-        <v>600</v>
+        <f>F26*$M$7</f>
+        <v>1500</v>
       </c>
       <c r="G32" s="100">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="F32:G34" si="21">G26*$M$7</f>
         <v>3.75</v>
       </c>
       <c r="H32" s="57">
         <f t="shared" si="18"/>
-        <v>4.5759999999999996</v>
+        <v>1.9999999999999998</v>
       </c>
       <c r="I32" s="57">
         <f t="shared" si="2"/>
-        <v>0.25950611888111891</v>
+        <v>0.53750000000000009</v>
       </c>
       <c r="J32" s="58">
         <f t="shared" si="19"/>
-        <v>3.8534736842105262</v>
+        <v>1.8604651162790695</v>
       </c>
       <c r="P32" s="9">
         <f t="shared" si="4"/>
-        <v>3.8534736842105262</v>
+        <v>1.8604651162790695</v>
       </c>
       <c r="Q32" s="9">
         <f t="shared" si="7"/>
-        <v>4.5759999999999996</v>
+        <v>1.9999999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B33" s="4">
         <f t="shared" si="20"/>
-        <v>52.8</v>
+        <v>60</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="20"/>
@@ -10262,11 +11372,11 @@
       </c>
       <c r="E33" s="2">
         <f t="shared" si="20"/>
-        <v>26.4</v>
+        <v>28.799999999999997</v>
       </c>
       <c r="F33" s="92">
         <f t="shared" si="21"/>
-        <v>1500</v>
+        <v>3750</v>
       </c>
       <c r="G33" s="101">
         <f t="shared" si="21"/>
@@ -10274,32 +11384,32 @@
       </c>
       <c r="H33" s="3">
         <f t="shared" si="18"/>
-        <v>3.6608000000000001</v>
+        <v>1.5999999999999999</v>
       </c>
       <c r="I33" s="3">
         <f t="shared" si="2"/>
-        <v>0.29365166083916083</v>
+        <v>0.64375000000000004</v>
       </c>
       <c r="J33" s="5">
         <f t="shared" si="19"/>
-        <v>3.4053953488372093</v>
+        <v>1.5533980582524269</v>
       </c>
       <c r="P33" s="9">
         <f t="shared" si="4"/>
-        <v>3.4053953488372093</v>
+        <v>1.5533980582524269</v>
       </c>
       <c r="Q33" s="9">
         <f t="shared" si="7"/>
-        <v>3.6608000000000001</v>
+        <v>1.5999999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B34" s="6">
         <f t="shared" si="20"/>
-        <v>105.6</v>
+        <v>120</v>
       </c>
       <c r="C34" s="7">
         <f t="shared" si="20"/>
@@ -10311,11 +11421,11 @@
       </c>
       <c r="E34" s="7">
         <f t="shared" si="20"/>
-        <v>52.8</v>
+        <v>57.599999999999994</v>
       </c>
       <c r="F34" s="93">
-        <f t="shared" si="21"/>
-        <v>3300</v>
+        <f>F28*$M$7</f>
+        <v>9000</v>
       </c>
       <c r="G34" s="102">
         <f t="shared" si="21"/>
@@ -10323,66 +11433,66 @@
       </c>
       <c r="H34" s="10">
         <f t="shared" si="18"/>
-        <v>3.3279999999999998</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="I34" s="10">
         <f t="shared" si="2"/>
-        <v>0.31072443181818182</v>
+        <v>0.75937500000000013</v>
       </c>
       <c r="J34" s="8">
         <f t="shared" si="19"/>
-        <v>3.218285714285714</v>
+        <v>1.3168724279835389</v>
       </c>
       <c r="P34" s="9">
         <f t="shared" si="4"/>
-        <v>3.218285714285714</v>
+        <v>1.3168724279835389</v>
       </c>
       <c r="Q34" s="9">
         <f t="shared" si="7"/>
-        <v>3.3279999999999998</v>
+        <v>1.333333333333333</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D36" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" s="97" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" s="106" t="s">
+        <v>89</v>
+      </c>
+      <c r="H36" t="s">
+        <v>92</v>
+      </c>
+      <c r="I36" t="s">
+        <v>88</v>
+      </c>
+      <c r="J36" t="s">
         <v>93</v>
       </c>
-      <c r="E36" t="s">
+      <c r="K36" t="s">
         <v>94</v>
       </c>
-      <c r="F36" s="97" t="s">
-        <v>89</v>
-      </c>
-      <c r="G36" s="106" t="s">
-        <v>92</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="L36" t="s">
         <v>95</v>
       </c>
-      <c r="I36" t="s">
-        <v>91</v>
-      </c>
-      <c r="J36" t="s">
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
         <v>96</v>
-      </c>
-      <c r="K36" t="s">
-        <v>97</v>
-      </c>
-      <c r="L36" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.7">
-      <c r="A37" t="s">
-        <v>99</v>
       </c>
       <c r="B37" s="9">
         <f>J2</f>
@@ -10390,7 +11500,7 @@
       </c>
       <c r="C37" s="9">
         <f>J5</f>
-        <v>2.3199999999999998</v>
+        <v>0.62702702702702706</v>
       </c>
       <c r="D37" s="9">
         <f>J8</f>
@@ -10398,7 +11508,7 @@
       </c>
       <c r="E37" s="9">
         <f>J11</f>
-        <v>4.9403508771929827</v>
+        <v>4.234586466165414</v>
       </c>
       <c r="F37" s="98">
         <f>J14</f>
@@ -10406,32 +11516,32 @@
       </c>
       <c r="G37" s="107">
         <f>J17</f>
-        <v>4.1938461538461542</v>
+        <v>3.0629213483146067</v>
       </c>
       <c r="H37" s="9">
         <f>J20</f>
-        <v>5.591794871794872</v>
+        <v>3.5004815409309793</v>
       </c>
       <c r="I37" s="9">
         <f>J23</f>
-        <v>3.3550769230769228</v>
+        <v>2.4503370786516854</v>
       </c>
       <c r="J37" s="9">
         <f>J26</f>
-        <v>4.8168421052631576</v>
+        <v>2.3255813953488373</v>
       </c>
       <c r="K37" s="9">
         <f>J29</f>
-        <v>6.422456140350878</v>
+        <v>2.6578073089700998</v>
       </c>
       <c r="L37" s="9">
         <f>J32</f>
-        <v>3.8534736842105262</v>
+        <v>1.8604651162790695</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B38" s="9">
         <f t="shared" ref="B38:B39" si="22">J3</f>
@@ -10439,7 +11549,7 @@
       </c>
       <c r="C38" s="9">
         <f t="shared" ref="C38:C39" si="23">J6</f>
-        <v>1.8240000000000001</v>
+        <v>0.49032258064516127</v>
       </c>
       <c r="D38" s="9">
         <f>J9</f>
@@ -10447,7 +11557,7 @@
       </c>
       <c r="E38" s="9">
         <f>J12</f>
-        <v>4.365891472868217</v>
+        <v>3.7421926910299006</v>
       </c>
       <c r="F38" s="98">
         <f>J15</f>
@@ -10455,32 +11565,32 @@
       </c>
       <c r="G38" s="107">
         <f>J18</f>
-        <v>3.6590604026845637</v>
+        <v>2.6086124401913877</v>
       </c>
       <c r="H38" s="9">
         <f t="shared" ref="H38:H39" si="24">J21</f>
-        <v>4.8787472035794188</v>
+        <v>2.9812713602187291</v>
       </c>
       <c r="I38" s="9">
         <f>J24</f>
-        <v>2.9272483221476508</v>
+        <v>2.0868899521531099</v>
       </c>
       <c r="J38" s="9">
         <f>J27</f>
-        <v>4.2567441860465118</v>
+        <v>1.941747572815534</v>
       </c>
       <c r="K38" s="9">
         <f>J30</f>
-        <v>5.6756589147286833</v>
+        <v>2.2191400832177535</v>
       </c>
       <c r="L38" s="9">
         <f>J33</f>
-        <v>3.4053953488372093</v>
+        <v>1.5533980582524269</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B39" s="9">
         <f t="shared" si="22"/>
@@ -10488,86 +11598,86 @@
       </c>
       <c r="C39" s="9">
         <f t="shared" si="23"/>
-        <v>1.52</v>
+        <v>0.41081081081081083</v>
       </c>
       <c r="D39" s="9">
         <f>J10</f>
-        <v>2.9642105263157896</v>
+        <v>2.8444444444444446</v>
       </c>
       <c r="E39" s="9">
         <f>J13</f>
-        <v>3.9522807017543862</v>
+        <v>3.2507936507936512</v>
       </c>
       <c r="F39" s="98">
         <f>J16</f>
-        <v>2.3713684210526313</v>
+        <v>2.2755555555555556</v>
       </c>
       <c r="G39" s="107">
         <f>J19</f>
-        <v>3.124355300859599</v>
+        <v>2.2298568507157466</v>
       </c>
       <c r="H39" s="9">
         <f t="shared" si="24"/>
-        <v>4.165807067812799</v>
+        <v>2.5484078293894248</v>
       </c>
       <c r="I39" s="9">
         <f>J25</f>
-        <v>2.4994842406876789</v>
+        <v>1.783885480572597</v>
       </c>
       <c r="J39" s="9">
         <f>J28</f>
-        <v>4.0228571428571431</v>
+        <v>1.6460905349794239</v>
       </c>
       <c r="K39" s="9">
         <f>J31</f>
-        <v>5.3638095238095245</v>
+        <v>1.8812463256907703</v>
       </c>
       <c r="L39" s="9">
         <f>J34</f>
-        <v>3.218285714285714</v>
+        <v>1.3168724279835389</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D41" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" t="s">
+        <v>91</v>
+      </c>
+      <c r="F41" s="97" t="s">
+        <v>86</v>
+      </c>
+      <c r="G41" s="106" t="s">
+        <v>89</v>
+      </c>
+      <c r="H41" t="s">
+        <v>92</v>
+      </c>
+      <c r="I41" t="s">
+        <v>88</v>
+      </c>
+      <c r="J41" t="s">
         <v>93</v>
       </c>
-      <c r="E41" t="s">
+      <c r="K41" t="s">
         <v>94</v>
       </c>
-      <c r="F41" s="97" t="s">
-        <v>89</v>
-      </c>
-      <c r="G41" s="106" t="s">
-        <v>92</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="L41" t="s">
         <v>95</v>
       </c>
-      <c r="I41" t="s">
-        <v>91</v>
-      </c>
-      <c r="J41" t="s">
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
         <v>96</v>
-      </c>
-      <c r="K41" t="s">
-        <v>97</v>
-      </c>
-      <c r="L41" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.7">
-      <c r="A42" t="s">
-        <v>99</v>
       </c>
       <c r="B42" s="9">
         <f>$I2</f>
@@ -10575,7 +11685,7 @@
       </c>
       <c r="C42" s="9">
         <f>$I5</f>
-        <v>0.43103448275862066</v>
+        <v>1.5948275862068966</v>
       </c>
       <c r="D42" s="9">
         <f>$I8</f>
@@ -10583,7 +11693,7 @@
       </c>
       <c r="E42" s="9">
         <f>$I11</f>
-        <v>0.20241477272727271</v>
+        <v>0.23615056818181815</v>
       </c>
       <c r="F42" s="98">
         <f>$I14</f>
@@ -10591,32 +11701,32 @@
       </c>
       <c r="G42" s="107">
         <f>$I17</f>
-        <v>0.2384446074834923</v>
+        <v>0.32648569332355099</v>
       </c>
       <c r="H42" s="9">
         <f>$I20</f>
-        <v>0.17883345561261921</v>
+        <v>0.28567498165810712</v>
       </c>
       <c r="I42" s="9">
         <f>$I23</f>
-        <v>0.2980557593543654</v>
+        <v>0.40810711665443877</v>
       </c>
       <c r="J42" s="9">
         <f>$I26</f>
-        <v>0.2076048951048951</v>
+        <v>0.43</v>
       </c>
       <c r="K42" s="9">
         <f>$I29</f>
-        <v>0.1557036713286713</v>
+        <v>0.37624999999999997</v>
       </c>
       <c r="L42" s="9">
         <f>$I32</f>
-        <v>0.25950611888111891</v>
+        <v>0.53750000000000009</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B43" s="9">
         <f t="shared" ref="B43:B44" si="25">$I3</f>
@@ -10624,7 +11734,7 @@
       </c>
       <c r="C43" s="9">
         <f t="shared" ref="C43:C44" si="26">$I6</f>
-        <v>0.54824561403508776</v>
+        <v>2.0394736842105261</v>
       </c>
       <c r="D43" s="9">
         <f t="shared" ref="D43:D44" si="27">$I9</f>
@@ -10632,7 +11742,7 @@
       </c>
       <c r="E43" s="9">
         <f t="shared" ref="E43:E44" si="28">$I12</f>
-        <v>0.22904829545454544</v>
+        <v>0.26722301136363635</v>
       </c>
       <c r="F43" s="98">
         <f t="shared" ref="F43:F44" si="29">$I15</f>
@@ -10640,32 +11750,32 @@
       </c>
       <c r="G43" s="107">
         <f t="shared" ref="G43:G44" si="30">$I18</f>
-        <v>0.27329420396184884</v>
+        <v>0.38334556126192221</v>
       </c>
       <c r="H43" s="9">
         <f t="shared" ref="H43:H44" si="31">$I21</f>
-        <v>0.20497065297138664</v>
+        <v>0.33542736610418195</v>
       </c>
       <c r="I43" s="9">
         <f t="shared" ref="I43:I44" si="32">$I24</f>
-        <v>0.34161775495231111</v>
+        <v>0.47918195157740279</v>
       </c>
       <c r="J43" s="9">
         <f t="shared" ref="J43:J44" si="33">$I27</f>
-        <v>0.23492132867132867</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="K43" s="9">
         <f t="shared" ref="K43:K44" si="34">$I30</f>
-        <v>0.17619099650349648</v>
+        <v>0.45062499999999994</v>
       </c>
       <c r="L43" s="9">
         <f t="shared" ref="L43:L44" si="35">$I33</f>
-        <v>0.29365166083916083</v>
+        <v>0.64375000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B44" s="9">
         <f t="shared" si="25"/>
@@ -10673,43 +11783,228 @@
       </c>
       <c r="C44" s="9">
         <f t="shared" si="26"/>
-        <v>0.65789473684210531</v>
+        <v>2.4342105263157894</v>
       </c>
       <c r="D44" s="9">
         <f t="shared" si="27"/>
-        <v>0.33735795454545453</v>
+        <v>0.3515625</v>
       </c>
       <c r="E44" s="9">
         <f t="shared" si="28"/>
-        <v>0.25301846590909088</v>
+        <v>0.3076171875</v>
       </c>
       <c r="F44" s="98">
         <f t="shared" si="29"/>
-        <v>0.42169744318181823</v>
+        <v>0.439453125</v>
       </c>
       <c r="G44" s="107">
         <f t="shared" si="30"/>
-        <v>0.32006603081438006</v>
+        <v>0.44845928099779897</v>
       </c>
       <c r="H44" s="9">
         <f t="shared" si="31"/>
-        <v>0.24004952311078501</v>
+        <v>0.39240187087307404</v>
       </c>
       <c r="I44" s="9">
         <f t="shared" si="32"/>
-        <v>0.40008253851797509</v>
+        <v>0.56057410124724871</v>
       </c>
       <c r="J44" s="9">
         <f t="shared" si="33"/>
-        <v>0.24857954545454544</v>
+        <v>0.60750000000000004</v>
       </c>
       <c r="K44" s="9">
         <f t="shared" si="34"/>
-        <v>0.18643465909090906</v>
+        <v>0.53156249999999994</v>
       </c>
       <c r="L44" s="9">
         <f t="shared" si="35"/>
-        <v>0.31072443181818182</v>
+        <v>0.75937500000000013</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>125</v>
+      </c>
+      <c r="B46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" t="s">
+        <v>91</v>
+      </c>
+      <c r="F46" s="97" t="s">
+        <v>86</v>
+      </c>
+      <c r="G46" s="106" t="s">
+        <v>89</v>
+      </c>
+      <c r="H46" t="s">
+        <v>92</v>
+      </c>
+      <c r="I46" t="s">
+        <v>88</v>
+      </c>
+      <c r="J46" t="s">
+        <v>93</v>
+      </c>
+      <c r="K46" t="s">
+        <v>94</v>
+      </c>
+      <c r="L46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="9">
+        <f>$F2</f>
+        <v>50</v>
+      </c>
+      <c r="C47" s="9">
+        <f>$F5</f>
+        <v>185</v>
+      </c>
+      <c r="D47" s="9">
+        <f>$F8</f>
+        <v>160</v>
+      </c>
+      <c r="E47" s="9">
+        <f>$F11</f>
+        <v>112</v>
+      </c>
+      <c r="F47" s="98">
+        <f>$F14</f>
+        <v>240</v>
+      </c>
+      <c r="G47" s="107">
+        <f>$F17</f>
+        <v>400</v>
+      </c>
+      <c r="H47" s="9">
+        <f>$F20</f>
+        <v>280</v>
+      </c>
+      <c r="I47" s="9">
+        <f>$F23</f>
+        <v>600</v>
+      </c>
+      <c r="J47" s="9">
+        <f>$F26</f>
+        <v>1000</v>
+      </c>
+      <c r="K47" s="9">
+        <f>$F29</f>
+        <v>700</v>
+      </c>
+      <c r="L47" s="9">
+        <f>$F32</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="9">
+        <f t="shared" ref="B48:B49" si="36">$F3</f>
+        <v>125</v>
+      </c>
+      <c r="C48" s="9">
+        <f t="shared" ref="C48:C49" si="37">$F6</f>
+        <v>465</v>
+      </c>
+      <c r="D48" s="9">
+        <f t="shared" ref="D48:D49" si="38">$F9</f>
+        <v>400</v>
+      </c>
+      <c r="E48" s="9">
+        <f t="shared" ref="E48:E49" si="39">$F12</f>
+        <v>280</v>
+      </c>
+      <c r="F48" s="98">
+        <f t="shared" ref="F48:F49" si="40">$F15</f>
+        <v>600</v>
+      </c>
+      <c r="G48" s="107">
+        <f t="shared" ref="G48:G49" si="41">$F18</f>
+        <v>1000</v>
+      </c>
+      <c r="H48" s="9">
+        <f t="shared" ref="H48:H49" si="42">$F21</f>
+        <v>700</v>
+      </c>
+      <c r="I48" s="9">
+        <f t="shared" ref="I48:I49" si="43">$F24</f>
+        <v>1500</v>
+      </c>
+      <c r="J48" s="9">
+        <f t="shared" ref="J48:J49" si="44">$F27</f>
+        <v>2500</v>
+      </c>
+      <c r="K48" s="9">
+        <f t="shared" ref="K48:K49" si="45">$F30</f>
+        <v>1750</v>
+      </c>
+      <c r="L48" s="9">
+        <f t="shared" ref="L48:L49" si="46">$F33</f>
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="9">
+        <f t="shared" si="36"/>
+        <v>300</v>
+      </c>
+      <c r="C49" s="9">
+        <f t="shared" si="37"/>
+        <v>1110</v>
+      </c>
+      <c r="D49" s="9">
+        <f t="shared" si="38"/>
+        <v>960</v>
+      </c>
+      <c r="E49" s="9">
+        <f t="shared" si="39"/>
+        <v>672</v>
+      </c>
+      <c r="F49" s="98">
+        <f t="shared" si="40"/>
+        <v>1440</v>
+      </c>
+      <c r="G49" s="107">
+        <f t="shared" si="41"/>
+        <v>2400</v>
+      </c>
+      <c r="H49" s="9">
+        <f t="shared" si="42"/>
+        <v>1680</v>
+      </c>
+      <c r="I49" s="9">
+        <f t="shared" si="43"/>
+        <v>3600</v>
+      </c>
+      <c r="J49" s="9">
+        <f t="shared" si="44"/>
+        <v>6000</v>
+      </c>
+      <c r="K49" s="9">
+        <f t="shared" si="45"/>
+        <v>4200</v>
+      </c>
+      <c r="L49" s="9">
+        <f t="shared" si="46"/>
+        <v>9000</v>
       </c>
     </row>
   </sheetData>
@@ -10722,25 +12017,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79215ADD-1307-4D97-A1B4-289252DBDF30}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="23.25" customWidth="1"/>
     <col min="2" max="12" width="14.75" customWidth="1"/>
     <col min="13" max="16" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="60" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="61" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C1" s="61" t="s">
         <v>5</v>
@@ -10749,28 +12044,28 @@
         <v>8</v>
       </c>
       <c r="E1" s="61" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F1" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" s="61" t="s">
-        <v>56</v>
-      </c>
       <c r="K1" s="61" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L1" s="62" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="M1" s="63" t="s">
         <v>5</v>
@@ -10779,15 +12074,15 @@
         <v>8</v>
       </c>
       <c r="O1" s="63" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P1" s="63" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" s="64" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="65">
         <v>15</v>
@@ -10839,9 +12134,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" s="64" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B3" s="65">
         <v>30</v>
@@ -10882,18 +12177,18 @@
       </c>
       <c r="M3" s="68"/>
       <c r="N3" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="P3" s="68" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="64" t="s">
         <v>57</v>
-      </c>
-      <c r="O3" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="P3" s="68" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A4" s="64" t="s">
-        <v>60</v>
       </c>
       <c r="B4" s="65">
         <v>60</v>
@@ -10933,7 +12228,7 @@
         <v>0.20512820512820512</v>
       </c>
       <c r="M4" s="68" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N4" s="68">
         <v>2</v>
@@ -10945,9 +12240,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5" s="69" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B5" s="70">
         <v>75</v>
@@ -10988,9 +12283,9 @@
       </c>
       <c r="P5" s="68"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6" s="74" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B6" s="75">
         <v>150</v>
@@ -11031,9 +12326,9 @@
       </c>
       <c r="P6" s="68"/>
     </row>
-    <row r="7" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="76" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B7" s="75">
         <v>300</v>
@@ -11077,9 +12372,9 @@
       <c r="O7" s="68"/>
       <c r="P7" s="68"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8" s="64" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="B8" s="70">
         <v>15</v>
@@ -11123,9 +12418,9 @@
       <c r="O8" s="68"/>
       <c r="P8" s="68"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9" s="64" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="B9" s="75">
         <v>30</v>
@@ -11175,9 +12470,9 @@
       <c r="O9" s="68"/>
       <c r="P9" s="68"/>
     </row>
-    <row r="10" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="81" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="B10" s="77">
         <v>60</v>
@@ -11227,9 +12522,9 @@
       <c r="O10" s="68"/>
       <c r="P10" s="68"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A11" s="84" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="B11" s="75">
         <f>B8*$N$4</f>
@@ -11280,9 +12575,9 @@
       <c r="O11" s="68"/>
       <c r="P11" s="68"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12" s="84" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="B12" s="75">
         <f>B9*$N$4</f>
@@ -11309,7 +12604,7 @@
         <v>2000</v>
       </c>
       <c r="H12" s="66">
-        <f t="shared" ref="H12:H13" si="7">H9*$P$4</f>
+        <f t="shared" ref="H12:H16" si="7">H9*$P$4</f>
         <v>50</v>
       </c>
       <c r="I12" s="65">
@@ -11333,9 +12628,9 @@
       <c r="O12" s="68"/>
       <c r="P12" s="68"/>
     </row>
-    <row r="13" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="85" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="B13" s="77">
         <f>B10*$N$4</f>
@@ -11386,279 +12681,433 @@
       <c r="O13" s="68"/>
       <c r="P13" s="68"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.7">
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A14" s="84" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="75">
+        <f>B11*$N$4</f>
+        <v>60</v>
+      </c>
+      <c r="C14" s="65">
+        <f t="shared" ref="C14:F14" si="8">C11*$O$4</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="65">
+        <f>D11*$O$4</f>
+        <v>16</v>
+      </c>
+      <c r="E14" s="65">
+        <f t="shared" ref="E14:H14" si="9">E11*$O$4</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="65">
+        <f t="shared" si="9"/>
+        <v>0.4</v>
+      </c>
+      <c r="G14" s="66">
+        <f>G11*$P$4</f>
+        <v>1600</v>
+      </c>
+      <c r="H14" s="66">
+        <f>H11*$P$4</f>
+        <v>40</v>
+      </c>
+      <c r="I14" s="65">
+        <f t="shared" ref="I14:I16" si="10">(G14+H14*30)/B14</f>
+        <v>46.666666666666664</v>
+      </c>
+      <c r="J14" s="65">
+        <f t="shared" ref="J14:J16" si="11">(C14*$M$2+D14*$N$2+E14*$O$2+F14*$P$2)/G14</f>
+        <v>2.0249999999999999</v>
+      </c>
+      <c r="K14" s="65">
+        <f t="shared" ref="K14:K16" si="12">(G14+H14*100)/(C14*$M$2+D14*$N$2+E14*$O$2+F14*$P$2)</f>
+        <v>1.728395061728395</v>
+      </c>
+      <c r="L14" s="67">
+        <f t="shared" ref="L14:L16" si="13">(C14*$M$2+D14*$N$2+E14*$O$2+F14*$P$2)/(G14+H14*30)</f>
+        <v>1.1571428571428573</v>
+      </c>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
     </row>
-    <row r="15" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A15" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="75">
+        <f>B12*$N$4</f>
+        <v>120</v>
+      </c>
+      <c r="C15" s="65">
+        <f t="shared" ref="C15:F15" si="14">C12*$O$4</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="65">
+        <f t="shared" si="14"/>
+        <v>32</v>
+      </c>
+      <c r="E15" s="65">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="65">
+        <f t="shared" si="14"/>
+        <v>0.8</v>
+      </c>
+      <c r="G15" s="66">
+        <f>G12*$P$4</f>
+        <v>4000</v>
+      </c>
+      <c r="H15" s="66">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="I15" s="65">
+        <f t="shared" si="10"/>
+        <v>58.333333333333336</v>
+      </c>
+      <c r="J15" s="65">
+        <f t="shared" si="11"/>
+        <v>1.62</v>
+      </c>
+      <c r="K15" s="65">
+        <f t="shared" si="12"/>
+        <v>2.1604938271604937</v>
+      </c>
+      <c r="L15" s="67">
+        <f t="shared" si="13"/>
+        <v>0.92571428571428571</v>
+      </c>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
     </row>
-    <row r="16" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B16" s="83" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
+    <row r="16" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="85" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="77">
+        <f>B13*$N$4</f>
+        <v>240</v>
+      </c>
+      <c r="C16" s="79">
+        <f t="shared" ref="C16:F16" si="15">C13*$O$4</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="79">
+        <f t="shared" si="15"/>
+        <v>48</v>
+      </c>
+      <c r="E16" s="79">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="79">
+        <f t="shared" si="15"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="G16" s="78">
+        <f>G13*$P$4</f>
+        <v>9600</v>
+      </c>
+      <c r="H16" s="78">
+        <f t="shared" si="7"/>
+        <v>240</v>
+      </c>
+      <c r="I16" s="79">
+        <f t="shared" si="10"/>
+        <v>70</v>
+      </c>
+      <c r="J16" s="79">
+        <f t="shared" si="11"/>
+        <v>1.0125</v>
+      </c>
+      <c r="K16" s="79">
+        <f t="shared" si="12"/>
+        <v>3.4567901234567899</v>
+      </c>
+      <c r="L16" s="80">
+        <f t="shared" si="13"/>
+        <v>0.57857142857142863</v>
+      </c>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.7">
-      <c r="B17" s="83" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="87">
-        <f>$L2</f>
-        <v>0.30769230769230771</v>
-      </c>
-      <c r="D17" s="87">
-        <f>$L5</f>
-        <v>0.28739999999999999</v>
-      </c>
-      <c r="E17" s="87">
-        <f>$L8</f>
-        <v>1.1571428571428573</v>
-      </c>
-      <c r="F17" s="73">
-        <f>$L11</f>
-        <v>1.1571428571428573</v>
-      </c>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.7">
-      <c r="B18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="64">
-        <f>$L3</f>
-        <v>0.24615384615384617</v>
-      </c>
-      <c r="D18" s="64">
-        <f t="shared" ref="D18:D19" si="8">$L6</f>
-        <v>0.20858666666666667</v>
-      </c>
-      <c r="E18" s="64">
-        <f t="shared" ref="E18:E19" si="9">$L9</f>
-        <v>0.92571428571428571</v>
-      </c>
-      <c r="F18" s="67">
-        <f t="shared" ref="F18:F19" si="10">$L12</f>
-        <v>0.92571428571428571</v>
-      </c>
+    <row r="18" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="J18" s="65"/>
       <c r="K18" s="65"/>
       <c r="L18" s="65"/>
     </row>
-    <row r="19" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B19" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="81">
-        <f>$L4</f>
-        <v>0.20512820512820512</v>
-      </c>
-      <c r="D19" s="81">
-        <f t="shared" si="8"/>
-        <v>0.16814444444444446</v>
-      </c>
-      <c r="E19" s="81">
-        <f t="shared" si="9"/>
-        <v>0.57857142857142863</v>
-      </c>
-      <c r="F19" s="80">
-        <f t="shared" si="10"/>
-        <v>0.57857142857142863</v>
+    <row r="19" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="82" t="s">
+        <v>109</v>
       </c>
       <c r="J19" s="65"/>
       <c r="K19" s="65"/>
       <c r="L19" s="65"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.7">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B20" s="83" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="87">
+        <f>$L2</f>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="D20" s="87">
+        <f>$L5</f>
+        <v>0.28739999999999999</v>
+      </c>
+      <c r="E20" s="87">
+        <f>$L8</f>
+        <v>1.1571428571428573</v>
+      </c>
+      <c r="F20" s="73">
+        <f>$L11</f>
+        <v>1.1571428571428573</v>
+      </c>
       <c r="J20" s="65"/>
       <c r="K20" s="65"/>
       <c r="L20" s="65"/>
     </row>
-    <row r="21" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B21" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="64">
+        <f>$L3</f>
+        <v>0.24615384615384617</v>
+      </c>
+      <c r="D21" s="64">
+        <f t="shared" ref="D21:D22" si="16">$L6</f>
+        <v>0.20858666666666667</v>
+      </c>
+      <c r="E21" s="64">
+        <f t="shared" ref="E21:E22" si="17">$L9</f>
+        <v>0.92571428571428571</v>
+      </c>
+      <c r="F21" s="67">
+        <f t="shared" ref="F21:F22" si="18">$L12</f>
+        <v>0.92571428571428571</v>
+      </c>
       <c r="J21" s="65"/>
       <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
     </row>
-    <row r="22" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B22" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="82" t="s">
-        <v>115</v>
+    <row r="22" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="81">
+        <f>$L4</f>
+        <v>0.20512820512820512</v>
+      </c>
+      <c r="D22" s="81">
+        <f t="shared" si="16"/>
+        <v>0.16814444444444446</v>
+      </c>
+      <c r="E22" s="81">
+        <f t="shared" si="17"/>
+        <v>0.57857142857142863</v>
+      </c>
+      <c r="F22" s="80">
+        <f t="shared" si="18"/>
+        <v>0.57857142857142863</v>
       </c>
       <c r="J22" s="65"/>
       <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.7">
-      <c r="B23" s="83" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="87">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+    </row>
+    <row r="24" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+    </row>
+    <row r="25" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B26" s="83" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="87">
         <f>$G2</f>
         <v>50</v>
       </c>
-      <c r="D23" s="87">
+      <c r="D26" s="87">
         <f>$G5</f>
         <v>240</v>
       </c>
-      <c r="E23" s="87">
+      <c r="E26" s="87">
         <f>$G8</f>
         <v>400</v>
       </c>
-      <c r="F23" s="73">
+      <c r="F26" s="73">
         <f>$G11</f>
         <v>800</v>
       </c>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.7">
-      <c r="B24" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" s="64">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B27" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="64">
         <f>$G3</f>
         <v>125</v>
       </c>
-      <c r="D24" s="64">
+      <c r="D27" s="64">
         <f>$G6</f>
         <v>600</v>
       </c>
-      <c r="E24" s="64">
+      <c r="E27" s="64">
         <f>$G9</f>
         <v>1000</v>
       </c>
-      <c r="F24" s="67">
+      <c r="F27" s="67">
         <f>$G12</f>
         <v>2000</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B25" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="81">
+    <row r="28" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="81">
         <f>$G4</f>
         <v>300</v>
       </c>
-      <c r="D25" s="81">
+      <c r="D28" s="81">
         <f>$G7</f>
         <v>1440</v>
       </c>
-      <c r="E25" s="81">
+      <c r="E28" s="81">
         <f>$G10</f>
         <v>2400</v>
       </c>
-      <c r="F25" s="80">
+      <c r="F28" s="80">
         <f>$G13</f>
         <v>4800</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
-    <row r="28" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B28" s="83" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="55" t="s">
+    <row r="30" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="83" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="82" t="s">
-        <v>115</v>
+      <c r="F31" s="82" t="s">
+        <v>109</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.7">
-      <c r="B29" s="83" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" s="86">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B32" s="83" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="86">
         <f>$K2</f>
         <v>5</v>
       </c>
-      <c r="D29" s="72">
+      <c r="D32" s="72">
         <f>$K5</f>
         <v>5.1032243099048946</v>
       </c>
-      <c r="E29" s="72">
+      <c r="E32" s="72">
         <f>$K8</f>
         <v>1.728395061728395</v>
       </c>
-      <c r="F29" s="73">
+      <c r="F32" s="73">
         <f>$K11</f>
         <v>1.728395061728395</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.7">
-      <c r="B30" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C30" s="84">
-        <f t="shared" ref="C30:C31" si="11">$K3</f>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B33" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="84">
+        <f t="shared" ref="C33:C34" si="19">$K3</f>
         <v>6.25</v>
       </c>
-      <c r="D30" s="65">
-        <f t="shared" ref="D30:D31" si="12">$K6</f>
+      <c r="D33" s="65">
+        <f t="shared" ref="D33:D34" si="20">$K6</f>
         <v>7.0314497570953725</v>
       </c>
-      <c r="E30" s="65">
-        <f t="shared" ref="E30:E31" si="13">$K9</f>
+      <c r="E33" s="65">
+        <f t="shared" ref="E33:E34" si="21">$K9</f>
         <v>2.1604938271604937</v>
       </c>
-      <c r="F30" s="67">
-        <f t="shared" ref="F30:F31" si="14">$K12</f>
+      <c r="F33" s="67">
+        <f t="shared" ref="F33:F34" si="22">$K12</f>
         <v>2.1604938271604937</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B31" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="85">
-        <f t="shared" si="11"/>
+    <row r="34" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="85">
+        <f t="shared" si="19"/>
         <v>7.5</v>
       </c>
-      <c r="D31" s="79">
-        <f t="shared" si="12"/>
+      <c r="D34" s="79">
+        <f t="shared" si="20"/>
         <v>8.7226590894072551</v>
       </c>
-      <c r="E31" s="79">
-        <f t="shared" si="13"/>
+      <c r="E34" s="79">
+        <f t="shared" si="21"/>
         <v>3.4567901234567899</v>
       </c>
-      <c r="F31" s="80">
-        <f t="shared" si="14"/>
+      <c r="F34" s="80">
+        <f t="shared" si="22"/>
         <v>3.4567901234567899</v>
       </c>
     </row>
@@ -11674,17 +13123,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8429DA73-507B-49D7-99FE-EAB173B9F842}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="15" width="16" style="22" customWidth="1"/>
     <col min="16" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="19" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:15" s="19" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
@@ -11731,7 +13180,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="33" t="s">
         <v>39</v>
       </c>
@@ -11778,7 +13227,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="31" t="s">
         <v>37</v>
       </c>
@@ -11825,7 +13274,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="32" t="s">
         <v>35</v>
       </c>
@@ -11872,7 +13321,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="33" t="s">
         <v>40</v>
       </c>
@@ -11919,7 +13368,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="31" t="s">
         <v>38</v>
       </c>
@@ -11966,7 +13415,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="32" t="s">
         <v>36</v>
       </c>
@@ -12013,7 +13462,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="36" t="s">
         <v>41</v>
       </c>
@@ -12060,7 +13509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="37" t="s">
         <v>42</v>
       </c>
@@ -12107,7 +13556,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="20" t="s">
         <v>43</v>
       </c>
@@ -12154,7 +13603,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="23" t="s">
         <v>44</v>
       </c>
@@ -12201,8 +13650,8 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
-    <row r="13" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="13" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="123" t="s">
         <v>34</v>
       </c>
@@ -12222,7 +13671,7 @@
       <c r="K13" s="121"/>
       <c r="L13" s="122"/>
     </row>
-    <row r="14" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="124"/>
       <c r="B14" s="126"/>
       <c r="C14" s="38">
@@ -12256,7 +13705,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
         <v>20</v>
       </c>
@@ -12305,7 +13754,7 @@
         <v>0.65999999999999992</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="13" t="s">
         <v>21</v>
       </c>
@@ -12354,7 +13803,7 @@
         <v>0.45999999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="13" t="s">
         <v>22</v>
       </c>
@@ -12403,7 +13852,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="25" t="s">
         <v>40</v>
       </c>
@@ -12452,7 +13901,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="26" t="s">
         <v>38</v>
       </c>
@@ -12501,7 +13950,7 @@
         <v>0.29999999999999993</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="27" t="s">
         <v>36</v>
       </c>
@@ -12567,17 +14016,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43120986-DD99-4476-9BFD-57A60D957B16}">
   <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="20.625" customWidth="1"/>
     <col min="2" max="21" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="19" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:22" s="19" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
@@ -12624,27 +14073,27 @@
         <v>19</v>
       </c>
       <c r="P1" s="110" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q1" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="R1" s="88" t="s">
+        <v>120</v>
+      </c>
+      <c r="S1" s="88" t="s">
+        <v>119</v>
+      </c>
+      <c r="T1" s="88" t="s">
+        <v>118</v>
+      </c>
+      <c r="U1" s="89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="13" t="s">
         <v>121</v>
-      </c>
-      <c r="Q1" s="88" t="s">
-        <v>122</v>
-      </c>
-      <c r="R1" s="88" t="s">
-        <v>126</v>
-      </c>
-      <c r="S1" s="88" t="s">
-        <v>125</v>
-      </c>
-      <c r="T1" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="U1" s="89" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="13" t="s">
-        <v>127</v>
       </c>
       <c r="B2" s="111">
         <v>-26</v>
@@ -12707,9 +14156,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="13" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B3" s="13">
         <f>B2*1.2</f>
@@ -12779,9 +14228,9 @@
       </c>
       <c r="V3" s="21"/>
     </row>
-    <row r="4" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="13" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B4" s="13">
         <f>B3*1.2</f>
@@ -12834,7 +14283,7 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="P4" s="12">
-        <f t="shared" ref="P4:P5" si="5">P3*1.5</f>
+        <f t="shared" ref="P4" si="5">P3*1.5</f>
         <v>1200</v>
       </c>
       <c r="Q4" s="12">
@@ -12859,9 +14308,9 @@
       </c>
       <c r="V4" s="21"/>
     </row>
-    <row r="5" spans="1:22" s="22" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:22" s="22" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="109" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B5" s="109">
         <f>B4*1.2</f>
@@ -12936,8 +14385,8 @@
       </c>
       <c r="V5" s="21"/>
     </row>
-    <row r="7" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
-    <row r="8" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="123" t="s">
         <v>34</v>
       </c>
@@ -12957,7 +14406,7 @@
       <c r="K8" s="121"/>
       <c r="L8" s="122"/>
     </row>
-    <row r="9" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="127"/>
       <c r="B9" s="128"/>
       <c r="C9" s="116">
@@ -12991,7 +14440,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A10" s="33" t="str">
         <f>A2</f>
         <v>マローダーミサイル</v>
@@ -13041,7 +14490,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A11" s="31" t="str">
         <f t="shared" ref="A11:A13" si="12">A3</f>
         <v>試作ロンギヌスの槍</v>
@@ -13091,7 +14540,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A12" s="31" t="str">
         <f t="shared" si="12"/>
         <v>ロンギヌスの槍</v>
@@ -13141,7 +14590,7 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="32" t="str">
         <f t="shared" si="12"/>
         <v>ロンギヌスの槍α</v>

--- a/MagicalDiscoveries.xlsx
+++ b/MagicalDiscoveries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Prg\Stellaris\MagicalDiscoveries E\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCBC88B-BA9C-450A-8746-9217440E1649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322CDBE4-3300-4686-BDE4-BA63EAFA0D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{33EBD46C-414F-4B8E-A737-7C9375C5AD2F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="3" xr2:uid="{33EBD46C-414F-4B8E-A737-7C9375C5AD2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12019,7 +12019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79215ADD-1307-4D97-A1B4-289252DBDF30}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -12527,11 +12527,11 @@
         <v>129</v>
       </c>
       <c r="B11" s="75">
-        <f>B8*$N$4</f>
+        <f t="shared" ref="B11:B16" si="6">B8*$N$4</f>
         <v>30</v>
       </c>
       <c r="C11" s="65">
-        <f t="shared" ref="C11:F13" si="6">C8*$O$4</f>
+        <f t="shared" ref="C11:F13" si="7">C8*$O$4</f>
         <v>0</v>
       </c>
       <c r="D11" s="65">
@@ -12539,11 +12539,11 @@
         <v>8</v>
       </c>
       <c r="E11" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F11" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
       <c r="G11" s="66">
@@ -12580,23 +12580,23 @@
         <v>130</v>
       </c>
       <c r="B12" s="75">
-        <f>B9*$N$4</f>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="C12" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D12" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="E12" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F12" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
       <c r="G12" s="66">
@@ -12604,7 +12604,7 @@
         <v>2000</v>
       </c>
       <c r="H12" s="66">
-        <f t="shared" ref="H12:H16" si="7">H9*$P$4</f>
+        <f t="shared" ref="H12:H16" si="8">H9*$P$4</f>
         <v>50</v>
       </c>
       <c r="I12" s="65">
@@ -12633,23 +12633,23 @@
         <v>131</v>
       </c>
       <c r="B13" s="77">
-        <f>B10*$N$4</f>
+        <f t="shared" si="6"/>
         <v>120</v>
       </c>
       <c r="C13" s="79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D13" s="79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="E13" s="79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F13" s="79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="G13" s="78">
@@ -12657,7 +12657,7 @@
         <v>4800</v>
       </c>
       <c r="H13" s="78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>120</v>
       </c>
       <c r="I13" s="79">
@@ -12686,11 +12686,11 @@
         <v>134</v>
       </c>
       <c r="B14" s="75">
-        <f>B11*$N$4</f>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="C14" s="65">
-        <f t="shared" ref="C14:F14" si="8">C11*$O$4</f>
+        <f t="shared" ref="C14" si="9">C11*$O$4</f>
         <v>0</v>
       </c>
       <c r="D14" s="65">
@@ -12698,11 +12698,11 @@
         <v>16</v>
       </c>
       <c r="E14" s="65">
-        <f t="shared" ref="E14:H14" si="9">E11*$O$4</f>
+        <f t="shared" ref="E14:F14" si="10">E11*$O$4</f>
         <v>0</v>
       </c>
       <c r="F14" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.4</v>
       </c>
       <c r="G14" s="66">
@@ -12714,19 +12714,19 @@
         <v>40</v>
       </c>
       <c r="I14" s="65">
-        <f t="shared" ref="I14:I16" si="10">(G14+H14*30)/B14</f>
+        <f t="shared" ref="I14:I16" si="11">(G14+H14*30)/B14</f>
         <v>46.666666666666664</v>
       </c>
       <c r="J14" s="65">
-        <f t="shared" ref="J14:J16" si="11">(C14*$M$2+D14*$N$2+E14*$O$2+F14*$P$2)/G14</f>
+        <f t="shared" ref="J14:J16" si="12">(C14*$M$2+D14*$N$2+E14*$O$2+F14*$P$2)/G14</f>
         <v>2.0249999999999999</v>
       </c>
       <c r="K14" s="65">
-        <f t="shared" ref="K14:K16" si="12">(G14+H14*100)/(C14*$M$2+D14*$N$2+E14*$O$2+F14*$P$2)</f>
+        <f t="shared" ref="K14:K16" si="13">(G14+H14*100)/(C14*$M$2+D14*$N$2+E14*$O$2+F14*$P$2)</f>
         <v>1.728395061728395</v>
       </c>
       <c r="L14" s="67">
-        <f t="shared" ref="L14:L16" si="13">(C14*$M$2+D14*$N$2+E14*$O$2+F14*$P$2)/(G14+H14*30)</f>
+        <f t="shared" ref="L14:L16" si="14">(C14*$M$2+D14*$N$2+E14*$O$2+F14*$P$2)/(G14+H14*30)</f>
         <v>1.1571428571428573</v>
       </c>
       <c r="M14" s="68"/>
@@ -12739,23 +12739,23 @@
         <v>133</v>
       </c>
       <c r="B15" s="75">
-        <f>B12*$N$4</f>
+        <f t="shared" si="6"/>
         <v>120</v>
       </c>
       <c r="C15" s="65">
-        <f t="shared" ref="C15:F15" si="14">C12*$O$4</f>
+        <f t="shared" ref="C15:F15" si="15">C12*$O$4</f>
         <v>0</v>
       </c>
       <c r="D15" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>32</v>
       </c>
       <c r="E15" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F15" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.8</v>
       </c>
       <c r="G15" s="66">
@@ -12763,23 +12763,23 @@
         <v>4000</v>
       </c>
       <c r="H15" s="66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="I15" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>58.333333333333336</v>
       </c>
       <c r="J15" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.62</v>
       </c>
       <c r="K15" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.1604938271604937</v>
       </c>
       <c r="L15" s="67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.92571428571428571</v>
       </c>
       <c r="M15" s="68"/>
@@ -12792,23 +12792,23 @@
         <v>132</v>
       </c>
       <c r="B16" s="77">
-        <f>B13*$N$4</f>
+        <f t="shared" si="6"/>
         <v>240</v>
       </c>
       <c r="C16" s="79">
-        <f t="shared" ref="C16:F16" si="15">C13*$O$4</f>
+        <f t="shared" ref="C16:F16" si="16">C13*$O$4</f>
         <v>0</v>
       </c>
       <c r="D16" s="79">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>48</v>
       </c>
       <c r="E16" s="79">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F16" s="79">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.2000000000000002</v>
       </c>
       <c r="G16" s="78">
@@ -12816,23 +12816,23 @@
         <v>9600</v>
       </c>
       <c r="H16" s="78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>240</v>
       </c>
       <c r="I16" s="79">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>70</v>
       </c>
       <c r="J16" s="79">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0125</v>
       </c>
       <c r="K16" s="79">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.4567901234567899</v>
       </c>
       <c r="L16" s="80">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.57857142857142863</v>
       </c>
       <c r="M16" s="68"/>
@@ -12898,15 +12898,15 @@
         <v>0.24615384615384617</v>
       </c>
       <c r="D21" s="64">
-        <f t="shared" ref="D21:D22" si="16">$L6</f>
+        <f t="shared" ref="D21:D22" si="17">$L6</f>
         <v>0.20858666666666667</v>
       </c>
       <c r="E21" s="64">
-        <f t="shared" ref="E21:E22" si="17">$L9</f>
+        <f t="shared" ref="E21:E22" si="18">$L9</f>
         <v>0.92571428571428571</v>
       </c>
       <c r="F21" s="67">
-        <f t="shared" ref="F21:F22" si="18">$L12</f>
+        <f t="shared" ref="F21:F22" si="19">$L12</f>
         <v>0.92571428571428571</v>
       </c>
       <c r="J21" s="65"/>
@@ -12922,15 +12922,15 @@
         <v>0.20512820512820512</v>
       </c>
       <c r="D22" s="81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.16814444444444446</v>
       </c>
       <c r="E22" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.57857142857142863</v>
       </c>
       <c r="F22" s="80">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.57857142857142863</v>
       </c>
       <c r="J22" s="65"/>
@@ -13074,19 +13074,19 @@
         <v>97</v>
       </c>
       <c r="C33" s="84">
-        <f t="shared" ref="C33:C34" si="19">$K3</f>
+        <f t="shared" ref="C33:C34" si="20">$K3</f>
         <v>6.25</v>
       </c>
       <c r="D33" s="65">
-        <f t="shared" ref="D33:D34" si="20">$K6</f>
+        <f t="shared" ref="D33:D34" si="21">$K6</f>
         <v>7.0314497570953725</v>
       </c>
       <c r="E33" s="65">
-        <f t="shared" ref="E33:E34" si="21">$K9</f>
+        <f t="shared" ref="E33:E34" si="22">$K9</f>
         <v>2.1604938271604937</v>
       </c>
       <c r="F33" s="67">
-        <f t="shared" ref="F33:F34" si="22">$K12</f>
+        <f t="shared" ref="F33:F34" si="23">$K12</f>
         <v>2.1604938271604937</v>
       </c>
     </row>
@@ -13095,19 +13095,19 @@
         <v>98</v>
       </c>
       <c r="C34" s="85">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7.5</v>
       </c>
       <c r="D34" s="79">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.7226590894072551</v>
       </c>
       <c r="E34" s="79">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>3.4567901234567899</v>
       </c>
       <c r="F34" s="80">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3.4567901234567899</v>
       </c>
     </row>
@@ -14016,8 +14016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43120986-DD99-4476-9BFD-57A60D957B16}">
   <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -14165,16 +14165,15 @@
         <v>-31.2</v>
       </c>
       <c r="C3" s="12">
-        <f>C2*2.5</f>
-        <v>215</v>
+        <f>C2*4</f>
+        <v>344</v>
       </c>
       <c r="D3" s="12">
-        <f>D2*2</f>
-        <v>228</v>
+        <f>D2*4</f>
+        <v>456</v>
       </c>
       <c r="E3" s="12">
-        <f>E2*1.2</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F3" s="12">
         <v>1</v>
@@ -14238,15 +14237,15 @@
       </c>
       <c r="C4" s="12">
         <f>C3*2</f>
-        <v>430</v>
+        <v>688</v>
       </c>
       <c r="D4" s="12">
         <f t="shared" ref="D4:D5" si="1">D3*2</f>
-        <v>456</v>
+        <v>912</v>
       </c>
       <c r="E4" s="12">
-        <f t="shared" ref="E4" si="2">E3*1.2</f>
-        <v>1.7999999999999998</v>
+        <f>E3*1.2</f>
+        <v>2.4</v>
       </c>
       <c r="F4" s="12">
         <v>1</v>
@@ -14255,11 +14254,11 @@
         <v>1.25</v>
       </c>
       <c r="H4" s="12">
-        <f t="shared" ref="H4" si="3">H3*1.2</f>
+        <f t="shared" ref="H4" si="2">H3*1.2</f>
         <v>1.7999999999999998</v>
       </c>
       <c r="I4" s="12">
-        <f t="shared" ref="I4:I5" si="4">I3*1.5</f>
+        <f t="shared" ref="I4:I5" si="3">I3*1.5</f>
         <v>0</v>
       </c>
       <c r="J4" s="12">
@@ -14269,7 +14268,7 @@
         <v>15</v>
       </c>
       <c r="L4" s="12">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="M4" s="12">
         <f>M3*1.2</f>
@@ -14283,27 +14282,27 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="P4" s="12">
-        <f t="shared" ref="P4" si="5">P3*1.5</f>
+        <f t="shared" ref="P4" si="4">P3*1.5</f>
         <v>1200</v>
       </c>
       <c r="Q4" s="12">
-        <f t="shared" ref="Q4:Q5" si="6">Q3*1.5</f>
+        <f t="shared" ref="Q4:Q5" si="5">Q3*1.5</f>
         <v>0.44999999999999996</v>
       </c>
       <c r="R4" s="12">
-        <f t="shared" ref="R4:R5" si="7">R3*1.5</f>
+        <f t="shared" ref="R4:R5" si="6">R3*1.5</f>
         <v>7.5</v>
       </c>
       <c r="S4" s="12">
-        <f t="shared" ref="S4:S5" si="8">S3*1.5</f>
+        <f t="shared" ref="S4:S5" si="7">S3*1.5</f>
         <v>7.5</v>
       </c>
       <c r="T4" s="12">
-        <f t="shared" ref="T4:T5" si="9">T3*1.5</f>
+        <f t="shared" ref="T4:T5" si="8">T3*1.5</f>
         <v>30</v>
       </c>
       <c r="U4" s="14">
-        <f t="shared" ref="U4:U5" si="10">U3*1.5</f>
+        <f t="shared" ref="U4:U5" si="9">U3*1.5</f>
         <v>225</v>
       </c>
       <c r="V4" s="21"/>
@@ -14318,27 +14317,27 @@
       </c>
       <c r="C5" s="15">
         <f>C4*2</f>
-        <v>860</v>
+        <v>1376</v>
       </c>
       <c r="D5" s="15">
         <f t="shared" si="1"/>
-        <v>912</v>
+        <v>1824</v>
       </c>
       <c r="E5" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" s="15">
         <v>1</v>
       </c>
       <c r="G5" s="15">
-        <f t="shared" ref="G5" si="11">G4*1.5</f>
+        <f t="shared" ref="G5" si="10">G4*1.5</f>
         <v>1.875</v>
       </c>
       <c r="H5" s="15">
         <v>2</v>
       </c>
       <c r="I5" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J5" s="15">
@@ -14348,7 +14347,7 @@
         <v>15</v>
       </c>
       <c r="L5" s="15">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="M5" s="15">
         <f>M4*1.2</f>
@@ -14364,23 +14363,23 @@
         <v>1600</v>
       </c>
       <c r="Q5" s="15">
+        <f t="shared" si="5"/>
+        <v>0.67499999999999993</v>
+      </c>
+      <c r="R5" s="15">
         <f t="shared" si="6"/>
-        <v>0.67499999999999993</v>
-      </c>
-      <c r="R5" s="15">
+        <v>11.25</v>
+      </c>
+      <c r="S5" s="15">
         <f t="shared" si="7"/>
         <v>11.25</v>
       </c>
-      <c r="S5" s="15">
+      <c r="T5" s="15">
         <f t="shared" si="8"/>
-        <v>11.25</v>
-      </c>
-      <c r="T5" s="15">
+        <v>45</v>
+      </c>
+      <c r="U5" s="16">
         <f t="shared" si="9"/>
-        <v>45</v>
-      </c>
-      <c r="U5" s="16">
-        <f t="shared" si="10"/>
         <v>337.5</v>
       </c>
       <c r="V5" s="21"/>
@@ -14492,47 +14491,47 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A11" s="31" t="str">
-        <f t="shared" ref="A11:A13" si="12">A3</f>
+        <f t="shared" ref="A11:A13" si="11">A3</f>
         <v>試作ロンギヌスの槍</v>
       </c>
       <c r="B11" s="20">
         <f>(D3+C3)/2*N3/L3*10</f>
-        <v>22.15</v>
+        <v>40</v>
       </c>
       <c r="C11" s="43">
-        <f t="shared" ref="C11:C13" si="13">$N3-IF($C$9-$O3&gt;=0,$C$9-$O3,0)</f>
+        <f t="shared" ref="C11:C13" si="12">$N3-IF($C$9-$O3&gt;=0,$C$9-$O3,0)</f>
         <v>1</v>
       </c>
       <c r="D11" s="43">
-        <f t="shared" ref="D11:D13" si="14">$N3-IF($D$9-$O3&gt;=0,$D$9-$O3,0)</f>
+        <f t="shared" ref="D11:D13" si="13">$N3-IF($D$9-$O3&gt;=0,$D$9-$O3,0)</f>
         <v>1</v>
       </c>
       <c r="E11" s="43">
-        <f t="shared" ref="E11:E13" si="15">$N3-IF($E$9-$O3&gt;=0,$E$9-$O3,0)</f>
+        <f t="shared" ref="E11:E13" si="14">$N3-IF($E$9-$O3&gt;=0,$E$9-$O3,0)</f>
         <v>1</v>
       </c>
       <c r="F11" s="43">
-        <f t="shared" ref="F11:F13" si="16">$N3-IF($F$9-$O3&gt;=0,$F$9-$O3,0)</f>
+        <f t="shared" ref="F11:F13" si="15">$N3-IF($F$9-$O3&gt;=0,$F$9-$O3,0)</f>
         <v>1</v>
       </c>
       <c r="G11" s="43">
-        <f t="shared" ref="G11:G13" si="17">$N3-IF($G$9-$O3&gt;=0,$G$9-$O3,0)</f>
+        <f t="shared" ref="G11:G13" si="16">$N3-IF($G$9-$O3&gt;=0,$G$9-$O3,0)</f>
         <v>1</v>
       </c>
       <c r="H11" s="43">
-        <f t="shared" ref="H11:H13" si="18">$N3-IF($H$9-$O3&gt;=0,$H$9-$O3,0)</f>
+        <f t="shared" ref="H11:H13" si="17">$N3-IF($H$9-$O3&gt;=0,$H$9-$O3,0)</f>
         <v>0.9</v>
       </c>
       <c r="I11" s="43">
-        <f t="shared" ref="I11:I13" si="19">$N3-IF($I$9-$O3&gt;=0,$I$9-$O3,0)</f>
+        <f t="shared" ref="I11:I13" si="18">$N3-IF($I$9-$O3&gt;=0,$I$9-$O3,0)</f>
         <v>0.8</v>
       </c>
       <c r="J11" s="43">
-        <f t="shared" ref="J11:J13" si="20">$N3-IF($J$9-$O3&gt;=0,$J$9-$O3,0)</f>
+        <f t="shared" ref="J11:J13" si="19">$N3-IF($J$9-$O3&gt;=0,$J$9-$O3,0)</f>
         <v>0.70000000000000007</v>
       </c>
       <c r="K11" s="43">
-        <f t="shared" ref="K11:K13" si="21">$N3-IF($K$9-$O3&gt;=0,$K$9-$O3,0)</f>
+        <f t="shared" ref="K11:K13" si="20">$N3-IF($K$9-$O3&gt;=0,$K$9-$O3,0)</f>
         <v>0.6</v>
       </c>
       <c r="L11" s="44">
@@ -14542,47 +14541,47 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A12" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>ロンギヌスの槍</v>
+      </c>
+      <c r="B12" s="20">
+        <f t="shared" ref="B12:B13" si="21">(D4+C4)/2*N4/L4*10</f>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="C12" s="43">
         <f t="shared" si="12"/>
-        <v>ロンギヌスの槍</v>
-      </c>
-      <c r="B12" s="20">
-        <f t="shared" ref="B12:B13" si="22">(D4+C4)/2*N4/L4*10</f>
-        <v>55.375</v>
-      </c>
-      <c r="C12" s="43">
+        <v>1</v>
+      </c>
+      <c r="D12" s="43">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="D12" s="43">
+      <c r="E12" s="43">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E12" s="43">
+      <c r="F12" s="43">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="F12" s="43">
+      <c r="G12" s="43">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="G12" s="43">
+      <c r="H12" s="43">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="H12" s="43">
+      <c r="I12" s="43">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="I12" s="43">
+      <c r="J12" s="43">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="J12" s="43">
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="K12" s="43">
         <f t="shared" si="20"/>
-        <v>0.90000000000000013</v>
-      </c>
-      <c r="K12" s="43">
-        <f t="shared" si="21"/>
         <v>0.8</v>
       </c>
       <c r="L12" s="44">
@@ -14592,47 +14591,47 @@
     </row>
     <row r="13" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v>ロンギヌスの槍α</v>
+      </c>
+      <c r="B13" s="23">
+        <f>(D5+C5)/2*N5/L5*10</f>
+        <v>400</v>
+      </c>
+      <c r="C13" s="46">
         <f t="shared" si="12"/>
-        <v>ロンギヌスの槍α</v>
-      </c>
-      <c r="B13" s="23">
-        <f t="shared" si="22"/>
-        <v>147.66666666666669</v>
-      </c>
-      <c r="C13" s="46">
+        <v>1</v>
+      </c>
+      <c r="D13" s="46">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="D13" s="46">
+      <c r="E13" s="46">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E13" s="46">
+      <c r="F13" s="46">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="F13" s="46">
+      <c r="G13" s="46">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="G13" s="46">
+      <c r="H13" s="46">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="H13" s="46">
+      <c r="I13" s="46">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="I13" s="46">
+      <c r="J13" s="46">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="J13" s="46">
+      <c r="K13" s="46">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="K13" s="46">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="L13" s="47">

--- a/MagicalDiscoveries.xlsx
+++ b/MagicalDiscoveries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Prg\Stellaris\MagicalDiscoveries E\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322CDBE4-3300-4686-BDE4-BA63EAFA0D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21F9F20-205A-43F2-B280-C8E005C1A297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="3" xr2:uid="{33EBD46C-414F-4B8E-A737-7C9375C5AD2F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{33EBD46C-414F-4B8E-A737-7C9375C5AD2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -898,17 +898,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
@@ -926,16 +923,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -956,31 +950,22 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -999,9 +984,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
@@ -1055,7 +1037,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1076,7 +1058,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1085,7 +1067,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1094,25 +1076,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1121,19 +1094,13 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1142,31 +1109,13 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1175,7 +1124,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
@@ -1184,13 +1133,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -1202,7 +1148,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
@@ -1211,13 +1157,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -1235,16 +1178,10 @@
     <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1256,16 +1193,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1274,16 +1211,16 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9257,16 +9194,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>14286</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9293,16 +9230,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>14286</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9372,14 +9309,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>14286</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1123949</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9408,14 +9345,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>176211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1114425</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9444,14 +9381,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>228599</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>219074</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9819,47 +9756,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78745F3-E409-4161-8013-11F6ADA667F6}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="5" width="11.875" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="97" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="106" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="75" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="83" customWidth="1"/>
     <col min="8" max="17" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="90" t="s">
+      <c r="F1" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="99" t="s">
+      <c r="G1" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="J1" s="46" t="s">
         <v>113</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -9879,36 +9816,36 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="83">
+      <c r="B2" s="53">
         <v>10</v>
       </c>
-      <c r="C2" s="56">
+      <c r="C2" s="50">
         <v>0</v>
       </c>
-      <c r="D2" s="56">
+      <c r="D2" s="50">
         <v>0</v>
       </c>
-      <c r="E2" s="56">
+      <c r="E2" s="50">
         <v>0</v>
       </c>
-      <c r="F2" s="91">
+      <c r="F2" s="74">
         <v>50</v>
       </c>
-      <c r="G2" s="100">
+      <c r="G2" s="82">
         <v>0</v>
       </c>
-      <c r="H2" s="57">
+      <c r="H2" s="51">
         <f>Q2</f>
         <v>0.8</v>
       </c>
-      <c r="I2" s="57">
+      <c r="I2" s="51">
         <f>(F2+30*G2)/(B2*4+C2*30+D2*85+E2*200)</f>
         <v>1.25</v>
       </c>
-      <c r="J2" s="58">
+      <c r="J2" s="52">
         <f>P2</f>
         <v>0.8</v>
       </c>
@@ -9927,132 +9864,132 @@
       <c r="O2">
         <v>100</v>
       </c>
-      <c r="P2" s="9">
+      <c r="P2" s="2">
         <f>(B2*4+C2*30+D2*85+E2*200)/(F2+30*G2)</f>
         <v>0.8</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="Q2" s="2">
         <f t="shared" ref="Q2:Q11" si="0">(B2*4+C2*30+D2*85+E2*200)/F2</f>
         <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>20</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" s="92">
+      <c r="F3" s="75">
         <v>125</v>
       </c>
-      <c r="G3" s="101">
+      <c r="G3" s="83">
         <v>0</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <f t="shared" ref="H3:H13" si="1">Q3</f>
         <v>0.64</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <f t="shared" ref="I3:I34" si="2">(F3+30*G3)/(B3*4+C3*30+D3*85+E3*200)</f>
         <v>1.5625</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <f t="shared" ref="J3:J13" si="3">P3</f>
         <v>0.64</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="2">
         <f t="shared" ref="P3:P34" si="4">(B3*4+C3*30+D3*85+E3*200)/(F3+30*G3)</f>
         <v>0.64</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="2">
         <f t="shared" si="0"/>
         <v>0.64</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>40</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>0</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>0</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>0</v>
       </c>
-      <c r="F4" s="93">
+      <c r="F4" s="76">
         <v>300</v>
       </c>
-      <c r="G4" s="102">
+      <c r="G4" s="84">
         <v>0</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="8">
         <f t="shared" si="1"/>
         <v>0.53333333333333333</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="8">
         <f t="shared" si="2"/>
         <v>1.875</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <f t="shared" si="3"/>
         <v>0.53333333333333333</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="2">
         <f t="shared" si="4"/>
         <v>0.53333333333333333</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="2">
         <f t="shared" si="0"/>
         <v>0.53333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>29</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" s="92">
+      <c r="F5" s="75">
         <v>185</v>
       </c>
-      <c r="G5" s="101">
+      <c r="G5" s="83">
         <v>0</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <f t="shared" si="1"/>
         <v>0.62702702702702706</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <f t="shared" si="2"/>
         <v>1.5948275862068966</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <f t="shared" si="3"/>
         <v>0.62702702702702706</v>
       </c>
@@ -10062,46 +9999,46 @@
       <c r="M5" t="s">
         <v>102</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="2">
         <f t="shared" si="4"/>
         <v>0.62702702702702706</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="2">
         <f t="shared" si="0"/>
         <v>0.62702702702702706</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>57</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" s="92">
+      <c r="F6" s="75">
         <v>465</v>
       </c>
-      <c r="G6" s="101">
+      <c r="G6" s="83">
         <v>0</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <f t="shared" si="1"/>
         <v>0.49032258064516127</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <f t="shared" si="2"/>
         <v>2.0394736842105261</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <f t="shared" si="3"/>
         <v>0.49032258064516127</v>
       </c>
@@ -10114,46 +10051,46 @@
       <c r="M6">
         <v>1.2</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="2">
         <f t="shared" si="4"/>
         <v>0.49032258064516127</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="2">
         <f t="shared" si="0"/>
         <v>0.49032258064516127</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>114</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" s="92">
+      <c r="F7" s="75">
         <v>1110</v>
       </c>
-      <c r="G7" s="101">
+      <c r="G7" s="83">
         <v>0</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <f t="shared" si="1"/>
         <v>0.41081081081081083</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <f t="shared" si="2"/>
         <v>2.4342105263157894</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <f t="shared" si="3"/>
         <v>0.41081081081081083</v>
       </c>
@@ -10166,1288 +10103,1288 @@
       <c r="M7">
         <v>1.5</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="2">
         <f t="shared" si="4"/>
         <v>0.41081081081081083</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="2">
         <f t="shared" si="0"/>
         <v>0.41081081081081083</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="83">
+      <c r="B8" s="53">
         <v>11</v>
       </c>
-      <c r="C8" s="56">
+      <c r="C8" s="50">
         <v>22</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D8" s="50">
         <v>0</v>
       </c>
-      <c r="E8" s="56">
+      <c r="E8" s="50">
         <v>0</v>
       </c>
-      <c r="F8" s="94">
+      <c r="F8" s="77">
         <v>160</v>
       </c>
-      <c r="G8" s="103">
+      <c r="G8" s="85">
         <v>1</v>
       </c>
-      <c r="H8" s="57">
+      <c r="H8" s="51">
         <f t="shared" si="1"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="I8" s="57">
+      <c r="I8" s="51">
         <f t="shared" si="2"/>
         <v>0.26988636363636365</v>
       </c>
-      <c r="J8" s="58">
+      <c r="J8" s="52">
         <f t="shared" si="3"/>
         <v>3.7052631578947368</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="2">
         <f t="shared" si="4"/>
         <v>3.7052631578947368</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="2">
         <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>22</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>44</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" s="95">
+      <c r="F9" s="78">
         <f>F8*2.5</f>
         <v>400</v>
       </c>
-      <c r="G9" s="104">
+      <c r="G9" s="86">
         <v>1</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <f t="shared" si="1"/>
         <v>3.52</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <f t="shared" si="2"/>
         <v>0.30539772727272729</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <f t="shared" si="3"/>
         <v>3.2744186046511627</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="2">
         <f t="shared" si="4"/>
         <v>3.2744186046511627</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q9" s="2">
         <f t="shared" si="0"/>
         <v>3.52</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>44</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>88</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>0</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>0</v>
       </c>
-      <c r="F10" s="96">
+      <c r="F10" s="79">
         <f>F8*6</f>
         <v>960</v>
       </c>
-      <c r="G10" s="105">
+      <c r="G10" s="87">
         <v>1</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="8">
         <f t="shared" si="1"/>
         <v>2.9333333333333331</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="8">
         <f t="shared" si="2"/>
         <v>0.3515625</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <f t="shared" si="3"/>
         <v>2.8444444444444446</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="2">
         <f t="shared" si="4"/>
         <v>2.8444444444444446</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="Q10" s="2">
         <f t="shared" si="0"/>
         <v>2.9333333333333331</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <f t="shared" ref="B11:E13" si="5">B8*$L$6</f>
         <v>8.8000000000000007</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <f t="shared" si="5"/>
         <v>17.600000000000001</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F11" s="92">
+      <c r="F11" s="75">
         <f t="shared" ref="F11:G13" si="6">F8*$L$7</f>
         <v>112</v>
       </c>
-      <c r="G11" s="101">
+      <c r="G11" s="83">
         <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <f t="shared" si="1"/>
         <v>5.0285714285714294</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <f t="shared" si="2"/>
         <v>0.23615056818181815</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <f t="shared" si="3"/>
         <v>4.234586466165414</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="2">
         <f t="shared" si="4"/>
         <v>4.234586466165414</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q11" s="2">
         <f t="shared" si="0"/>
         <v>5.0285714285714294</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <f t="shared" si="5"/>
         <v>17.600000000000001</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <f t="shared" si="5"/>
         <v>35.200000000000003</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F12" s="92">
+      <c r="F12" s="75">
         <f t="shared" si="6"/>
         <v>280</v>
       </c>
-      <c r="G12" s="101">
+      <c r="G12" s="83">
         <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <f t="shared" si="1"/>
         <v>4.0228571428571431</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <f t="shared" si="2"/>
         <v>0.26722301136363635</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <f t="shared" si="3"/>
         <v>3.7421926910299006</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="2">
         <f t="shared" si="4"/>
         <v>3.7421926910299006</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="Q12" s="2">
         <f t="shared" ref="Q12:Q34" si="7">(B12*4+C12*30+D12*85+E12*200)/F12</f>
         <v>4.0228571428571431</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <f t="shared" si="5"/>
         <v>35.200000000000003</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
         <f t="shared" si="5"/>
         <v>70.400000000000006</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F13" s="92">
+      <c r="F13" s="75">
         <f t="shared" si="6"/>
         <v>672</v>
       </c>
-      <c r="G13" s="101">
+      <c r="G13" s="83">
         <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <f t="shared" si="1"/>
         <v>3.3523809523809525</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <f t="shared" si="2"/>
         <v>0.3076171875</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <f t="shared" si="3"/>
         <v>3.2507936507936512</v>
       </c>
-      <c r="P13" s="9">
+      <c r="P13" s="2">
         <f t="shared" si="4"/>
         <v>3.2507936507936512</v>
       </c>
-      <c r="Q13" s="9">
+      <c r="Q13" s="2">
         <f t="shared" si="7"/>
         <v>3.3523809523809525</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A14" s="83" t="s">
+      <c r="A14" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="83">
+      <c r="B14" s="53">
         <f t="shared" ref="B14:E16" si="8">B8*$M$6</f>
         <v>13.2</v>
       </c>
-      <c r="C14" s="56">
+      <c r="C14" s="50">
         <f t="shared" si="8"/>
         <v>26.4</v>
       </c>
-      <c r="D14" s="56">
+      <c r="D14" s="50">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E14" s="56">
+      <c r="E14" s="50">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F14" s="91">
+      <c r="F14" s="74">
         <f>F8*$M$7</f>
         <v>240</v>
       </c>
-      <c r="G14" s="100">
+      <c r="G14" s="82">
         <f t="shared" ref="F14:G16" si="9">G8*$M$7</f>
         <v>1.5</v>
       </c>
-      <c r="H14" s="57">
+      <c r="H14" s="51">
         <f t="shared" ref="H14:H25" si="10">Q14</f>
         <v>3.52</v>
       </c>
-      <c r="I14" s="57">
+      <c r="I14" s="51">
         <f t="shared" si="2"/>
         <v>0.33735795454545459</v>
       </c>
-      <c r="J14" s="58">
+      <c r="J14" s="52">
         <f t="shared" ref="J14:J25" si="11">P14</f>
         <v>2.9642105263157892</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P14" s="2">
         <f t="shared" si="4"/>
         <v>2.9642105263157892</v>
       </c>
-      <c r="Q14" s="9">
+      <c r="Q14" s="2">
         <f t="shared" si="7"/>
         <v>3.52</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <f t="shared" si="8"/>
         <v>26.4</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
         <f t="shared" si="8"/>
         <v>52.8</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F15" s="92">
+      <c r="F15" s="75">
         <f t="shared" si="9"/>
         <v>600</v>
       </c>
-      <c r="G15" s="101">
+      <c r="G15" s="83">
         <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <f t="shared" si="10"/>
         <v>2.8159999999999998</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <f t="shared" si="2"/>
         <v>0.38174715909090912</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <f t="shared" si="11"/>
         <v>2.61953488372093</v>
       </c>
-      <c r="P15" s="9">
+      <c r="P15" s="2">
         <f t="shared" si="4"/>
         <v>2.61953488372093</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="Q15" s="2">
         <f t="shared" si="7"/>
         <v>2.8159999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <f t="shared" si="8"/>
         <v>52.8</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <f t="shared" si="8"/>
         <v>105.6</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F16" s="93">
+      <c r="F16" s="76">
         <f t="shared" si="9"/>
         <v>1440</v>
       </c>
-      <c r="G16" s="102">
+      <c r="G16" s="84">
         <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="8">
         <f t="shared" si="10"/>
         <v>2.3466666666666667</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="8">
         <f t="shared" si="2"/>
         <v>0.439453125</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="7">
         <f t="shared" si="11"/>
         <v>2.2755555555555556</v>
       </c>
-      <c r="P16" s="9">
+      <c r="P16" s="2">
         <f t="shared" si="4"/>
         <v>2.2755555555555556</v>
       </c>
-      <c r="Q16" s="9">
+      <c r="Q16" s="2">
         <f t="shared" si="7"/>
         <v>2.3466666666666667</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>22</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17">
         <v>0</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17">
         <v>15</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17" s="94">
+      <c r="F17" s="77">
         <f>F8*2.5</f>
         <v>400</v>
       </c>
-      <c r="G17" s="104">
+      <c r="G17" s="86">
         <v>1.5</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="2">
         <f t="shared" si="10"/>
         <v>3.4075000000000002</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="2">
         <f t="shared" si="2"/>
         <v>0.32648569332355099</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <f t="shared" si="11"/>
         <v>3.0629213483146067</v>
       </c>
-      <c r="P17" s="9">
+      <c r="P17" s="2">
         <f t="shared" si="4"/>
         <v>3.0629213483146067</v>
       </c>
-      <c r="Q17" s="9">
+      <c r="Q17" s="2">
         <f t="shared" si="7"/>
         <v>3.4075000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>44</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18">
         <v>30</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18" s="95">
+      <c r="F18" s="78">
         <f>F17*2.5</f>
         <v>1000</v>
       </c>
-      <c r="G18" s="104">
+      <c r="G18" s="86">
         <v>1.5</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="2">
         <f t="shared" si="10"/>
         <v>2.726</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="2">
         <f t="shared" si="2"/>
         <v>0.38334556126192221</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <f t="shared" si="11"/>
         <v>2.6086124401913877</v>
       </c>
-      <c r="P18" s="9">
+      <c r="P18" s="2">
         <f t="shared" si="4"/>
         <v>2.6086124401913877</v>
       </c>
-      <c r="Q18" s="9">
+      <c r="Q18" s="2">
         <f t="shared" si="7"/>
         <v>2.726</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>88</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19">
         <v>0</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19">
         <v>60</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19" s="96">
+      <c r="F19" s="79">
         <f>F17*6</f>
         <v>2400</v>
       </c>
-      <c r="G19" s="104">
+      <c r="G19" s="86">
         <v>1.5</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="2">
         <f t="shared" si="10"/>
         <v>2.2716666666666665</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="2">
         <f t="shared" si="2"/>
         <v>0.44845928099779897</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="4">
         <f t="shared" si="11"/>
         <v>2.2298568507157466</v>
       </c>
-      <c r="P19" s="9">
+      <c r="P19" s="2">
         <f t="shared" si="4"/>
         <v>2.2298568507157466</v>
       </c>
-      <c r="Q19" s="9">
+      <c r="Q19" s="2">
         <f t="shared" si="7"/>
         <v>2.2716666666666665</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="83">
+      <c r="B20" s="53">
         <f t="shared" ref="B20:E22" si="12">B17*$L$6</f>
         <v>17.600000000000001</v>
       </c>
-      <c r="C20" s="56">
+      <c r="C20" s="50">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="D20" s="56">
+      <c r="D20" s="50">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
-      <c r="E20" s="56">
+      <c r="E20" s="50">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F20" s="91">
+      <c r="F20" s="74">
         <f t="shared" ref="F20:G22" si="13">F17*$L$7</f>
         <v>280</v>
       </c>
-      <c r="G20" s="100">
+      <c r="G20" s="82">
         <f t="shared" si="13"/>
         <v>1.0499999999999998</v>
       </c>
-      <c r="H20" s="57">
+      <c r="H20" s="51">
         <f t="shared" si="10"/>
         <v>3.8942857142857146</v>
       </c>
-      <c r="I20" s="57">
+      <c r="I20" s="51">
         <f t="shared" si="2"/>
         <v>0.28567498165810712</v>
       </c>
-      <c r="J20" s="58">
+      <c r="J20" s="52">
         <f t="shared" si="11"/>
         <v>3.5004815409309793</v>
       </c>
-      <c r="P20" s="9">
+      <c r="P20" s="2">
         <f t="shared" si="4"/>
         <v>3.5004815409309793</v>
       </c>
-      <c r="Q20" s="9">
+      <c r="Q20" s="2">
         <f t="shared" si="7"/>
         <v>3.8942857142857146</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <f t="shared" si="12"/>
         <v>35.200000000000003</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21">
         <f t="shared" si="12"/>
         <v>24</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F21" s="92">
+      <c r="F21" s="75">
         <f t="shared" si="13"/>
         <v>700</v>
       </c>
-      <c r="G21" s="101">
+      <c r="G21" s="83">
         <f t="shared" si="13"/>
         <v>1.0499999999999998</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="2">
         <f t="shared" si="10"/>
         <v>3.1154285714285717</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="2">
         <f t="shared" si="2"/>
         <v>0.33542736610418195</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="4">
         <f t="shared" si="11"/>
         <v>2.9812713602187291</v>
       </c>
-      <c r="P21" s="9">
+      <c r="P21" s="2">
         <f t="shared" si="4"/>
         <v>2.9812713602187291</v>
       </c>
-      <c r="Q21" s="9">
+      <c r="Q21" s="2">
         <f t="shared" si="7"/>
         <v>3.1154285714285717</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <f t="shared" si="12"/>
         <v>70.400000000000006</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <f t="shared" si="12"/>
         <v>48</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="6">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F22" s="93">
+      <c r="F22" s="76">
         <f t="shared" si="13"/>
         <v>1680</v>
       </c>
-      <c r="G22" s="102">
+      <c r="G22" s="84">
         <f t="shared" si="13"/>
         <v>1.0499999999999998</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="8">
         <f t="shared" si="10"/>
         <v>2.5961904761904764</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="8">
         <f t="shared" si="2"/>
         <v>0.39240187087307404</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="7">
         <f t="shared" si="11"/>
         <v>2.5484078293894248</v>
       </c>
-      <c r="P22" s="9">
+      <c r="P22" s="2">
         <f t="shared" si="4"/>
         <v>2.5484078293894248</v>
       </c>
-      <c r="Q22" s="9">
+      <c r="Q22" s="2">
         <f t="shared" si="7"/>
         <v>2.5961904761904764</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <f t="shared" ref="B23:E25" si="14">B17*$M$6</f>
         <v>26.4</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23">
         <f t="shared" si="14"/>
         <v>18</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F23" s="92">
+      <c r="F23" s="75">
         <f>F17*$M$7</f>
         <v>600</v>
       </c>
-      <c r="G23" s="101">
+      <c r="G23" s="83">
         <f t="shared" ref="F23:G25" si="15">G17*$M$7</f>
         <v>2.25</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="2">
         <f t="shared" si="10"/>
         <v>2.726</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="2">
         <f t="shared" si="2"/>
         <v>0.40810711665443877</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="4">
         <f t="shared" si="11"/>
         <v>2.4503370786516854</v>
       </c>
-      <c r="P23" s="9">
+      <c r="P23" s="2">
         <f t="shared" si="4"/>
         <v>2.4503370786516854</v>
       </c>
-      <c r="Q23" s="9">
+      <c r="Q23" s="2">
         <f t="shared" si="7"/>
         <v>2.726</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <f t="shared" si="14"/>
         <v>52.8</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24">
         <f t="shared" si="14"/>
         <v>36</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F24" s="92">
+      <c r="F24" s="75">
         <f t="shared" si="15"/>
         <v>1500</v>
       </c>
-      <c r="G24" s="101">
+      <c r="G24" s="83">
         <f t="shared" si="15"/>
         <v>2.25</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="2">
         <f t="shared" si="10"/>
         <v>2.1808000000000001</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="2">
         <f t="shared" si="2"/>
         <v>0.47918195157740279</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="4">
         <f t="shared" si="11"/>
         <v>2.0868899521531099</v>
       </c>
-      <c r="P24" s="9">
+      <c r="P24" s="2">
         <f t="shared" si="4"/>
         <v>2.0868899521531099</v>
       </c>
-      <c r="Q24" s="9">
+      <c r="Q24" s="2">
         <f t="shared" si="7"/>
         <v>2.1808000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <f t="shared" si="14"/>
         <v>105.6</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25">
         <f t="shared" si="14"/>
         <v>72</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F25" s="92">
+      <c r="F25" s="75">
         <f t="shared" si="15"/>
         <v>3600</v>
       </c>
-      <c r="G25" s="101">
+      <c r="G25" s="83">
         <f t="shared" si="15"/>
         <v>2.25</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="2">
         <f t="shared" si="10"/>
         <v>1.8173333333333332</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="2">
         <f t="shared" si="2"/>
         <v>0.56057410124724871</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="4">
         <f t="shared" si="11"/>
         <v>1.783885480572597</v>
       </c>
-      <c r="P25" s="9">
+      <c r="P25" s="2">
         <f t="shared" si="4"/>
         <v>1.783885480572597</v>
       </c>
-      <c r="Q25" s="9">
+      <c r="Q25" s="2">
         <f t="shared" si="7"/>
         <v>1.8173333333333332</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="83">
+      <c r="B26" s="53">
         <v>25</v>
       </c>
-      <c r="C26" s="56">
+      <c r="C26" s="50">
         <v>0</v>
       </c>
-      <c r="D26" s="56">
+      <c r="D26" s="50">
         <v>0</v>
       </c>
-      <c r="E26" s="56">
+      <c r="E26" s="50">
         <v>12</v>
       </c>
-      <c r="F26" s="94">
+      <c r="F26" s="77">
         <f>F17*2.5</f>
         <v>1000</v>
       </c>
-      <c r="G26" s="103">
+      <c r="G26" s="85">
         <v>2.5</v>
       </c>
-      <c r="H26" s="57">
+      <c r="H26" s="51">
         <f>Q26</f>
         <v>2.5</v>
       </c>
-      <c r="I26" s="57">
+      <c r="I26" s="51">
         <f t="shared" si="2"/>
         <v>0.43</v>
       </c>
-      <c r="J26" s="58">
+      <c r="J26" s="52">
         <f>P26</f>
         <v>2.3255813953488373</v>
       </c>
-      <c r="P26" s="9">
+      <c r="P26" s="2">
         <f t="shared" si="4"/>
         <v>2.3255813953488373</v>
       </c>
-      <c r="Q26" s="9">
+      <c r="Q26" s="2">
         <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>50</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27">
         <v>0</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27">
         <v>24</v>
       </c>
-      <c r="F27" s="95">
+      <c r="F27" s="78">
         <f>F26*2.5</f>
         <v>2500</v>
       </c>
-      <c r="G27" s="104">
+      <c r="G27" s="86">
         <v>2.5</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="2">
         <f>Q27</f>
         <v>2</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="2">
         <f t="shared" si="2"/>
         <v>0.51500000000000001</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="4">
         <f>P27</f>
         <v>1.941747572815534</v>
       </c>
-      <c r="P27" s="9">
+      <c r="P27" s="2">
         <f t="shared" si="4"/>
         <v>1.941747572815534</v>
       </c>
-      <c r="Q27" s="9">
+      <c r="Q27" s="2">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <v>100</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <v>0</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="6">
         <v>0</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="6">
         <v>48</v>
       </c>
-      <c r="F28" s="96">
+      <c r="F28" s="79">
         <f>F26*6</f>
         <v>6000</v>
       </c>
-      <c r="G28" s="105">
+      <c r="G28" s="87">
         <v>2.5</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="8">
         <f>Q28</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="8">
         <f t="shared" si="2"/>
         <v>0.60750000000000004</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="7">
         <f>P28</f>
         <v>1.6460905349794239</v>
       </c>
-      <c r="P28" s="9">
+      <c r="P28" s="2">
         <f t="shared" si="4"/>
         <v>1.6460905349794239</v>
       </c>
-      <c r="Q28" s="9">
+      <c r="Q28" s="2">
         <f t="shared" si="7"/>
         <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A29" s="83" t="s">
+      <c r="A29" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="83">
+      <c r="B29" s="53">
         <f t="shared" ref="B29:E31" si="16">B26*$L$6</f>
         <v>20</v>
       </c>
-      <c r="C29" s="56">
+      <c r="C29" s="50">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="D29" s="56">
+      <c r="D29" s="50">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="E29" s="56">
+      <c r="E29" s="50">
         <f t="shared" si="16"/>
         <v>9.6000000000000014</v>
       </c>
-      <c r="F29" s="91">
+      <c r="F29" s="74">
         <f t="shared" ref="F29:G31" si="17">F26*$L$7</f>
         <v>700</v>
       </c>
-      <c r="G29" s="100">
+      <c r="G29" s="82">
         <f t="shared" si="17"/>
         <v>1.75</v>
       </c>
-      <c r="H29" s="57">
+      <c r="H29" s="51">
         <f t="shared" ref="H29:H34" si="18">Q29</f>
         <v>2.8571428571428577</v>
       </c>
-      <c r="I29" s="57">
+      <c r="I29" s="51">
         <f t="shared" si="2"/>
         <v>0.37624999999999997</v>
       </c>
-      <c r="J29" s="58">
+      <c r="J29" s="52">
         <f t="shared" ref="J29:J34" si="19">P29</f>
         <v>2.6578073089700998</v>
       </c>
-      <c r="P29" s="9">
+      <c r="P29" s="2">
         <f t="shared" si="4"/>
         <v>2.6578073089700998</v>
       </c>
-      <c r="Q29" s="9">
+      <c r="Q29" s="2">
         <f t="shared" si="7"/>
         <v>2.8571428571428577</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <f t="shared" si="16"/>
         <v>40</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30">
         <f t="shared" si="16"/>
         <v>19.200000000000003</v>
       </c>
-      <c r="F30" s="92">
+      <c r="F30" s="75">
         <f t="shared" si="17"/>
         <v>1750</v>
       </c>
-      <c r="G30" s="101">
+      <c r="G30" s="83">
         <f t="shared" si="17"/>
         <v>1.75</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="2">
         <f t="shared" si="18"/>
         <v>2.285714285714286</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="2">
         <f t="shared" si="2"/>
         <v>0.45062499999999994</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="4">
         <f t="shared" si="19"/>
         <v>2.2191400832177535</v>
       </c>
-      <c r="P30" s="9">
+      <c r="P30" s="2">
         <f t="shared" si="4"/>
         <v>2.2191400832177535</v>
       </c>
-      <c r="Q30" s="9">
+      <c r="Q30" s="2">
         <f t="shared" si="7"/>
         <v>2.285714285714286</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="5">
         <f t="shared" si="16"/>
         <v>80</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="6">
         <f t="shared" si="16"/>
         <v>38.400000000000006</v>
       </c>
-      <c r="F31" s="93">
+      <c r="F31" s="76">
         <f t="shared" si="17"/>
         <v>4200</v>
       </c>
-      <c r="G31" s="102">
+      <c r="G31" s="84">
         <f t="shared" si="17"/>
         <v>1.75</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="8">
         <f t="shared" si="18"/>
         <v>1.9047619047619049</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="8">
         <f t="shared" si="2"/>
         <v>0.53156249999999994</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J31" s="7">
         <f t="shared" si="19"/>
         <v>1.8812463256907703</v>
       </c>
-      <c r="P31" s="9">
+      <c r="P31" s="2">
         <f t="shared" si="4"/>
         <v>1.8812463256907703</v>
       </c>
-      <c r="Q31" s="9">
+      <c r="Q31" s="2">
         <f t="shared" si="7"/>
         <v>1.9047619047619049</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A32" s="83" t="s">
+      <c r="A32" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="83">
+      <c r="B32" s="53">
         <f t="shared" ref="B32:E34" si="20">B26*$M$6</f>
         <v>30</v>
       </c>
-      <c r="C32" s="56">
+      <c r="C32" s="50">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="D32" s="56">
+      <c r="D32" s="50">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="E32" s="56">
+      <c r="E32" s="50">
         <f t="shared" si="20"/>
         <v>14.399999999999999</v>
       </c>
-      <c r="F32" s="91">
+      <c r="F32" s="74">
         <f>F26*$M$7</f>
         <v>1500</v>
       </c>
-      <c r="G32" s="100">
+      <c r="G32" s="82">
         <f t="shared" ref="F32:G34" si="21">G26*$M$7</f>
         <v>3.75</v>
       </c>
-      <c r="H32" s="57">
+      <c r="H32" s="51">
         <f t="shared" si="18"/>
         <v>1.9999999999999998</v>
       </c>
-      <c r="I32" s="57">
+      <c r="I32" s="51">
         <f t="shared" si="2"/>
         <v>0.53750000000000009</v>
       </c>
-      <c r="J32" s="58">
+      <c r="J32" s="52">
         <f t="shared" si="19"/>
         <v>1.8604651162790695</v>
       </c>
-      <c r="P32" s="9">
+      <c r="P32" s="2">
         <f t="shared" si="4"/>
         <v>1.8604651162790695</v>
       </c>
-      <c r="Q32" s="9">
+      <c r="Q32" s="2">
         <f t="shared" si="7"/>
         <v>1.9999999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <f t="shared" si="20"/>
         <v>60</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33">
         <f t="shared" si="20"/>
         <v>28.799999999999997</v>
       </c>
-      <c r="F33" s="92">
+      <c r="F33" s="75">
         <f t="shared" si="21"/>
         <v>3750</v>
       </c>
-      <c r="G33" s="101">
+      <c r="G33" s="83">
         <f t="shared" si="21"/>
         <v>3.75</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="2">
         <f t="shared" si="18"/>
         <v>1.5999999999999999</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="2">
         <f t="shared" si="2"/>
         <v>0.64375000000000004</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="4">
         <f t="shared" si="19"/>
         <v>1.5533980582524269</v>
       </c>
-      <c r="P33" s="9">
+      <c r="P33" s="2">
         <f t="shared" si="4"/>
         <v>1.5533980582524269</v>
       </c>
-      <c r="Q33" s="9">
+      <c r="Q33" s="2">
         <f t="shared" si="7"/>
         <v>1.5999999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="5">
         <f t="shared" si="20"/>
         <v>120</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="6">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="6">
         <f t="shared" si="20"/>
         <v>57.599999999999994</v>
       </c>
-      <c r="F34" s="93">
+      <c r="F34" s="76">
         <f>F28*$M$7</f>
         <v>9000</v>
       </c>
-      <c r="G34" s="102">
+      <c r="G34" s="84">
         <f t="shared" si="21"/>
         <v>3.75</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H34" s="8">
         <f t="shared" si="18"/>
         <v>1.333333333333333</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I34" s="8">
         <f t="shared" si="2"/>
         <v>0.75937500000000013</v>
       </c>
-      <c r="J34" s="8">
+      <c r="J34" s="7">
         <f t="shared" si="19"/>
         <v>1.3168724279835389</v>
       </c>
-      <c r="P34" s="9">
+      <c r="P34" s="2">
         <f t="shared" si="4"/>
         <v>1.3168724279835389</v>
       </c>
-      <c r="Q34" s="9">
+      <c r="Q34" s="2">
         <f t="shared" si="7"/>
         <v>1.333333333333333</v>
       </c>
@@ -11468,10 +11405,10 @@
       <c r="E36" t="s">
         <v>91</v>
       </c>
-      <c r="F36" s="97" t="s">
+      <c r="F36" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="G36" s="106" t="s">
+      <c r="G36" s="83" t="s">
         <v>89</v>
       </c>
       <c r="H36" t="s">
@@ -11494,47 +11431,47 @@
       <c r="A37" t="s">
         <v>96</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="2">
         <f>J2</f>
         <v>0.8</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="2">
         <f>J5</f>
         <v>0.62702702702702706</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="2">
         <f>J8</f>
         <v>3.7052631578947368</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="2">
         <f>J11</f>
         <v>4.234586466165414</v>
       </c>
-      <c r="F37" s="98">
+      <c r="F37" s="80">
         <f>J14</f>
         <v>2.9642105263157892</v>
       </c>
-      <c r="G37" s="107">
+      <c r="G37" s="88">
         <f>J17</f>
         <v>3.0629213483146067</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="2">
         <f>J20</f>
         <v>3.5004815409309793</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="2">
         <f>J23</f>
         <v>2.4503370786516854</v>
       </c>
-      <c r="J37" s="9">
+      <c r="J37" s="2">
         <f>J26</f>
         <v>2.3255813953488373</v>
       </c>
-      <c r="K37" s="9">
+      <c r="K37" s="2">
         <f>J29</f>
         <v>2.6578073089700998</v>
       </c>
-      <c r="L37" s="9">
+      <c r="L37" s="2">
         <f>J32</f>
         <v>1.8604651162790695</v>
       </c>
@@ -11543,47 +11480,47 @@
       <c r="A38" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="2">
         <f t="shared" ref="B38:B39" si="22">J3</f>
         <v>0.64</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="2">
         <f t="shared" ref="C38:C39" si="23">J6</f>
         <v>0.49032258064516127</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="2">
         <f>J9</f>
         <v>3.2744186046511627</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="2">
         <f>J12</f>
         <v>3.7421926910299006</v>
       </c>
-      <c r="F38" s="98">
+      <c r="F38" s="80">
         <f>J15</f>
         <v>2.61953488372093</v>
       </c>
-      <c r="G38" s="107">
+      <c r="G38" s="88">
         <f>J18</f>
         <v>2.6086124401913877</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H38" s="2">
         <f t="shared" ref="H38:H39" si="24">J21</f>
         <v>2.9812713602187291</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I38" s="2">
         <f>J24</f>
         <v>2.0868899521531099</v>
       </c>
-      <c r="J38" s="9">
+      <c r="J38" s="2">
         <f>J27</f>
         <v>1.941747572815534</v>
       </c>
-      <c r="K38" s="9">
+      <c r="K38" s="2">
         <f>J30</f>
         <v>2.2191400832177535</v>
       </c>
-      <c r="L38" s="9">
+      <c r="L38" s="2">
         <f>J33</f>
         <v>1.5533980582524269</v>
       </c>
@@ -11592,47 +11529,47 @@
       <c r="A39" t="s">
         <v>98</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="2">
         <f t="shared" si="22"/>
         <v>0.53333333333333333</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="2">
         <f t="shared" si="23"/>
         <v>0.41081081081081083</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="2">
         <f>J10</f>
         <v>2.8444444444444446</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="2">
         <f>J13</f>
         <v>3.2507936507936512</v>
       </c>
-      <c r="F39" s="98">
+      <c r="F39" s="80">
         <f>J16</f>
         <v>2.2755555555555556</v>
       </c>
-      <c r="G39" s="107">
+      <c r="G39" s="88">
         <f>J19</f>
         <v>2.2298568507157466</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H39" s="2">
         <f t="shared" si="24"/>
         <v>2.5484078293894248</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="2">
         <f>J25</f>
         <v>1.783885480572597</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J39" s="2">
         <f>J28</f>
         <v>1.6460905349794239</v>
       </c>
-      <c r="K39" s="9">
+      <c r="K39" s="2">
         <f>J31</f>
         <v>1.8812463256907703</v>
       </c>
-      <c r="L39" s="9">
+      <c r="L39" s="2">
         <f>J34</f>
         <v>1.3168724279835389</v>
       </c>
@@ -11653,10 +11590,10 @@
       <c r="E41" t="s">
         <v>91</v>
       </c>
-      <c r="F41" s="97" t="s">
+      <c r="F41" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="G41" s="106" t="s">
+      <c r="G41" s="83" t="s">
         <v>89</v>
       </c>
       <c r="H41" t="s">
@@ -11679,47 +11616,47 @@
       <c r="A42" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="2">
         <f>$I2</f>
         <v>1.25</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="2">
         <f>$I5</f>
         <v>1.5948275862068966</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="2">
         <f>$I8</f>
         <v>0.26988636363636365</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="2">
         <f>$I11</f>
         <v>0.23615056818181815</v>
       </c>
-      <c r="F42" s="98">
+      <c r="F42" s="80">
         <f>$I14</f>
         <v>0.33735795454545459</v>
       </c>
-      <c r="G42" s="107">
+      <c r="G42" s="88">
         <f>$I17</f>
         <v>0.32648569332355099</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H42" s="2">
         <f>$I20</f>
         <v>0.28567498165810712</v>
       </c>
-      <c r="I42" s="9">
+      <c r="I42" s="2">
         <f>$I23</f>
         <v>0.40810711665443877</v>
       </c>
-      <c r="J42" s="9">
+      <c r="J42" s="2">
         <f>$I26</f>
         <v>0.43</v>
       </c>
-      <c r="K42" s="9">
+      <c r="K42" s="2">
         <f>$I29</f>
         <v>0.37624999999999997</v>
       </c>
-      <c r="L42" s="9">
+      <c r="L42" s="2">
         <f>$I32</f>
         <v>0.53750000000000009</v>
       </c>
@@ -11728,47 +11665,47 @@
       <c r="A43" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="2">
         <f t="shared" ref="B43:B44" si="25">$I3</f>
         <v>1.5625</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="2">
         <f t="shared" ref="C43:C44" si="26">$I6</f>
         <v>2.0394736842105261</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="2">
         <f t="shared" ref="D43:D44" si="27">$I9</f>
         <v>0.30539772727272729</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="2">
         <f t="shared" ref="E43:E44" si="28">$I12</f>
         <v>0.26722301136363635</v>
       </c>
-      <c r="F43" s="98">
+      <c r="F43" s="80">
         <f t="shared" ref="F43:F44" si="29">$I15</f>
         <v>0.38174715909090912</v>
       </c>
-      <c r="G43" s="107">
+      <c r="G43" s="88">
         <f t="shared" ref="G43:G44" si="30">$I18</f>
         <v>0.38334556126192221</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H43" s="2">
         <f t="shared" ref="H43:H44" si="31">$I21</f>
         <v>0.33542736610418195</v>
       </c>
-      <c r="I43" s="9">
+      <c r="I43" s="2">
         <f t="shared" ref="I43:I44" si="32">$I24</f>
         <v>0.47918195157740279</v>
       </c>
-      <c r="J43" s="9">
+      <c r="J43" s="2">
         <f t="shared" ref="J43:J44" si="33">$I27</f>
         <v>0.51500000000000001</v>
       </c>
-      <c r="K43" s="9">
+      <c r="K43" s="2">
         <f t="shared" ref="K43:K44" si="34">$I30</f>
         <v>0.45062499999999994</v>
       </c>
-      <c r="L43" s="9">
+      <c r="L43" s="2">
         <f t="shared" ref="L43:L44" si="35">$I33</f>
         <v>0.64375000000000004</v>
       </c>
@@ -11777,47 +11714,47 @@
       <c r="A44" t="s">
         <v>98</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="2">
         <f t="shared" si="25"/>
         <v>1.875</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="2">
         <f t="shared" si="26"/>
         <v>2.4342105263157894</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="2">
         <f t="shared" si="27"/>
         <v>0.3515625</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="2">
         <f t="shared" si="28"/>
         <v>0.3076171875</v>
       </c>
-      <c r="F44" s="98">
+      <c r="F44" s="80">
         <f t="shared" si="29"/>
         <v>0.439453125</v>
       </c>
-      <c r="G44" s="107">
+      <c r="G44" s="88">
         <f t="shared" si="30"/>
         <v>0.44845928099779897</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H44" s="2">
         <f t="shared" si="31"/>
         <v>0.39240187087307404</v>
       </c>
-      <c r="I44" s="9">
+      <c r="I44" s="2">
         <f t="shared" si="32"/>
         <v>0.56057410124724871</v>
       </c>
-      <c r="J44" s="9">
+      <c r="J44" s="2">
         <f t="shared" si="33"/>
         <v>0.60750000000000004</v>
       </c>
-      <c r="K44" s="9">
+      <c r="K44" s="2">
         <f t="shared" si="34"/>
         <v>0.53156249999999994</v>
       </c>
-      <c r="L44" s="9">
+      <c r="L44" s="2">
         <f t="shared" si="35"/>
         <v>0.75937500000000013</v>
       </c>
@@ -11838,10 +11775,10 @@
       <c r="E46" t="s">
         <v>91</v>
       </c>
-      <c r="F46" s="97" t="s">
+      <c r="F46" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="G46" s="106" t="s">
+      <c r="G46" s="83" t="s">
         <v>89</v>
       </c>
       <c r="H46" t="s">
@@ -11864,47 +11801,47 @@
       <c r="A47" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="2">
         <f>$F2</f>
         <v>50</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="2">
         <f>$F5</f>
         <v>185</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="2">
         <f>$F8</f>
         <v>160</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="2">
         <f>$F11</f>
         <v>112</v>
       </c>
-      <c r="F47" s="98">
+      <c r="F47" s="80">
         <f>$F14</f>
         <v>240</v>
       </c>
-      <c r="G47" s="107">
+      <c r="G47" s="88">
         <f>$F17</f>
         <v>400</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H47" s="2">
         <f>$F20</f>
         <v>280</v>
       </c>
-      <c r="I47" s="9">
+      <c r="I47" s="2">
         <f>$F23</f>
         <v>600</v>
       </c>
-      <c r="J47" s="9">
+      <c r="J47" s="2">
         <f>$F26</f>
         <v>1000</v>
       </c>
-      <c r="K47" s="9">
+      <c r="K47" s="2">
         <f>$F29</f>
         <v>700</v>
       </c>
-      <c r="L47" s="9">
+      <c r="L47" s="2">
         <f>$F32</f>
         <v>1500</v>
       </c>
@@ -11913,47 +11850,47 @@
       <c r="A48" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="2">
         <f t="shared" ref="B48:B49" si="36">$F3</f>
         <v>125</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="2">
         <f t="shared" ref="C48:C49" si="37">$F6</f>
         <v>465</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="2">
         <f t="shared" ref="D48:D49" si="38">$F9</f>
         <v>400</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="2">
         <f t="shared" ref="E48:E49" si="39">$F12</f>
         <v>280</v>
       </c>
-      <c r="F48" s="98">
+      <c r="F48" s="80">
         <f t="shared" ref="F48:F49" si="40">$F15</f>
         <v>600</v>
       </c>
-      <c r="G48" s="107">
+      <c r="G48" s="88">
         <f t="shared" ref="G48:G49" si="41">$F18</f>
         <v>1000</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H48" s="2">
         <f t="shared" ref="H48:H49" si="42">$F21</f>
         <v>700</v>
       </c>
-      <c r="I48" s="9">
+      <c r="I48" s="2">
         <f t="shared" ref="I48:I49" si="43">$F24</f>
         <v>1500</v>
       </c>
-      <c r="J48" s="9">
+      <c r="J48" s="2">
         <f t="shared" ref="J48:J49" si="44">$F27</f>
         <v>2500</v>
       </c>
-      <c r="K48" s="9">
+      <c r="K48" s="2">
         <f t="shared" ref="K48:K49" si="45">$F30</f>
         <v>1750</v>
       </c>
-      <c r="L48" s="9">
+      <c r="L48" s="2">
         <f t="shared" ref="L48:L49" si="46">$F33</f>
         <v>3750</v>
       </c>
@@ -11962,47 +11899,47 @@
       <c r="A49" t="s">
         <v>98</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="2">
         <f t="shared" si="36"/>
         <v>300</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="2">
         <f t="shared" si="37"/>
         <v>1110</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="2">
         <f t="shared" si="38"/>
         <v>960</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="2">
         <f t="shared" si="39"/>
         <v>672</v>
       </c>
-      <c r="F49" s="98">
+      <c r="F49" s="80">
         <f t="shared" si="40"/>
         <v>1440</v>
       </c>
-      <c r="G49" s="107">
+      <c r="G49" s="88">
         <f t="shared" si="41"/>
         <v>2400</v>
       </c>
-      <c r="H49" s="9">
+      <c r="H49" s="2">
         <f t="shared" si="42"/>
         <v>1680</v>
       </c>
-      <c r="I49" s="9">
+      <c r="I49" s="2">
         <f t="shared" si="43"/>
         <v>3600</v>
       </c>
-      <c r="J49" s="9">
+      <c r="J49" s="2">
         <f t="shared" si="44"/>
         <v>6000</v>
       </c>
-      <c r="K49" s="9">
+      <c r="K49" s="2">
         <f t="shared" si="45"/>
         <v>4200</v>
       </c>
-      <c r="L49" s="9">
+      <c r="L49" s="2">
         <f t="shared" si="46"/>
         <v>9000</v>
       </c>
@@ -12020,7 +11957,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12031,1082 +11968,1082 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="I1" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="J1" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="61" t="s">
+      <c r="K1" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="L1" s="62" t="s">
+      <c r="L1" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="M1" s="63" t="s">
+      <c r="M1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="63" t="s">
+      <c r="N1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="63" t="s">
+      <c r="O1" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="P1" s="63" t="s">
+      <c r="P1" s="57" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="65">
+      <c r="B2" s="59">
         <v>15</v>
       </c>
-      <c r="C2" s="65">
+      <c r="C2" s="59">
         <v>5</v>
       </c>
-      <c r="D2" s="65">
+      <c r="D2" s="59">
         <v>0</v>
       </c>
-      <c r="E2" s="66">
+      <c r="E2" s="59">
         <v>0</v>
       </c>
-      <c r="F2" s="65">
+      <c r="F2" s="59">
         <v>0</v>
       </c>
-      <c r="G2" s="65">
+      <c r="G2" s="59">
         <v>50</v>
       </c>
-      <c r="H2" s="65">
+      <c r="H2" s="59">
         <v>0.5</v>
       </c>
-      <c r="I2" s="65">
+      <c r="I2" s="59">
         <f t="shared" ref="I2:I13" si="0">(G2+H2*30)/B2</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="J2" s="65">
+      <c r="J2" s="59">
         <f t="shared" ref="J2:J13" si="1">(C2*$M$2+D2*$N$2+E2*$O$2+F2*$P$2)/G2</f>
         <v>0.4</v>
       </c>
-      <c r="K2" s="65">
+      <c r="K2" s="59">
         <f t="shared" ref="K2:K13" si="2">(G2+H2*100)/(C2*$M$2+D2*$N$2+E2*$O$2+F2*$P$2)</f>
         <v>5</v>
       </c>
-      <c r="L2" s="67">
+      <c r="L2" s="60">
         <f t="shared" ref="L2:L13" si="3">(C2*$M$2+D2*$N$2+E2*$O$2+F2*$P$2)/(G2+H2*30)</f>
         <v>0.30769230769230771</v>
       </c>
-      <c r="M2" s="68">
+      <c r="M2" s="59">
         <v>4</v>
       </c>
-      <c r="N2" s="68">
+      <c r="N2" s="59">
         <v>200</v>
       </c>
-      <c r="O2" s="68">
+      <c r="O2" s="59">
         <v>20</v>
       </c>
-      <c r="P2" s="68">
+      <c r="P2" s="59">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="65">
+      <c r="B3" s="59">
         <v>30</v>
       </c>
-      <c r="C3" s="65">
+      <c r="C3" s="59">
         <v>10</v>
       </c>
-      <c r="D3" s="65">
+      <c r="D3" s="59">
         <v>0</v>
       </c>
-      <c r="E3" s="66">
+      <c r="E3" s="59">
         <v>0</v>
       </c>
-      <c r="F3" s="65">
+      <c r="F3" s="59">
         <v>0</v>
       </c>
-      <c r="G3" s="65">
+      <c r="G3" s="59">
         <v>125</v>
       </c>
-      <c r="H3" s="65">
+      <c r="H3" s="59">
         <v>1.25</v>
       </c>
-      <c r="I3" s="65">
+      <c r="I3" s="59">
         <f t="shared" si="0"/>
         <v>5.416666666666667</v>
       </c>
-      <c r="J3" s="65">
+      <c r="J3" s="59">
         <f t="shared" si="1"/>
         <v>0.32</v>
       </c>
-      <c r="K3" s="65">
+      <c r="K3" s="59">
         <f t="shared" si="2"/>
         <v>6.25</v>
       </c>
-      <c r="L3" s="67">
+      <c r="L3" s="60">
         <f t="shared" si="3"/>
         <v>0.24615384615384617</v>
       </c>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68" t="s">
+      <c r="M3" s="59"/>
+      <c r="N3" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="O3" s="68" t="s">
+      <c r="O3" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="P3" s="68" t="s">
+      <c r="P3" s="59" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="65">
+      <c r="B4" s="59">
         <v>60</v>
       </c>
-      <c r="C4" s="65">
+      <c r="C4" s="59">
         <v>20</v>
       </c>
-      <c r="D4" s="65">
+      <c r="D4" s="59">
         <v>0</v>
       </c>
-      <c r="E4" s="66">
+      <c r="E4" s="59">
         <v>0</v>
       </c>
-      <c r="F4" s="65">
+      <c r="F4" s="59">
         <v>0</v>
       </c>
-      <c r="G4" s="65">
+      <c r="G4" s="59">
         <v>300</v>
       </c>
-      <c r="H4" s="65">
+      <c r="H4" s="59">
         <v>3</v>
       </c>
-      <c r="I4" s="65">
+      <c r="I4" s="59">
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="J4" s="65">
+      <c r="J4" s="59">
         <f t="shared" si="1"/>
         <v>0.26666666666666666</v>
       </c>
-      <c r="K4" s="65">
+      <c r="K4" s="59">
         <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
-      <c r="L4" s="67">
+      <c r="L4" s="60">
         <f t="shared" si="3"/>
         <v>0.20512820512820512</v>
       </c>
-      <c r="M4" s="68" t="s">
+      <c r="M4" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="N4" s="68">
+      <c r="N4" s="59">
         <v>2</v>
       </c>
-      <c r="O4" s="68">
+      <c r="O4" s="59">
         <v>2</v>
       </c>
-      <c r="P4" s="68">
+      <c r="P4" s="59">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="70">
+      <c r="B5" s="62">
         <v>75</v>
       </c>
-      <c r="C5" s="71">
+      <c r="C5" s="63">
         <v>21</v>
       </c>
-      <c r="D5" s="72">
+      <c r="D5" s="63">
         <v>0</v>
       </c>
-      <c r="E5" s="71">
+      <c r="E5" s="63">
         <v>0.111</v>
       </c>
-      <c r="F5" s="72">
+      <c r="F5" s="63">
         <v>0</v>
       </c>
-      <c r="G5" s="71">
+      <c r="G5" s="63">
         <v>240</v>
       </c>
-      <c r="H5" s="71">
+      <c r="H5" s="63">
         <v>2</v>
       </c>
-      <c r="I5" s="72">
+      <c r="I5" s="63">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J5" s="72">
+      <c r="J5" s="63">
         <f t="shared" si="1"/>
         <v>0.35925000000000001</v>
       </c>
-      <c r="K5" s="72">
+      <c r="K5" s="63">
         <f t="shared" si="2"/>
         <v>5.1032243099048946</v>
       </c>
-      <c r="L5" s="73">
+      <c r="L5" s="64">
         <f t="shared" si="3"/>
         <v>0.28739999999999999</v>
       </c>
-      <c r="P5" s="68"/>
+      <c r="P5" s="59"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="75">
+      <c r="B6" s="65">
         <v>150</v>
       </c>
-      <c r="C6" s="66">
+      <c r="C6" s="59">
         <v>38</v>
       </c>
-      <c r="D6" s="65">
+      <c r="D6" s="59">
         <v>0</v>
       </c>
-      <c r="E6" s="66">
+      <c r="E6" s="59">
         <v>0.222</v>
       </c>
-      <c r="F6" s="65">
+      <c r="F6" s="59">
         <v>0</v>
       </c>
-      <c r="G6" s="66">
+      <c r="G6" s="59">
         <v>600</v>
       </c>
-      <c r="H6" s="66">
+      <c r="H6" s="59">
         <v>5</v>
       </c>
-      <c r="I6" s="65">
+      <c r="I6" s="59">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J6" s="65">
+      <c r="J6" s="59">
         <f t="shared" si="1"/>
         <v>0.26073333333333332</v>
       </c>
-      <c r="K6" s="65">
+      <c r="K6" s="59">
         <f t="shared" si="2"/>
         <v>7.0314497570953725</v>
       </c>
-      <c r="L6" s="67">
+      <c r="L6" s="60">
         <f t="shared" si="3"/>
         <v>0.20858666666666667</v>
       </c>
-      <c r="P6" s="68"/>
+      <c r="P6" s="59"/>
     </row>
     <row r="7" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="75">
+      <c r="B7" s="65">
         <v>300</v>
       </c>
-      <c r="C7" s="66">
+      <c r="C7" s="59">
         <v>74</v>
       </c>
-      <c r="D7" s="65">
+      <c r="D7" s="59">
         <v>0</v>
       </c>
-      <c r="E7" s="66">
+      <c r="E7" s="59">
         <v>0.33300000000000002</v>
       </c>
-      <c r="F7" s="65">
+      <c r="F7" s="59">
         <v>0</v>
       </c>
-      <c r="G7" s="66">
+      <c r="G7" s="59">
         <v>1440</v>
       </c>
-      <c r="H7" s="66">
+      <c r="H7" s="59">
         <v>12</v>
       </c>
-      <c r="I7" s="65">
+      <c r="I7" s="59">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J7" s="65">
+      <c r="J7" s="59">
         <f t="shared" si="1"/>
         <v>0.21018055555555556</v>
       </c>
-      <c r="K7" s="65">
+      <c r="K7" s="59">
         <f t="shared" si="2"/>
         <v>8.7226590894072551</v>
       </c>
-      <c r="L7" s="67">
+      <c r="L7" s="60">
         <f t="shared" si="3"/>
         <v>0.16814444444444446</v>
       </c>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="B8" s="70">
+      <c r="B8" s="62">
         <v>15</v>
       </c>
-      <c r="C8" s="72">
+      <c r="C8" s="63">
         <v>0</v>
       </c>
-      <c r="D8" s="71">
+      <c r="D8" s="63">
         <v>4</v>
       </c>
-      <c r="E8" s="71">
+      <c r="E8" s="63">
         <v>0</v>
       </c>
-      <c r="F8" s="71">
+      <c r="F8" s="63">
         <v>0.1</v>
       </c>
-      <c r="G8" s="71">
+      <c r="G8" s="63">
         <v>400</v>
       </c>
-      <c r="H8" s="71">
+      <c r="H8" s="63">
         <v>10</v>
       </c>
-      <c r="I8" s="72">
+      <c r="I8" s="63">
         <f t="shared" si="0"/>
         <v>46.666666666666664</v>
       </c>
-      <c r="J8" s="72">
+      <c r="J8" s="63">
         <f t="shared" si="1"/>
         <v>2.0249999999999999</v>
       </c>
-      <c r="K8" s="72">
+      <c r="K8" s="63">
         <f t="shared" si="2"/>
         <v>1.728395061728395</v>
       </c>
-      <c r="L8" s="73">
+      <c r="L8" s="64">
         <f t="shared" si="3"/>
         <v>1.1571428571428573</v>
       </c>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="75">
+      <c r="B9" s="65">
         <v>30</v>
       </c>
-      <c r="C9" s="66">
+      <c r="C9" s="59">
         <f t="shared" ref="C9:E9" si="4">C8*2</f>
         <v>0</v>
       </c>
-      <c r="D9" s="66">
+      <c r="D9" s="59">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="E9" s="66">
+      <c r="E9" s="59">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F9" s="66">
+      <c r="F9" s="59">
         <f>F8*2</f>
         <v>0.2</v>
       </c>
-      <c r="G9" s="66">
+      <c r="G9" s="59">
         <f>G8*2.5</f>
         <v>1000</v>
       </c>
-      <c r="H9" s="66">
+      <c r="H9" s="59">
         <f>H8*2.5</f>
         <v>25</v>
       </c>
-      <c r="I9" s="65">
+      <c r="I9" s="59">
         <f t="shared" si="0"/>
         <v>58.333333333333336</v>
       </c>
-      <c r="J9" s="65">
+      <c r="J9" s="59">
         <f t="shared" si="1"/>
         <v>1.62</v>
       </c>
-      <c r="K9" s="65">
+      <c r="K9" s="59">
         <f t="shared" si="2"/>
         <v>2.1604938271604937</v>
       </c>
-      <c r="L9" s="67">
+      <c r="L9" s="60">
         <f t="shared" si="3"/>
         <v>0.92571428571428571</v>
       </c>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
     </row>
     <row r="10" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="B10" s="77">
+      <c r="B10" s="67">
         <v>60</v>
       </c>
-      <c r="C10" s="78">
+      <c r="C10" s="68">
         <f t="shared" ref="C10:E10" si="5">C8*3</f>
         <v>0</v>
       </c>
-      <c r="D10" s="78">
+      <c r="D10" s="68">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="E10" s="78">
+      <c r="E10" s="68">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F10" s="78">
+      <c r="F10" s="68">
         <f>F8*3</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="G10" s="78">
+      <c r="G10" s="68">
         <f>G8*6</f>
         <v>2400</v>
       </c>
-      <c r="H10" s="78">
+      <c r="H10" s="68">
         <f>H8*6</f>
         <v>60</v>
       </c>
-      <c r="I10" s="79">
+      <c r="I10" s="68">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="J10" s="79">
+      <c r="J10" s="68">
         <f t="shared" si="1"/>
         <v>1.0125</v>
       </c>
-      <c r="K10" s="79">
+      <c r="K10" s="68">
         <f t="shared" si="2"/>
         <v>3.4567901234567899</v>
       </c>
-      <c r="L10" s="80">
+      <c r="L10" s="69">
         <f t="shared" si="3"/>
         <v>0.57857142857142863</v>
       </c>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="65">
         <f t="shared" ref="B11:B16" si="6">B8*$N$4</f>
         <v>30</v>
       </c>
-      <c r="C11" s="65">
+      <c r="C11" s="59">
         <f t="shared" ref="C11:F13" si="7">C8*$O$4</f>
         <v>0</v>
       </c>
-      <c r="D11" s="65">
+      <c r="D11" s="59">
         <f>D8*$O$4</f>
         <v>8</v>
       </c>
-      <c r="E11" s="65">
+      <c r="E11" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F11" s="65">
+      <c r="F11" s="59">
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
-      <c r="G11" s="66">
+      <c r="G11" s="59">
         <f>G8*$P$4</f>
         <v>800</v>
       </c>
-      <c r="H11" s="66">
+      <c r="H11" s="59">
         <f>H8*$P$4</f>
         <v>20</v>
       </c>
-      <c r="I11" s="65">
+      <c r="I11" s="59">
         <f t="shared" si="0"/>
         <v>46.666666666666664</v>
       </c>
-      <c r="J11" s="65">
+      <c r="J11" s="59">
         <f t="shared" si="1"/>
         <v>2.0249999999999999</v>
       </c>
-      <c r="K11" s="65">
+      <c r="K11" s="59">
         <f t="shared" si="2"/>
         <v>1.728395061728395</v>
       </c>
-      <c r="L11" s="67">
+      <c r="L11" s="60">
         <f t="shared" si="3"/>
         <v>1.1571428571428573</v>
       </c>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="B12" s="75">
+      <c r="B12" s="65">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="C12" s="65">
+      <c r="C12" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D12" s="65">
+      <c r="D12" s="59">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="E12" s="65">
+      <c r="E12" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F12" s="65">
+      <c r="F12" s="59">
         <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
-      <c r="G12" s="66">
+      <c r="G12" s="59">
         <f>G9*$P$4</f>
         <v>2000</v>
       </c>
-      <c r="H12" s="66">
+      <c r="H12" s="59">
         <f t="shared" ref="H12:H16" si="8">H9*$P$4</f>
         <v>50</v>
       </c>
-      <c r="I12" s="65">
+      <c r="I12" s="59">
         <f t="shared" si="0"/>
         <v>58.333333333333336</v>
       </c>
-      <c r="J12" s="65">
+      <c r="J12" s="59">
         <f t="shared" si="1"/>
         <v>1.62</v>
       </c>
-      <c r="K12" s="65">
+      <c r="K12" s="59">
         <f t="shared" si="2"/>
         <v>2.1604938271604937</v>
       </c>
-      <c r="L12" s="67">
+      <c r="L12" s="60">
         <f t="shared" si="3"/>
         <v>0.92571428571428571</v>
       </c>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
     </row>
     <row r="13" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="67" t="s">
         <v>131</v>
       </c>
-      <c r="B13" s="77">
+      <c r="B13" s="67">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
-      <c r="C13" s="79">
+      <c r="C13" s="68">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D13" s="79">
+      <c r="D13" s="68">
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="E13" s="79">
+      <c r="E13" s="68">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F13" s="79">
+      <c r="F13" s="68">
         <f t="shared" si="7"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="G13" s="78">
+      <c r="G13" s="68">
         <f>G10*$P$4</f>
         <v>4800</v>
       </c>
-      <c r="H13" s="78">
+      <c r="H13" s="68">
         <f t="shared" si="8"/>
         <v>120</v>
       </c>
-      <c r="I13" s="79">
+      <c r="I13" s="68">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="J13" s="79">
+      <c r="J13" s="68">
         <f t="shared" si="1"/>
         <v>1.0125</v>
       </c>
-      <c r="K13" s="79">
+      <c r="K13" s="68">
         <f t="shared" si="2"/>
         <v>3.4567901234567899</v>
       </c>
-      <c r="L13" s="80">
+      <c r="L13" s="69">
         <f t="shared" si="3"/>
         <v>0.57857142857142863</v>
       </c>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="75">
+      <c r="B14" s="65">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="C14" s="65">
+      <c r="C14" s="59">
         <f t="shared" ref="C14" si="9">C11*$O$4</f>
         <v>0</v>
       </c>
-      <c r="D14" s="65">
+      <c r="D14" s="59">
         <f>D11*$O$4</f>
         <v>16</v>
       </c>
-      <c r="E14" s="65">
+      <c r="E14" s="59">
         <f t="shared" ref="E14:F14" si="10">E11*$O$4</f>
         <v>0</v>
       </c>
-      <c r="F14" s="65">
+      <c r="F14" s="59">
         <f t="shared" si="10"/>
         <v>0.4</v>
       </c>
-      <c r="G14" s="66">
+      <c r="G14" s="59">
         <f>G11*$P$4</f>
         <v>1600</v>
       </c>
-      <c r="H14" s="66">
+      <c r="H14" s="59">
         <f>H11*$P$4</f>
         <v>40</v>
       </c>
-      <c r="I14" s="65">
+      <c r="I14" s="59">
         <f t="shared" ref="I14:I16" si="11">(G14+H14*30)/B14</f>
         <v>46.666666666666664</v>
       </c>
-      <c r="J14" s="65">
+      <c r="J14" s="59">
         <f t="shared" ref="J14:J16" si="12">(C14*$M$2+D14*$N$2+E14*$O$2+F14*$P$2)/G14</f>
         <v>2.0249999999999999</v>
       </c>
-      <c r="K14" s="65">
+      <c r="K14" s="59">
         <f t="shared" ref="K14:K16" si="13">(G14+H14*100)/(C14*$M$2+D14*$N$2+E14*$O$2+F14*$P$2)</f>
         <v>1.728395061728395</v>
       </c>
-      <c r="L14" s="67">
+      <c r="L14" s="60">
         <f t="shared" ref="L14:L16" si="14">(C14*$M$2+D14*$N$2+E14*$O$2+F14*$P$2)/(G14+H14*30)</f>
         <v>1.1571428571428573</v>
       </c>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="65">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
-      <c r="C15" s="65">
+      <c r="C15" s="59">
         <f t="shared" ref="C15:F15" si="15">C12*$O$4</f>
         <v>0</v>
       </c>
-      <c r="D15" s="65">
+      <c r="D15" s="59">
         <f t="shared" si="15"/>
         <v>32</v>
       </c>
-      <c r="E15" s="65">
+      <c r="E15" s="59">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F15" s="65">
+      <c r="F15" s="59">
         <f t="shared" si="15"/>
         <v>0.8</v>
       </c>
-      <c r="G15" s="66">
+      <c r="G15" s="59">
         <f>G12*$P$4</f>
         <v>4000</v>
       </c>
-      <c r="H15" s="66">
+      <c r="H15" s="59">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="I15" s="65">
+      <c r="I15" s="59">
         <f t="shared" si="11"/>
         <v>58.333333333333336</v>
       </c>
-      <c r="J15" s="65">
+      <c r="J15" s="59">
         <f t="shared" si="12"/>
         <v>1.62</v>
       </c>
-      <c r="K15" s="65">
+      <c r="K15" s="59">
         <f t="shared" si="13"/>
         <v>2.1604938271604937</v>
       </c>
-      <c r="L15" s="67">
+      <c r="L15" s="60">
         <f t="shared" si="14"/>
         <v>0.92571428571428571</v>
       </c>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
     </row>
     <row r="16" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="85" t="s">
+      <c r="A16" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="77">
+      <c r="B16" s="67">
         <f t="shared" si="6"/>
         <v>240</v>
       </c>
-      <c r="C16" s="79">
+      <c r="C16" s="68">
         <f t="shared" ref="C16:F16" si="16">C13*$O$4</f>
         <v>0</v>
       </c>
-      <c r="D16" s="79">
+      <c r="D16" s="68">
         <f t="shared" si="16"/>
         <v>48</v>
       </c>
-      <c r="E16" s="79">
+      <c r="E16" s="68">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F16" s="79">
+      <c r="F16" s="68">
         <f t="shared" si="16"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="G16" s="78">
+      <c r="G16" s="68">
         <f>G13*$P$4</f>
         <v>9600</v>
       </c>
-      <c r="H16" s="78">
+      <c r="H16" s="68">
         <f t="shared" si="8"/>
         <v>240</v>
       </c>
-      <c r="I16" s="79">
+      <c r="I16" s="68">
         <f t="shared" si="11"/>
         <v>70</v>
       </c>
-      <c r="J16" s="79">
+      <c r="J16" s="68">
         <f t="shared" si="12"/>
         <v>1.0125</v>
       </c>
-      <c r="K16" s="79">
+      <c r="K16" s="68">
         <f t="shared" si="13"/>
         <v>3.4567901234567899</v>
       </c>
-      <c r="L16" s="80">
+      <c r="L16" s="69">
         <f t="shared" si="14"/>
         <v>0.57857142857142863</v>
       </c>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
     </row>
     <row r="18" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
     </row>
     <row r="19" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="D19" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="55" t="s">
+      <c r="E19" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="82" t="s">
+      <c r="F19" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="87">
+      <c r="C20" s="61">
         <f>$L2</f>
         <v>0.30769230769230771</v>
       </c>
-      <c r="D20" s="87">
+      <c r="D20" s="61">
         <f>$L5</f>
         <v>0.28739999999999999</v>
       </c>
-      <c r="E20" s="87">
+      <c r="E20" s="61">
         <f>$L8</f>
         <v>1.1571428571428573</v>
       </c>
-      <c r="F20" s="73">
+      <c r="F20" s="64">
         <f>$L11</f>
         <v>1.1571428571428573</v>
       </c>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="64">
+      <c r="C21" s="58">
         <f>$L3</f>
         <v>0.24615384615384617</v>
       </c>
-      <c r="D21" s="64">
+      <c r="D21" s="58">
         <f t="shared" ref="D21:D22" si="17">$L6</f>
         <v>0.20858666666666667</v>
       </c>
-      <c r="E21" s="64">
+      <c r="E21" s="58">
         <f t="shared" ref="E21:E22" si="18">$L9</f>
         <v>0.92571428571428571</v>
       </c>
-      <c r="F21" s="67">
+      <c r="F21" s="60">
         <f t="shared" ref="F21:F22" si="19">$L12</f>
         <v>0.92571428571428571</v>
       </c>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
     </row>
     <row r="22" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="81">
+      <c r="C22" s="66">
         <f>$L4</f>
         <v>0.20512820512820512</v>
       </c>
-      <c r="D22" s="81">
+      <c r="D22" s="66">
         <f t="shared" si="17"/>
         <v>0.16814444444444446</v>
       </c>
-      <c r="E22" s="81">
+      <c r="E22" s="66">
         <f t="shared" si="18"/>
         <v>0.57857142857142863</v>
       </c>
-      <c r="F22" s="80">
+      <c r="F22" s="69">
         <f t="shared" si="19"/>
         <v>0.57857142857142863</v>
       </c>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
     </row>
     <row r="24" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
     </row>
     <row r="25" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="55" t="s">
+      <c r="D25" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="55" t="s">
+      <c r="E25" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="82" t="s">
+      <c r="F25" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B26" s="83" t="s">
+      <c r="B26" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="87">
+      <c r="C26" s="61">
         <f>$G2</f>
         <v>50</v>
       </c>
-      <c r="D26" s="87">
+      <c r="D26" s="61">
         <f>$G5</f>
         <v>240</v>
       </c>
-      <c r="E26" s="87">
+      <c r="E26" s="61">
         <f>$G8</f>
         <v>400</v>
       </c>
-      <c r="F26" s="73">
+      <c r="F26" s="64">
         <f>$G11</f>
         <v>800</v>
       </c>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="64">
+      <c r="C27" s="58">
         <f>$G3</f>
         <v>125</v>
       </c>
-      <c r="D27" s="64">
+      <c r="D27" s="58">
         <f>$G6</f>
         <v>600</v>
       </c>
-      <c r="E27" s="64">
+      <c r="E27" s="58">
         <f>$G9</f>
         <v>1000</v>
       </c>
-      <c r="F27" s="67">
+      <c r="F27" s="60">
         <f>$G12</f>
         <v>2000</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="81">
+      <c r="C28" s="66">
         <f>$G4</f>
         <v>300</v>
       </c>
-      <c r="D28" s="81">
+      <c r="D28" s="66">
         <f>$G7</f>
         <v>1440</v>
       </c>
-      <c r="E28" s="81">
+      <c r="E28" s="66">
         <f>$G10</f>
         <v>2400</v>
       </c>
-      <c r="F28" s="80">
+      <c r="F28" s="69">
         <f>$G13</f>
         <v>4800</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="31" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="83" t="s">
+      <c r="B31" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="D31" s="55" t="s">
+      <c r="D31" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="55" t="s">
+      <c r="E31" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="82" t="s">
+      <c r="F31" s="70" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B32" s="83" t="s">
+      <c r="B32" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="86">
+      <c r="C32" s="62">
         <f>$K2</f>
         <v>5</v>
       </c>
-      <c r="D32" s="72">
+      <c r="D32" s="63">
         <f>$K5</f>
         <v>5.1032243099048946</v>
       </c>
-      <c r="E32" s="72">
+      <c r="E32" s="63">
         <f>$K8</f>
         <v>1.728395061728395</v>
       </c>
-      <c r="F32" s="73">
+      <c r="F32" s="64">
         <f>$K11</f>
         <v>1.728395061728395</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="84">
+      <c r="C33" s="65">
         <f t="shared" ref="C33:C34" si="20">$K3</f>
         <v>6.25</v>
       </c>
-      <c r="D33" s="65">
+      <c r="D33" s="59">
         <f t="shared" ref="D33:D34" si="21">$K6</f>
         <v>7.0314497570953725</v>
       </c>
-      <c r="E33" s="65">
+      <c r="E33" s="59">
         <f t="shared" ref="E33:E34" si="22">$K9</f>
         <v>2.1604938271604937</v>
       </c>
-      <c r="F33" s="67">
+      <c r="F33" s="60">
         <f t="shared" ref="F33:F34" si="23">$K12</f>
         <v>2.1604938271604937</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="85">
+      <c r="C34" s="67">
         <f t="shared" si="20"/>
         <v>7.5</v>
       </c>
-      <c r="D34" s="79">
+      <c r="D34" s="68">
         <f t="shared" si="21"/>
         <v>8.7226590894072551</v>
       </c>
-      <c r="E34" s="79">
+      <c r="E34" s="68">
         <f t="shared" si="22"/>
         <v>3.4567901234567899</v>
       </c>
-      <c r="F34" s="80">
+      <c r="F34" s="69">
         <f t="shared" si="23"/>
         <v>3.4567901234567899</v>
       </c>
@@ -13124,877 +13061,877 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="15" width="16" style="22" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="22"/>
+    <col min="1" max="15" width="16" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="19" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:15" s="17" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="10">
         <v>-25</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="10">
         <v>60</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="10">
         <v>120</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="10">
         <v>1</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="10">
         <v>2</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="10">
         <v>0.5</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="10">
         <v>2</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="10">
         <v>0.5</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="10">
         <v>2</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="10">
         <v>18</v>
       </c>
-      <c r="L2" s="12">
+      <c r="L2" s="10">
         <v>30</v>
       </c>
-      <c r="M2" s="17">
+      <c r="M2" s="15">
         <v>60</v>
       </c>
-      <c r="N2" s="12">
+      <c r="N2" s="10">
         <v>0.96</v>
       </c>
-      <c r="O2" s="18">
+      <c r="O2" s="16">
         <v>0.6</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="10">
         <v>-50</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="10">
         <v>150</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="10">
         <v>300</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="10">
         <v>1</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="10">
         <v>2</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="10">
         <v>0.5</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="10">
         <v>2</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="10">
         <v>0.5</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="10">
         <v>2</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="10">
         <v>18</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="10">
         <v>30</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="10">
         <v>90</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="10">
         <v>0.96</v>
       </c>
-      <c r="O3" s="14">
+      <c r="O3" s="12">
         <v>0.4</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="13">
         <v>-100</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="13">
         <v>200</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="13">
         <v>750</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="13">
         <v>1</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="13">
         <v>2</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="13">
         <v>0.5</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="13">
         <v>2</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="13">
         <v>0.5</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="13">
         <v>2</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="13">
         <v>18</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="13">
         <v>30</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="13">
         <v>120</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N4" s="13">
         <v>0.96</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="14">
         <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="15">
         <v>-25</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="15">
         <v>20</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="15">
         <v>49</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="15">
         <v>2</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="15">
         <v>0.5</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="15">
         <v>0</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="15">
         <v>1.5</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="15">
         <v>0</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="15">
         <v>2</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="15">
         <v>18</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="15">
         <v>35</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="15">
         <v>60</v>
       </c>
-      <c r="N5" s="17">
+      <c r="N5" s="15">
         <v>0.9</v>
       </c>
-      <c r="O5" s="18">
+      <c r="O5" s="16">
         <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="10">
         <v>-50</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="10">
         <v>50</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <v>123</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="10">
         <v>2</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="10">
         <v>0.5</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="10">
         <v>0</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="10">
         <v>1.5</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="10">
         <v>0</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="10">
         <v>2</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="10">
         <v>18</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="10">
         <v>35</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="10">
         <v>90</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="10">
         <v>0.9</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O6" s="12">
         <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="13">
         <v>-100</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="13">
         <v>120</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="13">
         <v>294</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="13">
         <v>2</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="13">
         <v>0.5</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="13">
         <v>0</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="13">
         <v>1.5</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="13">
         <v>0</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="13">
         <v>2</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="13">
         <v>18</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="13">
         <v>35</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M7" s="13">
         <v>120</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N7" s="13">
         <v>0.9</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O7" s="14">
         <v>0.05</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="13">
         <v>-100</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="13">
         <v>15000</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="29">
         <v>20000</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="13">
         <v>1</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="13">
         <v>2</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="13">
         <v>1</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="13">
         <v>2</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="13">
         <v>1</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="13">
         <v>150</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="13">
         <v>300</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="13">
         <v>300</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8" s="13">
         <v>120</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8" s="13">
         <v>0.98</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="15">
         <v>-25</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="15">
         <v>180</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="15">
         <v>240</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="10">
         <v>1</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="10">
         <v>2</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="10">
         <v>0.5</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="10">
         <v>2</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="10">
         <v>0.5</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="10">
         <v>2</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="10">
         <v>18</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="10">
         <v>30</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="15">
         <v>60</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="10">
         <v>0.96</v>
       </c>
-      <c r="O9" s="18">
+      <c r="O9" s="16">
         <v>0.6</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="10">
         <v>-50</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="2">
         <v>360</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="2">
         <v>420</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="10">
         <v>1</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="10">
         <v>2</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="10">
         <v>0.5</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="10">
         <v>2</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="10">
         <v>0.5</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="10">
         <v>2</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="10">
         <v>18</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="10">
         <v>30</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="10">
         <v>90</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="10">
         <v>0.96</v>
       </c>
-      <c r="O10" s="14">
+      <c r="O10" s="12">
         <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="13">
         <v>-100</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="8">
         <v>400</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="8">
         <v>870</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="13">
         <v>1</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="13">
         <v>2</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="13">
         <v>0.5</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="13">
         <v>2</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="13">
         <v>0.5</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="13">
         <v>2</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="13">
         <v>18</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="13">
         <v>30</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M11" s="13">
         <v>120</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N11" s="13">
         <v>0.96</v>
       </c>
-      <c r="O11" s="16">
+      <c r="O11" s="14">
         <v>0.4</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="13" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="123" t="s">
+      <c r="A13" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="125" t="s">
+      <c r="B13" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="120" t="s">
+      <c r="C13" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="121"/>
-      <c r="K13" s="121"/>
-      <c r="L13" s="122"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="101"/>
     </row>
     <row r="14" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="124"/>
-      <c r="B14" s="126"/>
-      <c r="C14" s="38">
+      <c r="A14" s="103"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="32">
         <v>0</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="33">
         <v>0.1</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="34">
         <v>0.2</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="33">
         <v>0.3</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="34">
         <v>0.4</v>
       </c>
-      <c r="H14" s="39">
+      <c r="H14" s="33">
         <v>0.5</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="33">
         <v>0.6</v>
       </c>
-      <c r="J14" s="39">
+      <c r="J14" s="33">
         <v>0.7</v>
       </c>
-      <c r="K14" s="39">
+      <c r="K14" s="33">
         <v>0.8</v>
       </c>
-      <c r="L14" s="41">
+      <c r="L14" s="35">
         <v>0.9</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="20">
         <f t="shared" ref="B15:B20" si="0">(D2+C2)/2*N2/L2*10</f>
         <v>28.799999999999997</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="36">
         <f t="shared" ref="C15:C20" si="1">$N2-IF($C$14-$O2&gt;=0,$C$14-$O2,0)</f>
         <v>0.96</v>
       </c>
-      <c r="D15" s="43">
+      <c r="D15" s="37">
         <f t="shared" ref="D15:D20" si="2">$N2-IF($D$14-$O2&gt;=0,$D$14-$O2,0)</f>
         <v>0.96</v>
       </c>
-      <c r="E15" s="43">
+      <c r="E15" s="37">
         <f t="shared" ref="E15:E20" si="3">$N2-IF($E$14-$O2&gt;=0,$E$14-$O2,0)</f>
         <v>0.96</v>
       </c>
-      <c r="F15" s="43">
+      <c r="F15" s="37">
         <f t="shared" ref="F15:F20" si="4">$N2-IF($F$14-$O2&gt;=0,$F$14-$O2,0)</f>
         <v>0.96</v>
       </c>
-      <c r="G15" s="43">
+      <c r="G15" s="37">
         <f t="shared" ref="G15:G20" si="5">$N2-IF($G$14-$O2&gt;=0,$G$14-$O2,0)</f>
         <v>0.96</v>
       </c>
-      <c r="H15" s="43">
+      <c r="H15" s="37">
         <f t="shared" ref="H15:H20" si="6">$N2-IF($H$14-$O2&gt;=0,$H$14-$O2,0)</f>
         <v>0.96</v>
       </c>
-      <c r="I15" s="43">
+      <c r="I15" s="37">
         <f t="shared" ref="I15:I20" si="7">$N2-IF($I$14-$O2&gt;=0,$I$14-$O2,0)</f>
         <v>0.96</v>
       </c>
-      <c r="J15" s="43">
+      <c r="J15" s="37">
         <f t="shared" ref="J15:J20" si="8">$N2-IF($J$14-$O2&gt;=0,$J$14-$O2,0)</f>
         <v>0.86</v>
       </c>
-      <c r="K15" s="43">
+      <c r="K15" s="37">
         <f t="shared" ref="K15:K20" si="9">$N2-IF($K$14-$O2&gt;=0,$K$14-$O2,0)</f>
         <v>0.7599999999999999</v>
       </c>
-      <c r="L15" s="44">
+      <c r="L15" s="38">
         <f t="shared" ref="L15:L20" si="10">$N2-IF($L$14-$O2&gt;=0,$L$14-$O2,0)</f>
         <v>0.65999999999999992</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="21">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="36">
         <f t="shared" si="1"/>
         <v>0.96</v>
       </c>
-      <c r="D16" s="43">
+      <c r="D16" s="37">
         <f t="shared" si="2"/>
         <v>0.96</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="37">
         <f t="shared" si="3"/>
         <v>0.96</v>
       </c>
-      <c r="F16" s="43">
+      <c r="F16" s="37">
         <f t="shared" si="4"/>
         <v>0.96</v>
       </c>
-      <c r="G16" s="43">
+      <c r="G16" s="37">
         <f t="shared" si="5"/>
         <v>0.96</v>
       </c>
-      <c r="H16" s="43">
+      <c r="H16" s="37">
         <f t="shared" si="6"/>
         <v>0.86</v>
       </c>
-      <c r="I16" s="43">
+      <c r="I16" s="37">
         <f t="shared" si="7"/>
         <v>0.76</v>
       </c>
-      <c r="J16" s="43">
+      <c r="J16" s="37">
         <f t="shared" si="8"/>
         <v>0.66</v>
       </c>
-      <c r="K16" s="43">
+      <c r="K16" s="37">
         <f t="shared" si="9"/>
         <v>0.55999999999999994</v>
       </c>
-      <c r="L16" s="44">
+      <c r="L16" s="38">
         <f t="shared" si="10"/>
         <v>0.45999999999999996</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="22">
         <f t="shared" si="0"/>
         <v>152</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="36">
         <f t="shared" si="1"/>
         <v>0.96</v>
       </c>
-      <c r="D17" s="43">
+      <c r="D17" s="37">
         <f t="shared" si="2"/>
         <v>0.96</v>
       </c>
-      <c r="E17" s="43">
+      <c r="E17" s="37">
         <f t="shared" si="3"/>
         <v>0.96</v>
       </c>
-      <c r="F17" s="43">
+      <c r="F17" s="37">
         <f t="shared" si="4"/>
         <v>0.86</v>
       </c>
-      <c r="G17" s="43">
+      <c r="G17" s="37">
         <f t="shared" si="5"/>
         <v>0.76</v>
       </c>
-      <c r="H17" s="43">
+      <c r="H17" s="37">
         <f t="shared" si="6"/>
         <v>0.65999999999999992</v>
       </c>
-      <c r="I17" s="43">
+      <c r="I17" s="37">
         <f t="shared" si="7"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="J17" s="43">
+      <c r="J17" s="37">
         <f t="shared" si="8"/>
         <v>0.46</v>
       </c>
-      <c r="K17" s="43">
+      <c r="K17" s="37">
         <f t="shared" si="9"/>
         <v>0.35999999999999988</v>
       </c>
-      <c r="L17" s="44">
+      <c r="L17" s="38">
         <f t="shared" si="10"/>
         <v>0.26</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="21">
         <f t="shared" si="0"/>
         <v>8.8714285714285719</v>
       </c>
-      <c r="C18" s="48">
+      <c r="C18" s="42">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="D18" s="49">
+      <c r="D18" s="43">
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="E18" s="49">
+      <c r="E18" s="43">
         <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
-      <c r="F18" s="49">
+      <c r="F18" s="43">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G18" s="49">
+      <c r="G18" s="43">
         <f t="shared" si="5"/>
         <v>0.9</v>
       </c>
-      <c r="H18" s="49">
+      <c r="H18" s="43">
         <f t="shared" si="6"/>
         <v>0.9</v>
       </c>
-      <c r="I18" s="49">
+      <c r="I18" s="43">
         <f t="shared" si="7"/>
         <v>0.9</v>
       </c>
-      <c r="J18" s="49">
+      <c r="J18" s="43">
         <f t="shared" si="8"/>
         <v>0.8</v>
       </c>
-      <c r="K18" s="49">
+      <c r="K18" s="43">
         <f t="shared" si="9"/>
         <v>0.7</v>
       </c>
-      <c r="L18" s="50">
+      <c r="L18" s="44">
         <f t="shared" si="10"/>
         <v>0.6</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="21">
         <f t="shared" si="0"/>
         <v>22.242857142857147</v>
       </c>
-      <c r="C19" s="42">
+      <c r="C19" s="36">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="D19" s="43">
+      <c r="D19" s="37">
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="E19" s="43">
+      <c r="E19" s="37">
         <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
-      <c r="F19" s="43">
+      <c r="F19" s="37">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G19" s="43">
+      <c r="G19" s="37">
         <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
-      <c r="H19" s="43">
+      <c r="H19" s="37">
         <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
-      <c r="I19" s="43">
+      <c r="I19" s="37">
         <f t="shared" si="7"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="J19" s="43">
+      <c r="J19" s="37">
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-      <c r="K19" s="43">
+      <c r="K19" s="37">
         <f t="shared" si="9"/>
         <v>0.4</v>
       </c>
-      <c r="L19" s="44">
+      <c r="L19" s="38">
         <f t="shared" si="10"/>
         <v>0.29999999999999993</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="22">
         <f t="shared" si="0"/>
         <v>53.228571428571428</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C20" s="39">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="D20" s="46">
+      <c r="D20" s="40">
         <f t="shared" si="2"/>
         <v>0.85</v>
       </c>
-      <c r="E20" s="46">
+      <c r="E20" s="40">
         <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
-      <c r="F20" s="46">
+      <c r="F20" s="40">
         <f t="shared" si="4"/>
         <v>0.65</v>
       </c>
-      <c r="G20" s="46">
+      <c r="G20" s="40">
         <f t="shared" si="5"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="H20" s="46">
+      <c r="H20" s="40">
         <f t="shared" si="6"/>
         <v>0.45</v>
       </c>
-      <c r="I20" s="46">
+      <c r="I20" s="40">
         <f t="shared" si="7"/>
         <v>0.35000000000000009</v>
       </c>
-      <c r="J20" s="46">
+      <c r="J20" s="40">
         <f t="shared" si="8"/>
         <v>0.25000000000000011</v>
       </c>
-      <c r="K20" s="46">
+      <c r="K20" s="40">
         <f t="shared" si="9"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="L20" s="47">
+      <c r="L20" s="41">
         <f t="shared" si="10"/>
         <v>5.0000000000000044E-2</v>
       </c>
@@ -14014,9 +13951,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43120986-DD99-4476-9BFD-57A60D957B16}">
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -14026,615 +13963,612 @@
     <col min="2" max="21" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="19" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:21" s="17" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="O1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="110" t="s">
+      <c r="P1" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="88" t="s">
+      <c r="Q1" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="R1" s="88" t="s">
+      <c r="R1" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="S1" s="88" t="s">
+      <c r="S1" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="T1" s="88" t="s">
+      <c r="T1" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="U1" s="89" t="s">
+      <c r="U1" s="72" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="111">
+      <c r="B2" s="92">
         <v>-26</v>
       </c>
-      <c r="C2" s="112">
+      <c r="C2" s="93">
         <v>86</v>
       </c>
-      <c r="D2" s="112">
+      <c r="D2" s="93">
         <v>114</v>
       </c>
-      <c r="E2" s="112">
+      <c r="E2" s="93">
         <v>1.25</v>
       </c>
-      <c r="F2" s="112">
+      <c r="F2" s="93">
         <v>1</v>
       </c>
-      <c r="G2" s="112">
+      <c r="G2" s="93">
         <v>1</v>
       </c>
-      <c r="H2" s="112">
+      <c r="H2" s="93">
         <v>1</v>
       </c>
-      <c r="I2" s="112">
+      <c r="I2" s="93">
         <v>0</v>
       </c>
-      <c r="J2" s="112">
+      <c r="J2" s="93">
         <v>1</v>
       </c>
-      <c r="K2" s="112">
+      <c r="K2" s="93">
         <v>15</v>
       </c>
-      <c r="L2" s="112">
+      <c r="L2" s="93">
         <v>60</v>
       </c>
-      <c r="M2" s="112">
+      <c r="M2" s="93">
         <v>100</v>
       </c>
-      <c r="N2" s="112">
+      <c r="N2" s="93">
         <v>1</v>
       </c>
-      <c r="O2" s="112">
+      <c r="O2" s="93">
         <v>0.25</v>
       </c>
-      <c r="P2" s="113">
+      <c r="P2" s="94">
         <v>400</v>
       </c>
-      <c r="Q2" s="113">
+      <c r="Q2" s="94">
         <v>0.4</v>
       </c>
-      <c r="R2" s="114">
+      <c r="R2" s="50">
         <v>0</v>
       </c>
-      <c r="S2" s="114">
+      <c r="S2" s="50">
         <v>0</v>
       </c>
-      <c r="T2" s="113">
+      <c r="T2" s="94">
         <v>10</v>
       </c>
-      <c r="U2" s="115">
+      <c r="U2" s="70">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="11">
         <f>B2*1.2</f>
         <v>-31.2</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="10">
         <f>C2*4</f>
         <v>344</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="10">
         <f>D2*4</f>
         <v>456</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="10">
         <v>2</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="10">
         <v>1</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="10">
         <v>1.25</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="10">
         <v>1.5</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="10">
         <f t="shared" ref="I3:U3" si="0">I2*1.5</f>
         <v>0</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="10">
         <v>1</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="10">
         <v>15</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="10">
         <v>100</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="10">
         <v>100</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="10">
         <v>1</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O3" s="10">
         <v>0.4</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="10">
         <v>800</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="Q3" s="10">
         <v>0.3</v>
       </c>
-      <c r="R3" s="12">
+      <c r="R3" s="10">
         <v>5</v>
       </c>
-      <c r="S3" s="12">
+      <c r="S3" s="10">
         <v>5</v>
       </c>
-      <c r="T3" s="12">
+      <c r="T3" s="10">
         <v>20</v>
       </c>
-      <c r="U3" s="14">
+      <c r="U3" s="12">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="V3" s="21"/>
     </row>
-    <row r="4" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="11">
         <f>B3*1.2</f>
         <v>-37.44</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <f>C3*2</f>
         <v>688</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="10">
         <f t="shared" ref="D4:D5" si="1">D3*2</f>
         <v>912</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="10">
         <f>E3*1.2</f>
         <v>2.4</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="10">
         <v>1</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="10">
         <v>1.25</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="10">
         <f t="shared" ref="H4" si="2">H3*1.2</f>
         <v>1.7999999999999998</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="10">
         <f t="shared" ref="I4:I5" si="3">I3*1.5</f>
         <v>0</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="10">
         <v>1</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="10">
         <v>15</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="10">
         <v>60</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="10">
         <f>M3*1.2</f>
         <v>120</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="10">
         <v>1</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="10">
         <f>O3*1.5</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="10">
         <f t="shared" ref="P4" si="4">P3*1.5</f>
         <v>1200</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="10">
         <f t="shared" ref="Q4:Q5" si="5">Q3*1.5</f>
         <v>0.44999999999999996</v>
       </c>
-      <c r="R4" s="12">
+      <c r="R4" s="10">
         <f t="shared" ref="R4:R5" si="6">R3*1.5</f>
         <v>7.5</v>
       </c>
-      <c r="S4" s="12">
+      <c r="S4" s="10">
         <f t="shared" ref="S4:S5" si="7">S3*1.5</f>
         <v>7.5</v>
       </c>
-      <c r="T4" s="12">
+      <c r="T4" s="10">
         <f t="shared" ref="T4:T5" si="8">T3*1.5</f>
         <v>30</v>
       </c>
-      <c r="U4" s="14">
+      <c r="U4" s="12">
         <f t="shared" ref="U4:U5" si="9">U3*1.5</f>
         <v>225</v>
       </c>
-      <c r="V4" s="21"/>
     </row>
-    <row r="5" spans="1:22" s="22" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="109" t="s">
+    <row r="5" spans="1:21" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="109">
+      <c r="B5" s="90">
         <f>B4*1.2</f>
         <v>-44.927999999999997</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="13">
         <f>C4*2</f>
         <v>1376</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="13">
         <f t="shared" si="1"/>
         <v>1824</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="13">
         <v>3</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="13">
         <v>1</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="13">
         <f t="shared" ref="G5" si="10">G4*1.5</f>
         <v>1.875</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="13">
         <v>2</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="13">
         <v>1</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="13">
         <v>15</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="13">
         <v>40</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="13">
         <f>M4*1.2</f>
         <v>144</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="13">
         <v>1</v>
       </c>
-      <c r="O5" s="15">
+      <c r="O5" s="13">
         <v>0.8</v>
       </c>
-      <c r="P5" s="15">
+      <c r="P5" s="13">
         <v>1600</v>
       </c>
-      <c r="Q5" s="15">
+      <c r="Q5" s="13">
         <f t="shared" si="5"/>
         <v>0.67499999999999993</v>
       </c>
-      <c r="R5" s="15">
+      <c r="R5" s="13">
         <f t="shared" si="6"/>
         <v>11.25</v>
       </c>
-      <c r="S5" s="15">
+      <c r="S5" s="13">
         <f t="shared" si="7"/>
         <v>11.25</v>
       </c>
-      <c r="T5" s="15">
+      <c r="T5" s="13">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
-      <c r="U5" s="16">
+      <c r="U5" s="14">
         <f t="shared" si="9"/>
         <v>337.5</v>
       </c>
-      <c r="V5" s="21"/>
     </row>
-    <row r="7" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="123" t="s">
+    <row r="7" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="125" t="s">
+      <c r="B8" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="121" t="s">
+      <c r="C8" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="122"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="101"/>
     </row>
-    <row r="9" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="127"/>
-      <c r="B9" s="128"/>
-      <c r="C9" s="116">
+    <row r="9" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="106"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="95">
         <v>0</v>
       </c>
-      <c r="D9" s="116">
+      <c r="D9" s="95">
         <v>0.1</v>
       </c>
-      <c r="E9" s="117">
+      <c r="E9" s="96">
         <v>0.2</v>
       </c>
-      <c r="F9" s="116">
+      <c r="F9" s="95">
         <v>0.3</v>
       </c>
-      <c r="G9" s="117">
+      <c r="G9" s="96">
         <v>0.4</v>
       </c>
-      <c r="H9" s="116">
+      <c r="H9" s="95">
         <v>0.5</v>
       </c>
-      <c r="I9" s="116">
+      <c r="I9" s="95">
         <v>0.6</v>
       </c>
-      <c r="J9" s="116">
+      <c r="J9" s="95">
         <v>0.7</v>
       </c>
-      <c r="K9" s="116">
+      <c r="K9" s="95">
         <v>0.8</v>
       </c>
-      <c r="L9" s="118">
+      <c r="L9" s="97">
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A10" s="33" t="str">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A10" s="28" t="str">
         <f>A2</f>
         <v>マローダーミサイル</v>
       </c>
-      <c r="B10" s="119">
+      <c r="B10" s="98">
         <f>(D2+C2)/2*N2/L2*10</f>
         <v>16.666666666666668</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="43">
         <f>$N2-IF($C$9-$O2&gt;=0,$C$9-$O2,0)</f>
         <v>1</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="43">
         <f>$N2-IF($D$9-$O2&gt;=0,$D$9-$O2,0)</f>
         <v>1</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="43">
         <f>$N2-IF($E$9-$O2&gt;=0,$E$9-$O2,0)</f>
         <v>1</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="43">
         <f>$N2-IF($F$9-$O2&gt;=0,$F$9-$O2,0)</f>
         <v>0.95</v>
       </c>
-      <c r="G10" s="49">
+      <c r="G10" s="43">
         <f>$N2-IF($G$9-$O2&gt;=0,$G$9-$O2,0)</f>
         <v>0.85</v>
       </c>
-      <c r="H10" s="49">
+      <c r="H10" s="43">
         <f>$N2-IF($H$9-$O2&gt;=0,$H$9-$O2,0)</f>
         <v>0.75</v>
       </c>
-      <c r="I10" s="49">
+      <c r="I10" s="43">
         <f>$N2-IF($I$9-$O2&gt;=0,$I$9-$O2,0)</f>
         <v>0.65</v>
       </c>
-      <c r="J10" s="49">
+      <c r="J10" s="43">
         <f>$N2-IF($J$9-$O2&gt;=0,$J$9-$O2,0)</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="K10" s="49">
+      <c r="K10" s="43">
         <f>$N2-IF($K$9-$O2&gt;=0,$K$9-$O2,0)</f>
         <v>0.44999999999999996</v>
       </c>
-      <c r="L10" s="50">
+      <c r="L10" s="44">
         <f>$N2-IF($L$9-$O2&gt;=0,$L$9-$O2,0)</f>
         <v>0.35</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A11" s="31" t="str">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A11" s="26" t="str">
         <f t="shared" ref="A11:A13" si="11">A3</f>
         <v>試作ロンギヌスの槍</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="18">
         <f>(D3+C3)/2*N3/L3*10</f>
         <v>40</v>
       </c>
-      <c r="C11" s="43">
+      <c r="C11" s="37">
         <f t="shared" ref="C11:C13" si="12">$N3-IF($C$9-$O3&gt;=0,$C$9-$O3,0)</f>
         <v>1</v>
       </c>
-      <c r="D11" s="43">
+      <c r="D11" s="37">
         <f t="shared" ref="D11:D13" si="13">$N3-IF($D$9-$O3&gt;=0,$D$9-$O3,0)</f>
         <v>1</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="37">
         <f t="shared" ref="E11:E13" si="14">$N3-IF($E$9-$O3&gt;=0,$E$9-$O3,0)</f>
         <v>1</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="37">
         <f t="shared" ref="F11:F13" si="15">$N3-IF($F$9-$O3&gt;=0,$F$9-$O3,0)</f>
         <v>1</v>
       </c>
-      <c r="G11" s="43">
+      <c r="G11" s="37">
         <f t="shared" ref="G11:G13" si="16">$N3-IF($G$9-$O3&gt;=0,$G$9-$O3,0)</f>
         <v>1</v>
       </c>
-      <c r="H11" s="43">
+      <c r="H11" s="37">
         <f t="shared" ref="H11:H13" si="17">$N3-IF($H$9-$O3&gt;=0,$H$9-$O3,0)</f>
         <v>0.9</v>
       </c>
-      <c r="I11" s="43">
+      <c r="I11" s="37">
         <f t="shared" ref="I11:I13" si="18">$N3-IF($I$9-$O3&gt;=0,$I$9-$O3,0)</f>
         <v>0.8</v>
       </c>
-      <c r="J11" s="43">
+      <c r="J11" s="37">
         <f t="shared" ref="J11:J13" si="19">$N3-IF($J$9-$O3&gt;=0,$J$9-$O3,0)</f>
         <v>0.70000000000000007</v>
       </c>
-      <c r="K11" s="43">
+      <c r="K11" s="37">
         <f t="shared" ref="K11:K13" si="20">$N3-IF($K$9-$O3&gt;=0,$K$9-$O3,0)</f>
         <v>0.6</v>
       </c>
-      <c r="L11" s="44">
+      <c r="L11" s="38">
         <f>$N3-IF($L$9-$O3&gt;=0,$L$9-$O3,0)</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A12" s="31" t="str">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A12" s="26" t="str">
         <f t="shared" si="11"/>
         <v>ロンギヌスの槍</v>
       </c>
-      <c r="B12" s="20">
-        <f t="shared" ref="B12:B13" si="21">(D4+C4)/2*N4/L4*10</f>
+      <c r="B12" s="18">
+        <f t="shared" ref="B12" si="21">(D4+C4)/2*N4/L4*10</f>
         <v>133.33333333333334</v>
       </c>
-      <c r="C12" s="43">
+      <c r="C12" s="37">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="D12" s="43">
+      <c r="D12" s="37">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="37">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="F12" s="43">
+      <c r="F12" s="37">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="G12" s="43">
+      <c r="G12" s="37">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="H12" s="43">
+      <c r="H12" s="37">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="I12" s="43">
+      <c r="I12" s="37">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="J12" s="43">
+      <c r="J12" s="37">
         <f t="shared" si="19"/>
         <v>0.90000000000000013</v>
       </c>
-      <c r="K12" s="43">
+      <c r="K12" s="37">
         <f t="shared" si="20"/>
         <v>0.8</v>
       </c>
-      <c r="L12" s="44">
+      <c r="L12" s="38">
         <f>$N4-IF($L$9-$O4&gt;=0,$L$9-$O4,0)</f>
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="32" t="str">
+    <row r="13" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="27" t="str">
         <f t="shared" si="11"/>
         <v>ロンギヌスの槍α</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="19">
         <f>(D5+C5)/2*N5/L5*10</f>
         <v>400</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="40">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="40">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="40">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="40">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13" s="40">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="H13" s="46">
+      <c r="H13" s="40">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="I13" s="46">
+      <c r="I13" s="40">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="J13" s="46">
+      <c r="J13" s="40">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="K13" s="46">
+      <c r="K13" s="40">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="L13" s="47">
+      <c r="L13" s="41">
         <f>$N5-IF($L$9-$O5&gt;=0,$L$9-$O5,0)</f>
         <v>0.9</v>
       </c>
